--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Java-Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BFEFF3-6302-47EC-BE8E-B3F500763DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A51F0-8C44-4316-A4DE-F43A2A52369E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1113">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -27961,7 +27961,1075 @@
  - AVG: Calculates the average of numerical values.
  - MIN: Returns the smallest value.
  - MAX: Returns the largest value.
- =&gt; These functions are often combined with the GROUP BY clause to group data into sets before performing the aggregation.</t>
+ =&gt; These functions are often combined with the GROUP BY clause to group data into sets before performing the aggregation.
+Aggregation Functions and Set Semantics:
+ - COUNT(expression): Counts non-NULL values in a specific column.
+ - COUNT(*): Counts all rows, including rows with NULL values.
+ - Duplicates: COUNT considers duplicates, unless you specify DISTINCT.
+ - NULL Handling: When using COUNT(column), NULL values are ignored, whereas COUNT(*) includes rows with NULL values.
+ - SUM(expression): Adds up non-NULL values in a column.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - The GROUP BY clause is used to group rows into sets based on one or more columns, and then apply aggregate functions to each group. This is essential for performing set-based aggregations over subsets of the data.
+ - Grouping by NULL: NULL is treated as a distinct group in GROUP BY. Rows with NULL values in the grouping column will be grouped together.
+ - NULL Handling: Aggregate functions ignore NULL values, so a group with only NULL values will return NULL for aggregate results like SUM or AVG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+HAVING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+ - The HAVING clause in SQL is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter the results of an aggregated GROUP BY query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It allows you to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply conditions to groups of data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, rather than individual rows, using aggregate functions like COUNT, SUM, AVG, MIN, and MAX. Unlike the WHERE clause, which filters rows before aggregation, HAVING filters groups after the aggregation has been applied.
+ - The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause can't be used with aggregate functions because it filters individual rows before any aggregation is performed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. To </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">filter the results of aggregate functions, you must use the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVING</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This is particularly useful in scenarios where you want to filter out certain groups after grouping.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVING vs WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - WHERE: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filters rows before the grouping occurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can’t work with aggregate functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - HAVING: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filters groups after aggregation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It must be used when you want to</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> filter based on aggregate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values like sums, averages, or counts.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nested Queries, also known as subqueries, are queries embedded within another SQL query. These are useful for breaking down complex problems into simpler, more manageable parts. Subqueries can be placed in various parts of an SQL statement, such as the SELECT, FROM, WHERE, and HAVING clauses.
+ - Types of Nested Queries:
+  + Single-row Subqueries: Return one row with one column.
+  + Multi-row Subqueries: Return multiple rows with a single column.
+  + Multi-column Subqueries: Return one or more rows with multiple columns.
+  + Correlated Subqueries: Dependent on the outer query for their results.</t>
+  </si>
+  <si>
+    <t>DBMS Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Management Systems (DBMS) architectures define the framework and structure of how data is stored, managed, and accessed in a database. Different architectures have evolved based on system requirements, scale, and use cases, with primary architectures including centralized, client-server, and distributed systems. These architectures ensure that data management is efficient, scalable, and secure:
+ - Centralized Architecture
+ - Client-Server Architecture
+ - Distributed DBMS Architecture
+ - Three-Tier Architecture
+ - N-Tier Architecture
+ - Parallel DBMS Architecture
+ - Cloud-Based DBMS Architecture</t>
+  </si>
+  <si>
+    <r>
+      <t>Centralized Architecture: 
+ -  Refers to a setup where all database functionality (storage, processing, and management)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> resides(cư trú) on a single machine or server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Users or client machines interact with the system via terminals or remote connections, but the actual data resides on one centralized server.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Centralized Architecture:
+  + Single Location of Data: All data is stored in one location, typically on one central server.
+  + Monolithic System: The DBMS, along with its processing capabilities, resides entirely on a single machine.
+  + Direct Client Connection: Client machines connect directly to the central server to access data and perform queries.
+  + Tightly Controlled Access: Since all data resides on a single server, access to data can be tightly monitored and controlled.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Centralized DBMS Architecture:
+  + Central Database: This is the core of the architecture, where all data resides. The database includes tables, indexes, stored procedures, and other database objects.
+  + Central Server (DBMS Server): The server that runs the database management system (e.g., MySQL, Oracle). It handles query processing, data storage, transaction management, and concurrency control.
+  + Clients (Users): Users or client machines interact with the database through an interface (e.g., command-line, GUI, or web interface). They send SQL queries to the server, which processes them and returns the results. 
+  + Network (Optional): If the clients are not physically connected to the central server, they communicate over a network, typically using a client-server protocol like TCP/IP.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+  + Simple Data Management: All data is located in one place, simplifying management, maintenance, and backup processes. Since all users access the same data from one server, data consistency is guaranteed, and there is no need to worry about replication or synchronization across multiple databases.
+  + Tight Security and Access Control: Security policies are easier to implement since all access requests go through the centralized server, ensuring tight control over who accesses the data and how.  Simpler to monitor and log activities, providing detailed auditing and tracking of access.
+  + Cost-Efficiency for Small Systems: Ro need to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(đầu tư) in multiple servers or complex infrastructure. A single machine can handle all storage and processing. The networking infrastructure can be simpler and less expensive.
+  + Data backup strategies are more straightforward, as all data resides in one place. There is no need to coordinate backups across multiple machines or systems.
+  + Recovery plans are easier to implement as all critical data is stored on a single server.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+  + Scalability 
+  + Single Point of Failure
+  + Network Bottlenecks
+  + Performance Degradation with Large Data Volumes</t>
+    </r>
+  </si>
+  <si>
+    <t>Distributed DBMS Architecture:</t>
+  </si>
+  <si>
+    <t>Three-Tier Architecture:</t>
+  </si>
+  <si>
+    <t>N-Tier Architecture:</t>
+  </si>
+  <si>
+    <t>Parallel DBMS Architecture:</t>
+  </si>
+  <si>
+    <t>Cloud-Based DBMS Architecture:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client-Server Architecture:
+ - The client-server architecture in a Database Management System (DBMS) is a model where the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">database system is divided into two parts: the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This architecture is widely used to manage large amounts of data efficiently, with the server providing centralized data processing and the clients enabling distributed access.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Client-Server Architecture:
+  + Separation of Roles: The client focuses on the user interface and requesting data, while the server handles data processing, storage, and query execution.
+  + Distributed Access: Multiple clients can access the server simultaneously, allowing distributed systems to be built efficiently.
+  + Scalability: The system can scale horizontally by adding more clients or vertically by upgrading the server infrastructure.
+  + Network Dependency: Communication between client and server typically occurs over a network, using protocols such as TCP/IP.
+ - Components of Client-Server Architecture:
+  + Clients (Front-End): Clients may be applications, web browsers, or any other interfaces that connect to the server.
+  + Server (Back-End): Managing the database and handling all data storage, retrieval, and updates, processes queries, manages transactions, and ensures data integrity.
+  + Network: The connection between the client and the server typically runs over a network (LAN, WAN, or the Internet), using communication protocols like TCP/IP.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - Improved Data Security and Control: 
+  + Centralized Data Management: The database resides on the server, providing centralized control over data access, updates, and security.
+  + Access Control: It is easier to implement and monitor security policies, as all access is through the server, which can validate permissions for every client.
+  + Backup and Recovery: Centralized servers make it simpler to manage data backup and recovery processes.
+ - Scalability and Flexibility: 
+  + Easy to Scale: The architecture can scale horizontally by adding more clients without significantly increasing the complexity of the system.
+  + Server Upgrades: Upgrading server resources (e.g., more memory, faster processors) enhances system performance without changing client software.
+  + Distributed Clients: Clients can be geographically distributed, allowing users to access the system from various locations.
+ - Efficient Resource Management: 
+  + Shared Resources: Multiple clients share the server’s resources, making the system more efficient as server resources (e.g., CPU, memory) are used optimally.
+  + Concurrency Control: Servers manage concurrent client access, ensuring that multiple users can work simultaneously without conflicts.
+ - Separation of Concerns(các mối quan tâm, mục tiêu, mục đích, ý nghĩa):
+  + Clear Division: The client handles user interactions (UI/UX), while the server focuses on data management, query processing, and transaction control. This separation of concerns simplifies application development and maintenance. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - Single Point of Failure
+  + Server Dependency: The system relies heavily on the server. If the server crashes or becomes unavailable, clients are unable to access the database or perform any operations.
+  + Server Overload: As the number of clients increases, the server may become overloaded, leading to performance bottlenecks unless the server is scaled appropriately.
+ - Network Latency and Bandwidth Issues
+  + Network Dependency: Client-server architecture relies on network connectivity. Network issues such as high latency, limited bandwidth, or outages can significantly affect performance and user experience.
+  + Latency: Communication between the client and server, especially over long distances or slow networks, may introduce delays in query processing.
+ - Increased Cost and Maintenance
+  + Server Maintenance: Maintaining a high-performance server (e.g., hardware upgrades, regular backups, and security updates) can be costly, especially for large-scale systems.
+  + Complexity: As the system grows, maintaining the client-server infrastructure can become more complex, requiring dedicated network administration, security management, and performance tuning.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Query Parsing &amp; Optimization: Parse and check the SQL verify that it's legal and then translate it into into a relational query that system can execute.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relational Operator: Are </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used in relational query plan, they are the indivisual algorithms that are put together to execute a data flow, that data flow operates on records and files pumping(push) data through operators to generate ouput answers to your query. </t>
+    </r>
+  </si>
+  <si>
+    <t>Files and Index Management: Organize tables and records as groups of pages in a logical file.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buffer Management: Is buffer management layer and provide illusion(ảo) that we're </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operating in RAM, in memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Buffer manager job is to map disk block from disk driver into memory.</t>
+    </r>
+  </si>
+  <si>
+    <t>DBMS 
+High level architecture</t>
+  </si>
+  <si>
+    <t>DBMS Concurency &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Disk Space Management: Translate page requests into physical bytes on one or more devices.</t>
+  </si>
+  <si>
+    <t>Hardware
+(Disk)</t>
+  </si>
+  <si>
+    <t>Storage Hierachy</t>
+  </si>
+  <si>
+    <t>Time and Space</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Programming model:
+ - Most database systems were originally designed for magnetic disks
+  + Disk are mechanical </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anachronism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(lỗi thời)!
+  + Instilled design ideas that apply to using solid state() disks as well</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Disk and Ram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - In a Database Management System (DBMS), reading a page from disk to RAM (main memory) and writing it back to disk is necessary due to the fundamental differences between RAM and disk storage in terms of capacity, speed, and persistence.
+ - Most operations are executed in memory (specifically in the buffer pool), and the buffer pool is periodically synchronized with the disk to ensure data consistency and durability. This process is essential because of the performance differences between RAM (fast, but volatile) and disk storage (slow, but persistent). Let’s break down this process more clearly.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Capacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Constraints:
+  + RAM is limited: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RAM is much smaller and more expensive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> compared to disk storage. Databases often contain massive amounts of data (terabytes or more), which cannot fit entirely in RAM. Only a portion of the data (pages) can be kept in RAM at a time.
+  + Disk provides larger storage: Disks (e.g., HDDs, SSDs) provide </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>persistent storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with much </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher capacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than RAM. Thus, most of the database must reside on disk, and only the data that is actively needed is moved into RAM.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Optimization:
+  + Disk I/O is slow: Accessing data directly from disk is significantly slower than accessing data from RAM (often by a factor of thousands). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DBMS loads data pages from disk into RAM to allow faster processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reducing the number of disk I/O operations.
+  + Working with data in RAM is faster: Once a page is loaded into RAM, the DBMS can perform operations (reads, writes, updates) on that data much faster than it could if it had to interact directly with the disk for every operation.
+ - Buffer Pool Management:
+  + Efficient memory usage: The DBMS maintains a buffer pool (or cache) in RAM to store frequently accessed pages. This way, if the same data is needed again, it can be retrieved from RAM without having to reload it from the disk.
+  + Page replacement policy: When the buffer pool is full, and new data is needed, the DBMS uses page replacement strategies (e.g., Least Recently Used (LRU)) to decide which page to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from RAM and write back to disk to make room for the new data.
+ - Read and Write Operations:
+  + Reading a page:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When a query needs data that is not already in the buffer pool, the DBMS issues a disk I/O request to load the page from disk into RAM. Once in RAM, the data can be processed quickly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+  + Writing a page: If a page in RAM is modified (e.g., an update or insertion), it becomes "dirty" (different from the version on disk). At some point, the DBMS needs to write this dirty page back to disk to ensure that the persistent copy of the data on disk is up to date.
+ - Data Durability and Consistency:
+  + Durability: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RAM is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, meaning that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data is lost when the system is powered down or crashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. To ensure data durability, changes must </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eventually be written back to disk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This ensures that data is safely stored in non-volatile memory.
+  + Crash </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In case of a system crash, the DBMS can restore the database to a consistent state by using logs (e.g., Write-Ahead Logging (WAL)) and pages that have been written back to disk. This is part of ensuring ACID (Atomicity, Consistency, Isolation, Durability) properties of transactions.
+ - Concurrency Control:  Multiple users and transactions: A DBMS often handles many concurrent transactions, each accessing and modifying different parts of the database. By loading only the necessary pages into RAM and using techniques like locking and MVCC (Multi-Version Concurrency Control), the DBMS can efficiently manage concurrent access while ensuring data integrity.</t>
     </r>
   </si>
 </sst>
@@ -27969,12 +29037,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28322,6 +29397,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -28463,19 +29547,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -28487,40 +29571,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -28531,88 +29615,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -28621,43 +29705,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -28666,83 +29767,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -28750,123 +29935,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29996,7 +31092,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="126" t="s">
         <v>672</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -30004,37 +31100,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="105"/>
+      <c r="A29" s="126"/>
       <c r="B29" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="105"/>
+      <c r="A30" s="126"/>
       <c r="B30" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="105"/>
+      <c r="A31" s="126"/>
       <c r="B31" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="105"/>
+      <c r="A32" s="126"/>
       <c r="B32" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="105"/>
+      <c r="A33" s="126"/>
       <c r="B33" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="105"/>
+      <c r="A34" s="126"/>
       <c r="B34" t="s">
         <v>679</v>
       </c>
@@ -30062,7 +31158,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="105">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="126" t="s">
         <v>680</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -30070,19 +31166,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="105">
-      <c r="A2" s="105"/>
+      <c r="A2" s="126"/>
       <c r="B2" s="23" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135">
-      <c r="A3" s="105"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="6" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="126" t="s">
         <v>684</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -30090,19 +31186,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="105"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="23" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="105"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="126" t="s">
         <v>688</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -30110,31 +31206,31 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="105"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="23" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="23" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="105"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="23" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="105"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="23" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="126" t="s">
         <v>694</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -30142,55 +31238,55 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="105"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="23" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="165">
-      <c r="A14" s="105"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="23" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="105"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="23" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="105"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="23" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="105"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="23" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="105"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="23" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="105"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="23" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="105"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="24" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="195">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="134" t="s">
         <v>704</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -30198,49 +31294,49 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="300">
-      <c r="A22" s="112"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="23" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="195">
-      <c r="A23" s="112"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="23" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="112"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="23" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="112"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="23" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="112"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="23" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="112"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="23" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="112"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="24" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="133" t="s">
         <v>713</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -30248,31 +31344,31 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="105"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="23" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="105"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="105"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="23" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="105"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="23" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="134" t="s">
         <v>719</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -30280,25 +31376,25 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="60">
-      <c r="A35" s="105"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="6" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="105"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="6" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="105"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="6" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="126" t="s">
         <v>724</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -30306,31 +31402,31 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="105"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="6" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="105"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="6" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="105"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="6" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="105"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="6" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="105"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="6" t="s">
         <v>730</v>
       </c>
@@ -30482,7 +31578,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="126" t="s">
         <v>214</v>
       </c>
       <c r="B9" t="s">
@@ -30490,31 +31586,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="105"/>
+      <c r="A10" s="126"/>
       <c r="B10" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="105"/>
+      <c r="A11" s="126"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="105"/>
+      <c r="A12" s="126"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="105"/>
+      <c r="A13" s="126"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="105"/>
+      <c r="A14" s="126"/>
       <c r="B14" t="s">
         <v>757</v>
       </c>
@@ -30620,7 +31716,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="105">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="135" t="s">
         <v>775</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -30628,19 +31724,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="114"/>
+      <c r="A28" s="135"/>
       <c r="B28" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="114"/>
+      <c r="A29" s="135"/>
       <c r="B29" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="114"/>
+      <c r="A30" s="135"/>
       <c r="B30" t="s">
         <v>779</v>
       </c>
@@ -30680,55 +31776,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="138" t="s">
         <v>780</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="139" t="s">
         <v>781</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="76" t="s">
         <v>783</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="42">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="76" t="s">
         <v>785</v>
       </c>
-      <c r="E2" s="68"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="119" t="s">
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="136" t="s">
         <v>786</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="76" t="s">
         <v>787</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="120">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="119"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="4" t="s">
         <v>788</v>
       </c>
@@ -30740,9 +31836,9 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="119"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="4" t="s">
         <v>790</v>
       </c>
@@ -30754,9 +31850,9 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="4" t="s">
         <v>792</v>
       </c>
@@ -30768,9 +31864,9 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="150">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="4" t="s">
         <v>794</v>
       </c>
@@ -30782,23 +31878,23 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="119" t="s">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="136" t="s">
         <v>796</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="76" t="s">
         <v>797</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="4" t="s">
         <v>798</v>
       </c>
@@ -30810,9 +31906,9 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="4" t="s">
         <v>800</v>
       </c>
@@ -30824,9 +31920,9 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="45">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="4" t="s">
         <v>802</v>
       </c>
@@ -30838,9 +31934,9 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="4" t="s">
         <v>804</v>
       </c>
@@ -30852,9 +31948,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="9" t="s">
         <v>806</v>
       </c>
@@ -30866,23 +31962,23 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="136" t="s">
         <v>808</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="76" t="s">
         <v>809</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="90">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="9" t="s">
         <v>810</v>
       </c>
@@ -30894,9 +31990,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="9" t="s">
         <v>812</v>
       </c>
@@ -30908,9 +32004,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="9" t="s">
         <v>814</v>
       </c>
@@ -30922,9 +32018,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="9" t="s">
         <v>816</v>
       </c>
@@ -30936,9 +32032,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="45">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="9" t="s">
         <v>818</v>
       </c>
@@ -30950,9 +32046,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="135">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="9" t="s">
         <v>820</v>
       </c>
@@ -30964,25 +32060,25 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="72" customHeight="1">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="139" t="s">
         <v>810</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="76" t="s">
         <v>822</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="330">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="120" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="137" t="s">
         <v>823</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -30996,9 +32092,9 @@
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="330">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="10" t="s">
         <v>826</v>
       </c>
@@ -31010,9 +32106,9 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="330">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="10" t="s">
         <v>828</v>
       </c>
@@ -31024,9 +32120,9 @@
       <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="72" customHeight="1">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="4" t="s">
         <v>830</v>
       </c>
@@ -31038,9 +32134,9 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="255">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="4" t="s">
         <v>832</v>
       </c>
@@ -31052,81 +32148,81 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="99.75" customHeight="1">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="76" t="s">
         <v>835</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="193.5" customHeight="1">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="76" t="s">
         <v>837</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="105.75" customHeight="1">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="76" t="s">
         <v>839</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="105.75" customHeight="1">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="139" t="s">
         <v>840</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="240" customHeight="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="76" t="s">
         <v>843</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120" t="s">
+      <c r="A32" s="138"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="137" t="s">
         <v>844</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -31140,9 +32236,9 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="45">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="120"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="14" t="s">
         <v>847</v>
       </c>
@@ -31154,9 +32250,9 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="45">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="5" t="s">
         <v>849</v>
       </c>
@@ -31168,9 +32264,9 @@
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="45">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="137"/>
       <c r="D35" s="4" t="s">
         <v>851</v>
       </c>
@@ -31182,7 +32278,7 @@
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="26.25">
-      <c r="A36" s="116"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="7" t="s">
         <v>814</v>
       </c>
@@ -31191,25 +32287,25 @@
       <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="132" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117" t="s">
+      <c r="A37" s="138"/>
+      <c r="B37" s="139" t="s">
         <v>820</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="76" t="s">
         <v>853</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="60">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="119" t="s">
+      <c r="A38" s="138"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="136" t="s">
         <v>854</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -31223,9 +32319,9 @@
       <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="30">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="119"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="4" t="s">
         <v>857</v>
       </c>
@@ -31237,9 +32333,9 @@
       <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="45">
-      <c r="A40" s="116"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="119"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="4" t="s">
         <v>859</v>
       </c>
@@ -31251,9 +32347,9 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="116"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="119"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="4" t="s">
         <v>861</v>
       </c>
@@ -31265,9 +32361,9 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="45">
-      <c r="A42" s="116"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="119"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="4" t="s">
         <v>863</v>
       </c>
@@ -31279,9 +32375,9 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="45">
-      <c r="A43" s="116"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="119" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="136" t="s">
         <v>865</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -31295,9 +32391,9 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="116"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="119"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="4" t="s">
         <v>868</v>
       </c>
@@ -31309,9 +32405,9 @@
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="60">
-      <c r="A45" s="116"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="119" t="s">
+      <c r="A45" s="138"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="136" t="s">
         <v>870</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -31325,9 +32421,9 @@
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="51" customHeight="1">
-      <c r="A46" s="116"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="119"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="136"/>
       <c r="D46" s="4" t="s">
         <v>873</v>
       </c>
@@ -31339,9 +32435,9 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" ht="60">
-      <c r="A47" s="116"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="119"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="4" t="s">
         <v>875</v>
       </c>
@@ -31353,9 +32449,9 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A48" s="116"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="4" t="s">
         <v>877</v>
       </c>
@@ -31367,25 +32463,25 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" ht="248.25" customHeight="1">
-      <c r="A49" s="116"/>
-      <c r="B49" s="117" t="s">
+      <c r="A49" s="138"/>
+      <c r="B49" s="139" t="s">
         <v>879</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="76" t="s">
         <v>881</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="76"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" ht="60">
-      <c r="A50" s="116"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="119" t="s">
+      <c r="A50" s="138"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="136" t="s">
         <v>882</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -31399,9 +32495,9 @@
       <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="30">
-      <c r="A51" s="116"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="119"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="136"/>
       <c r="D51" s="4" t="s">
         <v>885</v>
       </c>
@@ -31413,37 +32509,37 @@
       <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A52" s="116"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="76" t="s">
         <v>888</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="76"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="15">
-      <c r="A53" s="116"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="119" t="s">
+      <c r="A53" s="138"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="136" t="s">
         <v>889</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="76" t="s">
         <v>890</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="76"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" ht="75">
-      <c r="A54" s="116"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="136"/>
       <c r="D54" s="4" t="s">
         <v>891</v>
       </c>
@@ -31455,9 +32551,9 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="45">
-      <c r="A55" s="116"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="119"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="136"/>
       <c r="D55" s="4" t="s">
         <v>893</v>
       </c>
@@ -31466,9 +32562,9 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="120">
-      <c r="A56" s="116"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="119"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="136"/>
       <c r="D56" s="4" t="s">
         <v>894</v>
       </c>
@@ -31480,9 +32576,9 @@
       <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" ht="135">
-      <c r="A57" s="116"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
+      <c r="A57" s="138"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="136"/>
       <c r="D57" s="4" t="s">
         <v>896</v>
       </c>
@@ -31494,9 +32590,9 @@
       <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" ht="30">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="119" t="s">
+      <c r="A58" s="138"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136" t="s">
         <v>898</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -31507,9 +32603,9 @@
       <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="15">
-      <c r="A59" s="116"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="119"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="4" t="s">
         <v>900</v>
       </c>
@@ -31518,9 +32614,9 @@
       <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" ht="15">
-      <c r="A60" s="116"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="4" t="s">
         <v>901</v>
       </c>
@@ -31529,8 +32625,8 @@
       <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" ht="90">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="3" t="s">
         <v>902</v>
       </c>
@@ -31545,8 +32641,8 @@
       <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="105">
-      <c r="A62" s="116"/>
-      <c r="B62" s="117"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="3" t="s">
         <v>905</v>
       </c>
@@ -31555,25 +32651,25 @@
       <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A63" s="116"/>
-      <c r="B63" s="117" t="s">
+      <c r="A63" s="138"/>
+      <c r="B63" s="139" t="s">
         <v>906</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="76" t="s">
         <v>907</v>
       </c>
-      <c r="E63" s="68"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" ht="30">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="119" t="s">
+      <c r="A64" s="138"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="136" t="s">
         <v>908</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -31587,9 +32683,9 @@
       <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" ht="45">
-      <c r="A65" s="116"/>
-      <c r="B65" s="117"/>
-      <c r="C65" s="119"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="136"/>
       <c r="D65" s="4" t="s">
         <v>911</v>
       </c>
@@ -31601,9 +32697,9 @@
       <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" ht="30">
-      <c r="A66" s="116"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="119"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="4" t="s">
         <v>913</v>
       </c>
@@ -31615,9 +32711,9 @@
       <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" ht="45">
-      <c r="A67" s="116"/>
-      <c r="B67" s="117"/>
-      <c r="C67" s="119"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="136"/>
       <c r="D67" s="4" t="s">
         <v>915</v>
       </c>
@@ -31629,9 +32725,9 @@
       <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8" ht="30">
-      <c r="A68" s="116"/>
-      <c r="B68" s="117"/>
-      <c r="C68" s="119"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="136"/>
       <c r="D68" s="4" t="s">
         <v>917</v>
       </c>
@@ -31643,9 +32739,9 @@
       <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" ht="30">
-      <c r="A69" s="116"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="119"/>
+      <c r="A69" s="138"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="136"/>
       <c r="D69" s="4" t="s">
         <v>919</v>
       </c>
@@ -31657,9 +32753,9 @@
       <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" ht="30">
-      <c r="A70" s="116"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="119"/>
+      <c r="A70" s="138"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="136"/>
       <c r="D70" s="4" t="s">
         <v>921</v>
       </c>
@@ -31671,9 +32767,9 @@
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="116"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="119"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="136"/>
       <c r="D71" s="4" t="s">
         <v>923</v>
       </c>
@@ -31685,11 +32781,11 @@
       <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="60">
-      <c r="A72" s="116"/>
-      <c r="B72" s="117" t="s">
+      <c r="A72" s="138"/>
+      <c r="B72" s="139" t="s">
         <v>925</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="136" t="s">
         <v>926</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -31700,9 +32796,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="116"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="119"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="4" t="s">
         <v>928</v>
       </c>
@@ -31711,9 +32807,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="116"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="119"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="4" t="s">
         <v>930</v>
       </c>
@@ -31722,9 +32818,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="165">
-      <c r="A75" s="116"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="119" t="s">
+      <c r="A75" s="138"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="136" t="s">
         <v>932</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -31735,9 +32831,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="75">
-      <c r="A76" s="116"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="119"/>
+      <c r="A76" s="138"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="136"/>
       <c r="D76" s="4" t="s">
         <v>935</v>
       </c>
@@ -31746,9 +32842,9 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="75">
-      <c r="A77" s="116"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="119"/>
+      <c r="A77" s="138"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="136"/>
       <c r="D77" s="4" t="s">
         <v>937</v>
       </c>
@@ -31757,9 +32853,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="30">
-      <c r="A78" s="116"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="119"/>
+      <c r="A78" s="138"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="4" t="s">
         <v>939</v>
       </c>
@@ -31768,9 +32864,9 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="116"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="119"/>
+      <c r="A79" s="138"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="136"/>
       <c r="D79" s="4" t="s">
         <v>941</v>
       </c>
@@ -31779,9 +32875,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="60">
-      <c r="A80" s="116"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="119"/>
+      <c r="A80" s="138"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="136"/>
       <c r="D80" s="4" t="s">
         <v>943</v>
       </c>
@@ -31790,9 +32886,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="360">
-      <c r="A81" s="116"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="119"/>
+      <c r="A81" s="138"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="136"/>
       <c r="D81" s="4" t="s">
         <v>945</v>
       </c>
@@ -31801,10 +32897,10 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="345">
-      <c r="A82" s="116"/>
-      <c r="B82" s="117"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="97" t="s">
+      <c r="A82" s="138"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="84" t="s">
         <v>947</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -31812,18 +32908,18 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="390">
-      <c r="A83" s="116"/>
-      <c r="B83" s="117"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="97"/>
+      <c r="A83" s="138"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="84"/>
       <c r="E83" s="5" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="120">
-      <c r="A84" s="116"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="119" t="s">
+      <c r="A84" s="138"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="136" t="s">
         <v>950</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -31834,9 +32930,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="60">
-      <c r="A85" s="116"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="119"/>
+      <c r="A85" s="138"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="136"/>
       <c r="D85" s="4" t="s">
         <v>952</v>
       </c>
@@ -31845,9 +32941,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="75">
-      <c r="A86" s="116"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="119"/>
+      <c r="A86" s="138"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="136"/>
       <c r="D86" s="4" t="s">
         <v>954</v>
       </c>
@@ -31856,9 +32952,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="105">
-      <c r="A87" s="116"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="119"/>
+      <c r="A87" s="138"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="136"/>
       <c r="D87" s="4" t="s">
         <v>956</v>
       </c>
@@ -31867,9 +32963,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="60">
-      <c r="A88" s="116"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="119"/>
+      <c r="A88" s="138"/>
+      <c r="B88" s="139"/>
+      <c r="C88" s="136"/>
       <c r="D88" s="4" t="s">
         <v>958</v>
       </c>
@@ -31878,9 +32974,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="60">
-      <c r="A89" s="116"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="119"/>
+      <c r="A89" s="138"/>
+      <c r="B89" s="139"/>
+      <c r="C89" s="136"/>
       <c r="D89" s="4" t="s">
         <v>960</v>
       </c>
@@ -31889,9 +32985,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="45">
-      <c r="A90" s="116"/>
-      <c r="B90" s="117"/>
-      <c r="C90" s="119" t="s">
+      <c r="A90" s="138"/>
+      <c r="B90" s="139"/>
+      <c r="C90" s="136" t="s">
         <v>962</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -31902,9 +32998,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="105">
-      <c r="A91" s="116"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="119"/>
+      <c r="A91" s="138"/>
+      <c r="B91" s="139"/>
+      <c r="C91" s="136"/>
       <c r="D91" s="4" t="s">
         <v>964</v>
       </c>
@@ -31913,9 +33009,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="210">
-      <c r="A92" s="116"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="119"/>
+      <c r="A92" s="138"/>
+      <c r="B92" s="139"/>
+      <c r="C92" s="136"/>
       <c r="D92" s="4" t="s">
         <v>966</v>
       </c>
@@ -31924,9 +33020,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60">
-      <c r="A93" s="116"/>
-      <c r="B93" s="117"/>
-      <c r="C93" s="119"/>
+      <c r="A93" s="138"/>
+      <c r="B93" s="139"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="4" t="s">
         <v>968</v>
       </c>
@@ -31935,9 +33031,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="90">
-      <c r="A94" s="116"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="119"/>
+      <c r="A94" s="138"/>
+      <c r="B94" s="139"/>
+      <c r="C94" s="136"/>
       <c r="D94" s="4" t="s">
         <v>885</v>
       </c>
@@ -31946,20 +33042,20 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="116"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="119" t="s">
+      <c r="A95" s="138"/>
+      <c r="B95" s="139"/>
+      <c r="C95" s="136" t="s">
         <v>971</v>
       </c>
-      <c r="D95" s="68" t="s">
+      <c r="D95" s="76" t="s">
         <v>972</v>
       </c>
-      <c r="E95" s="68"/>
+      <c r="E95" s="76"/>
     </row>
     <row r="96" spans="1:5" ht="90">
-      <c r="A96" s="116"/>
-      <c r="B96" s="117"/>
-      <c r="C96" s="119"/>
+      <c r="A96" s="138"/>
+      <c r="B96" s="139"/>
+      <c r="C96" s="136"/>
       <c r="D96" s="4" t="s">
         <v>880</v>
       </c>
@@ -31968,9 +33064,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="270">
-      <c r="A97" s="116"/>
-      <c r="B97" s="117"/>
-      <c r="C97" s="119"/>
+      <c r="A97" s="138"/>
+      <c r="B97" s="139"/>
+      <c r="C97" s="136"/>
       <c r="D97" s="4" t="s">
         <v>974</v>
       </c>
@@ -31979,9 +33075,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="90">
-      <c r="A98" s="116"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="119"/>
+      <c r="A98" s="138"/>
+      <c r="B98" s="139"/>
+      <c r="C98" s="136"/>
       <c r="D98" s="4" t="s">
         <v>885</v>
       </c>
@@ -31990,20 +33086,20 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="87.75" customHeight="1">
-      <c r="A99" s="116"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="119" t="s">
+      <c r="A99" s="138"/>
+      <c r="B99" s="139"/>
+      <c r="C99" s="136" t="s">
         <v>977</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="76" t="s">
         <v>978</v>
       </c>
-      <c r="E99" s="68"/>
+      <c r="E99" s="76"/>
     </row>
     <row r="100" spans="1:5" ht="135">
-      <c r="A100" s="116"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="119"/>
+      <c r="A100" s="138"/>
+      <c r="B100" s="139"/>
+      <c r="C100" s="136"/>
       <c r="D100" s="4" t="s">
         <v>295</v>
       </c>
@@ -32012,9 +33108,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="45">
-      <c r="A101" s="116"/>
-      <c r="B101" s="117"/>
-      <c r="C101" s="119"/>
+      <c r="A101" s="138"/>
+      <c r="B101" s="139"/>
+      <c r="C101" s="136"/>
       <c r="D101" s="4" t="s">
         <v>980</v>
       </c>
@@ -32023,9 +33119,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="90">
-      <c r="A102" s="116"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="119"/>
+      <c r="A102" s="138"/>
+      <c r="B102" s="139"/>
+      <c r="C102" s="136"/>
       <c r="D102" s="4" t="s">
         <v>982</v>
       </c>
@@ -32034,9 +33130,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="75">
-      <c r="A103" s="116"/>
-      <c r="B103" s="117"/>
-      <c r="C103" s="119"/>
+      <c r="A103" s="138"/>
+      <c r="B103" s="139"/>
+      <c r="C103" s="136"/>
       <c r="D103" s="4" t="s">
         <v>984</v>
       </c>
@@ -32045,9 +33141,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="75">
-      <c r="A104" s="116"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="119"/>
+      <c r="A104" s="138"/>
+      <c r="B104" s="139"/>
+      <c r="C104" s="136"/>
       <c r="D104" s="4" t="s">
         <v>986</v>
       </c>
@@ -32056,20 +33152,20 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="73.5" customHeight="1">
-      <c r="A105" s="116"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="119" t="s">
+      <c r="A105" s="138"/>
+      <c r="B105" s="139"/>
+      <c r="C105" s="136" t="s">
         <v>988</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="76" t="s">
         <v>989</v>
       </c>
-      <c r="E105" s="68"/>
+      <c r="E105" s="76"/>
     </row>
     <row r="106" spans="1:5" ht="75">
-      <c r="A106" s="116"/>
-      <c r="B106" s="117"/>
-      <c r="C106" s="119"/>
+      <c r="A106" s="138"/>
+      <c r="B106" s="139"/>
+      <c r="C106" s="136"/>
       <c r="D106" s="4" t="s">
         <v>880</v>
       </c>
@@ -32078,9 +33174,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="60">
-      <c r="A107" s="116"/>
-      <c r="B107" s="117"/>
-      <c r="C107" s="119"/>
+      <c r="A107" s="138"/>
+      <c r="B107" s="139"/>
+      <c r="C107" s="136"/>
       <c r="D107" s="4" t="s">
         <v>991</v>
       </c>
@@ -32089,9 +33185,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="30">
-      <c r="A108" s="116"/>
-      <c r="B108" s="117"/>
-      <c r="C108" s="119"/>
+      <c r="A108" s="138"/>
+      <c r="B108" s="139"/>
+      <c r="C108" s="136"/>
       <c r="D108" s="4" t="s">
         <v>993</v>
       </c>
@@ -32100,9 +33196,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
-      <c r="A109" s="116"/>
-      <c r="B109" s="117"/>
-      <c r="C109" s="119"/>
+      <c r="A109" s="138"/>
+      <c r="B109" s="139"/>
+      <c r="C109" s="136"/>
       <c r="D109" s="4" t="s">
         <v>885</v>
       </c>
@@ -32111,16 +33207,16 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="21">
-      <c r="A110" s="116"/>
-      <c r="B110" s="117"/>
+      <c r="A110" s="138"/>
+      <c r="B110" s="139"/>
       <c r="C110" s="3" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="90">
-      <c r="A111" s="116"/>
-      <c r="B111" s="117"/>
-      <c r="C111" s="119" t="s">
+      <c r="A111" s="138"/>
+      <c r="B111" s="139"/>
+      <c r="C111" s="136" t="s">
         <v>997</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -32131,9 +33227,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="105">
-      <c r="A112" s="116"/>
-      <c r="B112" s="117"/>
-      <c r="C112" s="119"/>
+      <c r="A112" s="138"/>
+      <c r="B112" s="139"/>
+      <c r="C112" s="136"/>
       <c r="D112" s="4" t="s">
         <v>1000</v>
       </c>
@@ -32142,9 +33238,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="75">
-      <c r="A113" s="116"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="119"/>
+      <c r="A113" s="138"/>
+      <c r="B113" s="139"/>
+      <c r="C113" s="136"/>
       <c r="D113" s="4" t="s">
         <v>1002</v>
       </c>
@@ -32153,9 +33249,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="75">
-      <c r="A114" s="116"/>
-      <c r="B114" s="117"/>
-      <c r="C114" s="119"/>
+      <c r="A114" s="138"/>
+      <c r="B114" s="139"/>
+      <c r="C114" s="136"/>
       <c r="D114" s="4" t="s">
         <v>1004</v>
       </c>
@@ -32164,18 +33260,18 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15">
-      <c r="A115" s="116"/>
-      <c r="B115" s="117"/>
-      <c r="C115" s="119"/>
-      <c r="D115" s="68" t="s">
+      <c r="A115" s="138"/>
+      <c r="B115" s="139"/>
+      <c r="C115" s="136"/>
+      <c r="D115" s="76" t="s">
         <v>1006</v>
       </c>
-      <c r="E115" s="68"/>
+      <c r="E115" s="76"/>
     </row>
     <row r="116" spans="1:5" ht="105">
-      <c r="A116" s="116"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="119"/>
+      <c r="A116" s="138"/>
+      <c r="B116" s="139"/>
+      <c r="C116" s="136"/>
       <c r="D116" s="4" t="s">
         <v>1007</v>
       </c>
@@ -32184,9 +33280,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="60">
-      <c r="A117" s="116"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="119"/>
+      <c r="A117" s="138"/>
+      <c r="B117" s="139"/>
+      <c r="C117" s="136"/>
       <c r="D117" s="4" t="s">
         <v>1009</v>
       </c>
@@ -32195,9 +33291,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="45">
-      <c r="A118" s="116"/>
-      <c r="B118" s="117"/>
-      <c r="C118" s="119"/>
+      <c r="A118" s="138"/>
+      <c r="B118" s="139"/>
+      <c r="C118" s="136"/>
       <c r="D118" s="4" t="s">
         <v>1011</v>
       </c>
@@ -32206,9 +33302,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="60">
-      <c r="A119" s="116"/>
-      <c r="B119" s="117"/>
-      <c r="C119" s="119"/>
+      <c r="A119" s="138"/>
+      <c r="B119" s="139"/>
+      <c r="C119" s="136"/>
       <c r="D119" s="4" t="s">
         <v>885</v>
       </c>
@@ -32217,156 +33313,156 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="42">
-      <c r="A120" s="116"/>
-      <c r="B120" s="117"/>
+      <c r="A120" s="138"/>
+      <c r="B120" s="139"/>
       <c r="C120" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="42">
-      <c r="A121" s="116"/>
-      <c r="B121" s="117"/>
+      <c r="A121" s="138"/>
+      <c r="B121" s="139"/>
       <c r="C121" s="3" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="21">
-      <c r="A122" s="116"/>
-      <c r="B122" s="117"/>
+      <c r="A122" s="138"/>
+      <c r="B122" s="139"/>
       <c r="C122" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="42">
-      <c r="A123" s="116"/>
-      <c r="B123" s="117"/>
+      <c r="A123" s="138"/>
+      <c r="B123" s="139"/>
       <c r="C123" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="63">
-      <c r="A124" s="116"/>
-      <c r="B124" s="117"/>
+      <c r="A124" s="138"/>
+      <c r="B124" s="139"/>
       <c r="C124" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="84">
-      <c r="A125" s="116"/>
-      <c r="B125" s="117"/>
+      <c r="A125" s="138"/>
+      <c r="B125" s="139"/>
       <c r="C125" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="63">
-      <c r="A126" s="116"/>
-      <c r="B126" s="117"/>
+      <c r="A126" s="138"/>
+      <c r="B126" s="139"/>
       <c r="C126" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="21">
-      <c r="A127" s="116"/>
-      <c r="B127" s="117"/>
+      <c r="A127" s="138"/>
+      <c r="B127" s="139"/>
       <c r="C127" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="42">
-      <c r="A128" s="116"/>
-      <c r="B128" s="117"/>
+      <c r="A128" s="138"/>
+      <c r="B128" s="139"/>
       <c r="C128" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="42">
-      <c r="A129" s="116"/>
-      <c r="B129" s="117"/>
+      <c r="A129" s="138"/>
+      <c r="B129" s="139"/>
       <c r="C129" s="3" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="42">
-      <c r="A130" s="116"/>
-      <c r="B130" s="117"/>
+      <c r="A130" s="138"/>
+      <c r="B130" s="139"/>
       <c r="C130" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
-      <c r="A131" s="116"/>
-      <c r="B131" s="117"/>
+      <c r="A131" s="138"/>
+      <c r="B131" s="139"/>
       <c r="C131" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
-      <c r="A132" s="116"/>
-      <c r="B132" s="117"/>
+      <c r="A132" s="138"/>
+      <c r="B132" s="139"/>
       <c r="C132" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
-      <c r="A133" s="116"/>
-      <c r="B133" s="117"/>
+      <c r="A133" s="138"/>
+      <c r="B133" s="139"/>
       <c r="C133" s="3" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="42">
-      <c r="A134" s="116"/>
-      <c r="B134" s="117"/>
+      <c r="A134" s="138"/>
+      <c r="B134" s="139"/>
       <c r="C134" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="63">
-      <c r="A135" s="116"/>
-      <c r="B135" s="117"/>
+      <c r="A135" s="138"/>
+      <c r="B135" s="139"/>
       <c r="C135" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
-      <c r="A136" s="116"/>
-      <c r="B136" s="117"/>
+      <c r="A136" s="138"/>
+      <c r="B136" s="139"/>
       <c r="C136" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="42">
-      <c r="A137" s="116"/>
-      <c r="B137" s="117"/>
+      <c r="A137" s="138"/>
+      <c r="B137" s="139"/>
       <c r="C137" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
-      <c r="A138" s="116"/>
-      <c r="B138" s="117"/>
+      <c r="A138" s="138"/>
+      <c r="B138" s="139"/>
       <c r="C138" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="42">
-      <c r="A139" s="116"/>
-      <c r="B139" s="117"/>
+      <c r="A139" s="138"/>
+      <c r="B139" s="139"/>
       <c r="C139" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="42">
-      <c r="A140" s="116"/>
-      <c r="B140" s="117"/>
+      <c r="A140" s="138"/>
+      <c r="B140" s="139"/>
       <c r="C140" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15">
-      <c r="A141" s="116"/>
-      <c r="B141" s="117"/>
-      <c r="C141" s="119" t="s">
+      <c r="A141" s="138"/>
+      <c r="B141" s="139"/>
+      <c r="C141" s="136" t="s">
         <v>1031</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -32374,203 +33470,203 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="30">
-      <c r="A142" s="116"/>
-      <c r="B142" s="117"/>
-      <c r="C142" s="119"/>
+      <c r="A142" s="138"/>
+      <c r="B142" s="139"/>
+      <c r="C142" s="136"/>
       <c r="D142" s="4" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="30">
-      <c r="A143" s="116"/>
-      <c r="B143" s="117"/>
-      <c r="C143" s="119"/>
+      <c r="A143" s="138"/>
+      <c r="B143" s="139"/>
+      <c r="C143" s="136"/>
       <c r="D143" s="4" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="42">
-      <c r="A144" s="116"/>
-      <c r="B144" s="117"/>
+      <c r="A144" s="138"/>
+      <c r="B144" s="139"/>
       <c r="C144" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="21">
-      <c r="A145" s="116"/>
-      <c r="B145" s="117"/>
+      <c r="A145" s="138"/>
+      <c r="B145" s="139"/>
       <c r="C145" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D145" s="115" t="s">
+      <c r="D145" s="141" t="s">
         <v>1036</v>
       </c>
-      <c r="E145" s="115"/>
+      <c r="E145" s="141"/>
     </row>
     <row r="146" spans="1:5" ht="21">
-      <c r="A146" s="116"/>
-      <c r="B146" s="117"/>
+      <c r="A146" s="138"/>
+      <c r="B146" s="139"/>
       <c r="C146" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="D146" s="68" t="s">
+      <c r="D146" s="76" t="s">
         <v>1037</v>
       </c>
-      <c r="E146" s="68"/>
+      <c r="E146" s="76"/>
     </row>
     <row r="147" spans="1:5" ht="42">
-      <c r="A147" s="116"/>
-      <c r="B147" s="117"/>
+      <c r="A147" s="138"/>
+      <c r="B147" s="139"/>
       <c r="C147" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
     </row>
     <row r="148" spans="1:5" ht="42">
-      <c r="A148" s="116"/>
-      <c r="B148" s="117"/>
+      <c r="A148" s="138"/>
+      <c r="B148" s="139"/>
       <c r="C148" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="D148" s="68" t="s">
+      <c r="D148" s="76" t="s">
         <v>1040</v>
       </c>
-      <c r="E148" s="68"/>
+      <c r="E148" s="76"/>
     </row>
     <row r="149" spans="1:5" ht="63">
-      <c r="A149" s="116"/>
-      <c r="B149" s="117"/>
+      <c r="A149" s="138"/>
+      <c r="B149" s="139"/>
       <c r="C149" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="D149" s="68" t="s">
+      <c r="D149" s="76" t="s">
         <v>1042</v>
       </c>
-      <c r="E149" s="68"/>
+      <c r="E149" s="76"/>
     </row>
     <row r="150" spans="1:5" ht="42">
-      <c r="A150" s="116"/>
-      <c r="B150" s="117"/>
+      <c r="A150" s="138"/>
+      <c r="B150" s="139"/>
       <c r="C150" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="D150" s="68" t="s">
+      <c r="D150" s="76" t="s">
         <v>1044</v>
       </c>
-      <c r="E150" s="68"/>
+      <c r="E150" s="76"/>
     </row>
     <row r="151" spans="1:5" ht="42">
-      <c r="A151" s="116"/>
-      <c r="B151" s="117"/>
+      <c r="A151" s="138"/>
+      <c r="B151" s="139"/>
       <c r="C151" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="D151" s="68"/>
-      <c r="E151" s="68"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
     </row>
     <row r="152" spans="1:5" ht="63">
-      <c r="A152" s="116"/>
-      <c r="B152" s="117"/>
+      <c r="A152" s="138"/>
+      <c r="B152" s="139"/>
       <c r="C152" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="D152" s="68" t="s">
+      <c r="D152" s="76" t="s">
         <v>1047</v>
       </c>
-      <c r="E152" s="68"/>
+      <c r="E152" s="76"/>
     </row>
     <row r="153" spans="1:5" ht="42">
-      <c r="A153" s="116"/>
-      <c r="B153" s="117"/>
+      <c r="A153" s="138"/>
+      <c r="B153" s="139"/>
       <c r="C153" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="D153" s="68" t="s">
+      <c r="D153" s="76" t="s">
         <v>1049</v>
       </c>
-      <c r="E153" s="68"/>
+      <c r="E153" s="76"/>
     </row>
     <row r="154" spans="1:5" ht="15">
-      <c r="A154" s="116"/>
-      <c r="B154" s="117"/>
-      <c r="C154" s="119" t="s">
+      <c r="A154" s="138"/>
+      <c r="B154" s="139"/>
+      <c r="C154" s="136" t="s">
         <v>1050</v>
       </c>
-      <c r="D154" s="68" t="s">
+      <c r="D154" s="76" t="s">
         <v>1051</v>
       </c>
-      <c r="E154" s="68"/>
+      <c r="E154" s="76"/>
     </row>
     <row r="155" spans="1:5" ht="15">
-      <c r="A155" s="116"/>
-      <c r="B155" s="117"/>
-      <c r="C155" s="119"/>
-      <c r="D155" s="68" t="s">
+      <c r="A155" s="138"/>
+      <c r="B155" s="139"/>
+      <c r="C155" s="136"/>
+      <c r="D155" s="76" t="s">
         <v>1052</v>
       </c>
-      <c r="E155" s="68"/>
+      <c r="E155" s="76"/>
     </row>
     <row r="156" spans="1:5" ht="15">
-      <c r="A156" s="116"/>
-      <c r="B156" s="117"/>
-      <c r="C156" s="119"/>
-      <c r="D156" s="68" t="s">
+      <c r="A156" s="138"/>
+      <c r="B156" s="139"/>
+      <c r="C156" s="136"/>
+      <c r="D156" s="76" t="s">
         <v>1053</v>
       </c>
-      <c r="E156" s="68"/>
+      <c r="E156" s="76"/>
     </row>
     <row r="157" spans="1:5" ht="15">
-      <c r="A157" s="116"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="119"/>
-      <c r="D157" s="68" t="s">
+      <c r="A157" s="138"/>
+      <c r="B157" s="139"/>
+      <c r="C157" s="136"/>
+      <c r="D157" s="76" t="s">
         <v>1054</v>
       </c>
-      <c r="E157" s="68"/>
+      <c r="E157" s="76"/>
     </row>
     <row r="158" spans="1:5" ht="15">
-      <c r="A158" s="116"/>
-      <c r="B158" s="117"/>
-      <c r="C158" s="119"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
+      <c r="A158" s="138"/>
+      <c r="B158" s="139"/>
+      <c r="C158" s="136"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="76"/>
     </row>
     <row r="159" spans="1:5" ht="42">
-      <c r="A159" s="116"/>
-      <c r="B159" s="117"/>
+      <c r="A159" s="138"/>
+      <c r="B159" s="139"/>
       <c r="C159" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="76"/>
     </row>
     <row r="160" spans="1:5" ht="42">
-      <c r="A160" s="116"/>
-      <c r="B160" s="117"/>
+      <c r="A160" s="138"/>
+      <c r="B160" s="139"/>
       <c r="C160" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
     </row>
     <row r="161" spans="1:5" ht="21">
-      <c r="A161" s="116"/>
-      <c r="B161" s="118" t="s">
+      <c r="A161" s="138"/>
+      <c r="B161" s="140" t="s">
         <v>1057</v>
       </c>
-      <c r="D161" s="68" t="s">
+      <c r="D161" s="76" t="s">
         <v>1058</v>
       </c>
-      <c r="E161" s="68"/>
+      <c r="E161" s="76"/>
     </row>
     <row r="162" spans="1:5" ht="21">
-      <c r="A162" s="116"/>
-      <c r="B162" s="118"/>
-      <c r="D162" s="68" t="s">
+      <c r="A162" s="138"/>
+      <c r="B162" s="140"/>
+      <c r="D162" s="76" t="s">
         <v>1059</v>
       </c>
-      <c r="E162" s="68"/>
+      <c r="E162" s="76"/>
     </row>
     <row r="163" spans="1:5">
       <c r="B163" s="2" t="s">
@@ -32579,25 +33675,34 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C111:C119"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D162:E162"/>
@@ -32614,41 +33719,32 @@
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C111:C119"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D156:E156"/>
     <mergeCell ref="D157:E157"/>
     <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
@@ -32700,56 +33796,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="68"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:4" ht="57" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:4" ht="135" customHeight="1">
       <c r="A3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:4" ht="66" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="76"/>
     </row>
     <row r="5" spans="1:4" ht="255.95" customHeight="1">
       <c r="A5" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="76"/>
     </row>
     <row r="6" spans="1:4" ht="114" customHeight="1">
       <c r="A6" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:4" ht="33.950000000000003" customHeight="1">
       <c r="A7" s="62" t="s">
@@ -32758,23 +33854,23 @@
       <c r="B7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="D7" s="77"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1">
       <c r="A9" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -32813,882 +33909,882 @@
       <c r="A1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="70"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="75">
       <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="1:3" ht="75">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:3" ht="112.5">
       <c r="A5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="77"/>
     </row>
     <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="77"/>
     </row>
     <row r="7" spans="1:3" ht="37.5">
       <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
     </row>
     <row r="9" spans="1:3" ht="37.5">
       <c r="A9" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
     </row>
     <row r="12" spans="1:3" ht="409.5">
       <c r="A12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:3" ht="126">
       <c r="A13" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
     </row>
     <row r="14" spans="1:3" ht="126">
       <c r="A14" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="1:3" ht="108">
       <c r="A15" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="100"/>
     </row>
     <row r="16" spans="1:3" ht="36">
       <c r="A16" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="102"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="100"/>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="98"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="77"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
     </row>
     <row r="25" spans="1:3" ht="37.5">
       <c r="A25" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="77"/>
     </row>
     <row r="26" spans="1:3" ht="37.5">
       <c r="A26" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="77"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="77"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="77"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="77"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="77"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="77"/>
     </row>
     <row r="35" spans="1:3" ht="37.5">
       <c r="A35" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="77"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="77"/>
     </row>
     <row r="38" spans="1:3" ht="56.25">
       <c r="A38" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="77"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="82"/>
+      <c r="C39" s="96"/>
     </row>
     <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="77"/>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="89"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="77"/>
     </row>
     <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="89"/>
-      <c r="B42" s="70" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="77"/>
     </row>
     <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="89"/>
-      <c r="B43" s="70" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="77"/>
     </row>
     <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="77"/>
     </row>
     <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="89"/>
-      <c r="B45" s="83" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" ht="15">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="77"/>
     </row>
     <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="89"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="70"/>
+      <c r="C47" s="77"/>
     </row>
     <row r="48" spans="1:3" ht="75">
       <c r="A48" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="70"/>
+      <c r="C48" s="77"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="70"/>
+      <c r="C49" s="77"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="70"/>
+      <c r="C50" s="77"/>
     </row>
     <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="70"/>
+      <c r="C51" s="77"/>
     </row>
     <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="89"/>
-      <c r="B52" s="70" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="70"/>
+      <c r="C52" s="77"/>
     </row>
     <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="89"/>
-      <c r="B53" s="70" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="70"/>
+      <c r="C53" s="77"/>
     </row>
     <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="70"/>
+      <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="90"/>
-      <c r="B55" s="70" t="s">
+      <c r="A55" s="86"/>
+      <c r="B55" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="70"/>
+      <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="90"/>
-      <c r="B56" s="83" t="s">
+      <c r="A56" s="86"/>
+      <c r="B56" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="83"/>
+      <c r="C56" s="93"/>
     </row>
     <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="90"/>
-      <c r="B57" s="83" t="s">
+      <c r="A57" s="86"/>
+      <c r="B57" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="83"/>
+      <c r="C57" s="93"/>
     </row>
     <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="90"/>
-      <c r="B58" s="70" t="s">
+      <c r="A58" s="86"/>
+      <c r="B58" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="70"/>
+      <c r="C58" s="77"/>
     </row>
     <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="90"/>
-      <c r="B59" s="84" t="s">
+      <c r="A59" s="86"/>
+      <c r="B59" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="85"/>
     </row>
     <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="90"/>
-      <c r="B60" s="85" t="s">
+      <c r="A60" s="86"/>
+      <c r="B60" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="85"/>
+      <c r="C60" s="94"/>
     </row>
     <row r="61" spans="1:3" ht="37.5">
       <c r="A61" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="70"/>
+      <c r="C61" s="77"/>
     </row>
     <row r="62" spans="1:3" ht="37.5">
       <c r="A62" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="70"/>
+      <c r="C62" s="77"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="70"/>
+      <c r="C63" s="77"/>
     </row>
     <row r="64" spans="1:3" ht="75">
       <c r="A64" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="70"/>
+      <c r="C64" s="77"/>
     </row>
     <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="70"/>
+      <c r="C65" s="77"/>
     </row>
     <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="91"/>
-      <c r="B66" s="83" t="s">
+      <c r="A66" s="87"/>
+      <c r="B66" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="83"/>
+      <c r="C66" s="93"/>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="85"/>
+      <c r="C67" s="94"/>
     </row>
     <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="93"/>
-      <c r="B68" s="86" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="86"/>
+      <c r="C68" s="95"/>
     </row>
     <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="93"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="85"/>
+      <c r="C69" s="94"/>
     </row>
     <row r="70" spans="1:3" ht="15">
-      <c r="A70" s="93"/>
-      <c r="B70" s="85" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="85"/>
+      <c r="C70" s="94"/>
     </row>
     <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="83"/>
+      <c r="C71" s="93"/>
     </row>
     <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="89"/>
-      <c r="B72" s="83" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="83"/>
+      <c r="C72" s="93"/>
     </row>
     <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="89"/>
-      <c r="B73" s="70" t="s">
+      <c r="A73" s="83"/>
+      <c r="B73" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="70"/>
+      <c r="C73" s="77"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="70"/>
+      <c r="C74" s="77"/>
     </row>
     <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="70"/>
+      <c r="C75" s="77"/>
     </row>
     <row r="76" spans="1:3" ht="15">
-      <c r="A76" s="89"/>
-      <c r="B76" s="70" t="s">
+      <c r="A76" s="83"/>
+      <c r="B76" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="70"/>
+      <c r="C76" s="77"/>
     </row>
     <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="89"/>
-      <c r="B77" s="70" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="70"/>
+      <c r="C77" s="77"/>
     </row>
     <row r="78" spans="1:3" ht="15">
-      <c r="A78" s="89"/>
-      <c r="B78" s="70" t="s">
+      <c r="A78" s="83"/>
+      <c r="B78" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="70"/>
+      <c r="C78" s="77"/>
     </row>
     <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="89"/>
-      <c r="B79" s="83" t="s">
+      <c r="A79" s="83"/>
+      <c r="B79" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="83"/>
+      <c r="C79" s="93"/>
     </row>
     <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="89"/>
-      <c r="B80" s="83" t="s">
+      <c r="A80" s="83"/>
+      <c r="B80" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="83"/>
+      <c r="C80" s="93"/>
     </row>
     <row r="81" spans="1:3" ht="37.5">
       <c r="A81" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="77"/>
     </row>
     <row r="82" spans="1:3" ht="37.5">
       <c r="A82" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
     </row>
     <row r="84" spans="1:3" ht="37.5">
       <c r="A84" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="70"/>
+      <c r="C84" s="77"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
     </row>
     <row r="88" spans="1:3" ht="56.25">
       <c r="A88" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
     </row>
     <row r="89" spans="1:3" ht="56.25">
       <c r="A89" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
     </row>
     <row r="90" spans="1:3" ht="37.5">
       <c r="A90" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
     </row>
     <row r="93" spans="1:3" ht="37.5">
       <c r="A93" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="70"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
     </row>
     <row r="98" spans="1:4" ht="15">
-      <c r="A98" s="94" t="s">
+      <c r="A98" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="83"/>
+      <c r="C98" s="93"/>
     </row>
     <row r="99" spans="1:4" ht="15">
-      <c r="A99" s="89"/>
-      <c r="B99" s="83" t="s">
+      <c r="A99" s="83"/>
+      <c r="B99" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="C99" s="83"/>
+      <c r="C99" s="93"/>
     </row>
     <row r="100" spans="1:4" ht="15">
-      <c r="A100" s="89"/>
-      <c r="B100" s="83" t="s">
+      <c r="A100" s="83"/>
+      <c r="B100" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="83"/>
+      <c r="C100" s="93"/>
     </row>
     <row r="101" spans="1:4" ht="15">
-      <c r="A101" s="89"/>
-      <c r="B101" s="83" t="s">
+      <c r="A101" s="83"/>
+      <c r="B101" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="83"/>
+      <c r="C101" s="93"/>
     </row>
     <row r="102" spans="1:4" ht="15">
-      <c r="A102" s="89"/>
-      <c r="B102" s="83" t="s">
+      <c r="A102" s="83"/>
+      <c r="B102" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="83"/>
+      <c r="C102" s="93"/>
     </row>
     <row r="103" spans="1:4" ht="15">
-      <c r="A103" s="89"/>
-      <c r="B103" s="83" t="s">
+      <c r="A103" s="83"/>
+      <c r="B103" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="83"/>
+      <c r="C103" s="93"/>
     </row>
     <row r="104" spans="1:4" ht="15">
-      <c r="A104" s="89"/>
-      <c r="B104" s="83" t="s">
+      <c r="A104" s="83"/>
+      <c r="B104" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="C104" s="83"/>
+      <c r="C104" s="93"/>
     </row>
     <row r="105" spans="1:4" ht="15">
-      <c r="A105" s="89"/>
-      <c r="B105" s="83" t="s">
+      <c r="A105" s="83"/>
+      <c r="B105" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="83"/>
+      <c r="C105" s="93"/>
     </row>
     <row r="106" spans="1:4" ht="15">
-      <c r="A106" s="89"/>
-      <c r="B106" s="83" t="s">
+      <c r="A106" s="83"/>
+      <c r="B106" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="C106" s="83"/>
+      <c r="C106" s="93"/>
     </row>
     <row r="107" spans="1:4" ht="15">
-      <c r="A107" s="89"/>
-      <c r="B107" s="83" t="s">
+      <c r="A107" s="83"/>
+      <c r="B107" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="83"/>
+      <c r="C107" s="93"/>
     </row>
     <row r="108" spans="1:4" ht="15">
-      <c r="A108" s="89"/>
-      <c r="B108" s="83" t="s">
+      <c r="A108" s="83"/>
+      <c r="B108" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="C108" s="83"/>
+      <c r="C108" s="93"/>
     </row>
     <row r="109" spans="1:4" ht="15">
-      <c r="A109" s="89"/>
-      <c r="B109" s="84" t="s">
+      <c r="A109" s="83"/>
+      <c r="B109" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="84"/>
+      <c r="C109" s="85"/>
     </row>
     <row r="110" spans="1:4" ht="15">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="84" t="s">
+      <c r="B110" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="84"/>
+      <c r="C110" s="85"/>
       <c r="D110"/>
     </row>
     <row r="111" spans="1:4" ht="15">
-      <c r="A111" s="89"/>
-      <c r="B111" s="84" t="s">
+      <c r="A111" s="83"/>
+      <c r="B111" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="C111" s="84"/>
+      <c r="C111" s="85"/>
       <c r="D111"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="89"/>
-      <c r="B112" s="87" t="s">
+      <c r="A112" s="83"/>
+      <c r="B112" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="87"/>
+      <c r="C112" s="91"/>
       <c r="D112" s="45"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="89"/>
-      <c r="B113" s="88" t="s">
+      <c r="A113" s="83"/>
+      <c r="B113" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="88"/>
+      <c r="C113" s="92"/>
     </row>
     <row r="114" spans="1:3" ht="15">
-      <c r="A114" s="89"/>
-      <c r="B114" s="83" t="s">
+      <c r="A114" s="83"/>
+      <c r="B114" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="C114" s="83"/>
+      <c r="C114" s="93"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="89"/>
-      <c r="B115" s="87" t="s">
+      <c r="A115" s="83"/>
+      <c r="B115" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="87"/>
+      <c r="C115" s="91"/>
     </row>
     <row r="116" spans="1:3" ht="15">
-      <c r="A116" s="89"/>
-      <c r="B116" s="84" t="s">
+      <c r="A116" s="83"/>
+      <c r="B116" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="84"/>
+      <c r="C116" s="85"/>
     </row>
     <row r="117" spans="1:3" ht="15">
-      <c r="A117" s="89"/>
-      <c r="B117" s="84" t="s">
+      <c r="A117" s="83"/>
+      <c r="B117" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="84"/>
+      <c r="C117" s="85"/>
     </row>
     <row r="118" spans="1:3" ht="15">
-      <c r="A118" s="89"/>
-      <c r="B118" s="84" t="s">
+      <c r="A118" s="83"/>
+      <c r="B118" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="84"/>
+      <c r="C118" s="85"/>
     </row>
     <row r="119" spans="1:3" ht="57" customHeight="1">
-      <c r="A119" s="95" t="s">
+      <c r="A119" s="81" t="s">
         <v>204</v>
       </c>
       <c r="B119" s="10" t="s">
@@ -33699,8 +34795,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="135">
-      <c r="A120" s="95"/>
-      <c r="B120" s="97" t="s">
+      <c r="A120" s="81"/>
+      <c r="B120" s="84" t="s">
         <v>207</v>
       </c>
       <c r="C120" s="55" t="s">
@@ -33708,43 +34804,43 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="207" customHeight="1">
-      <c r="A121" s="96"/>
-      <c r="B121" s="97"/>
+      <c r="A121" s="82"/>
+      <c r="B121" s="84"/>
       <c r="C121" s="43" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="210">
-      <c r="A122" s="96"/>
-      <c r="B122" s="97"/>
+      <c r="A122" s="82"/>
+      <c r="B122" s="84"/>
       <c r="C122" s="43" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75">
-      <c r="A123" s="96"/>
-      <c r="B123" s="97"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="84"/>
       <c r="C123" s="43" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="105">
-      <c r="A124" s="96"/>
-      <c r="B124" s="97"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="84"/>
       <c r="C124" s="43" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="75">
-      <c r="A125" s="96"/>
-      <c r="B125" s="97"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="84"/>
       <c r="C125" s="43" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="120">
-      <c r="A126" s="96"/>
-      <c r="B126" s="97" t="s">
+      <c r="A126" s="82"/>
+      <c r="B126" s="84" t="s">
         <v>214</v>
       </c>
       <c r="C126" s="35" t="s">
@@ -33752,43 +34848,43 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="60">
-      <c r="A127" s="96"/>
-      <c r="B127" s="97"/>
+      <c r="A127" s="82"/>
+      <c r="B127" s="84"/>
       <c r="C127" s="43" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="240">
-      <c r="A128" s="96"/>
-      <c r="B128" s="97"/>
+      <c r="A128" s="82"/>
+      <c r="B128" s="84"/>
       <c r="C128" s="43" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="315">
-      <c r="A129" s="96"/>
-      <c r="B129" s="97"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="84"/>
       <c r="C129" s="43" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="135">
-      <c r="A130" s="96"/>
-      <c r="B130" s="97"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="84"/>
       <c r="C130" s="43" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="45">
-      <c r="A131" s="96"/>
-      <c r="B131" s="97"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="84"/>
       <c r="C131" s="43" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="135">
-      <c r="A132" s="96"/>
-      <c r="B132" s="97" t="s">
+      <c r="A132" s="82"/>
+      <c r="B132" s="84" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="43" t="s">
@@ -33796,43 +34892,43 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="60">
-      <c r="A133" s="96"/>
-      <c r="B133" s="97"/>
+      <c r="A133" s="82"/>
+      <c r="B133" s="84"/>
       <c r="C133" s="43" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="45">
-      <c r="A134" s="96"/>
-      <c r="B134" s="97"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="84"/>
       <c r="C134" s="60" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60">
-      <c r="A135" s="96"/>
-      <c r="B135" s="97"/>
+      <c r="A135" s="82"/>
+      <c r="B135" s="84"/>
       <c r="C135" s="60" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="75">
-      <c r="A136" s="96"/>
-      <c r="B136" s="97"/>
+      <c r="A136" s="82"/>
+      <c r="B136" s="84"/>
       <c r="C136" s="60" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="225">
-      <c r="A137" s="96"/>
-      <c r="B137" s="97"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="84"/>
       <c r="C137" s="60" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="45">
-      <c r="A138" s="96"/>
-      <c r="B138" s="97" t="s">
+      <c r="A138" s="82"/>
+      <c r="B138" s="84" t="s">
         <v>228</v>
       </c>
       <c r="C138" s="55" t="s">
@@ -33840,99 +34936,99 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="150">
-      <c r="A139" s="96"/>
-      <c r="B139" s="97"/>
+      <c r="A139" s="82"/>
+      <c r="B139" s="84"/>
       <c r="C139" s="55" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="270">
-      <c r="A140" s="96"/>
-      <c r="B140" s="97"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="84"/>
       <c r="C140" s="60" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="285">
-      <c r="A141" s="96"/>
-      <c r="B141" s="97"/>
+      <c r="A141" s="82"/>
+      <c r="B141" s="84"/>
       <c r="C141" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="210">
-      <c r="A142" s="96"/>
-      <c r="B142" s="97"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="84"/>
       <c r="C142" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="240">
-      <c r="A143" s="96"/>
-      <c r="B143" s="97"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="84"/>
       <c r="C143" s="60" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="135">
-      <c r="A144" s="96"/>
-      <c r="B144" s="97"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="84"/>
       <c r="C144" s="60" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="315">
-      <c r="A145" s="96"/>
-      <c r="B145" s="97"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="84"/>
       <c r="C145" s="60" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15">
-      <c r="A146" s="96"/>
-      <c r="B146" s="97"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="84"/>
       <c r="C146" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="120">
-      <c r="A147" s="96"/>
-      <c r="B147" s="97"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="84"/>
       <c r="C147" s="60" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45">
-      <c r="A148" s="96"/>
-      <c r="B148" s="97"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="84"/>
       <c r="C148" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="45">
-      <c r="A149" s="96"/>
-      <c r="B149" s="97"/>
+      <c r="A149" s="82"/>
+      <c r="B149" s="84"/>
       <c r="C149" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30">
-      <c r="A150" s="96"/>
-      <c r="B150" s="97"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="84"/>
       <c r="C150" s="60" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="96"/>
+      <c r="A151" s="82"/>
       <c r="B151" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C151" s="60"/>
     </row>
     <row r="152" spans="1:3" ht="75">
-      <c r="A152" s="96"/>
-      <c r="B152" s="97" t="s">
+      <c r="A152" s="82"/>
+      <c r="B152" s="84" t="s">
         <v>243</v>
       </c>
       <c r="C152" s="55" t="s">
@@ -33940,36 +35036,36 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="150">
-      <c r="A153" s="96"/>
-      <c r="B153" s="97"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="84"/>
       <c r="C153" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="375">
-      <c r="A154" s="96"/>
-      <c r="B154" s="97"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="84"/>
       <c r="C154" s="60" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="195">
-      <c r="A155" s="96"/>
-      <c r="B155" s="97"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="84"/>
       <c r="C155" s="60" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="285">
-      <c r="A156" s="96"/>
-      <c r="B156" s="97"/>
+      <c r="A156" s="82"/>
+      <c r="B156" s="84"/>
       <c r="C156" s="60" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="240">
-      <c r="A157" s="96"/>
-      <c r="B157" s="97" t="s">
+      <c r="A157" s="82"/>
+      <c r="B157" s="84" t="s">
         <v>249</v>
       </c>
       <c r="C157" s="60" t="s">
@@ -33977,22 +35073,22 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="15">
-      <c r="A158" s="96"/>
-      <c r="B158" s="97"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="84"/>
       <c r="C158" s="60" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15">
-      <c r="A159" s="96"/>
-      <c r="B159" s="97"/>
+      <c r="A159" s="82"/>
+      <c r="B159" s="84"/>
       <c r="C159" s="60" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30">
-      <c r="A160" s="96"/>
-      <c r="B160" s="97" t="s">
+      <c r="A160" s="82"/>
+      <c r="B160" s="84" t="s">
         <v>253</v>
       </c>
       <c r="C160" s="55" t="s">
@@ -34000,29 +35096,29 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="30">
-      <c r="A161" s="96"/>
-      <c r="B161" s="97"/>
+      <c r="A161" s="82"/>
+      <c r="B161" s="84"/>
       <c r="C161" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30">
-      <c r="A162" s="96"/>
-      <c r="B162" s="97"/>
+      <c r="A162" s="82"/>
+      <c r="B162" s="84"/>
       <c r="C162" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30">
-      <c r="A163" s="96"/>
-      <c r="B163" s="97"/>
+      <c r="A163" s="82"/>
+      <c r="B163" s="84"/>
       <c r="C163" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="60">
-      <c r="A164" s="96"/>
-      <c r="B164" s="97" t="s">
+      <c r="A164" s="82"/>
+      <c r="B164" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C164" s="60" t="s">
@@ -34030,28 +35126,28 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="75">
-      <c r="A165" s="96"/>
-      <c r="B165" s="97"/>
+      <c r="A165" s="82"/>
+      <c r="B165" s="84"/>
       <c r="C165" s="60" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="75">
-      <c r="A166" s="96"/>
-      <c r="B166" s="97"/>
+      <c r="A166" s="82"/>
+      <c r="B166" s="84"/>
       <c r="C166" s="60" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="60">
-      <c r="A167" s="96"/>
-      <c r="B167" s="97"/>
+      <c r="A167" s="82"/>
+      <c r="B167" s="84"/>
       <c r="C167" s="60" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30">
-      <c r="A168" s="89" t="s">
+      <c r="A168" s="83" t="s">
         <v>263</v>
       </c>
       <c r="B168" s="35" t="s">
@@ -34059,8 +35155,8 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="45">
-      <c r="A169" s="89"/>
-      <c r="B169" s="97" t="s">
+      <c r="A169" s="83"/>
+      <c r="B169" s="84" t="s">
         <v>265</v>
       </c>
       <c r="C169" s="35" t="s">
@@ -34068,140 +35164,140 @@
       </c>
     </row>
     <row r="170" spans="1:3" ht="90">
-      <c r="A170" s="89"/>
-      <c r="B170" s="97"/>
+      <c r="A170" s="83"/>
+      <c r="B170" s="84"/>
       <c r="C170" s="35" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30">
-      <c r="A171" s="89"/>
-      <c r="B171" s="97"/>
+      <c r="A171" s="83"/>
+      <c r="B171" s="84"/>
       <c r="C171" s="55" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15">
-      <c r="A172" s="89"/>
-      <c r="B172" s="97"/>
+      <c r="A172" s="83"/>
+      <c r="B172" s="84"/>
       <c r="C172" s="55" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15">
-      <c r="A173" s="89"/>
-      <c r="B173" s="97"/>
+      <c r="A173" s="83"/>
+      <c r="B173" s="84"/>
       <c r="C173" s="55" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A174" s="89"/>
+      <c r="A174" s="83"/>
       <c r="B174" s="35" t="s">
         <v>271</v>
       </c>
       <c r="C174" s="35"/>
     </row>
     <row r="175" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A175" s="89"/>
+      <c r="A175" s="83"/>
       <c r="B175" s="35" t="s">
         <v>272</v>
       </c>
       <c r="C175" s="35"/>
     </row>
     <row r="176" spans="1:3" ht="30">
-      <c r="A176" s="89"/>
+      <c r="A176" s="83"/>
       <c r="B176" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="35"/>
     </row>
     <row r="177" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A177" s="89"/>
+      <c r="A177" s="83"/>
       <c r="B177" s="35" t="s">
         <v>274</v>
       </c>
       <c r="C177" s="35"/>
     </row>
     <row r="178" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A178" s="89"/>
+      <c r="A178" s="83"/>
       <c r="B178" s="35" t="s">
         <v>275</v>
       </c>
       <c r="C178" s="35"/>
     </row>
     <row r="179" spans="1:3" ht="30">
-      <c r="A179" s="89"/>
+      <c r="A179" s="83"/>
       <c r="B179" s="35" t="s">
         <v>276</v>
       </c>
       <c r="C179" s="35"/>
     </row>
     <row r="180" spans="1:3" ht="30">
-      <c r="A180" s="89"/>
+      <c r="A180" s="83"/>
       <c r="B180" s="35" t="s">
         <v>277</v>
       </c>
       <c r="C180" s="35"/>
     </row>
     <row r="181" spans="1:3" ht="30">
-      <c r="A181" s="89"/>
+      <c r="A181" s="83"/>
       <c r="B181" s="35" t="s">
         <v>278</v>
       </c>
       <c r="C181" s="35"/>
     </row>
     <row r="182" spans="1:3" ht="30">
-      <c r="A182" s="89"/>
+      <c r="A182" s="83"/>
       <c r="B182" s="35" t="s">
         <v>279</v>
       </c>
       <c r="C182" s="35"/>
     </row>
     <row r="183" spans="1:3" ht="30">
-      <c r="A183" s="89"/>
+      <c r="A183" s="83"/>
       <c r="B183" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C183" s="35"/>
     </row>
     <row r="184" spans="1:3" ht="45">
-      <c r="A184" s="89"/>
+      <c r="A184" s="83"/>
       <c r="B184" s="35" t="s">
         <v>281</v>
       </c>
       <c r="C184" s="35"/>
     </row>
     <row r="185" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A185" s="89"/>
+      <c r="A185" s="83"/>
       <c r="B185" s="35" t="s">
         <v>282</v>
       </c>
       <c r="C185" s="35"/>
     </row>
     <row r="186" spans="1:3" ht="45">
-      <c r="A186" s="89"/>
+      <c r="A186" s="83"/>
       <c r="B186" s="35" t="s">
         <v>283</v>
       </c>
       <c r="C186" s="35"/>
     </row>
     <row r="187" spans="1:3" ht="60">
-      <c r="A187" s="89"/>
+      <c r="A187" s="83"/>
       <c r="B187" s="35" t="s">
         <v>284</v>
       </c>
       <c r="C187" s="35"/>
     </row>
     <row r="188" spans="1:3" ht="30">
-      <c r="A188" s="89"/>
+      <c r="A188" s="83"/>
       <c r="B188" s="35" t="s">
         <v>285</v>
       </c>
       <c r="C188" s="35"/>
     </row>
     <row r="189" spans="1:3" ht="30">
-      <c r="A189" s="89"/>
+      <c r="A189" s="83"/>
       <c r="B189" s="35" t="s">
         <v>286</v>
       </c>
@@ -34209,17 +35305,111 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="A119:A167"/>
-    <mergeCell ref="A168:A189"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="B138:B150"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
@@ -34244,111 +35434,17 @@
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A119:A167"/>
+    <mergeCell ref="A168:A189"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="B138:B150"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B169:B173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A119:A167" r:id="rId1" display="Concurrency" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -34376,7 +35472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="106" t="s">
         <v>287</v>
       </c>
       <c r="B1" s="52" t="s">
@@ -34384,37 +35480,37 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="98"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="52" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="52" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="52" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="52" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="98"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="52" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>294</v>
       </c>
       <c r="B7" s="52" t="s">
@@ -34425,8 +35521,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="60">
-      <c r="A8" s="98"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="108" t="s">
         <v>297</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -34434,62 +35530,62 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="135">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="150">
-      <c r="A11" s="98"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="98"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="98"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="98"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="50" t="s">
         <v>304</v>
       </c>
       <c r="C14" s="53"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="98"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="50" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.5">
       <c r="A17" s="51"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="109" t="s">
         <v>307</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -34500,7 +35596,7 @@
       <c r="A18" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="35" t="s">
         <v>310</v>
       </c>
@@ -34590,86 +35686,86 @@
       <c r="A41" s="51"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="99"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="52"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="99"/>
+      <c r="A43" s="107"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="99"/>
+      <c r="A44" s="107"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="99"/>
+      <c r="A45" s="107"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="99"/>
+      <c r="A46" s="107"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="99"/>
+      <c r="A47" s="107"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="99"/>
+      <c r="A48" s="107"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="99"/>
+      <c r="A49" s="107"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="99"/>
+      <c r="A50" s="107"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="99"/>
+      <c r="A51" s="107"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="99"/>
+      <c r="A52" s="107"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="99"/>
+      <c r="A53" s="107"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="99"/>
+      <c r="A54" s="107"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="99"/>
+      <c r="A55" s="107"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
+      <c r="A56" s="107"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="99"/>
+      <c r="A57" s="107"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="99"/>
+      <c r="A58" s="107"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="99"/>
+      <c r="A59" s="107"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="99"/>
+      <c r="A60" s="107"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="99"/>
+      <c r="A61" s="107"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="99"/>
+      <c r="A62" s="107"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="99"/>
+      <c r="A63" s="107"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="99"/>
+      <c r="A64" s="107"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="99"/>
+      <c r="A65" s="107"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="99"/>
+      <c r="A66" s="107"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="99"/>
+      <c r="A67" s="107"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="99"/>
+      <c r="A68" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -34689,704 +35785,865 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="121" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="129" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="129" customWidth="1"/>
-    <col min="4" max="4" width="206.7109375" style="123" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="123"/>
+    <col min="1" max="1" width="19.5703125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="206.7109375" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="105">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:11" ht="52.5">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="122" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="52.5">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="120" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="116" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="116" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="K12" s="131" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="K12" s="73" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
     </row>
     <row r="14" spans="1:11" ht="131.25">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
     </row>
     <row r="15" spans="1:11" ht="52.5">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="116" t="s">
         <v>1061</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="111" t="s">
         <v>1062</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="116" t="s">
         <v>1063</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
     </row>
     <row r="19" spans="1:4" ht="78.75">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
     </row>
     <row r="20" spans="1:4" ht="78.75">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="116" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
     </row>
     <row r="21" spans="1:4" ht="157.5">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
     </row>
     <row r="22" spans="1:4" ht="78.75">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
     </row>
     <row r="23" spans="1:4" ht="78.75">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
     </row>
     <row r="24" spans="1:4" ht="157.5">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
     </row>
     <row r="25" spans="1:4" ht="210">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
     </row>
     <row r="26" spans="1:4" ht="165">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="117" t="s">
         <v>1064</v>
       </c>
-      <c r="D26" s="135"/>
+      <c r="D26" s="117"/>
     </row>
     <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="134"/>
-      <c r="B27" s="129" t="s">
+      <c r="A27" s="112"/>
+      <c r="B27" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="110" t="s">
         <v>1065</v>
       </c>
-      <c r="D27" s="136"/>
+      <c r="D27" s="110"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="134"/>
-      <c r="B28" s="129" t="s">
+      <c r="A28" s="112"/>
+      <c r="B28" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="110" t="s">
         <v>1066</v>
       </c>
-      <c r="D28" s="136"/>
+      <c r="D28" s="110"/>
     </row>
     <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="134"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="112"/>
+      <c r="B29" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="110" t="s">
         <v>1067</v>
       </c>
-      <c r="D29" s="136"/>
+      <c r="D29" s="110"/>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="74"/>
     </row>
     <row r="33" spans="1:4" ht="409.5">
-      <c r="A33" s="137"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="129" t="s">
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="74" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="105">
-      <c r="A34" s="137"/>
-      <c r="B34" s="140" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="74" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="90">
-      <c r="A35" s="137"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="129" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="139" t="s">
+      <c r="D35" s="74" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="270">
-      <c r="A36" s="137"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="129" t="s">
+      <c r="A36" s="113"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="D36" s="139" t="s">
+      <c r="D36" s="74" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="75">
-      <c r="A37" s="137"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="129" t="s">
+      <c r="A37" s="113"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="D37" s="139" t="s">
+      <c r="D37" s="74" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
-      <c r="A38" s="137"/>
-      <c r="B38" s="140"/>
-      <c r="C38" s="129" t="s">
+      <c r="A38" s="113"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="D38" s="139" t="s">
+      <c r="D38" s="74" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="137"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="129" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="139" t="s">
+      <c r="D39" s="74" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="137"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="129" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="D40" s="139"/>
+      <c r="D40" s="74"/>
     </row>
     <row r="41" spans="1:4" ht="240">
-      <c r="A41" s="137"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="129" t="s">
+      <c r="A41" s="113"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="D41" s="139" t="s">
+      <c r="D41" s="74" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="137"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="129" t="s">
+      <c r="A42" s="113"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="72" t="s">
         <v>376</v>
       </c>
-      <c r="D42" s="139"/>
+      <c r="D42" s="74"/>
     </row>
     <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="137"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="129" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="72" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="107.25" customHeight="1">
-      <c r="A44" s="137"/>
-      <c r="B44" s="140" t="s">
+      <c r="A44" s="113"/>
+      <c r="B44" s="115" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="133" t="s">
+      <c r="C44" s="111" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="133"/>
+      <c r="D44" s="111"/>
     </row>
     <row r="45" spans="1:4" ht="105">
-      <c r="A45" s="137"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="129" t="s">
+      <c r="A45" s="113"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="D45" s="139" t="s">
+      <c r="D45" s="74" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30">
-      <c r="A46" s="137"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="138" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="114" t="s">
         <v>382</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="74" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105">
-      <c r="A47" s="137"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="139" t="s">
+      <c r="A47" s="113"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="74" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="75">
-      <c r="A48" s="137"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="139" t="s">
+      <c r="A48" s="113"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="74" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="137"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="139" t="s">
+      <c r="A49" s="113"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="74" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="137"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="139" t="s">
+      <c r="A50" s="113"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="74" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45">
-      <c r="A51" s="137"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="139" t="s">
+      <c r="A51" s="113"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="74" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="137"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139" t="s">
+      <c r="A52" s="113"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="74" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="90">
-      <c r="A53" s="137"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="138" t="s">
+      <c r="A53" s="113"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="D53" s="139" t="s">
+      <c r="D53" s="74" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="90">
-      <c r="A54" s="137"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139" t="s">
+      <c r="A54" s="113"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="74" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="90">
-      <c r="A55" s="137"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="139" t="s">
+      <c r="A55" s="113"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="74" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="75">
-      <c r="A56" s="137"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="139" t="s">
+      <c r="A56" s="113"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="74" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="105">
-      <c r="A57" s="137"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="139" t="s">
+      <c r="A57" s="113"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="74" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="195">
-      <c r="A58" s="137"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="139" t="s">
+      <c r="A58" s="113"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="74" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="105">
-      <c r="A59" s="137"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="139" t="s">
+      <c r="A59" s="113"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="74" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="165">
-      <c r="A60" s="137"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="139" t="s">
+      <c r="A60" s="113"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="74" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="105">
-      <c r="A61" s="137"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139" t="s">
+      <c r="A61" s="113"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="74" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="165">
-      <c r="A62" s="137"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139" t="s">
+      <c r="A62" s="113"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="74" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="105">
-      <c r="A63" s="137"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139" t="s">
+      <c r="A63" s="113"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="74" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="137"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139" t="s">
+      <c r="A64" s="113"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="74" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="105">
-      <c r="A65" s="137"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="141" t="s">
+      <c r="A65" s="113"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="75" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="409.5">
-      <c r="A66" s="137"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="139" t="s">
+      <c r="A66" s="113"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="74" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="120">
-      <c r="A67" s="137"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="139" t="s">
+    <row r="67" spans="1:4" ht="405">
+      <c r="A67" s="113"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="142" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
-      <c r="A68" s="137"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="139" t="s">
+    <row r="68" spans="1:4" ht="45">
+      <c r="A68" s="113"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="142" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="113"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="142" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
-      <c r="A69" s="137"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139" t="s">
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="113"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="74" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
-      <c r="A70" s="137"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="139" t="s">
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="113"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="74" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="137"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="129" t="s">
+    <row r="72" spans="1:4" ht="30">
+      <c r="A72" s="113"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="72" t="s">
         <v>1077</v>
       </c>
-      <c r="D71" s="139"/>
-    </row>
-    <row r="72" spans="1:4" ht="30">
-      <c r="A72" s="137"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="129" t="s">
+      <c r="D72" s="74"/>
+    </row>
+    <row r="73" spans="1:4" ht="105">
+      <c r="A73" s="113"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="72" t="s">
         <v>1078</v>
       </c>
-      <c r="D72" s="139"/>
-    </row>
-    <row r="73" spans="1:4" ht="15">
-      <c r="A73" s="137"/>
-      <c r="B73" s="140"/>
-      <c r="D73" s="139"/>
-    </row>
-    <row r="74" spans="1:4" ht="15">
-      <c r="A74" s="137"/>
-      <c r="B74" s="129" t="s">
+      <c r="D73" s="142" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="135">
+      <c r="A74" s="113"/>
+      <c r="B74" s="114" t="s">
         <v>392</v>
       </c>
-      <c r="D74" s="139"/>
+      <c r="C74" s="109" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D74" s="142" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="409.5">
+      <c r="A75" s="113"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="142" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="409.5">
+      <c r="A76" s="113"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="142" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="113"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="142" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="113"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="142" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="113"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="142" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="113"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="142" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="113"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="142" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="144" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D82" s="142" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30">
+      <c r="A83" s="113"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="142" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="113"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="142" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="113"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="142" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="113"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="142" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="45">
+      <c r="A87" s="113"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="143" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D87" s="142"/>
+    </row>
+    <row r="88" spans="1:4" ht="409.5">
+      <c r="A88" s="113"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="109" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D88" s="145" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="60">
+      <c r="A89" s="113"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="109"/>
+      <c r="D89" s="142" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="113"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="142" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="142" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="113"/>
+      <c r="B92" s="114"/>
+      <c r="D92" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="40">
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A32:A74"/>
+    <mergeCell ref="A32:A92"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="B44:B73"/>
     <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C70"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C53:C71"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B74:B92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K12" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A32" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="B34:B43" r:id="rId3" display="Lecture 2_x000a_(SQL I )" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B44" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C88:C91" r:id="rId5" display="https://www.youtube.com/watch?v=d3bsAeo0e8U&amp;list=PLzzVuDSjP25SJBxWLPfYLwGlOPHmKL775&amp;index=2" xr:uid="{77FD7763-D943-4AE5-BA26-73D5E5419039}"/>
+    <hyperlink ref="C74:C81" r:id="rId6" display="DBMS Architecture" xr:uid="{FC2BE2B7-BF58-47FD-9C75-D606BA7767E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -35433,7 +36690,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="123" t="s">
         <v>399</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -35444,43 +36701,43 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="103"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="47" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="103"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="46" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="103"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="47" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="103"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="46" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="103"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="47" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="103"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="46" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="104"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="47" t="s">
         <v>408</v>
       </c>
@@ -35608,29 +36865,29 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="126" t="s">
         <v>435</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="127" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="105"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C32" s="107"/>
+      <c r="C32" s="128"/>
     </row>
     <row r="33" spans="1:3" ht="135">
-      <c r="A33" s="105"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="C33" s="107"/>
+      <c r="C33" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35730,7 +36987,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="75">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="128" t="s">
         <v>456</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -35744,7 +37001,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="90">
-      <c r="A13" s="107"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="6" t="s">
         <v>460</v>
       </c>
@@ -35756,15 +37013,15 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
     </row>
     <row r="21" spans="1:4" ht="135">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="126" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -35772,7 +37029,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="75">
-      <c r="A22" s="105"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="6" t="s">
         <v>464</v>
       </c>
@@ -35812,10 +37069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="131"/>
     </row>
     <row r="2" spans="1:3" ht="192.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -35901,10 +37158,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="B13" s="109"/>
+      <c r="B13" s="131"/>
     </row>
     <row r="14" spans="1:3" ht="90">
       <c r="A14" s="28" t="s">
@@ -35939,7 +37196,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="75">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="130" t="s">
         <v>496</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -35947,25 +37204,25 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="90">
-      <c r="A19" s="110"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="22" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45">
-      <c r="A20" s="110"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="22" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="135">
-      <c r="A21" s="110"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="22" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="110"/>
+      <c r="A22" s="130"/>
     </row>
     <row r="23" spans="1:3" ht="45">
       <c r="A23" s="28" t="s">
@@ -35992,7 +37249,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="130" t="s">
         <v>506</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -36000,13 +37257,13 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="110"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="22" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="110"/>
+      <c r="A28" s="130"/>
       <c r="B28" s="22" t="s">
         <v>509</v>
       </c>
@@ -36020,10 +37277,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="135">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="132" t="s">
         <v>512</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="77" t="s">
         <v>513</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -36031,22 +37288,22 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="75">
-      <c r="A31" s="111"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="23" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
-      <c r="A32" s="111"/>
-      <c r="B32" s="70"/>
+      <c r="A32" s="132"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="23" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="210">
-      <c r="A33" s="111"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="6" t="s">
         <v>517</v>
       </c>
@@ -36060,7 +37317,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="60">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="130" t="s">
         <v>520</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -36068,31 +37325,31 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="110"/>
+      <c r="A36" s="130"/>
       <c r="B36" s="22" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="75">
-      <c r="A37" s="110"/>
+      <c r="A37" s="130"/>
       <c r="B37" s="22" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="90">
-      <c r="A38" s="110"/>
+      <c r="A38" s="130"/>
       <c r="B38" s="22" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="75">
-      <c r="A39" s="110"/>
+      <c r="A39" s="130"/>
       <c r="B39" s="22" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="130" t="s">
         <v>526</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -36100,13 +37357,13 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="75">
-      <c r="A41" s="110"/>
+      <c r="A41" s="130"/>
       <c r="B41" s="22" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="110"/>
+      <c r="A42" s="130"/>
       <c r="B42" s="22" t="s">
         <v>529</v>
       </c>
@@ -36120,7 +37377,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="130" t="s">
         <v>532</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -36128,25 +37385,25 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="110"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="22" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60">
-      <c r="A46" s="110"/>
+      <c r="A46" s="130"/>
       <c r="B46" s="36" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45">
-      <c r="A47" s="110"/>
+      <c r="A47" s="130"/>
       <c r="B47" s="36" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="90">
-      <c r="A48" s="110"/>
+      <c r="A48" s="130"/>
       <c r="B48" s="36" t="s">
         <v>537</v>
       </c>
@@ -36180,7 +37437,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="105">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="130" t="s">
         <v>544</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -36188,13 +37445,13 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="105">
-      <c r="A54" s="110"/>
+      <c r="A54" s="130"/>
       <c r="B54" s="22" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="110"/>
+      <c r="A55" s="130"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="28" t="s">
@@ -36202,7 +37459,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="75">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="130" t="s">
         <v>548</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -36210,52 +37467,52 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="165">
-      <c r="A58" s="110"/>
+      <c r="A58" s="130"/>
       <c r="B58" s="36" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="105">
-      <c r="A59" s="110"/>
+      <c r="A59" s="130"/>
       <c r="B59" s="22" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="110"/>
+      <c r="A60" s="130"/>
       <c r="B60" s="36" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="120">
-      <c r="A61" s="110"/>
+      <c r="A61" s="130"/>
       <c r="B61" s="36" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="26.25">
-      <c r="A63" s="99" t="s">
+      <c r="A63" s="107" t="s">
         <v>554</v>
       </c>
-      <c r="B63" s="109"/>
+      <c r="B63" s="131"/>
     </row>
     <row r="64" spans="1:3" ht="195">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="130" t="s">
         <v>555</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="165">
-      <c r="A65" s="110"/>
+      <c r="A65" s="130"/>
       <c r="B65" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="C65" s="71"/>
+      <c r="C65" s="78"/>
     </row>
     <row r="66" spans="1:3" ht="90">
       <c r="A66" s="29" t="s">
@@ -36264,7 +37521,7 @@
       <c r="B66" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="C66" s="71"/>
+      <c r="C66" s="78"/>
     </row>
     <row r="67" spans="1:3" ht="60">
       <c r="A67" s="28" t="s">
@@ -36273,10 +37530,10 @@
       <c r="B67" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="C67" s="71"/>
+      <c r="C67" s="78"/>
     </row>
     <row r="68" spans="1:3" ht="60">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="130" t="s">
         <v>563</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -36284,29 +37541,29 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="225">
-      <c r="A69" s="110"/>
+      <c r="A69" s="130"/>
       <c r="B69" s="41" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="390">
-      <c r="A70" s="110"/>
+      <c r="A70" s="130"/>
       <c r="B70" s="41" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="135">
-      <c r="A71" s="110"/>
+      <c r="A71" s="130"/>
       <c r="B71" s="41" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="110"/>
+      <c r="A72" s="130"/>
       <c r="B72" s="40"/>
     </row>
     <row r="73" spans="1:3" ht="60">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="83" t="s">
         <v>568</v>
       </c>
       <c r="B73" s="40" t="s">
@@ -36314,19 +37571,19 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45">
-      <c r="A74" s="89"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="40" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="89"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="40" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="75">
-      <c r="A76" s="110" t="s">
+      <c r="A76" s="130" t="s">
         <v>572</v>
       </c>
       <c r="B76" s="22" t="s">
@@ -36334,19 +37591,19 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="150">
-      <c r="A77" s="110"/>
+      <c r="A77" s="130"/>
       <c r="B77" s="22" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="150">
-      <c r="A78" s="110"/>
+      <c r="A78" s="130"/>
       <c r="B78" s="22" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="110"/>
+      <c r="A79" s="130"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="28" t="s">
@@ -36354,7 +37611,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="45">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="83" t="s">
         <v>577</v>
       </c>
       <c r="B81" s="36" t="s">
@@ -36362,25 +37619,25 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="89"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="42" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="89"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="36" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="89"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="36" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="130" t="s">
         <v>582</v>
       </c>
       <c r="B85" s="22" t="s">
@@ -36388,19 +37645,19 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="110"/>
+      <c r="A86" s="130"/>
       <c r="B86" s="36" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="195" customHeight="1">
-      <c r="A87" s="110"/>
+      <c r="A87" s="130"/>
       <c r="B87" s="22" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="130" t="s">
         <v>586</v>
       </c>
       <c r="B88" s="36" t="s">
@@ -36408,40 +37665,40 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="120">
-      <c r="A89" s="110"/>
+      <c r="A89" s="130"/>
       <c r="B89" s="36" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="110"/>
+      <c r="A90" s="130"/>
       <c r="B90" s="43" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="110"/>
+      <c r="A91" s="130"/>
       <c r="B91" s="22" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="110"/>
+      <c r="A92" s="130"/>
       <c r="B92" s="22" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="110"/>
+      <c r="A93" s="130"/>
       <c r="B93" s="22" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="26.25">
-      <c r="A95" s="99" t="s">
+      <c r="A95" s="107" t="s">
         <v>593</v>
       </c>
-      <c r="B95" s="109"/>
+      <c r="B95" s="131"/>
     </row>
     <row r="96" spans="1:2" ht="105">
       <c r="A96" s="29" t="s">
@@ -36452,7 +37709,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="135">
-      <c r="A97" s="110" t="s">
+      <c r="A97" s="130" t="s">
         <v>596</v>
       </c>
       <c r="B97" s="22" t="s">
@@ -36460,19 +37717,19 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="195">
-      <c r="A98" s="110"/>
+      <c r="A98" s="130"/>
       <c r="B98" s="40" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="165">
-      <c r="A99" s="110"/>
+      <c r="A99" s="130"/>
       <c r="B99" s="22" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="120">
-      <c r="A100" s="110" t="s">
+      <c r="A100" s="130" t="s">
         <v>600</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -36480,31 +37737,31 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="150">
-      <c r="A101" s="110"/>
+      <c r="A101" s="130"/>
       <c r="B101" s="36" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="150">
-      <c r="A102" s="110"/>
+      <c r="A102" s="130"/>
       <c r="B102" s="36" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="195">
-      <c r="A103" s="110"/>
+      <c r="A103" s="130"/>
       <c r="B103" s="36" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60">
-      <c r="A104" s="110"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="36" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="110"/>
+      <c r="A105" s="130"/>
       <c r="B105" s="43" t="s">
         <v>606</v>
       </c>
@@ -36518,7 +37775,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="90">
-      <c r="A107" s="110" t="s">
+      <c r="A107" s="130" t="s">
         <v>609</v>
       </c>
       <c r="B107" s="22" t="s">
@@ -36526,13 +37783,13 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="165">
-      <c r="A108" s="110"/>
+      <c r="A108" s="130"/>
       <c r="B108" s="36" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="120">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="83" t="s">
         <v>612</v>
       </c>
       <c r="B109" s="36" t="s">
@@ -36540,13 +37797,13 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="89"/>
+      <c r="A110" s="83"/>
       <c r="B110" s="36" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="83" t="s">
         <v>615</v>
       </c>
       <c r="B111" s="22" t="s">
@@ -36554,83 +37811,73 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="89"/>
+      <c r="A112" s="83"/>
       <c r="B112" s="22" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="84" customHeight="1">
-      <c r="A113" s="89"/>
+      <c r="A113" s="83"/>
       <c r="B113" s="22" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A114" s="89"/>
+      <c r="A114" s="83"/>
       <c r="B114" s="22" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15">
-      <c r="A115" s="89"/>
+      <c r="A115" s="83"/>
       <c r="B115" s="22" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
-      <c r="A116" s="89"/>
+      <c r="A116" s="83"/>
       <c r="B116" s="22" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90">
-      <c r="A117" s="89"/>
+      <c r="A117" s="83"/>
       <c r="B117" s="22" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="89"/>
+      <c r="A118" s="83"/>
       <c r="B118" s="21" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1">
-      <c r="A119" s="89"/>
+      <c r="A119" s="83"/>
       <c r="B119" s="22" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1">
-      <c r="A120" s="89"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="21" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" s="89"/>
+      <c r="A121" s="83"/>
       <c r="B121" s="21" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="89"/>
+      <c r="A122" s="83"/>
       <c r="B122" s="21" t="s">
         <v>627</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A105"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -36647,6 +37894,16 @@
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -1697,36 +1697,107 @@
     </r>
   </si>
   <si>
-    <t>Introduction: 
-- Generic classes and methods have type parameters. This allows them to describe precisely(chính xác) what should happen when they are instantiated(được khởi tạo) with speciﬁc types.
+    <r>
+      <t xml:space="preserve">Introduction: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Generic classes and methods have type parameters. This allows them to describe precisely(chính xác) what should happen when they are instantiated(được khởi tạo) with speciﬁc types.
  - Allows designers to describe in detail how types of variables and methods should vary(thay đổi).
  - Simple to implement generic code, complex for implementors</t>
-  </si>
-  <si>
-    <t>Why Generic Programming:
-- Generic programming means writing code that can be reused for objects of many different types. For example, you don’t want to program separate classes to collect String and File objects. And you don’t have to the single class ArrayList collects objects of any class.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why Generic Programming:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Generic programming means writing code that can be reused for objects of many different types. For example, you don’t want to program separate classes to collect String and File objects. And you don’t have to the single class ArrayList collects objects of any class.
 - If you declare a variable with an explicit type instead of var, you can omit the type parameter in the constructor by using the “diamond” syntax:
 ArrayList&lt;String&gt; files = new ArrayList&lt;&gt;(); =&gt; The omitted type is inferred from the type of the variable. The compiler can make good use of the type information too. No cast is required for calling get. The compiler knows that the return type is String, not Object.</t>
-  </si>
-  <si>
-    <t>Wildcard Type:
-- A programmer may want to add all elements from an ArrayList&lt;Manager&gt; to an ArrayList&lt;Employee&gt;. How do you allow one call and disallow the other? (Add elements vào elements cha, không cho phép ngược lại) =&gt; Wildcard Type
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildcard Type:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- A programmer may want to add all elements from an ArrayList&lt;Manager&gt; to an ArrayList&lt;Employee&gt;. How do you allow one call and disallow the other? (Add elements vào elements cha, không cho phép ngược lại) =&gt; Wildcard Type
 - Wildcardtypes are rather abstract, but they allow a library builder to make methods as ﬂexible as possible(linh hoạt nhất có thể).</t>
-  </si>
-  <si>
-    <t>Generic programming fall into (chia) 3 skill levels:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generic programming fall into (chia) 3 skill levels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Basic level: Just use generic classes-typically without how and why they work
 - Learn enough about Java generics to solve problems 
 - Implement own genetic classes and methods</t>
-  </si>
-  <si>
-    <t>Deﬁning a Simple Generic Class:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deﬁning a Simple Generic Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - In other words, the generic class acts as a factory(nhà máy sản xuất) for ordinary(thông thường) classes.
 - It is common practice to use uppercase letters for type variables, and to keep them short. The Java library uses the variable E for the element type of a
 collection, K and V for key and value types of a table, and T (and the neighboring letters U and S, if necessary) for “any type at all.”</t>
-  </si>
-  <si>
-    <t>Generic Methods:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generic Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Can deﬁne generic methods both inside ordinary classes and inside generic classes. Note that the type variables are inserted after the modiﬁers (public static, in our case) and before the return type.
 - String middle = ArrayAlg.&lt;String&gt;getMiddle("John", "Q.","Public");
  The compiler has enough information to infer the method that you want. It matches the type of the arguments against the generic type T... and deduces that T must be String
@@ -1735,47 +1806,188 @@
   In a nutshell, the compiler autoboxed the parameters into a Double and two Integer objects, and then it tried to ﬁnd a common supertype
 of these classes. It actually found two: Number and the Comparable interface, which is itself a generic type. In this case, the remedy is to write all
 parameters as double values.</t>
-  </si>
-  <si>
-    <t>Bounds for Type Variables:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bounds for Type Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Sometimes, a class or a method needs to place restrictions(những giới hạn) on type variables
 - Bound for the type variable: example (public static &lt;T extends Comparable&gt; T min(T[] a) . . .)
 - The extends keyword was chosen because it is a reasonable approximation of the subtype concept, and the Java designers did not want to add a new keyword (such as sub) to the language.
 - A type variable or wildcard can have multiple bounds. For example:(T extends Comparable &amp; Serializable)
 - As with Java inheritance, you can have as many interface supertypes as you like, but at most one of the bounds can be a class. If you have a class as a bound, it must be the ﬁrst one in the bounds list. (Nếu có class trong bound thì class phải đứng đầu sau đó mới tới interface =&gt; Same Inheritance trong Java)</t>
-  </si>
-  <si>
-    <t>Generic Code and the Virtual Machine:
-- The virtual machine does not have objects of generic types—all objects belong to ordinary classes.
-1, Type Erasure: 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generic Code and the Virtual Machine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- The virtual machine does not have objects of generic types—all objects belong to ordinary classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1, Type Erasure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
 - Is the process by which generic type information is removed by the Java compiler after it verifies the type safety of generic code. This means that at runtime, the generic type parameters are not available; instead, they are replaced with their bounds (or Object if no bounds are specified)
 - The Java compiler applies type erasure:
   + Replace all type parameters in generic types with their bounds or Object if the type parameters are unbounded =&gt;  The produced bytecode, therefore, contains only ordinary classes, interfaces, and methods
-  + Insert type casts if necessary to preserve type safety. Generate bridge methods to preserve polymorphism in extended generic types.
-2. Translating Generic Expressions:
+  + Insert type casts if necessary to preserve type safety. Generate bridge methods to preserve polymorphism in extended generic types.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Translating Generic Expressions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - When you program a call to a generic method, the compiler inserts casts when the return type has been erased
   EX:  Pair&lt;Employee&gt; buddies = . . .;
          Employee buddy = buddies.getFirst();
 - The erasure of getFirst has return type Object. The compiler automatically inserts the cast to Employee. That is, the compiler translates the method call into two virtual machine instructions:
   + A call to the raw method Pair.getFirst
-  + A cast of the returned Object to the type Employee
-3. Translating Generic Methods:
+  + A cast of the returned Object to the type Employee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Translating Generic Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - EX: public static &lt;T extends Comparable&gt; T min(T[] a) =&gt; public static Comparable min(Comparable[] a)
-- The compiler generates a bridge method for erasure interferes with polymorphism
-4. Calling Legacy Code:
+- The compiler generates a bridge method for erasure interferes with polymorphism</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Calling Legacy Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 ===&gt; In summary, you need to remember these facts about translation of Java generics:
 - There are no generics in the virtual machine, only ordinary classes and methods
 - All type parameters are replaced by their bounds.
 - Bridge methods are synthesized to preserve polymorphism.
 - Casts are inserted as necessary to preserve type safety.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrictions and Limitations
-1. Type Parameters Cannot Be Instantiated with Primitive Types:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Restrictions and Limitations
+1. Type Parameters Cannot Be Instantiated with Primitive Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Never Pair&lt;double&gt; =&gt; Only Pair&lt;Double&gt;
 - The reason is, of course, type erasure. After erasure, the Pair class has ﬁelds of type Object, and you can’t use
-them to store double values.
-2. Runtime Type Inquiry Only Works with Raw Types:
+them to store double values.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Runtime Type Inquiry Only Works with Raw Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Objects in the virtual machine always have a speciﬁc nongeneric type =&gt; all type inquiries yield only the raw type
    if (a instanceof Pair&lt;String&gt;) // ERROR  
    if (a instanceof Pair&lt;T&gt;) // ERROR
@@ -1783,15 +1995,47 @@
 - In the same spirit, the getClass method always returns the raw type. For example: 
   Pair&lt;String&gt; stringPair = . . .;
   Pair&lt;Employee&gt; employeePair = . . .;
-  if (stringPair.getClass() == employeePair.getClass()) // they are equal (Pair.class)
-3. You Cannot Create Arrays of Parameterized Types:
+  if (stringPair.getClass() == employeePair.getClass()) // they are equal (Pair.class)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. You Cannot Create Arrays of Parameterized Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - You cannot instantiate arrays of parameterized types, such as: var table = new Pair&lt;String&gt;[10]; // ERROR WHY ?
 =&gt; After erasure, the type of table is Pair[], You can convert it to Object[] objarray = table;
 An array remembers its component type and throws an ArrayStoreException 
 if you try to store an element of the wrong type: objarray[0] = "Hello"; // ERROR--component type is Pair
 - Note that only the creation of these arrays is outlawed. You can declare a variable of type Pair&lt;String&gt;[]. But you can’t initialize it with a new
 Pair&lt;String&gt;[10]
-- TIP: If you need to collect parameterized type objects, simply use an ArrayList: ArrayList&lt;Pair&lt;String&gt;&gt; is safe and effective.
+- TIP: If you need to collect parameterized type objects, simply use an ArrayList: ArrayList&lt;Pair&lt;String&gt;&gt; is safe and effective</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
 4. Varargs Warnings:
 5. You Cannot Instantiate Type Variables:
 public Pair() { first = new T(); second = new T(); } // ERROR
@@ -1801,45 +2045,228 @@
 9. You Can Defeat Checked Exception Checking
 10. Beware of Clashes after Erasure
 </t>
-  </si>
-  <si>
-    <t>Inheritance Rules for Generic Types
-- Consider a class and a subclass, such as Employee and Manager. Is Pair&lt;Manager&gt; a subtype of Pair&lt;Employee&gt;?
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inheritance Rules for Generic Types
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Consider a class and a subclass, such as Employee and Manager. Is Pair&lt;Manager&gt; a subtype of Pair&lt;Employee&gt;?
 Perhaps surprisingly, the answer is “no”
 - generic classes can extend or implement other generic classes. In this regard, they are no different from ordinary classes. For example, the
 class ArrayList&lt;T&gt; implements the interface List&lt;T&gt;. That means an ArrayList&lt;Manager&gt; can be converted to a List&lt;Manager&gt;. However, as you
 just saw, an ArrayList&lt;Manager&gt; is not an ArrayList&lt;Employee&gt; or List&lt;Employee&gt;</t>
-  </si>
-  <si>
-    <t>Wildcard Types
-- It was known for some time among researchers of type systems that a rigid(cứng nhắc) system of generic types is quite unpleasant(khó chịu) to use. The Java designers invented an ingenious (but nevertheless safe) “escape hatch”: the wildcard type
-1. The Wildcard Concept:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildcard Types
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was known for some time among researchers of type systems that a rigid(cứng nhắc) system of generic types is quite unpleasant(khó chịu) to use. The Java designers invented an ingenious (but nevertheless safe) “escape hatch”: the wildcard type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. The Wildcard Concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - In a wildcard type, a type parameter is allowed to vary (được phép thay đổi): Pair&lt;? extends Employee&gt;
 =&gt; denotes any generic Pair type whose type parameter is a subclass of Employee, such as Pair&lt;Manager&gt;, but not Pair&lt;String&gt; 
 - It is impossible to call the method! Consider the call wildcardBuddies.setFirst(lowlyEmployee) The compiler knows that the parameter of setFirst has some speciﬁc type, which extends Employee. Is that speciﬁc type Employee? Is it Manager, or some other subclass? There is no way for the compiler to know. Therefore, the compiler cannot accept lowlyEmployee. For the same reason, the call setFirst wildcardBuddies.setFirst(cio), where cio is a Manager instance, also fails. The compiler must reject all arguments to setFirst other than null.
 - The getFirst method continues to work. The return value of getFirst is an instance of some speciﬁc type, which is a subtype of Employee. The compiler doesn’t know what that speciﬁc type is, but it can guarantee that the assignment to an Employee reference is safe.
-=&gt; This is the key idea behind bounded wildcards. We now have a way of distinguishing between the safe accessor methods and the unsafe mutator methods.
-2. Supertype Bounds for Wildcards:
-- Wildcard bounds are similar to type variable bounds, but they have an added capability—you can specify a supertype bound, like this: (? super Manager)
+=&gt; This is the key idea behind bounded wildcards. We now have a way of distinguishing between the safe accessor methods and the unsafe mutator methods.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Supertype Bounds for Wildcards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- Wildcard bounds are similar to type variable bounds, but they have an added capability—you can specify a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supertype bound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, like this: (? super Manager)
 - Intuitively speaking, wildcards with supertype bounds let you write to a generic object, while wildcards with subtype bounds let you read from a generic object. (super type bounds safe mutator, unsafe accessor)
-3. Unbounded Wildcards:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Unbounded Wildcards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - The return value of getFirst can only be assigned to an Object. The setFirst method can never be called, not even with an Object. That’s the
-essential difference between Pair&lt;?&gt; and Pair: you can call the setFirst method of the raw Pair class with any Object.
-4. Wildcard Capture:
-- Wildcard capture is only legal in very limited circumstances. The compiler must be able to guarantee that the wildcard represents a single, deﬁnite type. For example, the T in ArrayList&lt;Pair&lt;T&gt;&gt; can never capture the wildcard in ArrayList&lt;Pair&lt;?&gt;&gt;. The array list might hold two Pair&lt;?&gt;, each of which has a different type for ?.
+essential difference between Pair&lt;?&gt; and Pair: you can call the setFirst method of the raw Pair class with any Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Wildcard Capture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Wildcard capture is only legal in very limited circumstances. The compiler must be able to guarantee that the wildcard represents a single, deﬁnite type. For example, the T in ArrayList&lt;Pair&lt;T&gt;&gt; can never capture the wildcard in ArrayList&lt;Pair&lt;?&gt;&gt;. The array list might hold two Pair&lt;?&gt;, each of which has a different type for ?.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 -</t>
-  </si>
-  <si>
-    <t>Reﬂection and Generics
-1. The Generic Class class:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reﬂection and Generics
+1. The Generic Class class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
 - The newInstance() method returns an instance of the class, obtained from the no-argument constructor. Its return type can now be declared to be T, the same type as the class that is being described by Class&lt;T&gt;. That saves a cast.
 - The cast() method returns the given object, now declared as type T if its type is indeed a subtype of T. Otherwise, it throws a BadCastException.
 - The getEnumConstants() method returns null if this class is not an enum class or an array of the enumeration values which are known to be of type T.
 - The getConstructor() and getDeclaredConstructor() methods return a Constructor&lt;T&gt; object. The Constructor class has also been made generic so that its newInstance method has the correct return type.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. Using Class&lt;T&gt; Parameters for Type Matching
-3. Generic Type Information in the Virtual Machine:
+3. Generic Type Information in the Virtual Machine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
 - One of the notable features of Java generics is the erasure of generic types in the virtual machine. Perhaps surprisingly, the erased classes still retain some faint memory of their generic origin. For example, the raw Pair class knows that it originated from the generic class Pair&lt;T&gt;, even though an object of type Pair can’t tell whether it was constructed as a Pair&lt;String&gt; or Pair&lt;Employee&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 4. Type Literals</t>
+    </r>
   </si>
   <si>
     <t>Collections</t>
@@ -6038,13 +6465,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Exploiting Multiple Processors:
  - Since the</t>
     </r>
@@ -34141,12 +34561,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34313,62 +34733,7 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -34445,15 +34810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34468,14 +34827,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -34483,9 +34834,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34493,14 +34843,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34515,7 +34858,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34524,6 +34874,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34538,13 +34918,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -34554,14 +34927,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34613,41 +34978,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -34720,7 +35050,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34738,49 +35092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34792,19 +35110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34822,13 +35128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34840,7 +35152,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34852,19 +35194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34876,13 +35206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34954,30 +35284,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -35026,141 +35332,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -35168,7 +35498,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -35329,78 +35659,57 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -35409,34 +35718,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -35445,7 +35754,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -35460,40 +35769,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -35502,13 +35808,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -35703,8 +36009,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>993140</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1466215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -35763,7 +36069,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20746720" y="60255150"/>
+          <a:off x="20746720" y="89192100"/>
           <a:ext cx="6933565" cy="6762115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35787,8 +36093,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>993140</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1466215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -35847,7 +36153,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20746720" y="60255150"/>
+          <a:off x="20746720" y="89192100"/>
           <a:ext cx="6933565" cy="7409815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36395,7 +36701,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
     </row>
@@ -36406,7 +36712,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="106" t="s">
         <v>3</v>
       </c>
     </row>
@@ -36414,10 +36720,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36428,7 +36734,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36450,7 +36756,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="107" t="s">
         <v>11</v>
       </c>
     </row>
@@ -36461,7 +36767,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -36472,7 +36778,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="104" t="s">
         <v>15</v>
       </c>
     </row>
@@ -36483,7 +36789,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="106" t="s">
         <v>17</v>
       </c>
     </row>
@@ -36532,7 +36838,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="104" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -36562,7 +36868,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="104" t="s">
         <v>37</v>
       </c>
     </row>
@@ -36570,7 +36876,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="104" t="s">
         <v>39</v>
       </c>
     </row>
@@ -39375,13 +39681,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8533333333333" style="109" customWidth="1"/>
+    <col min="1" max="1" width="15.8533333333333" style="101" customWidth="1"/>
     <col min="2" max="2" width="13.8533333333333" style="46" customWidth="1"/>
     <col min="3" max="3" width="156.14" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="101" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -39390,13 +39696,13 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" ht="57" customHeight="1" spans="2:3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="102"/>
     </row>
     <row r="3" ht="135" customHeight="1" spans="1:3">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="101" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -39405,7 +39711,7 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:3">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="101" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -39414,7 +39720,7 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="255.95" customHeight="1" spans="1:3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -39423,7 +39729,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="101" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -39432,10 +39738,10 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="33.95" customHeight="1" spans="1:4">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="74" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -39444,7 +39750,7 @@
       <c r="D7" s="42"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="101" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -39474,19 +39780,19 @@
   <sheetPr/>
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.4266666666667" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.2866666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="184.5" style="85" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="84"/>
+    <col min="3" max="3" width="184.5" style="78" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" s="84" customFormat="1" ht="86.25" spans="1:3">
+    <row r="1" s="77" customFormat="1" ht="86.25" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>56</v>
       </c>
@@ -39495,7 +39801,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="2" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>58</v>
       </c>
@@ -39504,155 +39810,155 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="3" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="108" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" s="84" customFormat="1" ht="69" spans="1:3">
+    <row r="4" s="77" customFormat="1" ht="69" spans="1:3">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="86"/>
-    </row>
-    <row r="5" s="84" customFormat="1" ht="86.25" spans="1:3">
+      <c r="C4" s="79"/>
+    </row>
+    <row r="5" s="77" customFormat="1" ht="86.25" spans="1:3">
       <c r="A5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="108" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="6" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="108" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="7" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" s="84" customFormat="1" spans="1:3">
+    <row r="8" s="77" customFormat="1" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" s="84" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="118" t="s">
+    <row r="9" s="77" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A9" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="108" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" s="84" customFormat="1" spans="1:3">
+    <row r="10" s="77" customFormat="1" spans="1:3">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" s="84" customFormat="1" spans="1:3">
+    <row r="11" s="77" customFormat="1" spans="1:3">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" s="84" customFormat="1" ht="327.75" spans="1:3">
+    <row r="12" s="77" customFormat="1" ht="327.75" spans="1:3">
       <c r="A12" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" s="84" customFormat="1" ht="103.5" spans="1:3">
-      <c r="A13" s="87" t="s">
+    <row r="13" s="77" customFormat="1" ht="103.5" spans="1:3">
+      <c r="A13" s="80" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" s="84" customFormat="1" ht="86.25" spans="1:3">
-      <c r="A14" s="88" t="s">
+    <row r="14" s="77" customFormat="1" ht="86.25" spans="1:3">
+      <c r="A14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="90"/>
-    </row>
-    <row r="15" s="84" customFormat="1" ht="69" spans="1:3">
-      <c r="A15" s="87" t="s">
+      <c r="C14" s="83"/>
+    </row>
+    <row r="15" s="77" customFormat="1" ht="69" spans="1:3">
+      <c r="A15" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="92"/>
-    </row>
-    <row r="16" s="84" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A16" s="88" t="s">
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" s="77" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="94"/>
-    </row>
-    <row r="17" s="84" customFormat="1" spans="1:3">
-      <c r="A17" s="87" t="s">
+      <c r="C16" s="87"/>
+    </row>
+    <row r="17" s="77" customFormat="1" spans="1:3">
+      <c r="A17" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="92"/>
-    </row>
-    <row r="18" s="84" customFormat="1" spans="1:3">
-      <c r="A18" s="88" t="s">
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" s="77" customFormat="1" spans="1:3">
+      <c r="A18" s="81" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" s="84" customFormat="1" spans="1:3">
-      <c r="A19" s="87" t="s">
+    <row r="19" s="77" customFormat="1" spans="1:3">
+      <c r="A19" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="90"/>
-    </row>
-    <row r="20" s="84" customFormat="1" spans="1:3">
+      <c r="C19" s="83"/>
+    </row>
+    <row r="20" s="77" customFormat="1" spans="1:3">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" s="84" customFormat="1" spans="1:3">
+    <row r="21" s="77" customFormat="1" spans="1:3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" s="84" customFormat="1" spans="1:3">
+    <row r="22" s="77" customFormat="1" spans="1:3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" s="84" customFormat="1" spans="1:3">
+    <row r="23" s="77" customFormat="1" spans="1:3">
       <c r="A23" s="36" t="s">
         <v>84</v>
       </c>
@@ -39661,14 +39967,14 @@
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" s="84" customFormat="1" spans="1:3">
+    <row r="24" s="77" customFormat="1" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="25" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A25" s="36" t="s">
         <v>87</v>
       </c>
@@ -39677,7 +39983,7 @@
       </c>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="26" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A26" s="36" t="s">
         <v>89</v>
       </c>
@@ -39686,19 +39992,19 @@
       </c>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" s="84" customFormat="1" spans="1:3">
+    <row r="27" s="77" customFormat="1" spans="1:3">
       <c r="A27" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" s="84" customFormat="1" spans="1:3">
+    <row r="28" s="77" customFormat="1" spans="1:3">
       <c r="A28" s="36"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" s="84" customFormat="1" spans="1:3">
+    <row r="29" s="77" customFormat="1" spans="1:3">
       <c r="A29" s="36" t="s">
         <v>92</v>
       </c>
@@ -39707,33 +40013,33 @@
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" s="84" customFormat="1" spans="1:3">
+    <row r="30" s="77" customFormat="1" spans="1:3">
       <c r="A30" s="36"/>
       <c r="B30" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" s="84" customFormat="1" spans="1:3">
+    <row r="31" s="77" customFormat="1" spans="1:3">
       <c r="A31" s="36"/>
       <c r="B31" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" s="84" customFormat="1" spans="1:3">
+    <row r="32" s="77" customFormat="1" spans="1:3">
       <c r="A32" s="36"/>
       <c r="B32" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" s="84" customFormat="1" spans="1:3">
+    <row r="33" s="77" customFormat="1" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" s="84" customFormat="1" spans="1:3">
+    <row r="34" s="77" customFormat="1" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>97</v>
       </c>
@@ -39742,7 +40048,7 @@
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" s="84" customFormat="1" spans="1:3">
+    <row r="35" s="77" customFormat="1" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>99</v>
       </c>
@@ -39751,14 +40057,14 @@
       </c>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" s="84" customFormat="1" spans="1:3">
+    <row r="36" s="77" customFormat="1" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" s="84" customFormat="1" spans="1:3">
+    <row r="37" s="77" customFormat="1" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>102</v>
       </c>
@@ -39767,7 +40073,7 @@
       </c>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="38" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>104</v>
       </c>
@@ -39776,16 +40082,16 @@
       </c>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" s="84" customFormat="1" spans="1:3">
+    <row r="39" s="77" customFormat="1" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="85"/>
-    </row>
-    <row r="40" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C39" s="78"/>
+    </row>
+    <row r="40" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>108</v>
       </c>
@@ -39794,28 +40100,28 @@
       </c>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="41" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A41" s="36"/>
       <c r="B41" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="42" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A42" s="36"/>
       <c r="B42" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="43" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A43" s="36"/>
       <c r="B43" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="44" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>113</v>
       </c>
@@ -39824,14 +40130,14 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="45" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A45" s="36"/>
       <c r="B45" s="50" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="50"/>
     </row>
-    <row r="46" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="46" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>116</v>
       </c>
@@ -39840,14 +40146,14 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="47" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A47" s="36"/>
       <c r="B47" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="48" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A48" s="36" t="s">
         <v>119</v>
       </c>
@@ -39856,7 +40162,7 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" s="84" customFormat="1" spans="1:3">
+    <row r="49" s="77" customFormat="1" spans="1:3">
       <c r="A49" s="36" t="s">
         <v>121</v>
       </c>
@@ -39865,7 +40171,7 @@
       </c>
       <c r="C49" s="42"/>
     </row>
-    <row r="50" s="84" customFormat="1" spans="1:3">
+    <row r="50" s="77" customFormat="1" spans="1:3">
       <c r="A50" s="36" t="s">
         <v>123</v>
       </c>
@@ -39874,7 +40180,7 @@
       </c>
       <c r="C50" s="42"/>
     </row>
-    <row r="51" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="51" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A51" s="36" t="s">
         <v>125</v>
       </c>
@@ -39883,22 +40189,22 @@
       </c>
       <c r="C51" s="42"/>
     </row>
-    <row r="52" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="52" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A52" s="36"/>
       <c r="B52" s="42" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="53" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A53" s="36"/>
       <c r="B53" s="42" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="42"/>
     </row>
-    <row r="54" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A54" s="95" t="s">
+    <row r="54" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A54" s="88" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="42" t="s">
@@ -39906,49 +40212,49 @@
       </c>
       <c r="C54" s="42"/>
     </row>
-    <row r="55" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A55" s="95"/>
+    <row r="55" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A55" s="88"/>
       <c r="B55" s="42" t="s">
         <v>131</v>
       </c>
       <c r="C55" s="42"/>
     </row>
-    <row r="56" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A56" s="95"/>
+    <row r="56" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A56" s="88"/>
       <c r="B56" s="50" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="50"/>
     </row>
-    <row r="57" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A57" s="95"/>
+    <row r="57" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A57" s="88"/>
       <c r="B57" s="50" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="50"/>
     </row>
-    <row r="58" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A58" s="95"/>
+    <row r="58" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A58" s="88"/>
       <c r="B58" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="42"/>
     </row>
-    <row r="59" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96" t="s">
+    <row r="59" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A59" s="88"/>
+      <c r="B59" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="96"/>
-    </row>
-    <row r="60" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A60" s="95"/>
-      <c r="B60" s="97" t="s">
+      <c r="C59" s="89"/>
+    </row>
+    <row r="60" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A60" s="88"/>
+      <c r="B60" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="97"/>
-    </row>
-    <row r="61" s="84" customFormat="1" spans="1:3">
+      <c r="C60" s="90"/>
+    </row>
+    <row r="61" s="77" customFormat="1" spans="1:3">
       <c r="A61" s="36" t="s">
         <v>137</v>
       </c>
@@ -39957,7 +40263,7 @@
       </c>
       <c r="C61" s="42"/>
     </row>
-    <row r="62" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="62" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A62" s="36" t="s">
         <v>139</v>
       </c>
@@ -39966,7 +40272,7 @@
       </c>
       <c r="C62" s="42"/>
     </row>
-    <row r="63" s="84" customFormat="1" ht="18" spans="1:3">
+    <row r="63" s="77" customFormat="1" ht="18" spans="1:3">
       <c r="A63" s="36" t="s">
         <v>141</v>
       </c>
@@ -39975,8 +40281,8 @@
       </c>
       <c r="C63" s="42"/>
     </row>
-    <row r="64" s="84" customFormat="1" ht="53.25" spans="1:3">
-      <c r="A64" s="98" t="s">
+    <row r="64" s="77" customFormat="1" ht="53.25" spans="1:3">
+      <c r="A64" s="91" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="42" t="s">
@@ -39984,8 +40290,8 @@
       </c>
       <c r="C64" s="42"/>
     </row>
-    <row r="65" s="84" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="98" t="s">
+    <row r="65" s="77" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A65" s="91" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -39993,44 +40299,44 @@
       </c>
       <c r="C65" s="42"/>
     </row>
-    <row r="66" s="84" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="98"/>
+    <row r="66" s="77" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A66" s="91"/>
       <c r="B66" s="50" t="s">
         <v>147</v>
       </c>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" s="84" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A67" s="99" t="s">
+    <row r="67" s="77" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A67" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="97"/>
-    </row>
-    <row r="68" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A68" s="100"/>
-      <c r="B68" s="101" t="s">
+      <c r="C67" s="90"/>
+    </row>
+    <row r="68" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A68" s="93"/>
+      <c r="B68" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="101"/>
-    </row>
-    <row r="69" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A69" s="100"/>
-      <c r="B69" s="97" t="s">
+      <c r="C68" s="94"/>
+    </row>
+    <row r="69" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A69" s="93"/>
+      <c r="B69" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="97"/>
-    </row>
-    <row r="70" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A70" s="100"/>
-      <c r="B70" s="97" t="s">
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A70" s="93"/>
+      <c r="B70" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="97"/>
-    </row>
-    <row r="71" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C70" s="90"/>
+    </row>
+    <row r="71" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A71" s="36" t="s">
         <v>153</v>
       </c>
@@ -40039,21 +40345,21 @@
       </c>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="72" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A72" s="36"/>
       <c r="B72" s="50" t="s">
         <v>155</v>
       </c>
       <c r="C72" s="50"/>
     </row>
-    <row r="73" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="73" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A73" s="36"/>
       <c r="B73" s="42" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="42"/>
     </row>
-    <row r="74" s="84" customFormat="1" spans="1:3">
+    <row r="74" s="77" customFormat="1" spans="1:3">
       <c r="A74" s="36" t="s">
         <v>157</v>
       </c>
@@ -40062,7 +40368,7 @@
       </c>
       <c r="C74" s="42"/>
     </row>
-    <row r="75" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="75" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A75" s="36" t="s">
         <v>159</v>
       </c>
@@ -40071,63 +40377,63 @@
       </c>
       <c r="C75" s="42"/>
     </row>
-    <row r="76" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="76" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A76" s="36"/>
       <c r="B76" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C76" s="42"/>
     </row>
-    <row r="77" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="77" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A77" s="36"/>
       <c r="B77" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="42"/>
     </row>
-    <row r="78" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="78" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A78" s="36"/>
       <c r="B78" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C78" s="42"/>
     </row>
-    <row r="79" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="79" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A79" s="36"/>
       <c r="B79" s="50" t="s">
         <v>164</v>
       </c>
       <c r="C79" s="50"/>
     </row>
-    <row r="80" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="80" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A80" s="36"/>
       <c r="B80" s="50" t="s">
         <v>165</v>
       </c>
       <c r="C80" s="50"/>
     </row>
-    <row r="81" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="81" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A81" s="36" t="s">
         <v>166</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
     </row>
-    <row r="82" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="82" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A82" s="36" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
     </row>
-    <row r="83" s="84" customFormat="1" spans="1:3">
+    <row r="83" s="77" customFormat="1" spans="1:3">
       <c r="A83" s="36" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
     </row>
-    <row r="84" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="84" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A84" s="36" t="s">
         <v>169</v>
       </c>
@@ -40136,95 +40442,95 @@
       </c>
       <c r="C84" s="42"/>
     </row>
-    <row r="85" s="84" customFormat="1" spans="1:3">
+    <row r="85" s="77" customFormat="1" spans="1:3">
       <c r="A85" s="36"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
     </row>
-    <row r="86" s="84" customFormat="1" spans="1:3">
+    <row r="86" s="77" customFormat="1" spans="1:3">
       <c r="A86" s="36"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" s="84" customFormat="1" spans="1:3">
+    <row r="87" s="77" customFormat="1" spans="1:3">
       <c r="A87" s="36" t="s">
         <v>171</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
     </row>
-    <row r="88" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="88" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A88" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
     </row>
-    <row r="89" s="84" customFormat="1" ht="51.75" spans="1:3">
+    <row r="89" s="77" customFormat="1" ht="51.75" spans="1:3">
       <c r="A89" s="36" t="s">
         <v>173</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
     </row>
-    <row r="90" s="84" customFormat="1" spans="1:3">
+    <row r="90" s="77" customFormat="1" spans="1:3">
       <c r="A90" s="36" t="s">
         <v>174</v>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
     </row>
-    <row r="91" s="84" customFormat="1" spans="1:3">
+    <row r="91" s="77" customFormat="1" spans="1:3">
       <c r="A91" s="36" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
     </row>
-    <row r="92" s="84" customFormat="1" spans="1:3">
+    <row r="92" s="77" customFormat="1" spans="1:3">
       <c r="A92" s="36" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
     </row>
-    <row r="93" s="84" customFormat="1" ht="34.5" spans="1:3">
+    <row r="93" s="77" customFormat="1" ht="34.5" spans="1:3">
       <c r="A93" s="36" t="s">
         <v>166</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" s="84" customFormat="1" spans="1:3">
+    <row r="94" s="77" customFormat="1" spans="1:3">
       <c r="A94" s="36" t="s">
         <v>177</v>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
     </row>
-    <row r="95" s="84" customFormat="1" spans="1:3">
+    <row r="95" s="77" customFormat="1" spans="1:3">
       <c r="A95" s="36" t="s">
         <v>178</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
     </row>
-    <row r="96" s="84" customFormat="1" spans="1:3">
+    <row r="96" s="77" customFormat="1" spans="1:3">
       <c r="A96" s="36" t="s">
         <v>179</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
     </row>
-    <row r="97" s="84" customFormat="1" spans="1:3">
+    <row r="97" s="77" customFormat="1" spans="1:3">
       <c r="A97" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
     </row>
-    <row r="98" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A98" s="102" t="s">
+    <row r="98" s="77" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A98" s="95" t="s">
         <v>181</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -40232,153 +40538,153 @@
       </c>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="99" s="77" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
         <v>183</v>
       </c>
       <c r="C99" s="50"/>
     </row>
-    <row r="100" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="100" s="77" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
         <v>184</v>
       </c>
       <c r="C100" s="50"/>
     </row>
-    <row r="101" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="101" s="77" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="50" t="s">
         <v>185</v>
       </c>
       <c r="C101" s="50"/>
     </row>
-    <row r="102" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="102" s="77" customFormat="1" ht="54" customHeight="1" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
         <v>186</v>
       </c>
       <c r="C102" s="50"/>
     </row>
-    <row r="103" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="103" s="77" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="50" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="50"/>
     </row>
-    <row r="104" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="104" s="77" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="50" t="s">
         <v>188</v>
       </c>
       <c r="C104" s="50"/>
     </row>
-    <row r="105" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="105" s="77" customFormat="1" ht="309" customHeight="1" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="50" t="s">
         <v>189</v>
       </c>
       <c r="C105" s="50"/>
     </row>
-    <row r="106" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="106" s="77" customFormat="1" ht="409" customHeight="1" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="50" t="s">
         <v>190</v>
       </c>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="107" s="77" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="50" t="s">
         <v>191</v>
       </c>
       <c r="C107" s="50"/>
     </row>
-    <row r="108" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="108" s="77" customFormat="1" ht="346" customHeight="1" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="50" t="s">
         <v>192</v>
       </c>
       <c r="C108" s="50"/>
     </row>
-    <row r="109" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="109" s="77" customFormat="1" ht="205" customHeight="1" spans="1:3">
       <c r="A109" s="36"/>
-      <c r="B109" s="96" t="s">
+      <c r="B109" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="96"/>
-    </row>
-    <row r="110" s="84" customFormat="1" ht="12.75" spans="1:4">
+      <c r="C109" s="89"/>
+    </row>
+    <row r="110" s="77" customFormat="1" ht="409" customHeight="1" spans="1:4">
       <c r="A110" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="96" t="s">
+      <c r="B110" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="96"/>
+      <c r="C110" s="89"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="84" customFormat="1" ht="12.75" spans="1:4">
+    <row r="111" s="77" customFormat="1" ht="185" customHeight="1" spans="1:4">
       <c r="A111" s="36"/>
-      <c r="B111" s="96" t="s">
+      <c r="B111" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C111" s="96"/>
+      <c r="C111" s="89"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="84" customFormat="1" spans="1:4">
+    <row r="112" s="77" customFormat="1" spans="1:4">
       <c r="A112" s="36"/>
-      <c r="B112" s="103" t="s">
+      <c r="B112" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="103"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="84" customFormat="1" spans="1:3">
+    <row r="113" s="77" customFormat="1" spans="1:3">
       <c r="A113" s="36"/>
-      <c r="B113" s="104" t="s">
+      <c r="B113" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="104"/>
-    </row>
-    <row r="114" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C113" s="97"/>
+    </row>
+    <row r="114" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A114" s="36"/>
       <c r="B114" s="50" t="s">
         <v>199</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="84" customFormat="1" spans="1:3">
+    <row r="115" s="77" customFormat="1" spans="1:3">
       <c r="A115" s="36"/>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="103"/>
-    </row>
-    <row r="116" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C115" s="96"/>
+    </row>
+    <row r="116" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A116" s="36"/>
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="96"/>
-    </row>
-    <row r="117" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C116" s="89"/>
+    </row>
+    <row r="117" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A117" s="36"/>
-      <c r="B117" s="96" t="s">
+      <c r="B117" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="96"/>
-    </row>
-    <row r="118" s="84" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C117" s="89"/>
+    </row>
+    <row r="118" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A118" s="36"/>
-      <c r="B118" s="96" t="s">
+      <c r="B118" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="96"/>
-    </row>
-    <row r="119" s="84" customFormat="1" ht="57" customHeight="1" spans="1:3">
-      <c r="A119" s="105" t="s">
+      <c r="C118" s="89"/>
+    </row>
+    <row r="119" s="77" customFormat="1" ht="57" customHeight="1" spans="1:3">
+      <c r="A119" s="98" t="s">
         <v>204</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -40388,52 +40694,52 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" s="84" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="105"/>
+    <row r="120" s="77" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A120" s="98"/>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="85" t="s">
+      <c r="C120" s="78" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" s="84" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="106"/>
+    <row r="121" s="77" customFormat="1" ht="207" customHeight="1" spans="1:3">
+      <c r="A121" s="99"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" s="84" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="106"/>
+    <row r="122" s="77" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A122" s="99"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="123" s="84" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="106"/>
+    <row r="123" s="77" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A123" s="99"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" s="84" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="106"/>
+    <row r="124" s="77" customFormat="1" ht="102" spans="1:3">
+      <c r="A124" s="99"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" s="84" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="106"/>
+    <row r="125" s="77" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A125" s="99"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" s="84" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="106"/>
+    <row r="126" s="77" customFormat="1" ht="102" spans="1:3">
+      <c r="A126" s="99"/>
       <c r="B126" s="4" t="s">
         <v>214</v>
       </c>
@@ -40441,43 +40747,43 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" s="84" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="106"/>
+    <row r="127" s="77" customFormat="1" ht="51" spans="1:3">
+      <c r="A127" s="99"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="128" s="84" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="106"/>
+    <row r="128" s="77" customFormat="1" ht="216.75" spans="1:3">
+      <c r="A128" s="99"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="129" s="84" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="106"/>
+    <row r="129" s="77" customFormat="1" ht="267.75" spans="1:3">
+      <c r="A129" s="99"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="130" s="84" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="106"/>
+    <row r="130" s="77" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A130" s="99"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="131" s="84" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="106"/>
+    <row r="131" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A131" s="99"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="132" s="84" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="106"/>
+    <row r="132" s="77" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A132" s="99"/>
       <c r="B132" s="4" t="s">
         <v>221</v>
       </c>
@@ -40485,271 +40791,271 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" s="84" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="106"/>
+    <row r="133" s="77" customFormat="1" ht="51" spans="1:3">
+      <c r="A133" s="99"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="134" s="84" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="106"/>
+    <row r="134" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A134" s="99"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="107" t="s">
+      <c r="C134" s="100" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="135" s="84" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="106"/>
+    <row r="135" s="77" customFormat="1" ht="51" spans="1:3">
+      <c r="A135" s="99"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="107" t="s">
+      <c r="C135" s="100" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" s="84" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="106"/>
+    <row r="136" s="77" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A136" s="99"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="107" t="s">
+      <c r="C136" s="100" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="137" s="84" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="106"/>
+    <row r="137" s="77" customFormat="1" ht="204" spans="1:3">
+      <c r="A137" s="99"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="107" t="s">
+      <c r="C137" s="100" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="138" s="84" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="106"/>
+    <row r="138" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A138" s="99"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="85" t="s">
+      <c r="C138" s="78" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="139" s="84" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="106"/>
+    <row r="139" s="77" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A139" s="99"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="85" t="s">
+      <c r="C139" s="78" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="140" s="84" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="106"/>
+    <row r="140" s="77" customFormat="1" ht="229.5" spans="1:3">
+      <c r="A140" s="99"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="107" t="s">
+      <c r="C140" s="100" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="141" s="84" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="106"/>
+    <row r="141" s="77" customFormat="1" ht="242.25" spans="1:3">
+      <c r="A141" s="99"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="107" t="s">
+      <c r="C141" s="100" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="142" s="84" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="106"/>
+    <row r="142" s="77" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A142" s="99"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="107" t="s">
+      <c r="C142" s="100" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="143" s="84" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="106"/>
+    <row r="143" s="77" customFormat="1" ht="204" spans="1:3">
+      <c r="A143" s="99"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="107" t="s">
+      <c r="C143" s="100" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="144" s="84" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="106"/>
+    <row r="144" s="77" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A144" s="99"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="107" t="s">
+      <c r="C144" s="100" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="145" s="84" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="106"/>
+    <row r="145" s="77" customFormat="1" ht="280.5" spans="1:3">
+      <c r="A145" s="99"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="107" t="s">
+      <c r="C145" s="100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="146" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="106"/>
+    <row r="146" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A146" s="99"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="107" t="s">
+      <c r="C146" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="147" s="84" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="106"/>
+    <row r="147" s="77" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A147" s="99"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="107" t="s">
+      <c r="C147" s="100" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" s="84" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="106"/>
+    <row r="148" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A148" s="99"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="107" t="s">
+      <c r="C148" s="100" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" s="84" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="106"/>
+    <row r="149" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A149" s="99"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="107" t="s">
+      <c r="C149" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" s="84" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="106"/>
+    <row r="150" s="77" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A150" s="99"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="107" t="s">
+      <c r="C150" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" s="84" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="106"/>
+    <row r="151" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A151" s="99"/>
       <c r="B151" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="107"/>
-    </row>
-    <row r="152" s="84" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="106"/>
+      <c r="C151" s="100"/>
+    </row>
+    <row r="152" s="77" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A152" s="99"/>
       <c r="B152" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="85" t="s">
+      <c r="C152" s="78" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" s="84" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="106"/>
+    <row r="153" s="77" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A153" s="99"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="107" t="s">
+      <c r="C153" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" s="84" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="106"/>
+    <row r="154" s="77" customFormat="1" ht="318.75" spans="1:3">
+      <c r="A154" s="99"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="107" t="s">
+      <c r="C154" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" s="84" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="106"/>
+    <row r="155" s="77" customFormat="1" ht="165.75" spans="1:3">
+      <c r="A155" s="99"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="107" t="s">
+      <c r="C155" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" s="84" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="106"/>
+    <row r="156" s="77" customFormat="1" ht="255" spans="1:3">
+      <c r="A156" s="99"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="107" t="s">
+      <c r="C156" s="100" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" s="84" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="106"/>
+    <row r="157" s="77" customFormat="1" ht="204" spans="1:3">
+      <c r="A157" s="99"/>
       <c r="B157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C157" s="107" t="s">
+      <c r="C157" s="100" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="106"/>
+    <row r="158" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A158" s="99"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="107" t="s">
+      <c r="C158" s="100" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="159" s="84" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="106"/>
+    <row r="159" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A159" s="99"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="107" t="s">
+      <c r="C159" s="100" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="160" s="84" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="106"/>
+    <row r="160" s="77" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A160" s="99"/>
       <c r="B160" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="78" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" s="84" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="106"/>
+    <row r="161" s="77" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A161" s="99"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="107" t="s">
+      <c r="C161" s="100" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="162" s="84" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="106"/>
+    <row r="162" s="77" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A162" s="99"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="107" t="s">
+      <c r="C162" s="100" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="163" s="84" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="106"/>
+    <row r="163" s="77" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A163" s="99"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="107" t="s">
+      <c r="C163" s="100" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="164" s="84" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="106"/>
+    <row r="164" s="77" customFormat="1" ht="51" spans="1:3">
+      <c r="A164" s="99"/>
       <c r="B164" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="107" t="s">
+      <c r="C164" s="100" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="165" s="84" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="106"/>
+    <row r="165" s="77" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A165" s="99"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="107" t="s">
+      <c r="C165" s="100" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="166" s="84" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="106"/>
+    <row r="166" s="77" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A166" s="99"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="107" t="s">
+      <c r="C166" s="100" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="167" s="84" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="106"/>
+    <row r="167" s="77" customFormat="1" ht="51" spans="1:3">
+      <c r="A167" s="99"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="107" t="s">
+      <c r="C167" s="100" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="168" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>263</v>
       </c>
       <c r="B168" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C168" s="85"/>
-    </row>
-    <row r="169" s="84" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C168" s="78"/>
+    </row>
+    <row r="169" s="77" customFormat="1" ht="38.25" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>265</v>
@@ -40758,172 +41064,172 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" s="84" customFormat="1" ht="76.5" spans="1:3">
+    <row r="170" s="77" customFormat="1" ht="76.5" spans="1:3">
       <c r="A170" s="36"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="42" t="s">
+      <c r="C170" s="65" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="171" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A171" s="36"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="85" t="s">
+      <c r="C171" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="172" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="172" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A172" s="36"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="85" t="s">
+      <c r="C172" s="78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="173" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="173" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A173" s="36"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="174" s="84" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="174" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="42" t="s">
         <v>271</v>
       </c>
       <c r="C174" s="42"/>
     </row>
-    <row r="175" s="84" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="175" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="42" t="s">
         <v>272</v>
       </c>
       <c r="C175" s="42"/>
     </row>
-    <row r="176" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="176" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="42" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="84" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="177" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="42" t="s">
         <v>274</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="84" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="178" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="42" t="s">
         <v>275</v>
       </c>
       <c r="C178" s="42"/>
     </row>
-    <row r="179" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="179" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="42" t="s">
         <v>276</v>
       </c>
       <c r="C179" s="42"/>
     </row>
-    <row r="180" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="180" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="42" t="s">
         <v>277</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="181" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="42" t="s">
         <v>278</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="182" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="42" t="s">
         <v>279</v>
       </c>
       <c r="C182" s="42"/>
     </row>
-    <row r="183" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="183" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A183" s="36"/>
       <c r="B183" s="42" t="s">
         <v>280</v>
       </c>
       <c r="C183" s="42"/>
     </row>
-    <row r="184" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="184" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>281</v>
       </c>
       <c r="C184" s="42"/>
     </row>
-    <row r="185" s="84" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="185" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A185" s="36"/>
       <c r="B185" s="42" t="s">
         <v>282</v>
       </c>
       <c r="C185" s="42"/>
     </row>
-    <row r="186" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="186" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A186" s="36"/>
       <c r="B186" s="42" t="s">
         <v>283</v>
       </c>
       <c r="C186" s="42"/>
     </row>
-    <row r="187" s="84" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="77" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36"/>
       <c r="B187" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C187" s="42"/>
     </row>
-    <row r="188" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="188" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="42" t="s">
         <v>285</v>
       </c>
       <c r="C188" s="42"/>
     </row>
-    <row r="189" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="189" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="42" t="s">
         <v>286</v>
       </c>
       <c r="C189" s="42"/>
     </row>
-    <row r="190" s="84" customFormat="1" spans="1:3">
+    <row r="190" s="77" customFormat="1" spans="1:3">
       <c r="A190" s="36"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42"/>
     </row>
-    <row r="191" s="84" customFormat="1" ht="76.5" spans="1:3">
+    <row r="191" s="77" customFormat="1" ht="76.5" spans="1:3">
       <c r="A191" s="36" t="s">
         <v>287</v>
       </c>
       <c r="B191" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C191" s="108" t="s">
+      <c r="C191" s="65" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="192" s="84" customFormat="1" ht="114.75" spans="1:3">
+    <row r="192" s="77" customFormat="1" ht="114.75" spans="1:3">
       <c r="A192" s="36"/>
       <c r="B192" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="C192" s="108" t="s">
+      <c r="C192" s="65" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="193" s="84" customFormat="1" ht="114.75" spans="1:3">
+    <row r="193" s="77" customFormat="1" ht="114.75" spans="1:3">
       <c r="A193" s="36"/>
       <c r="B193" s="42" t="s">
         <v>292</v>
@@ -40932,71 +41238,71 @@
         <v>293</v>
       </c>
     </row>
-    <row r="194" s="84" customFormat="1" ht="76.5" spans="1:3">
+    <row r="194" s="77" customFormat="1" ht="76.5" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="C194" s="108" t="s">
+      <c r="C194" s="65" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="195" s="84" customFormat="1" ht="38.25" spans="1:3">
+    <row r="195" s="77" customFormat="1" ht="38.25" spans="1:3">
       <c r="A195" s="36" t="s">
         <v>296</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C195" s="108" t="s">
+      <c r="C195" s="65" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="196" s="84" customFormat="1" ht="114.75" spans="1:3">
+    <row r="196" s="77" customFormat="1" ht="114.75" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="108" t="s">
+      <c r="C196" s="65" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="197" s="84" customFormat="1" ht="38.25" spans="1:3">
+    <row r="197" s="77" customFormat="1" ht="38.25" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="108"/>
-    </row>
-    <row r="198" s="84" customFormat="1" ht="51" spans="1:3">
+      <c r="C197" s="65"/>
+    </row>
+    <row r="198" s="77" customFormat="1" ht="51" spans="1:3">
       <c r="A198" s="36"/>
       <c r="B198" s="42" t="s">
         <v>301</v>
       </c>
       <c r="C198" s="42"/>
     </row>
-    <row r="199" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="199" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A199" s="36"/>
       <c r="B199" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="C199" s="108" t="s">
+      <c r="C199" s="65" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="200" s="84" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="200" s="77" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A200" s="36"/>
       <c r="B200" s="42" t="s">
         <v>304</v>
       </c>
       <c r="C200" s="42"/>
     </row>
-    <row r="201" s="84" customFormat="1" ht="12.75" spans="1:3">
+    <row r="201" s="77" customFormat="1" ht="12.75" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="42" t="s">
         <v>305</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="84" customFormat="1" ht="25.5" spans="1:3">
+    <row r="202" s="77" customFormat="1" ht="25.5" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="42" t="s">
         <v>306</v>
@@ -41165,14 +41471,14 @@
   <sheetPr/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.8533333333333" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.14" style="80" customWidth="1"/>
+    <col min="2" max="2" width="30.14" style="73" customWidth="1"/>
     <col min="3" max="3" width="112.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41180,37 +41486,37 @@
       <c r="A1" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="74" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="54"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="54"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="74" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="74" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="74" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="54"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="74" t="s">
         <v>313</v>
       </c>
     </row>
@@ -41218,7 +41524,7 @@
       <c r="A7" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="74" t="s">
         <v>315</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -41227,7 +41533,7 @@
     </row>
     <row r="8" ht="51" spans="1:3">
       <c r="A8" s="54"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="73" t="s">
         <v>317</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -41266,20 +41572,20 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="54"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="54"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="73" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="54"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="73" t="s">
         <v>326</v>
       </c>
     </row>
@@ -41293,7 +41599,7 @@
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="76" t="s">
         <v>329</v>
       </c>
       <c r="B18" s="11"/>
@@ -41303,31 +41609,31 @@
     </row>
     <row r="19" ht="30" spans="1:2">
       <c r="A19" s="54"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="74" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:2">
       <c r="A20" s="54"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="74" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:2">
       <c r="A21" s="54"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="74" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:2">
       <c r="A22" s="54"/>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="74" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:2">
       <c r="A23" s="54"/>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="74" t="s">
         <v>335</v>
       </c>
     </row>
@@ -41387,7 +41693,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="34"/>
-      <c r="B42" s="81"/>
+      <c r="B42" s="74"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34"/>
@@ -41495,1494 +41801,1494 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="18.5733333333333" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.5733333333333" style="59" customWidth="1"/>
-    <col min="3" max="3" width="15.7133333333333" style="59" customWidth="1"/>
-    <col min="4" max="4" width="212.286666666667" style="60" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="18.5733333333333" style="54" customWidth="1"/>
+    <col min="2" max="2" width="14.5733333333333" style="58" customWidth="1"/>
+    <col min="3" max="3" width="15.7133333333333" style="58" customWidth="1"/>
+    <col min="4" max="4" width="212.286666666667" style="59" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:4">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="111" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" ht="9.75" customHeight="1" spans="1:4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" ht="15" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="K12" s="74" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="K12" s="69" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:4">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:4">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" spans="1:4">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" ht="153" spans="1:4">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" ht="25.5" spans="1:4">
-      <c r="A20" s="69"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="D20" s="71"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" ht="12.75" spans="1:4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="67" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="71"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" ht="12.75" spans="1:4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="D22" s="71"/>
+      <c r="D22" s="67"/>
     </row>
     <row r="25" ht="12.75" spans="1:4">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" ht="357" spans="1:4">
-      <c r="A26" s="72"/>
-      <c r="C26" s="59" t="s">
+      <c r="A26" s="8"/>
+      <c r="C26" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="65" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:4">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="65" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="28" ht="76.5" spans="1:4">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="65" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="29" ht="204" spans="1:4">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="59" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="65" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="30" ht="63.75" spans="1:4">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="59" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="65" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:4">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="59" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="65" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:4">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="59" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="65" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:4">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="59" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="D33" s="68"/>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" ht="165.75" spans="1:4">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="59" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="65" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="35" ht="12.75" spans="1:4">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="59" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" ht="12.75" spans="1:3">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="59" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="58" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="37" ht="107.25" customHeight="1" spans="1:4">
-      <c r="A37" s="72"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="D37" s="68"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" ht="89.25" spans="1:4">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="59" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="65" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="39" ht="12.75" spans="1:4">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="59" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="65" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" ht="89.25" spans="1:4">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="D40" s="68" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="68"/>
+      <c r="D40" s="65" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="1:4">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="D41" s="68" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="68"/>
+      <c r="D41" s="65" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="42" ht="25.5" spans="1:4">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73"/>
-      <c r="D42" s="68" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="68"/>
+      <c r="D42" s="65" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="D43" s="68" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="68"/>
+      <c r="D43" s="65" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:4">
-      <c r="A44" s="72"/>
-      <c r="B44" s="73"/>
-      <c r="D44" s="68" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="68"/>
+      <c r="D44" s="65" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="45" ht="12.75" spans="1:4">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="D45" s="68" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="68"/>
+      <c r="D45" s="65" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="46" ht="76.5" spans="1:4">
-      <c r="A46" s="72"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="65" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="47" ht="63.75" spans="1:4">
-      <c r="A47" s="72"/>
-      <c r="B47" s="73"/>
-      <c r="D47" s="68" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="68"/>
+      <c r="D47" s="65" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="48" ht="76.5" spans="1:4">
-      <c r="A48" s="72"/>
-      <c r="B48" s="73"/>
-      <c r="D48" s="68" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="68"/>
+      <c r="D48" s="65" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:4">
-      <c r="A49" s="72"/>
-      <c r="B49" s="73"/>
-      <c r="D49" s="68" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="68"/>
+      <c r="D49" s="65" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:4">
-      <c r="A50" s="72"/>
-      <c r="B50" s="73"/>
-      <c r="D50" s="68" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="68"/>
+      <c r="D50" s="65" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="51" ht="153" spans="1:4">
-      <c r="A51" s="72"/>
-      <c r="B51" s="73"/>
-      <c r="D51" s="68" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="68"/>
+      <c r="D51" s="65" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="52" ht="76.5" spans="1:4">
-      <c r="A52" s="72"/>
-      <c r="B52" s="73"/>
-      <c r="D52" s="68" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="68"/>
+      <c r="D52" s="65" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="53" ht="114.75" spans="1:4">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="D53" s="68" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="68"/>
+      <c r="D53" s="65" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="54" ht="89.25" spans="1:4">
-      <c r="A54" s="72"/>
-      <c r="B54" s="73"/>
-      <c r="D54" s="68" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="68"/>
+      <c r="D54" s="65" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="55" ht="114.75" spans="1:4">
-      <c r="A55" s="72"/>
-      <c r="B55" s="73"/>
-      <c r="D55" s="68" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="68"/>
+      <c r="D55" s="65" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="56" ht="76.5" spans="1:4">
-      <c r="A56" s="72"/>
-      <c r="B56" s="73"/>
-      <c r="D56" s="68" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="68"/>
+      <c r="D56" s="65" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="57" ht="12.75" spans="1:4">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
-      <c r="D57" s="68" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="68"/>
+      <c r="D57" s="65" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="58" ht="89.25" spans="1:4">
-      <c r="A58" s="72"/>
-      <c r="B58" s="73"/>
-      <c r="D58" s="71" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="68"/>
+      <c r="D58" s="67" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="59" ht="318.75" spans="1:4">
-      <c r="A59" s="72"/>
-      <c r="B59" s="73"/>
-      <c r="D59" s="68" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="68"/>
+      <c r="D59" s="65" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="60" ht="344.25" spans="1:4">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="D60" s="68" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="68"/>
+      <c r="D60" s="65" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="61" ht="38.25" spans="1:4">
-      <c r="A61" s="72"/>
-      <c r="B61" s="73"/>
-      <c r="D61" s="68" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="68"/>
+      <c r="D61" s="65" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="62" ht="12.75" spans="1:4">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
-      <c r="D62" s="68" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="68"/>
+      <c r="D62" s="65" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="63" ht="12.75" spans="1:4">
-      <c r="A63" s="72"/>
-      <c r="B63" s="73"/>
-      <c r="D63" s="68" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="68"/>
+      <c r="D63" s="65" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="64" ht="12.75" spans="1:4">
-      <c r="A64" s="72"/>
-      <c r="B64" s="73"/>
-      <c r="D64" s="68" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="68"/>
+      <c r="D64" s="65" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="65" ht="12.75" spans="1:4">
-      <c r="A65" s="72"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="59" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="D65" s="68"/>
+      <c r="D65" s="65"/>
     </row>
     <row r="66" ht="89.25" spans="1:4">
-      <c r="A66" s="72"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="59" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="65" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="67" ht="114.75" spans="1:4">
-      <c r="A67" s="72"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="65" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="68" ht="369.75" spans="1:4">
-      <c r="A68" s="72"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="68" t="s">
+      <c r="A68" s="8"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="69" ht="409.5" spans="1:4">
-      <c r="A69" s="72"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="68" t="s">
+      <c r="A69" s="8"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="65" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="70" ht="12.75" spans="1:4">
-      <c r="A70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="68" t="s">
+      <c r="A70" s="8"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="65" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="71" ht="12.75" spans="1:4">
-      <c r="A71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="68" t="s">
+      <c r="A71" s="8"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="65" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="72" ht="12.75" spans="1:4">
-      <c r="A72" s="72"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="68" t="s">
+      <c r="A72" s="8"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="65" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73" ht="12.75" spans="1:4">
-      <c r="A73" s="72"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="68" t="s">
+      <c r="A73" s="8"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="65" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="74" ht="12.75" spans="1:4">
-      <c r="A74" s="72"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="68" t="s">
+      <c r="A74" s="8"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="65" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="75" ht="12.75" spans="1:4">
-      <c r="A75" s="72"/>
-      <c r="C75" s="75" t="s">
+      <c r="A75" s="8"/>
+      <c r="C75" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="65" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="76" ht="12.75" spans="1:4">
-      <c r="A76" s="72"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="68" t="s">
+      <c r="A76" s="8"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="65" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="77" ht="12.75" spans="1:4">
-      <c r="A77" s="72"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="68" t="s">
+      <c r="A77" s="8"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="65" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="78" ht="12.75" spans="1:4">
-      <c r="A78" s="72"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="68" t="s">
+      <c r="A78" s="8"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="65" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="79" ht="12.75" spans="1:4">
-      <c r="A79" s="72"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="68" t="s">
+      <c r="A79" s="8"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="65" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80" ht="25.5" spans="1:4">
-      <c r="A80" s="72"/>
-      <c r="C80" s="59" t="s">
+      <c r="A80" s="8"/>
+      <c r="C80" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="68"/>
+      <c r="D80" s="65"/>
     </row>
     <row r="81" ht="344.25" spans="1:4">
-      <c r="A81" s="72"/>
-      <c r="C81" s="73" t="s">
+      <c r="A81" s="8"/>
+      <c r="C81" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="67" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="82" ht="51" spans="1:4">
-      <c r="A82" s="72"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="68" t="s">
+      <c r="A82" s="8"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="65" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="83" ht="12.75" spans="1:4">
-      <c r="A83" s="72"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="68" t="s">
+      <c r="A83" s="8"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="65" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="84" ht="12.75" spans="1:4">
-      <c r="A84" s="72"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="68" t="s">
+      <c r="A84" s="8"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="65" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="85" ht="12.75" spans="1:4">
-      <c r="A85" s="72"/>
-      <c r="C85" s="59" t="s">
+      <c r="A85" s="8"/>
+      <c r="C85" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="65" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="86" ht="12.75" spans="1:4">
-      <c r="A86" s="72"/>
-      <c r="D86" s="68" t="s">
+      <c r="A86" s="8"/>
+      <c r="D86" s="65" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="87" ht="12.75" spans="1:4">
-      <c r="A87" s="72"/>
-      <c r="D87" s="68" t="s">
+      <c r="A87" s="8"/>
+      <c r="D87" s="65" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="88" ht="12.75" spans="1:4">
-      <c r="A88" s="72"/>
-      <c r="D88" s="68" t="s">
+      <c r="A88" s="8"/>
+      <c r="D88" s="65" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="89" ht="12.75" spans="1:4">
-      <c r="A89" s="72"/>
-      <c r="D89" s="68" t="s">
+      <c r="A89" s="8"/>
+      <c r="D89" s="65" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="90" ht="12.75" spans="1:4">
-      <c r="A90" s="72"/>
-      <c r="D90" s="68" t="s">
+      <c r="A90" s="8"/>
+      <c r="D90" s="65" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="91" ht="38.25" spans="1:4">
-      <c r="A91" s="72"/>
-      <c r="C91" s="59" t="s">
+      <c r="A91" s="8"/>
+      <c r="C91" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="D91" s="68" t="s">
+      <c r="D91" s="65" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="92" ht="51" spans="1:4">
-      <c r="A92" s="72"/>
-      <c r="D92" s="68" t="s">
+      <c r="A92" s="8"/>
+      <c r="D92" s="65" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:4">
-      <c r="A93" s="72"/>
-      <c r="D93" s="68" t="s">
+      <c r="A93" s="8"/>
+      <c r="D93" s="65" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:4">
-      <c r="A94" s="72"/>
-      <c r="D94" s="68" t="s">
+      <c r="A94" s="8"/>
+      <c r="D94" s="65" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="95" ht="63.75" spans="1:4">
-      <c r="A95" s="72"/>
-      <c r="D95" s="68" t="s">
+      <c r="A95" s="8"/>
+      <c r="D95" s="65" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="96" ht="51" spans="1:4">
-      <c r="A96" s="72"/>
-      <c r="D96" s="68" t="s">
+      <c r="A96" s="8"/>
+      <c r="D96" s="65" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="97" ht="51" spans="1:4">
-      <c r="A97" s="72"/>
-      <c r="D97" s="68" t="s">
+      <c r="A97" s="8"/>
+      <c r="D97" s="65" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="98" ht="63.75" spans="1:4">
-      <c r="A98" s="72"/>
-      <c r="D98" s="68" t="s">
+      <c r="A98" s="8"/>
+      <c r="D98" s="65" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="99" ht="63.75" spans="1:4">
-      <c r="A99" s="72"/>
-      <c r="D99" s="68" t="s">
+      <c r="A99" s="8"/>
+      <c r="D99" s="65" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="100" ht="51" spans="1:4">
-      <c r="A100" s="72"/>
-      <c r="D100" s="68" t="s">
+      <c r="A100" s="8"/>
+      <c r="D100" s="65" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="101" ht="153" spans="1:4">
-      <c r="A101" s="72"/>
-      <c r="D101" s="68" t="s">
+      <c r="A101" s="8"/>
+      <c r="D101" s="65" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="72"/>
-      <c r="D102" s="68" t="s">
+      <c r="A102" s="8"/>
+      <c r="D102" s="65" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="103" ht="114.75" spans="1:4">
-      <c r="A103" s="72"/>
-      <c r="C103" s="59" t="s">
+      <c r="A103" s="8"/>
+      <c r="C103" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="65" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="104" ht="38.25" spans="1:4">
-      <c r="A104" s="72"/>
-      <c r="C104" s="75" t="s">
+      <c r="A104" s="8"/>
+      <c r="C104" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="65" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="105" ht="165.75" spans="1:4">
-      <c r="A105" s="72"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="71" t="s">
+      <c r="A105" s="8"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="67" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="106" ht="102" spans="1:4">
-      <c r="A106" s="72"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="71" t="s">
+      <c r="A106" s="8"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="67" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:4">
-      <c r="A107" s="72"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="71" t="s">
+      <c r="A107" s="8"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="67" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="108" ht="12.75" spans="1:4">
-      <c r="A108" s="72"/>
-      <c r="C108" s="73" t="s">
+      <c r="A108" s="8"/>
+      <c r="C108" s="68" t="s">
         <v>481</v>
       </c>
-      <c r="D108" s="71" t="s">
+      <c r="D108" s="67" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="109" ht="153" spans="1:4">
-      <c r="A109" s="72"/>
-      <c r="B109" s="76" t="s">
+      <c r="A109" s="8"/>
+      <c r="B109" s="70" t="s">
         <v>483</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="D109" s="68" t="s">
+      <c r="D109" s="65" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="110" ht="38.25" spans="1:4">
-      <c r="A110" s="72"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="59" t="s">
+      <c r="A110" s="8"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="D110" s="68" t="s">
+      <c r="D110" s="65" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="111" ht="280.5" spans="1:4">
-      <c r="A111" s="72"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="59" t="s">
+      <c r="A111" s="8"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="D111" s="71" t="s">
+      <c r="D111" s="67" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="112" ht="204" spans="1:4">
-      <c r="A112" s="72"/>
-      <c r="B112" s="76"/>
-      <c r="D112" s="71" t="s">
+      <c r="A112" s="8"/>
+      <c r="B112" s="70"/>
+      <c r="D112" s="67" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="113" ht="229.5" spans="1:4">
-      <c r="A113" s="72"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="59" t="s">
+      <c r="A113" s="8"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="67" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="114" ht="204" spans="1:4">
-      <c r="A114" s="72"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="59" t="s">
+      <c r="A114" s="8"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="67" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="115" ht="357" spans="1:4">
-      <c r="A115" s="72"/>
-      <c r="B115" s="76"/>
-      <c r="D115" s="71" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="70"/>
+      <c r="D115" s="67" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="116" ht="369.75" spans="1:4">
-      <c r="A116" s="72"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="59" t="s">
+      <c r="A116" s="8"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="D116" s="71" t="s">
+      <c r="D116" s="67" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="117" ht="255" spans="1:4">
-      <c r="A117" s="72"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="59" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="65" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="118" ht="127.5" spans="1:4">
-      <c r="A118" s="72"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="59" t="s">
+      <c r="A118" s="8"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="65" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="119" ht="89.25" spans="1:4">
-      <c r="A119" s="72"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="59" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="D119" s="68" t="s">
+      <c r="D119" s="65" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="120" ht="89.25" spans="1:4">
-      <c r="A120" s="72"/>
-      <c r="B120" s="77"/>
-      <c r="D120" s="68" t="s">
+      <c r="A120" s="8"/>
+      <c r="B120" s="71"/>
+      <c r="D120" s="65" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="121" ht="51" spans="1:4">
-      <c r="A121" s="72"/>
-      <c r="B121" s="77"/>
-      <c r="C121" s="59" t="s">
+      <c r="A121" s="8"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="65" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="122" ht="274.5" customHeight="1" spans="1:4">
-      <c r="A122" s="72"/>
-      <c r="B122" s="59" t="s">
+      <c r="A122" s="8"/>
+      <c r="B122" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C122" s="68" t="s">
+      <c r="C122" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="D122" s="68"/>
+      <c r="D122" s="65"/>
     </row>
     <row r="123" ht="243.75" customHeight="1" spans="1:4">
-      <c r="A123" s="72"/>
-      <c r="C123" s="68" t="s">
+      <c r="A123" s="8"/>
+      <c r="C123" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="D123" s="68"/>
+      <c r="D123" s="65"/>
     </row>
     <row r="124" ht="391.5" customHeight="1" spans="1:4">
-      <c r="A124" s="72"/>
-      <c r="B124" s="59" t="s">
+      <c r="A124" s="8"/>
+      <c r="B124" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="68" t="s">
+      <c r="C124" s="65" t="s">
         <v>511</v>
       </c>
-      <c r="D124" s="68"/>
+      <c r="D124" s="65"/>
     </row>
     <row r="125" ht="231" customHeight="1" spans="1:4">
-      <c r="A125" s="72"/>
-      <c r="C125" s="68" t="s">
+      <c r="A125" s="8"/>
+      <c r="C125" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="D125" s="68"/>
+      <c r="D125" s="65"/>
     </row>
     <row r="126" ht="89.25" spans="1:4">
-      <c r="A126" s="78" t="s">
+      <c r="A126" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B126" s="59" t="s">
+      <c r="B126" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="C126" s="59" t="s">
+      <c r="C126" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D126" s="71" t="s">
+      <c r="D126" s="67" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="127" ht="140.25" spans="1:4">
-      <c r="A127" s="78"/>
-      <c r="C127" s="59" t="s">
+      <c r="A127" s="57"/>
+      <c r="C127" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="D127" s="68" t="s">
+      <c r="D127" s="65" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="128" ht="293.25" spans="1:4">
-      <c r="A128" s="78"/>
-      <c r="B128" s="59" t="s">
+      <c r="A128" s="57"/>
+      <c r="B128" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C128" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D128" s="68" t="s">
+      <c r="D128" s="65" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="129" ht="51" spans="1:4">
-      <c r="A129" s="78"/>
-      <c r="C129" s="59" t="s">
+      <c r="A129" s="57"/>
+      <c r="C129" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D129" s="68" t="s">
+      <c r="D129" s="65" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="78"/>
-      <c r="B130" s="59" t="s">
+      <c r="A130" s="57"/>
+      <c r="B130" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="C130" s="59" t="s">
+      <c r="C130" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="D130" s="68" t="s">
+      <c r="D130" s="65" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="131" ht="76.5" spans="1:4">
-      <c r="A131" s="78"/>
-      <c r="C131" s="59" t="s">
+      <c r="A131" s="57"/>
+      <c r="C131" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="D131" s="68" t="s">
+      <c r="D131" s="65" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="132" ht="25.5" spans="1:4">
-      <c r="A132" s="78"/>
-      <c r="C132" s="59" t="s">
+      <c r="A132" s="57"/>
+      <c r="C132" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="D132" s="68" t="s">
+      <c r="D132" s="65" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="133" ht="114.75" spans="1:4">
-      <c r="A133" s="78"/>
-      <c r="B133" s="59" t="s">
+      <c r="A133" s="57"/>
+      <c r="B133" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="59" t="s">
+      <c r="C133" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="D133" s="68" t="s">
+      <c r="D133" s="65" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="134" ht="45" customHeight="1" spans="1:4">
-      <c r="A134" s="78"/>
-      <c r="C134" s="71" t="s">
+      <c r="A134" s="57"/>
+      <c r="C134" s="67" t="s">
         <v>533</v>
       </c>
-      <c r="D134" s="68"/>
+      <c r="D134" s="65"/>
     </row>
     <row r="135" ht="25.5" spans="1:4">
-      <c r="A135" s="78"/>
-      <c r="C135" s="59" t="s">
+      <c r="A135" s="57"/>
+      <c r="C135" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="D135" s="68"/>
+      <c r="D135" s="65"/>
     </row>
     <row r="136" ht="38.25" spans="1:4">
-      <c r="A136" s="78"/>
-      <c r="C136" s="59" t="s">
+      <c r="A136" s="57"/>
+      <c r="C136" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="D136" s="68"/>
+      <c r="D136" s="65"/>
     </row>
     <row r="137" ht="25.5" spans="1:4">
-      <c r="A137" s="78"/>
-      <c r="C137" s="59" t="s">
+      <c r="A137" s="57"/>
+      <c r="C137" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="D137" s="68"/>
+      <c r="D137" s="65"/>
     </row>
     <row r="138" ht="114.75" spans="1:4">
-      <c r="A138" s="78"/>
-      <c r="B138" s="59" t="s">
+      <c r="A138" s="57"/>
+      <c r="B138" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="C138" s="59" t="s">
+      <c r="C138" s="58" t="s">
         <v>538</v>
       </c>
-      <c r="D138" s="68" t="s">
+      <c r="D138" s="65" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="139" ht="45" customHeight="1" spans="1:4">
-      <c r="A139" s="78"/>
-      <c r="B139" s="59" t="s">
+      <c r="A139" s="57"/>
+      <c r="B139" s="58" t="s">
         <v>540</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="D139" s="68" t="s">
+      <c r="D139" s="65" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="140" ht="38.25" spans="1:4">
-      <c r="A140" s="78"/>
-      <c r="C140" s="59" t="s">
+      <c r="A140" s="57"/>
+      <c r="C140" s="58" t="s">
         <v>543</v>
       </c>
-      <c r="D140" s="68"/>
+      <c r="D140" s="65"/>
     </row>
     <row r="141" ht="38.25" spans="1:4">
-      <c r="A141" s="78"/>
-      <c r="C141" s="59" t="s">
+      <c r="A141" s="57"/>
+      <c r="C141" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="D141" s="68"/>
+      <c r="D141" s="65"/>
     </row>
     <row r="142" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A142" s="78"/>
-      <c r="B142" s="59" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="C142" s="68" t="s">
+      <c r="C142" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="D142" s="68"/>
+      <c r="D142" s="65"/>
     </row>
     <row r="143" ht="25.5" spans="1:4">
-      <c r="A143" s="78"/>
-      <c r="C143" s="59" t="s">
+      <c r="A143" s="57"/>
+      <c r="C143" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="D143" s="68" t="s">
+      <c r="D143" s="65" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="144" ht="25.5" spans="1:4">
-      <c r="A144" s="78"/>
-      <c r="C144" s="59" t="s">
+      <c r="A144" s="57"/>
+      <c r="C144" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="D144" s="68" t="s">
+      <c r="D144" s="65" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="78"/>
-      <c r="C145" s="59" t="s">
+      <c r="A145" s="57"/>
+      <c r="C145" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="D145" s="68" t="s">
+      <c r="D145" s="65" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="146" ht="38.25" spans="1:4">
-      <c r="A146" s="78"/>
-      <c r="D146" s="68" t="s">
+      <c r="A146" s="57"/>
+      <c r="D146" s="65" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="147" ht="45" customHeight="1" spans="1:4">
-      <c r="A147" s="78"/>
-      <c r="B147" s="59" t="s">
+      <c r="A147" s="57"/>
+      <c r="B147" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="C147" s="59" t="s">
+      <c r="C147" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="D147" s="68" t="s">
+      <c r="D147" s="65" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="148" ht="45" customHeight="1" spans="1:4">
-      <c r="A148" s="78"/>
-      <c r="C148" s="59" t="s">
+      <c r="A148" s="57"/>
+      <c r="C148" s="58" t="s">
         <v>557</v>
       </c>
-      <c r="D148" s="68" t="s">
+      <c r="D148" s="65" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="149" ht="76.5" spans="1:4">
-      <c r="A149" s="78"/>
-      <c r="C149" s="59" t="s">
+      <c r="A149" s="57"/>
+      <c r="C149" s="58" t="s">
         <v>559</v>
       </c>
-      <c r="D149" s="68" t="s">
+      <c r="D149" s="65" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="150" ht="51" spans="1:4">
-      <c r="A150" s="78"/>
-      <c r="C150" s="59" t="s">
+      <c r="A150" s="57"/>
+      <c r="C150" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="D150" s="68" t="s">
+      <c r="D150" s="65" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="151" ht="25.5" spans="1:4">
-      <c r="A151" s="78"/>
-      <c r="B151" s="59" t="s">
+      <c r="A151" s="57"/>
+      <c r="B151" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C151" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="D151" s="68"/>
+      <c r="D151" s="65"/>
     </row>
     <row r="152" ht="25.5" spans="1:4">
-      <c r="A152" s="78"/>
-      <c r="C152" s="59" t="s">
+      <c r="A152" s="57"/>
+      <c r="C152" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="D152" s="68"/>
+      <c r="D152" s="65"/>
     </row>
     <row r="153" ht="63.75" spans="1:4">
-      <c r="A153" s="78"/>
-      <c r="B153" s="59" t="s">
+      <c r="A153" s="57"/>
+      <c r="B153" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="C153" s="59" t="s">
+      <c r="C153" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="D153" s="68" t="s">
+      <c r="D153" s="65" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="154" ht="102" spans="1:4">
-      <c r="A154" s="78"/>
-      <c r="C154" s="59" t="s">
+      <c r="A154" s="57"/>
+      <c r="C154" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="D154" s="68" t="s">
+      <c r="D154" s="65" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="155" ht="63.75" spans="1:4">
-      <c r="A155" s="78"/>
-      <c r="C155" s="59" t="s">
+      <c r="A155" s="57"/>
+      <c r="C155" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="D155" s="68" t="s">
+      <c r="D155" s="65" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="156" ht="38.25" spans="1:4">
-      <c r="A156" s="78"/>
-      <c r="C156" s="59" t="s">
+      <c r="A156" s="57"/>
+      <c r="C156" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="D156" s="68"/>
+      <c r="D156" s="65"/>
     </row>
     <row r="157" ht="25.5" spans="1:4">
-      <c r="A157" s="78"/>
-      <c r="C157" s="59" t="s">
+      <c r="A157" s="57"/>
+      <c r="C157" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="D157" s="68"/>
+      <c r="D157" s="65"/>
     </row>
     <row r="158" ht="25.5" spans="1:4">
-      <c r="A158" s="78"/>
-      <c r="B158" s="59" t="s">
+      <c r="A158" s="57"/>
+      <c r="B158" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C158" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="D158" s="68"/>
+      <c r="D158" s="65"/>
     </row>
     <row r="159" ht="25.5" spans="1:4">
-      <c r="A159" s="78"/>
-      <c r="C159" s="59" t="s">
+      <c r="A159" s="57"/>
+      <c r="C159" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="D159" s="68"/>
+      <c r="D159" s="65"/>
     </row>
     <row r="160" ht="45" customHeight="1" spans="1:4">
-      <c r="A160" s="78"/>
-      <c r="B160" s="59" t="s">
+      <c r="A160" s="57"/>
+      <c r="B160" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="C160" s="59" t="s">
+      <c r="C160" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="D160" s="68"/>
+      <c r="D160" s="65"/>
     </row>
     <row r="161" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A161" s="78"/>
-      <c r="C161" s="59" t="s">
+      <c r="A161" s="57"/>
+      <c r="C161" s="58" t="s">
         <v>580</v>
       </c>
-      <c r="D161" s="68"/>
+      <c r="D161" s="65"/>
     </row>
     <row r="162" ht="38.25" spans="1:4">
-      <c r="A162" s="78"/>
-      <c r="B162" s="59" t="s">
+      <c r="A162" s="57"/>
+      <c r="B162" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="C162" s="59" t="s">
+      <c r="C162" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="D162" s="68"/>
+      <c r="D162" s="65"/>
     </row>
     <row r="163" ht="25.5" spans="1:4">
-      <c r="A163" s="78"/>
-      <c r="B163" s="59" t="s">
+      <c r="A163" s="57"/>
+      <c r="B163" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="C163" s="59" t="s">
+      <c r="C163" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="D163" s="68"/>
+      <c r="D163" s="65"/>
     </row>
     <row r="164" ht="25.5" spans="1:4">
-      <c r="A164" s="78"/>
-      <c r="C164" s="59" t="s">
+      <c r="A164" s="57"/>
+      <c r="C164" s="58" t="s">
         <v>585</v>
       </c>
-      <c r="D164" s="68"/>
+      <c r="D164" s="65"/>
     </row>
     <row r="165" ht="38.25" spans="1:4">
-      <c r="A165" s="78"/>
-      <c r="C165" s="59" t="s">
+      <c r="A165" s="57"/>
+      <c r="C165" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="D165" s="68"/>
+      <c r="D165" s="65"/>
     </row>
     <row r="166" ht="25.5" spans="1:4">
-      <c r="A166" s="78"/>
-      <c r="B166" s="59" t="s">
+      <c r="A166" s="57"/>
+      <c r="B166" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="C166" s="59" t="s">
+      <c r="C166" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="D166" s="68"/>
+      <c r="D166" s="65"/>
     </row>
     <row r="167" ht="25.5" spans="1:4">
-      <c r="A167" s="78"/>
-      <c r="C167" s="59" t="s">
+      <c r="A167" s="57"/>
+      <c r="C167" s="58" t="s">
         <v>589</v>
       </c>
-      <c r="D167" s="68"/>
+      <c r="D167" s="65"/>
     </row>
     <row r="168" ht="25.5" spans="1:4">
-      <c r="A168" s="78"/>
-      <c r="C168" s="59" t="s">
+      <c r="A168" s="57"/>
+      <c r="C168" s="58" t="s">
         <v>590</v>
       </c>
-      <c r="D168" s="68"/>
+      <c r="D168" s="65"/>
     </row>
     <row r="169" ht="38.25" spans="1:4">
-      <c r="A169" s="78"/>
-      <c r="B169" s="59" t="s">
+      <c r="A169" s="57"/>
+      <c r="B169" s="58" t="s">
         <v>591</v>
       </c>
-      <c r="D169" s="68"/>
+      <c r="D169" s="65"/>
     </row>
     <row r="171" ht="51" spans="1:4">
-      <c r="A171" s="58" t="s">
+      <c r="A171" s="54" t="s">
         <v>592</v>
       </c>
-      <c r="B171" s="59" t="s">
+      <c r="B171" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="C171" s="59" t="s">
+      <c r="C171" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="D171" s="68" t="s">
+      <c r="D171" s="65" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="68" t="s">
+      <c r="D172" s="65" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="173" spans="4:4">
-      <c r="D173" s="68" t="s">
+      <c r="D173" s="65" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="174" spans="4:4">
-      <c r="D174" s="68" t="s">
+      <c r="D174" s="65" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="175" ht="114.75" spans="3:4">
-      <c r="C175" s="75" t="s">
+      <c r="C175" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="D175" s="68" t="s">
+      <c r="D175" s="65" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="176" ht="63.75" spans="3:4">
-      <c r="C176" s="75"/>
-      <c r="D176" s="68" t="s">
+      <c r="C176" s="29"/>
+      <c r="D176" s="65" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="177" ht="63.75" spans="3:4">
-      <c r="C177" s="75"/>
-      <c r="D177" s="68" t="s">
+      <c r="C177" s="29"/>
+      <c r="D177" s="65" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="178" ht="89.25" spans="3:4">
-      <c r="C178" s="75"/>
-      <c r="D178" s="68" t="s">
+      <c r="C178" s="29"/>
+      <c r="D178" s="65" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="179" ht="25.5" spans="3:4">
-      <c r="C179" s="59" t="s">
+      <c r="C179" s="58" t="s">
         <v>604</v>
       </c>
-      <c r="D179" s="68" t="s">
+      <c r="D179" s="65" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="79"/>
-      <c r="D180" s="68"/>
+      <c r="B180" s="72"/>
+      <c r="D180" s="65"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="59" t="s">
+      <c r="B181" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="D181" s="68"/>
+      <c r="D181" s="65"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="79"/>
-      <c r="D182" s="68"/>
+      <c r="B182" s="72"/>
+      <c r="D182" s="65"/>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="68"/>
+      <c r="D183" s="65"/>
     </row>
     <row r="184" spans="4:4">
-      <c r="D184" s="68"/>
+      <c r="D184" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -43625,7 +43931,7 @@
       <c r="A3" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="107" t="s">
         <v>690</v>
       </c>
     </row>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -1674,14 +1674,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Generic Programming</t>
     </r>
     <r>
@@ -1698,6 +1690,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Introduction: 
 </t>
     </r>
@@ -1716,6 +1716,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Why Generic Programming:
 </t>
     </r>
@@ -1734,6 +1742,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Wildcard Type:
 </t>
     </r>
@@ -1751,6 +1767,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Generic programming fall into (chia) 3 skill levels</t>
     </r>
     <r>
@@ -1769,6 +1793,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Deﬁning a Simple Generic Class</t>
     </r>
     <r>
@@ -1787,6 +1819,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Generic Methods</t>
     </r>
     <r>
@@ -1810,6 +1850,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bounds for Type Variables</t>
     </r>
     <r>
@@ -1830,6 +1878,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Generic Code and the Virtual Machine</t>
     </r>
     <r>
@@ -1951,6 +2007,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Restrictions and Limitations
 1. Type Parameters Cannot Be Instantiated with Primitive Types</t>
     </r>
@@ -2049,6 +2113,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Inheritance Rules for Generic Types
 </t>
     </r>
@@ -2069,6 +2141,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Wildcard Types
 - </t>
     </r>
@@ -2216,6 +2296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Reﬂection and Generics
 1. The Generic Class class</t>
     </r>
@@ -2272,19 +2359,67 @@
     <t>Collections</t>
   </si>
   <si>
-    <t>The Java Collections Framework:
+    <r>
+      <t xml:space="preserve">The Java Collections Framework:
 1. Separating Collection Interfaces and Implementation:
-- As is common with modern data structure libraries, the Java collection library separates interfaces and implementations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- As is common with modern data structure libraries, the Java collection library separates interfaces and implementations.
 - A QUEUE interface speciﬁes that you can add elements at the tail end of the queue, remove them at the head (FIFO), and ﬁnd out how many elements are in the queue
-- Use the interface type to hold the collection reference. Makes sense to use the concrete class only when you construct the collection object. If you change your mind, you can easily use a different implementation only need to change your program in one place—in the constructor call
+- Use the interface type to hold the collection reference. Makes sense to use the concrete class only when you construct the collection object. If you change your mind, you can easily use a different implementation only need to change your program in one place—in the constructor call</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. The Collection Interface:
-- The fundamental interface for collection classes in the Java library is the Collection interface. The interface has two fundamental methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- The fundamental interface for collection classes in the Java library is the Collection interface. The interface has two fundamental methods
 - The add method adds an element to the collection. The add method returns true if adding the element actually changes the collection, and false if the
 collection is unchanged
 - The iterator method returns an object that implements the Iterator interface. You can use the iterator object to visit the elements in the
-collection one by one.
+collection one by one.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3. Iterators:
-- The Iterator interface has four methods: E next() , boolean hasNext(), void remove(), forEachRemaining(Consumer&lt;? super E&gt; action)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- The Iterator interface has four methods: E next() , boolean hasNext(), void remove(), forEachRemaining(Consumer&lt;? super E&gt; action)
 - By repeatedly calling the next method, you can visit the elements from the collection one by one. However, if you reach the end of the collection, thenext method throws a NoSuchElementException. Therefore, you need to call the hasNext method before calling next. That method returns true if the iterator object still has more elements to visit. If you want to inspect all elements in a collection, request an iterator and then keep calling the next method while hasNext returns true
 - Foreach: You can write such a loop more concisely as the “for each” loop: The compiler simply translates the “for each” loop into a loop with an iterator. The “for each” loop works with any object that implements the Iterable interface, an interface with a single abstract method. The Collection interface extends the Iterable interface. Therefore, you can use the “for each” loop with any collection in the standard library
 - The order in which the elements are visited depends on the collection type. If you iterate over an ArrayList, the iterator starts at index 0 and increments the index in each step. However, if you visit the elements in a HashSet, you will get them in an essentially random order.
@@ -2296,9 +2431,29 @@
           it.remove(); // ERROR
    =&gt; it.remove();
         it.next();
-        it.remove(); // OK
-4. Generic Utility Methods:
+        it.remove(); // OK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Generic Utility Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - The Collection and Iterator interfaces are generic, which means you can write utility methods that operate on any kind of collection</t>
+    </r>
   </si>
   <si>
     <t>Interfaces in the Collections Framework:
@@ -2317,8 +2472,18 @@
 5. NavigableSet and NavigableMap that contain additional methods for searching and traversal in sorted sets and maps.</t>
   </si>
   <si>
-    <t>Concrete Collections:
-1. Linked Lists:
+    <r>
+      <t>Concrete Collections:
+1. Linked Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Removing an element from the middle of an array is expensive since all array elements beyond the removed one must be moved toward the beginning of the array. The same is true for inserting elements in the middle. Another well-known data structure, the linked list, solves this problem.
 - Array stores object references in consecutive memory locations(bộ nhớ liên tiếp).
 - Linked list stores each object in a separate link. Each link also stores a reference to the next link in the sequence. In the Java programming
@@ -2335,17 +2500,71 @@
 =&gt; not very efﬁcient. If you ﬁnd yourself using it, you are probably using a wrong data structure for your problem.
 - Finally, if you have an integer index n, then list.listIterator(n) returns an iterator that points just before the element with index n. That is, calling next yields the same element as list.get(n); obtaining that iterator is inefﬁcient
 - Why use a linked list in the ﬁrst place? The only reason to use a linked list is to minimize the cost of insertion and removal in the middle of the list. If you have only a few elements, you can just use an ArrayList.</t>
-  </si>
-  <si>
-    <t>Concrete Collections:
-2. ArrayList:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concrete Collections:
+2. ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - The List interface describes an ordered collection in which the position of elements matters. There are two protocols for visiting the elements: through an iterator and by random access with methods get and set. The latter is not appropriate for linked lists, but of course get and set make a lot of sense for arrays. The collections library supplies the familiar ArrayList class that also implements the List interface. An ArrayList encapsulates a dynamically reallocated array of objects.
 - You may have used the Vector class whenever you need a dynamic array. Why use an ArrayList instead of a Vector? For one simple reason: All methods of the Vector class are
-synchronized. It is safe to access a Vector object from two threads. But if you access a vector from only a single thread—by far the more common case your code wastes quite a bit of time with synchronization. In contrast, the ArrayList methods are not synchronized. I recommend that you use an ArrayList instead of a Vector whenever you don’t need synchronization
-3. Hash Sets:
+synchronized. It is safe to access a Vector object from two threads. But if you access a vector from only a single thread—by far the more common case your code wastes quite a bit of time with synchronization. In contrast, the ArrayList methods are not synchronized. I recommend that you use an ArrayList instead of a Vector whenever you don’t need synchronization</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Hash Sets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - Linked lists and arrays let you specify the order in which you want to arrange (sắp xếp) the elements. If you are looking for a particular element and don’t remember its position, you need to visit all elements until you ﬁnd a match. That can be time consuming if the collection contains many elements. If you don’t care about the ordering of the elements, there are data structures that let you ﬁnd elements much faster.
-- Drawback is that those data structures give you no control over the order(không cấp quyền kiểm soát sự sắp xếp) in which the elements appear. These data structures organize the elements in an order that is convenient(thuận tiện) for their own purposes
-- Hash Table: 
+- Drawback is that those data structures give you no control over the order(không cấp quyền kiểm soát sự sắp xếp) in which the elements appear. These data structures organize the elements in an order that is convenient(thuận tiện) for their own purposes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Hash Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
   + A well-known data structure for ﬁnding objects quickly is the hash table. A hash table computes an integer, called the hash code, for each object. A hash code is somehow derived from the instance ﬁelds of an object, preferably insuch a way that objects with different data yield different codes.
   + If you deﬁne your own classes, you are responsible for implementing your own hashCode method. Your implementation needs to be compatible with the equals method: If a.equals(b), then a and b must have the same hash code.
   + Hash codes can be computed quickly and that the computation depends only on the state of the object that needs to be hashed, not on the other objects in the hash table.
@@ -2355,64 +2574,257 @@
       - Collision: A collision occurs when two keys hash to the same bucket index. HashMap handles collisions by chaining.
       - Chaining: If a collision occurs, the new entry is added to the linked list (or tree) at that bucket index. This means multiple entries can exist at the same index but are chained together.
       - Java 8 Optimization: Starting from Java 8, if the length of the linked list exceeds a certain threshold (default is 8), the list is transformed into a balanced binary tree (a TreeNode) to improve lookup times.</t>
-  </si>
-  <si>
-    <t>Concrete Collections:
-3.Tree Sets :
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Concrete Collections:
+3.Tree Sets </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - TreeSet class is similar to the hash set, with one added improvement. A tree set is a sorted collection. You insert elements into the collection in any order. When you iterate through the collection, the values are automatically presented in sorted order. The sorting is accomplished by a tree data structure. (The current implementation uses a red-black tree).
 - Every time an element is added to a tree, it is placed into itsproper sorting position. Therefore, the iterator always visits the elements in sorted order.
 =&gt; Adding an element to a tree is slower than adding it to a hash table. But it is still much faster than checking for duplicates in an array or linked list. If the tree contains n elements, then an average of log2 n comparisons are required to ﬁnd the correct position for the new element.
-- In order to use a tree set, you must be able to compare the elements. The elements must implement the Comparable interface, or you must supply a Comparator when constructing the set.
-4.Queues and Deques: 
-- As we already discussed, a queue lets you efﬁciently add elements at the tail and remove elements from the head. A double-ended queue, or deque, lets you efﬁciently add or remove elements at the head and tail. Adding elements in the middle is not supported. Java 6 introduced a Deque interface. It is implemented by the ArrayDeque and LinkedList classes, both of which provide deques whose size grows as needed.
-5. Priority Queues: 
+- In order to use a tree set, you must be able to compare the elements. The elements must implement the Comparable interface, or you must supply a Comparator when constructing the set.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.Queues and Deques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+- As we already discussed, a queue lets you efﬁciently add elements at the tail and remove elements from the head. A double-ended queue, or deque, lets you efﬁciently add or remove elements at the head and tail. Adding elements in the middle is not supported. Java 6 introduced a Deque interface. It is implemented by the ArrayDeque and LinkedList classes, both of which provide deques whose size grows as needed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Priority Queues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
 - A priority queue retrieves elements in sorted order after they were inserted in arbitrary order. That is, whenever you call the remove method, you get the smallest element currently in the priority queue. However, the priority queue does not sort all its elements. 
 - If you iterate over the elements, they are not necessarily sorted. The priority queue makes use of an elegant and efﬁcient data structure called a heap. A heap is a self-organizing binary tree in which
 the add and remove operations cause the smallest element to gravitate to the root, without wasting time on sorting all elements.
 - Just like a TreeSet, a priority queue can either hold elements of a class that implements the Comparable interface or a Comparator object you supply inthe constructor. A typical use for a priority queue is job scheduling. Each job has a priority. Jobs are added in random order. Whenever a new job can be started, the highest priority job is removed from the queue. (Since it is traditional for priority 1 to be the “highest” priority, the remove operation yields the minimum element.)</t>
-  </si>
-  <si>
-    <t>Maps:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Maps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - A set is a collection that lets you quickly ﬁnd an existing element. However, to look up an element, you need to have an exact copy of the element to ﬁnd.
-- A map stores key/value pairs. You can ﬁnd a value if you provide the key.
-1. Basic Map Operations:
+- A map stores key/value pairs. You can ﬁnd a value if you provide the key.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Basic Map Operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - HashMap and TreeMap. Both classes implement the Map interface. A hash map hashes the keys, and a tree map uses an ordering on the keys to organize them in a search tree. The hash or comparison function is appliedonly to the keys. The values associated with the keys are not hashed or compared.
 - As with sets, hashing is usually a bit faster, and it is the preferred choice if you don’t need to visit the keys in sorted order. Keys must be unique. You cannot store two values with the same key. If you
-call the put method twice with the same key, the second value replaces theﬁrst one. In fact, put returns the previous value associated with its key parameter.
+call the put method twice with the same key, the second value replaces theﬁrst one. In fact, put returns the previous value associated with its key parameter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. Updating Map Entries
-- A tricky part of dealing with maps is updating an entry: counts.put(word, counts.get(word) + 1);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- A tricky part of dealing with maps is updating an entry: counts.put(word, counts.get(word) + 1);
 =&gt; That works, except in the case when word is encountered for the ﬁrst time. Then get returns null, and a NullPointerException occurs.
 counts.putIfAbsent(word, 0); counts.put(word, counts.get(word) + 1); // now we know that get will succeed
-or: counts.merge(word, 1, Integer::sum);
+or: counts.merge(word, 1, Integer::sum);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3. Map Views
 4. Weak Hash Maps
 5. Linked Hash Sets and Maps
 6. Enumeration Sets and Maps
 7. Identity Hash Maps</t>
-  </si>
-  <si>
-    <t>Copies and Views:
-1. Small Collections:
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Copies and Views:
+1. Small Collections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - List.of("Peter", "Paul", "Mary");  Set.of(2, 3, 5); Map.of("Peter", 2, "Paul", 3,"Mary", 5); ofEntries( entry("Peter", 2), entry("Paul", 3),entry("Mary", 5)); These collection objects are unmodiﬁable. Any attempt to change their contents results in an UnsupportedOperationException.
 - If you want a mutable collection, you can pass the unmodiﬁable collection to the constructor: var names = new ArrayList&lt;&gt;(List.of("Peter", "Paul", "Mary"));
-- Collections.nCopies(n, anObject) returns an immutable object that implements the List interface and gives the illusion of having n elements, each of which appears as anObject.
+- Collections.nCopies(n, anObject) returns an immutable object that implements the List interface and gives the illusion of having n elements, each of which appears as anObject.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. Unmodifiable Copies and Views
-- To make an unmodiﬁable copy of a collection, use the copyOf method of the collection type:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- To make an unmodiﬁable copy of a collection, use the copyOf method of the collection type:
   + Set&lt;String&gt; nameSet = Set.copyOf(names); // The names as an unmodifiable set
   + List&lt;String&gt; nameList = List.copyOf(names); // The names as an unmodifiable list 
 =&gt; Each copyOf method makes a copy of the collection. If the original collection is modiﬁed, the copy is not affected.
 - If the original collection happens to be unmodiﬁable and of the correct type, then copyOf simply returns it:
   Set&lt;String&gt; names = Set.of("Peter", "Paul", "Mary"); 
-  Set&lt;String&gt; nameSet = Set.copyOf(names); // No need to make a copy: names == nameSet
+  Set&lt;String&gt; nameSet = Set.copyOf(names); // No need to make a copy: names == nameSet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3. Subranges
-- List&lt;Employee&gt; group2 = staff.subList(10, 20); The ﬁrst index is inclusive, the second exclusive—just like the parameters for the substring operation of the String class.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- List&lt;Employee&gt; group2 = staff.subList(10, 20); The ﬁrst index is inclusive, the second exclusive—just like the parameters for the substring operation of the String class.
 - You can apply any operations to the subrange, and they automatically reﬂect the entire list. For example, you can erase the entire subrange: group2.clear(); // staff reduction The elements get automatically cleared from the staff list, and group2 becomes empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 4. Checked Views
-5. Synchronized:
+5. Synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
 - If you access a collection from multiple threads, you need to ensure that the collection is not accidentally(vô tình) damaged(bị hư hỏng).
 - Instead of implementing thread-safe collection classes, the library designers used the view mechanism to make regular collections thread-safe.
-- The methods such as get and put are synchronized—each method call must be ﬁnished completely before another thread can call another method.
+- The methods such as get and put are synchronized—each method call must be ﬁnished completely before another thread can call another method.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 6. A Note on Optional Operations</t>
+    </r>
   </si>
   <si>
     <t>Algorithms:</t>
@@ -6465,6 +6877,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Exploiting Multiple Processors:
  - Since the</t>
     </r>
@@ -34561,12 +34980,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34788,6 +35207,15 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -34810,19 +35238,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -34834,16 +35253,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34858,7 +35293,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34866,6 +35308,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34888,47 +35345,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35050,7 +35478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35062,13 +35508,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35080,13 +35610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35098,121 +35634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35284,6 +35712,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -35294,6 +35746,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -35323,150 +35784,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -35475,22 +35903,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -35498,7 +35926,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -35769,16 +36197,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -35790,7 +36224,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -36069,7 +36503,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20746720" y="89192100"/>
+          <a:off x="20746720" y="110683675"/>
           <a:ext cx="6933565" cy="6762115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36086,15 +36520,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>2494915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>1466215</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424180</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>806450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -36111,7 +36545,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21355685" y="33079055"/>
+          <a:off x="20918805" y="57450990"/>
           <a:ext cx="6195695" cy="6109335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36153,7 +36587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20746720" y="89192100"/>
+          <a:off x="20746720" y="110683675"/>
           <a:ext cx="6933565" cy="7409815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36701,7 +37135,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
     </row>
@@ -36712,7 +37146,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>3</v>
       </c>
     </row>
@@ -36720,10 +37154,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="108" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36734,7 +37168,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36756,7 +37190,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="109" t="s">
         <v>11</v>
       </c>
     </row>
@@ -36767,7 +37201,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="106" t="s">
         <v>13</v>
       </c>
     </row>
@@ -36778,7 +37212,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="106" t="s">
         <v>15</v>
       </c>
     </row>
@@ -36789,7 +37223,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
     </row>
@@ -36838,7 +37272,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="106" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -36868,7 +37302,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="106" t="s">
         <v>37</v>
       </c>
     </row>
@@ -36876,7 +37310,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -39681,13 +40115,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8533333333333" style="101" customWidth="1"/>
+    <col min="1" max="1" width="15.8533333333333" style="103" customWidth="1"/>
     <col min="2" max="2" width="13.8533333333333" style="46" customWidth="1"/>
     <col min="3" max="3" width="156.14" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -39696,13 +40130,13 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" ht="57" customHeight="1" spans="2:3">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" ht="135" customHeight="1" spans="1:3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -39711,7 +40145,7 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="103" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -39720,7 +40154,7 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="255.95" customHeight="1" spans="1:3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -39729,7 +40163,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:3">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="103" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -39738,7 +40172,7 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="33.95" customHeight="1" spans="1:4">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="105" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -39750,7 +40184,7 @@
       <c r="D7" s="42"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -39814,7 +40248,7 @@
       <c r="A3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="110" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="42"/>
@@ -39823,7 +40257,7 @@
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="79"/>
@@ -39832,7 +40266,7 @@
       <c r="A5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="110" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="42"/>
@@ -39841,7 +40275,7 @@
       <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="110" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="42"/>
@@ -39859,10 +40293,10 @@
       <c r="C8" s="42"/>
     </row>
     <row r="9" s="77" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="110" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="42"/>
@@ -40616,7 +41050,7 @@
       <c r="C109" s="89"/>
     </row>
     <row r="110" s="77" customFormat="1" ht="409" customHeight="1" spans="1:4">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="96" t="s">
         <v>194</v>
       </c>
       <c r="B110" s="89" t="s">
@@ -40625,66 +41059,66 @@
       <c r="C110" s="89"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="77" customFormat="1" ht="185" customHeight="1" spans="1:4">
-      <c r="A111" s="36"/>
+    <row r="111" s="77" customFormat="1" ht="270" customHeight="1" spans="1:4">
+      <c r="A111" s="97"/>
       <c r="B111" s="89" t="s">
         <v>196</v>
       </c>
       <c r="C111" s="89"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="77" customFormat="1" spans="1:4">
-      <c r="A112" s="36"/>
-      <c r="B112" s="96" t="s">
+    <row r="112" s="77" customFormat="1" ht="324" customHeight="1" spans="1:4">
+      <c r="A112" s="97"/>
+      <c r="B112" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="96"/>
+      <c r="C112" s="98"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="77" customFormat="1" spans="1:3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="97" t="s">
+    <row r="113" s="77" customFormat="1" ht="363" customHeight="1" spans="1:3">
+      <c r="A113" s="97"/>
+      <c r="B113" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="97"/>
-    </row>
-    <row r="114" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A114" s="36"/>
+      <c r="C113" s="99"/>
+    </row>
+    <row r="114" s="77" customFormat="1" ht="267" customHeight="1" spans="1:3">
+      <c r="A114" s="97"/>
       <c r="B114" s="50" t="s">
         <v>199</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="77" customFormat="1" spans="1:3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="96" t="s">
+    <row r="115" s="77" customFormat="1" ht="343" customHeight="1" spans="1:3">
+      <c r="A115" s="97"/>
+      <c r="B115" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="96"/>
-    </row>
-    <row r="116" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A116" s="36"/>
+      <c r="C115" s="98"/>
+    </row>
+    <row r="116" s="77" customFormat="1" ht="408" customHeight="1" spans="1:3">
+      <c r="A116" s="97"/>
       <c r="B116" s="89" t="s">
         <v>201</v>
       </c>
       <c r="C116" s="89"/>
     </row>
-    <row r="117" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A117" s="36"/>
+    <row r="117" s="77" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A117" s="97"/>
       <c r="B117" s="89" t="s">
         <v>202</v>
       </c>
       <c r="C117" s="89"/>
     </row>
-    <row r="118" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A118" s="36"/>
+    <row r="118" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A118" s="97"/>
       <c r="B118" s="89" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="89"/>
     </row>
-    <row r="119" s="77" customFormat="1" ht="57" customHeight="1" spans="1:3">
-      <c r="A119" s="98" t="s">
+    <row r="119" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A119" s="100" t="s">
         <v>204</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -40695,7 +41129,7 @@
       </c>
     </row>
     <row r="120" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="98"/>
+      <c r="A120" s="100"/>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
@@ -40704,42 +41138,42 @@
       </c>
     </row>
     <row r="121" s="77" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="99"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="122" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="99"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="123" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="99"/>
+      <c r="A123" s="101"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="124" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="99"/>
+      <c r="A124" s="101"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="125" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="99"/>
+      <c r="A125" s="101"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="126" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="99"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="4" t="s">
         <v>214</v>
       </c>
@@ -40748,42 +41182,42 @@
       </c>
     </row>
     <row r="127" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="99"/>
+      <c r="A127" s="101"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="128" s="77" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="99"/>
+      <c r="A128" s="101"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="129" s="77" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="99"/>
+      <c r="A129" s="101"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="130" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="99"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="131" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="99"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="132" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="99"/>
+      <c r="A132" s="101"/>
       <c r="B132" s="4" t="s">
         <v>221</v>
       </c>
@@ -40792,42 +41226,42 @@
       </c>
     </row>
     <row r="133" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="99"/>
+      <c r="A133" s="101"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="134" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="99"/>
+      <c r="A134" s="101"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="100" t="s">
+      <c r="C134" s="102" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="135" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="99"/>
+      <c r="A135" s="101"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="100" t="s">
+      <c r="C135" s="102" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="136" s="77" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="99"/>
+      <c r="A136" s="101"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="100" t="s">
+      <c r="C136" s="102" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="137" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="99"/>
+      <c r="A137" s="101"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="100" t="s">
+      <c r="C137" s="102" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="138" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="99"/>
+      <c r="A138" s="101"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
       </c>
@@ -40836,98 +41270,98 @@
       </c>
     </row>
     <row r="139" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="99"/>
+      <c r="A139" s="101"/>
       <c r="B139" s="4"/>
       <c r="C139" s="78" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="140" s="77" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="99"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="100" t="s">
+      <c r="C140" s="102" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="141" s="77" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="99"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="100" t="s">
+      <c r="C141" s="102" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="142" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="99"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="100" t="s">
+      <c r="C142" s="102" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="143" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="99"/>
+      <c r="A143" s="101"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="100" t="s">
+      <c r="C143" s="102" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="144" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="99"/>
+      <c r="A144" s="101"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="100" t="s">
+      <c r="C144" s="102" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="145" s="77" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="99"/>
+      <c r="A145" s="101"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="100" t="s">
+      <c r="C145" s="102" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="146" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="99"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="102" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="147" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="99"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="100" t="s">
+      <c r="C147" s="102" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="148" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="99"/>
+      <c r="A148" s="101"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="100" t="s">
+      <c r="C148" s="102" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="149" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="99"/>
+      <c r="A149" s="101"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="100" t="s">
+      <c r="C149" s="102" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="150" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="99"/>
+      <c r="A150" s="101"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="100" t="s">
+      <c r="C150" s="102" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="151" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="99"/>
+      <c r="A151" s="101"/>
       <c r="B151" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="100"/>
+      <c r="C151" s="102"/>
     </row>
     <row r="152" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="99"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="4" t="s">
         <v>243</v>
       </c>
@@ -40936,58 +41370,58 @@
       </c>
     </row>
     <row r="153" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="99"/>
+      <c r="A153" s="101"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="100" t="s">
+      <c r="C153" s="102" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="154" s="77" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="99"/>
+      <c r="A154" s="101"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="100" t="s">
+      <c r="C154" s="102" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="155" s="77" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="99"/>
+      <c r="A155" s="101"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="100" t="s">
+      <c r="C155" s="102" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="156" s="77" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="99"/>
+      <c r="A156" s="101"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="100" t="s">
+      <c r="C156" s="102" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="157" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="99"/>
+      <c r="A157" s="101"/>
       <c r="B157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C157" s="100" t="s">
+      <c r="C157" s="102" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="158" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="99"/>
+      <c r="A158" s="101"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="100" t="s">
+      <c r="C158" s="102" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="159" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="99"/>
+      <c r="A159" s="101"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="100" t="s">
+      <c r="C159" s="102" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="160" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="99"/>
+      <c r="A160" s="101"/>
       <c r="B160" s="4" t="s">
         <v>253</v>
       </c>
@@ -40996,53 +41430,53 @@
       </c>
     </row>
     <row r="161" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="99"/>
+      <c r="A161" s="101"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="100" t="s">
+      <c r="C161" s="102" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="162" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="99"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="100" t="s">
+      <c r="C162" s="102" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="163" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="99"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="100" t="s">
+      <c r="C163" s="102" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="164" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="99"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="100" t="s">
+      <c r="C164" s="102" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="165" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="99"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="100" t="s">
+      <c r="C165" s="102" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="166" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="99"/>
+      <c r="A166" s="101"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="100" t="s">
+      <c r="C166" s="102" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="167" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="99"/>
+      <c r="A167" s="101"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="100" t="s">
+      <c r="C167" s="102" t="s">
         <v>262</v>
       </c>
     </row>
@@ -41458,6 +41892,7 @@
   <hyperlinks>
     <hyperlink ref="A119:A167" r:id="rId2" display="Concurrency"/>
     <hyperlink ref="B119" r:id="rId2" display="Threads"/>
+    <hyperlink ref="A110:A118" r:id="rId3" display="Collections"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -41849,7 +42284,7 @@
       <c r="D4" s="61"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -43931,7 +44366,7 @@
       <c r="A3" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="109" t="s">
         <v>690</v>
       </c>
     </row>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -1674,6 +1674,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Generic Programming</t>
     </r>
     <r>
@@ -2360,6 +2368,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Java Collections Framework:
 1. Separating Collection Interfaces and Implementation:
 </t>
@@ -2504,6 +2519,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Concrete Collections:
 2. ArrayList</t>
     </r>
@@ -2578,6 +2601,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Concrete Collections:
 3.Tree Sets </t>
     </r>
@@ -2647,6 +2678,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Maps</t>
     </r>
     <r>
@@ -2725,6 +2763,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Copies and Views:
 1. Small Collections</t>
     </r>
@@ -34981,9 +35026,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -35209,7 +35254,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -35238,6 +35283,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -35245,11 +35313,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35258,21 +35326,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35292,15 +35345,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35320,17 +35383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35344,19 +35398,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35472,13 +35517,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35496,25 +35637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35526,61 +35673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35593,54 +35686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35712,30 +35757,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -35753,8 +35774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -35784,141 +35820,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -35926,7 +35971,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -36195,9 +36240,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
@@ -37135,7 +37177,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
     </row>
@@ -37146,7 +37188,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37154,10 +37196,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37168,7 +37210,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37190,7 +37232,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="108" t="s">
         <v>11</v>
       </c>
     </row>
@@ -37201,7 +37243,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>13</v>
       </c>
     </row>
@@ -37212,7 +37254,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>15</v>
       </c>
     </row>
@@ -37223,7 +37265,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="107" t="s">
         <v>17</v>
       </c>
     </row>
@@ -37272,7 +37314,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="105" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -37302,7 +37344,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="105" t="s">
         <v>37</v>
       </c>
     </row>
@@ -37310,7 +37352,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="105" t="s">
         <v>39</v>
       </c>
     </row>
@@ -40115,13 +40157,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8533333333333" style="103" customWidth="1"/>
+    <col min="1" max="1" width="15.8533333333333" style="102" customWidth="1"/>
     <col min="2" max="2" width="13.8533333333333" style="46" customWidth="1"/>
     <col min="3" max="3" width="156.14" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -40130,13 +40172,13 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" ht="57" customHeight="1" spans="2:3">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="103"/>
     </row>
     <row r="3" ht="135" customHeight="1" spans="1:3">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="102" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -40145,7 +40187,7 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -40154,7 +40196,7 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="255.95" customHeight="1" spans="1:3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -40163,7 +40205,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="102" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -40172,7 +40214,7 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="33.95" customHeight="1" spans="1:4">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="104" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -40184,7 +40226,7 @@
       <c r="D7" s="42"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="102" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -40214,8 +40256,8 @@
   <sheetPr/>
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:C110"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -40248,7 +40290,7 @@
       <c r="A3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="42"/>
@@ -40257,7 +40299,7 @@
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="79"/>
@@ -40266,7 +40308,7 @@
       <c r="A5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="42"/>
@@ -40275,7 +40317,7 @@
       <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="109" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="42"/>
@@ -40293,10 +40335,10 @@
       <c r="C8" s="42"/>
     </row>
     <row r="9" s="77" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="109" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="42"/>
@@ -41060,7 +41102,7 @@
       <c r="D110"/>
     </row>
     <row r="111" s="77" customFormat="1" ht="270" customHeight="1" spans="1:4">
-      <c r="A111" s="97"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="89" t="s">
         <v>196</v>
       </c>
@@ -41068,57 +41110,57 @@
       <c r="D111"/>
     </row>
     <row r="112" s="77" customFormat="1" ht="324" customHeight="1" spans="1:4">
-      <c r="A112" s="97"/>
-      <c r="B112" s="98" t="s">
+      <c r="A112" s="96"/>
+      <c r="B112" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="98"/>
+      <c r="C112" s="97"/>
       <c r="D112" s="52"/>
     </row>
     <row r="113" s="77" customFormat="1" ht="363" customHeight="1" spans="1:3">
-      <c r="A113" s="97"/>
-      <c r="B113" s="99" t="s">
+      <c r="A113" s="96"/>
+      <c r="B113" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="99"/>
+      <c r="C113" s="98"/>
     </row>
     <row r="114" s="77" customFormat="1" ht="267" customHeight="1" spans="1:3">
-      <c r="A114" s="97"/>
+      <c r="A114" s="96"/>
       <c r="B114" s="50" t="s">
         <v>199</v>
       </c>
       <c r="C114" s="50"/>
     </row>
     <row r="115" s="77" customFormat="1" ht="343" customHeight="1" spans="1:3">
-      <c r="A115" s="97"/>
-      <c r="B115" s="98" t="s">
+      <c r="A115" s="96"/>
+      <c r="B115" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="98"/>
+      <c r="C115" s="97"/>
     </row>
     <row r="116" s="77" customFormat="1" ht="408" customHeight="1" spans="1:3">
-      <c r="A116" s="97"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="89" t="s">
         <v>201</v>
       </c>
       <c r="C116" s="89"/>
     </row>
     <row r="117" s="77" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A117" s="97"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="89" t="s">
         <v>202</v>
       </c>
       <c r="C117" s="89"/>
     </row>
     <row r="118" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A118" s="97"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="89" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="89"/>
     </row>
     <row r="119" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A119" s="100" t="s">
+      <c r="A119" s="99" t="s">
         <v>204</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -41129,7 +41171,7 @@
       </c>
     </row>
     <row r="120" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="100"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
@@ -41138,42 +41180,42 @@
       </c>
     </row>
     <row r="121" s="77" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="101"/>
+      <c r="A121" s="100"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="122" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="101"/>
+      <c r="A122" s="100"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="123" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="101"/>
+      <c r="A123" s="100"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="124" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="101"/>
+      <c r="A124" s="100"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="125" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="101"/>
+      <c r="A125" s="100"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="126" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="101"/>
+      <c r="A126" s="100"/>
       <c r="B126" s="4" t="s">
         <v>214</v>
       </c>
@@ -41182,42 +41224,42 @@
       </c>
     </row>
     <row r="127" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="101"/>
+      <c r="A127" s="100"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="128" s="77" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="101"/>
+      <c r="A128" s="100"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="129" s="77" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="101"/>
+      <c r="A129" s="100"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="130" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="101"/>
+      <c r="A130" s="100"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="131" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="101"/>
+      <c r="A131" s="100"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="132" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="101"/>
+      <c r="A132" s="100"/>
       <c r="B132" s="4" t="s">
         <v>221</v>
       </c>
@@ -41226,42 +41268,42 @@
       </c>
     </row>
     <row r="133" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="101"/>
+      <c r="A133" s="100"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="134" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="101"/>
+      <c r="A134" s="100"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="102" t="s">
+      <c r="C134" s="101" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="135" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="101"/>
+      <c r="A135" s="100"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="102" t="s">
+      <c r="C135" s="101" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="136" s="77" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="101"/>
+      <c r="A136" s="100"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="102" t="s">
+      <c r="C136" s="101" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="137" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="101"/>
+      <c r="A137" s="100"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="102" t="s">
+      <c r="C137" s="101" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="138" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="101"/>
+      <c r="A138" s="100"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
       </c>
@@ -41270,98 +41312,98 @@
       </c>
     </row>
     <row r="139" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="101"/>
+      <c r="A139" s="100"/>
       <c r="B139" s="4"/>
       <c r="C139" s="78" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="140" s="77" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="101"/>
+      <c r="A140" s="100"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="102" t="s">
+      <c r="C140" s="101" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="141" s="77" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="101"/>
+      <c r="A141" s="100"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="102" t="s">
+      <c r="C141" s="101" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="142" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="101"/>
+      <c r="A142" s="100"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="102" t="s">
+      <c r="C142" s="101" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="143" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="101"/>
+      <c r="A143" s="100"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="102" t="s">
+      <c r="C143" s="101" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="144" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="101"/>
+      <c r="A144" s="100"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="102" t="s">
+      <c r="C144" s="101" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="145" s="77" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="101"/>
+      <c r="A145" s="100"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="102" t="s">
+      <c r="C145" s="101" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="146" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="101"/>
+      <c r="A146" s="100"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="102" t="s">
+      <c r="C146" s="101" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="147" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="101"/>
+      <c r="A147" s="100"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="102" t="s">
+      <c r="C147" s="101" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="148" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="101"/>
+      <c r="A148" s="100"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="102" t="s">
+      <c r="C148" s="101" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="149" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="101"/>
+      <c r="A149" s="100"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="102" t="s">
+      <c r="C149" s="101" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="150" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="101"/>
+      <c r="A150" s="100"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="102" t="s">
+      <c r="C150" s="101" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="151" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="101"/>
+      <c r="A151" s="100"/>
       <c r="B151" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="102"/>
+      <c r="C151" s="101"/>
     </row>
     <row r="152" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="101"/>
+      <c r="A152" s="100"/>
       <c r="B152" s="4" t="s">
         <v>243</v>
       </c>
@@ -41370,58 +41412,58 @@
       </c>
     </row>
     <row r="153" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="101"/>
+      <c r="A153" s="100"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="102" t="s">
+      <c r="C153" s="101" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="154" s="77" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="101"/>
+      <c r="A154" s="100"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="102" t="s">
+      <c r="C154" s="101" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="155" s="77" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="101"/>
+      <c r="A155" s="100"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="102" t="s">
+      <c r="C155" s="101" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="156" s="77" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="101"/>
+      <c r="A156" s="100"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="102" t="s">
+      <c r="C156" s="101" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="157" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="101"/>
+      <c r="A157" s="100"/>
       <c r="B157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C157" s="102" t="s">
+      <c r="C157" s="101" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="158" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="101"/>
+      <c r="A158" s="100"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="102" t="s">
+      <c r="C158" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="159" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="101"/>
+      <c r="A159" s="100"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="102" t="s">
+      <c r="C159" s="101" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="160" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="101"/>
+      <c r="A160" s="100"/>
       <c r="B160" s="4" t="s">
         <v>253</v>
       </c>
@@ -41430,53 +41472,53 @@
       </c>
     </row>
     <row r="161" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="101"/>
+      <c r="A161" s="100"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="102" t="s">
+      <c r="C161" s="101" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="162" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="101"/>
+      <c r="A162" s="100"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="102" t="s">
+      <c r="C162" s="101" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="163" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="101"/>
+      <c r="A163" s="100"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="102" t="s">
+      <c r="C163" s="101" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="164" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="101"/>
+      <c r="A164" s="100"/>
       <c r="B164" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="102" t="s">
+      <c r="C164" s="101" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="165" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="101"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="102" t="s">
+      <c r="C165" s="101" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="166" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="101"/>
+      <c r="A166" s="100"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="102" t="s">
+      <c r="C166" s="101" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="167" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="101"/>
+      <c r="A167" s="100"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="102" t="s">
+      <c r="C167" s="101" t="s">
         <v>262</v>
       </c>
     </row>
@@ -42284,7 +42326,7 @@
       <c r="D4" s="61"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -44366,7 +44408,7 @@
       <c r="A3" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>690</v>
       </c>
     </row>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1307">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2488,6 +2488,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Concrete Collections:
 1. Linked Lists</t>
     </r>
@@ -14308,7 +14315,7 @@
     </r>
   </si>
   <si>
-    <t>Trigger</t>
+    <t>ou</t>
   </si>
   <si>
     <r>
@@ -14873,6 +14880,282 @@
  - Vendor Lock-in: Stored procedures can be DBMS-specific (SQL Server, MySQL, Oracle have differences).
  - Limited Logic: Although they can handle control-of-flow and transactions, complex business logic might be harder to manage in SQL compared to application code.</t>
     </r>
+  </si>
+  <si>
+    <t>Database Normalization</t>
+  </si>
+  <si>
+    <t>Database normalization</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Database normalization: Is the process of organizing data in a database to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduce redundancy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(giảm thiểu dư thừa) and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improve data integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+ - The goal of normalization is to eliminate redundant data and ensure data dependencies are logical. 
+ - It breaks large, complex tables into smaller, simpler ones while preserving relationships between them. This process leads to a more efficient and consistent database.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Key Concepts</t>
+  </si>
+  <si>
+    <t>Redundancy</t>
+  </si>
+  <si>
+    <t>The unnecessary duplication of data within a database. Normalization aims to reduce redundancy by ensuring that data is stored in only one place.</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ensures that data is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accurate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(chính xác) and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> throughout the database. By removing redundancy, normalization reduces the chances of data anomalies (insertion, deletion, and update anomalies).</t>
+    </r>
+  </si>
+  <si>
+    <t>Functional Dependency</t>
+  </si>
+  <si>
+    <t>Describes a relationship between attributes in a relation (table). If an attribute A uniquely determines attribute B, then B is said to be functionally dependent on A.</t>
+  </si>
+  <si>
+    <t>Normalization Forms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">These are a series of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guidelines that define different levels of database normalization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Each form (1NF, 2NF, 3NF, etc.) progressively improves the structure of the database to reduce redundancy and ensure consistency.</t>
+    </r>
+  </si>
+  <si>
+    <t>Normal Forms</t>
+  </si>
+  <si>
+    <t>First Normal Form (1NF)</t>
+  </si>
+  <si>
+    <t>Remove Duplicates and Ensure Atomicity.
+ - All columns contain only atomic (indivisible) values (i.e., no lists or sets of values).
+ - Each column contains values of a single type.
+ - Each record is unique (no duplicate rows).</t>
+  </si>
+  <si>
+    <t>Second Normal Form (2NF)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eliminate Partial Dependencies.
+ - It is already in 1NF.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No non-key attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is partially dependent on any candidate key (i.e., all non-key attributes depend on the whole key, not just part of it).
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partial dependency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occurs when a non-key attribute depends on only part of a composite primary key.</t>
+    </r>
+  </si>
+  <si>
+    <t>Third Normal Form (3NF)</t>
+  </si>
+  <si>
+    <t>Boyce-Codd Normal Form (BCNF)</t>
+  </si>
+  <si>
+    <t>Fourth Normal Form (4NF)</t>
+  </si>
+  <si>
+    <t>Normalized to 4NF</t>
+  </si>
+  <si>
+    <t>Normalization Trade-offs</t>
+  </si>
+  <si>
+    <t>Performance Considerations</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Query Optimization</t>
+  </si>
+  <si>
+    <t>Denormalization</t>
   </si>
   <si>
     <t>Introduction to JDBC</t>
@@ -27530,9 +27813,6 @@
    - Use Shared Messages: Define common message types for shared structures to reduce redundancy.</t>
   </si>
   <si>
-    <t>Performance Considerations</t>
-  </si>
-  <si>
     <t>Efficient Encoding</t>
   </si>
   <si>
@@ -35025,10 +35305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -35283,16 +35563,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -35303,29 +35582,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35353,11 +35609,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35370,7 +35641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35383,8 +35654,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35398,10 +35677,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35517,7 +35797,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35529,49 +35935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35583,25 +35953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35613,79 +35965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35751,7 +36031,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -35774,23 +36069,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -35820,150 +36109,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -35971,7 +36251,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -36132,10 +36412,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -36169,6 +36449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -36676,7 +36959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24912320" y="68655565"/>
+          <a:off x="20792440" y="74180065"/>
           <a:ext cx="3685540" cy="1210945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36714,7 +36997,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29169360" y="68618100"/>
+          <a:off x="25049480" y="74142600"/>
           <a:ext cx="3467735" cy="1286510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -36752,7 +37035,121 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24959945" y="70418325"/>
+          <a:off x="20840065" y="75942825"/>
+          <a:ext cx="6126480" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294641</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>10794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20792440" y="74180065"/>
+          <a:ext cx="3685540" cy="1210945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48259</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25049480" y="74142600"/>
+          <a:ext cx="3467735" cy="1286510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20840065" y="75942825"/>
           <a:ext cx="6126480" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -37177,7 +37574,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
     </row>
@@ -37188,7 +37585,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37196,10 +37593,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="108" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37210,7 +37607,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37232,7 +37629,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>11</v>
       </c>
     </row>
@@ -37243,7 +37640,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="106" t="s">
         <v>13</v>
       </c>
     </row>
@@ -37254,7 +37651,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="106" t="s">
         <v>15</v>
       </c>
     </row>
@@ -37265,7 +37662,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
     </row>
@@ -37314,7 +37711,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="106" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -37344,7 +37741,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="106" t="s">
         <v>37</v>
       </c>
     </row>
@@ -37352,7 +37749,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -37383,230 +37780,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="B6" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="B7" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="B16" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="B23" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="B24" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="B25" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="B26" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23"/>
       <c r="B29" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23"/>
       <c r="B34" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -37635,276 +38032,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>902</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>904</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>906</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>907</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>910</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>916</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>925</v>
+        <v>951</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>926</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>927</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>932</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>937</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>938</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>939</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>941</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>942</v>
+        <v>968</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>943</v>
+        <v>969</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>944</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>945</v>
+        <v>971</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>948</v>
+        <v>974</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>949</v>
+        <v>975</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>950</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>951</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -37913,10 +38310,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>952</v>
+        <v>978</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>953</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -37958,26 +38355,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>954</v>
+        <v>980</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>955</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>956</v>
+        <v>982</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>958</v>
+        <v>984</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>959</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -38003,26 +38400,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>960</v>
+        <v>986</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>961</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>962</v>
+        <v>988</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>963</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>964</v>
+        <v>990</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -38030,31 +38427,31 @@
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>969</v>
+        <v>995</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>970</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>972</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -38062,37 +38459,37 @@
         <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>974</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>975</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>976</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>977</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>978</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -38122,110 +38519,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>981</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>983</v>
+        <v>1009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>987</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>989</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>990</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>991</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>993</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>995</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>997</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -38261,16 +38658,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1002</v>
+        <v>1028</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1003</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -38280,10 +38677,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -38293,10 +38690,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>1007</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -38306,10 +38703,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -38319,10 +38716,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>1011</v>
+        <v>1037</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1012</v>
+        <v>1038</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -38332,10 +38729,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>1013</v>
+        <v>1039</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -38345,10 +38742,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>1015</v>
+        <v>1041</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -38358,10 +38755,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>1017</v>
+        <v>1043</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1018</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -38371,10 +38768,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>1019</v>
+        <v>1045</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1020</v>
+        <v>1046</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -38384,10 +38781,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>1021</v>
+        <v>1047</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1022</v>
+        <v>1048</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -38397,10 +38794,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>1023</v>
+        <v>1049</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1024</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -38410,10 +38807,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>1025</v>
+        <v>1051</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -38423,10 +38820,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>1027</v>
+        <v>1053</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -38436,10 +38833,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>1029</v>
+        <v>1055</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1030</v>
+        <v>1056</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -38449,10 +38846,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1032</v>
+        <v>1058</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -38462,10 +38859,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>1033</v>
+        <v>1059</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1034</v>
+        <v>1060</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -38475,10 +38872,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1036</v>
+        <v>1062</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -38488,10 +38885,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>1037</v>
+        <v>1063</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1038</v>
+        <v>1064</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -38501,10 +38898,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1040</v>
+        <v>1066</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -38514,10 +38911,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>1041</v>
+        <v>1067</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1042</v>
+        <v>1068</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -38526,13 +38923,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1043</v>
+        <v>1069</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -38542,13 +38939,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1045</v>
+        <v>1071</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1046</v>
+        <v>1072</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -38559,10 +38956,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>1047</v>
+        <v>1073</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1048</v>
+        <v>1074</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -38573,10 +38970,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>1049</v>
+        <v>1075</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1050</v>
+        <v>1076</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -38587,10 +38984,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>1051</v>
+        <v>1077</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1052</v>
+        <v>1078</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -38601,10 +38998,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>1053</v>
+        <v>1079</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1054</v>
+        <v>1080</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -38614,10 +39011,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>1055</v>
+        <v>1081</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1056</v>
+        <v>1082</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -38627,10 +39024,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>1057</v>
+        <v>1083</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1058</v>
+        <v>1084</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -38640,10 +39037,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>1059</v>
+        <v>1085</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1060</v>
+        <v>1086</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -38652,13 +39049,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>1061</v>
+        <v>1087</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>315</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1062</v>
+        <v>1088</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -38668,10 +39065,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>1063</v>
+        <v>1089</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1064</v>
+        <v>1090</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -38681,13 +39078,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>1065</v>
+        <v>1091</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1066</v>
+        <v>1092</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1067</v>
+        <v>1093</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -38698,10 +39095,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>1068</v>
+        <v>1094</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1069</v>
+        <v>1095</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -38712,10 +39109,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1071</v>
+        <v>1097</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -38726,10 +39123,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>1072</v>
+        <v>1098</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1073</v>
+        <v>1099</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -38738,7 +39135,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -38747,13 +39144,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>1041</v>
+        <v>1067</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1074</v>
+        <v>1100</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -38763,13 +39160,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>1075</v>
+        <v>1101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1076</v>
+        <v>1102</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1077</v>
+        <v>1103</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -38779,10 +39176,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1079</v>
+        <v>1105</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -38792,10 +39189,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>1080</v>
+        <v>1106</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1081</v>
+        <v>1107</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -38805,10 +39202,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1083</v>
+        <v>1109</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -38818,10 +39215,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1085</v>
+        <v>1111</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -38831,13 +39228,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
-        <v>1086</v>
+        <v>1112</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1087</v>
+        <v>1113</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1088</v>
+        <v>1114</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -38847,10 +39244,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1090</v>
+        <v>1116</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -38860,13 +39257,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
-        <v>1091</v>
+        <v>1117</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1092</v>
+        <v>1118</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -38876,10 +39273,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1095</v>
+        <v>1121</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -38889,10 +39286,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>1096</v>
+        <v>1122</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1097</v>
+        <v>1123</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -38902,10 +39299,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>1098</v>
+        <v>1124</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1099</v>
+        <v>1125</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -38914,13 +39311,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>1100</v>
+        <v>1126</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1102</v>
+        <v>1128</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -38930,13 +39327,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>1103</v>
+        <v>1129</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1104</v>
+        <v>1130</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1105</v>
+        <v>1131</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -38946,10 +39343,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1107</v>
+        <v>1133</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -38959,10 +39356,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>1108</v>
+        <v>1134</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1109</v>
+        <v>1135</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -38972,10 +39369,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>1110</v>
+        <v>1136</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1111</v>
+        <v>1137</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -38985,10 +39382,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>1112</v>
+        <v>1138</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1113</v>
+        <v>1139</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -38998,7 +39395,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>1114</v>
+        <v>1140</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -39008,10 +39405,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1116</v>
+        <v>1142</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -39021,10 +39418,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>1117</v>
+        <v>1143</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1118</v>
+        <v>1144</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -39034,10 +39431,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>1119</v>
+        <v>535</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1120</v>
+        <v>1145</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -39047,7 +39444,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>1121</v>
+        <v>1146</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -39057,7 +39454,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>1122</v>
+        <v>1147</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -39067,13 +39464,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1124</v>
+        <v>1149</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -39083,7 +39480,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -39092,13 +39489,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1128</v>
+        <v>1153</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -39108,13 +39505,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>1129</v>
+        <v>1154</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -39124,10 +39521,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -39137,10 +39534,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>1134</v>
+        <v>1159</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1135</v>
+        <v>1160</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -39150,10 +39547,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>1136</v>
+        <v>1161</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1137</v>
+        <v>1162</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -39163,10 +39560,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>1138</v>
+        <v>1163</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1139</v>
+        <v>1164</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -39176,10 +39573,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1140</v>
+        <v>1165</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1141</v>
+        <v>1166</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -39189,10 +39586,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1142</v>
+        <v>1167</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1143</v>
+        <v>1168</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -39202,10 +39599,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1144</v>
+        <v>1169</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1145</v>
+        <v>1170</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -39214,292 +39611,292 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>1146</v>
+        <v>1171</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1147</v>
+        <v>1172</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1148</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1149</v>
+        <v>1174</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1151</v>
+        <v>1176</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1152</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>1153</v>
+        <v>1178</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1154</v>
+        <v>1179</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1156</v>
+        <v>1181</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1157</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1158</v>
+        <v>1183</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1159</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1160</v>
+        <v>1185</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1161</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1162</v>
+        <v>1187</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1164</v>
+        <v>1189</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1165</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1166</v>
+        <v>1191</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1167</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1168</v>
+        <v>1193</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1169</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1170</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1171</v>
+        <v>1196</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1172</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1173</v>
+        <v>1198</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1174</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1175</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1176</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1177</v>
+        <v>1202</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1178</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1179</v>
+        <v>1204</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1180</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1181</v>
+        <v>1206</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1182</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1183</v>
+        <v>1208</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1184</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1185</v>
+        <v>1210</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1186</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1187</v>
+        <v>1212</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1188</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1189</v>
+        <v>1214</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1190</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1191</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1192</v>
+        <v>1217</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1193</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1194</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1195</v>
+        <v>1220</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1196</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1197</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1198</v>
+        <v>1223</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1199</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
@@ -39509,382 +39906,382 @@
         <v>315</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1200</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1201</v>
+        <v>1226</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1202</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1203</v>
+        <v>1228</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1204</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1205</v>
+        <v>1230</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1206</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1207</v>
+        <v>1232</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1208</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1209</v>
+        <v>1234</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1210</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1211</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1212</v>
+        <v>1237</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1213</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1214</v>
+        <v>1239</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1215</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1216</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
-        <v>1217</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="111" ht="76.5" spans="1:5">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>1218</v>
+        <v>1243</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1219</v>
+        <v>1244</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1220</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1221</v>
+        <v>1246</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1222</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1223</v>
+        <v>1248</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1224</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1225</v>
+        <v>1250</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1226</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1227</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1228</v>
+        <v>1253</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1229</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1230</v>
+        <v>1255</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1231</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1232</v>
+        <v>1257</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1233</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1234</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>1122</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1235</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1236</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1237</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1238</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1239</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1240</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1241</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1144</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1242</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1243</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1244</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1171</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1245</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1246</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1247</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1248</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1249</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1250</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1251</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1252</v>
+        <v>1277</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1253</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1255</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1255</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1256</v>
+        <v>1281</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -39892,17 +40289,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1146</v>
+        <v>1171</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1258</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1259</v>
+        <v>1284</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -39910,37 +40307,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1260</v>
+        <v>1285</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1261</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1262</v>
+        <v>1287</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1263</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1264</v>
+        <v>1289</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1265</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1266</v>
+        <v>1291</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -39948,51 +40345,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1267</v>
+        <v>1292</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1268</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1269</v>
+        <v>1294</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1270</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1271</v>
+        <v>1296</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1272</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1273</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1274</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -40004,7 +40401,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1276</v>
+        <v>1301</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -40012,28 +40409,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1277</v>
+        <v>1302</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1278</v>
+        <v>1303</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1279</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1280</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1281</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -40157,13 +40554,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8533333333333" style="102" customWidth="1"/>
+    <col min="1" max="1" width="15.8533333333333" style="103" customWidth="1"/>
     <col min="2" max="2" width="13.8533333333333" style="46" customWidth="1"/>
     <col min="3" max="3" width="156.14" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -40172,13 +40569,13 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" ht="57" customHeight="1" spans="2:3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" ht="135" customHeight="1" spans="1:3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -40187,7 +40584,7 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -40196,7 +40593,7 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="255.95" customHeight="1" spans="1:3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -40205,7 +40602,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -40214,10 +40611,10 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="33.95" customHeight="1" spans="1:4">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -40226,7 +40623,7 @@
       <c r="D7" s="42"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="103" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -40256,7 +40653,7 @@
   <sheetPr/>
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B111" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B111" workbookViewId="0">
       <selection activeCell="B111" sqref="B111:C111"/>
     </sheetView>
   </sheetViews>
@@ -40264,11 +40661,11 @@
   <cols>
     <col min="1" max="1" width="17.4266666666667" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.2866666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="184.5" style="78" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="77"/>
+    <col min="3" max="3" width="184.5" style="79" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" s="77" customFormat="1" ht="86.25" spans="1:3">
+    <row r="1" s="78" customFormat="1" ht="86.25" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>56</v>
       </c>
@@ -40277,7 +40674,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="2" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>58</v>
       </c>
@@ -40286,155 +40683,155 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="3" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="110" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" s="77" customFormat="1" ht="69" spans="1:3">
+    <row r="4" s="78" customFormat="1" ht="69" spans="1:3">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="79"/>
-    </row>
-    <row r="5" s="77" customFormat="1" ht="86.25" spans="1:3">
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" s="78" customFormat="1" ht="86.25" spans="1:3">
       <c r="A5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="6" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="110" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="7" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" s="77" customFormat="1" spans="1:3">
+    <row r="8" s="78" customFormat="1" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" s="77" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="111" t="s">
+    <row r="9" s="78" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A9" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="110" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" s="77" customFormat="1" spans="1:3">
+    <row r="10" s="78" customFormat="1" spans="1:3">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" s="77" customFormat="1" spans="1:3">
+    <row r="11" s="78" customFormat="1" spans="1:3">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" s="77" customFormat="1" ht="327.75" spans="1:3">
+    <row r="12" s="78" customFormat="1" ht="327.75" spans="1:3">
       <c r="A12" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" s="77" customFormat="1" ht="103.5" spans="1:3">
-      <c r="A13" s="80" t="s">
+    <row r="13" s="78" customFormat="1" ht="103.5" spans="1:3">
+      <c r="A13" s="81" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" s="77" customFormat="1" ht="86.25" spans="1:3">
-      <c r="A14" s="81" t="s">
+    <row r="14" s="78" customFormat="1" ht="86.25" spans="1:3">
+      <c r="A14" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="83"/>
-    </row>
-    <row r="15" s="77" customFormat="1" ht="69" spans="1:3">
-      <c r="A15" s="80" t="s">
+      <c r="C14" s="84"/>
+    </row>
+    <row r="15" s="78" customFormat="1" ht="69" spans="1:3">
+      <c r="A15" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="85"/>
-    </row>
-    <row r="16" s="77" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A16" s="81" t="s">
+      <c r="C15" s="86"/>
+    </row>
+    <row r="16" s="78" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A16" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="87"/>
-    </row>
-    <row r="17" s="77" customFormat="1" spans="1:3">
-      <c r="A17" s="80" t="s">
+      <c r="C16" s="88"/>
+    </row>
+    <row r="17" s="78" customFormat="1" spans="1:3">
+      <c r="A17" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="85"/>
-    </row>
-    <row r="18" s="77" customFormat="1" spans="1:3">
-      <c r="A18" s="81" t="s">
+      <c r="C17" s="86"/>
+    </row>
+    <row r="18" s="78" customFormat="1" spans="1:3">
+      <c r="A18" s="82" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" s="77" customFormat="1" spans="1:3">
-      <c r="A19" s="80" t="s">
+    <row r="19" s="78" customFormat="1" spans="1:3">
+      <c r="A19" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="83"/>
-    </row>
-    <row r="20" s="77" customFormat="1" spans="1:3">
+      <c r="C19" s="84"/>
+    </row>
+    <row r="20" s="78" customFormat="1" spans="1:3">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" s="77" customFormat="1" spans="1:3">
+    <row r="21" s="78" customFormat="1" spans="1:3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" s="77" customFormat="1" spans="1:3">
+    <row r="22" s="78" customFormat="1" spans="1:3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" s="77" customFormat="1" spans="1:3">
+    <row r="23" s="78" customFormat="1" spans="1:3">
       <c r="A23" s="36" t="s">
         <v>84</v>
       </c>
@@ -40443,14 +40840,14 @@
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" s="77" customFormat="1" spans="1:3">
+    <row r="24" s="78" customFormat="1" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="25" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A25" s="36" t="s">
         <v>87</v>
       </c>
@@ -40459,7 +40856,7 @@
       </c>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="26" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A26" s="36" t="s">
         <v>89</v>
       </c>
@@ -40468,19 +40865,19 @@
       </c>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" s="77" customFormat="1" spans="1:3">
+    <row r="27" s="78" customFormat="1" spans="1:3">
       <c r="A27" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" s="77" customFormat="1" spans="1:3">
+    <row r="28" s="78" customFormat="1" spans="1:3">
       <c r="A28" s="36"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" s="77" customFormat="1" spans="1:3">
+    <row r="29" s="78" customFormat="1" spans="1:3">
       <c r="A29" s="36" t="s">
         <v>92</v>
       </c>
@@ -40489,33 +40886,33 @@
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" s="77" customFormat="1" spans="1:3">
+    <row r="30" s="78" customFormat="1" spans="1:3">
       <c r="A30" s="36"/>
       <c r="B30" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" s="77" customFormat="1" spans="1:3">
+    <row r="31" s="78" customFormat="1" spans="1:3">
       <c r="A31" s="36"/>
       <c r="B31" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" s="77" customFormat="1" spans="1:3">
+    <row r="32" s="78" customFormat="1" spans="1:3">
       <c r="A32" s="36"/>
       <c r="B32" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" s="77" customFormat="1" spans="1:3">
+    <row r="33" s="78" customFormat="1" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" s="77" customFormat="1" spans="1:3">
+    <row r="34" s="78" customFormat="1" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>97</v>
       </c>
@@ -40524,7 +40921,7 @@
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" s="77" customFormat="1" spans="1:3">
+    <row r="35" s="78" customFormat="1" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>99</v>
       </c>
@@ -40533,14 +40930,14 @@
       </c>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" s="77" customFormat="1" spans="1:3">
+    <row r="36" s="78" customFormat="1" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" s="77" customFormat="1" spans="1:3">
+    <row r="37" s="78" customFormat="1" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>102</v>
       </c>
@@ -40549,7 +40946,7 @@
       </c>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="38" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>104</v>
       </c>
@@ -40558,16 +40955,16 @@
       </c>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" s="77" customFormat="1" spans="1:3">
+    <row r="39" s="78" customFormat="1" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="78"/>
-    </row>
-    <row r="40" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C39" s="79"/>
+    </row>
+    <row r="40" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>108</v>
       </c>
@@ -40576,28 +40973,28 @@
       </c>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="41" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A41" s="36"/>
       <c r="B41" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="42" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A42" s="36"/>
       <c r="B42" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="43" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A43" s="36"/>
       <c r="B43" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="44" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>113</v>
       </c>
@@ -40606,14 +41003,14 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="45" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A45" s="36"/>
       <c r="B45" s="50" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="50"/>
     </row>
-    <row r="46" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="46" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>116</v>
       </c>
@@ -40622,14 +41019,14 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="47" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A47" s="36"/>
       <c r="B47" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="48" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A48" s="36" t="s">
         <v>119</v>
       </c>
@@ -40638,7 +41035,7 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" s="77" customFormat="1" spans="1:3">
+    <row r="49" s="78" customFormat="1" spans="1:3">
       <c r="A49" s="36" t="s">
         <v>121</v>
       </c>
@@ -40647,7 +41044,7 @@
       </c>
       <c r="C49" s="42"/>
     </row>
-    <row r="50" s="77" customFormat="1" spans="1:3">
+    <row r="50" s="78" customFormat="1" spans="1:3">
       <c r="A50" s="36" t="s">
         <v>123</v>
       </c>
@@ -40656,7 +41053,7 @@
       </c>
       <c r="C50" s="42"/>
     </row>
-    <row r="51" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="51" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A51" s="36" t="s">
         <v>125</v>
       </c>
@@ -40665,22 +41062,22 @@
       </c>
       <c r="C51" s="42"/>
     </row>
-    <row r="52" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="52" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A52" s="36"/>
       <c r="B52" s="42" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="53" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A53" s="36"/>
       <c r="B53" s="42" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="42"/>
     </row>
-    <row r="54" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A54" s="88" t="s">
+    <row r="54" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A54" s="89" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="42" t="s">
@@ -40688,49 +41085,49 @@
       </c>
       <c r="C54" s="42"/>
     </row>
-    <row r="55" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A55" s="88"/>
+    <row r="55" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A55" s="89"/>
       <c r="B55" s="42" t="s">
         <v>131</v>
       </c>
       <c r="C55" s="42"/>
     </row>
-    <row r="56" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A56" s="88"/>
+    <row r="56" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A56" s="89"/>
       <c r="B56" s="50" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="50"/>
     </row>
-    <row r="57" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A57" s="88"/>
+    <row r="57" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A57" s="89"/>
       <c r="B57" s="50" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="50"/>
     </row>
-    <row r="58" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A58" s="88"/>
+    <row r="58" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A58" s="89"/>
       <c r="B58" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="42"/>
     </row>
-    <row r="59" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A59" s="88"/>
-      <c r="B59" s="89" t="s">
+    <row r="59" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A59" s="89"/>
+      <c r="B59" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="89"/>
-    </row>
-    <row r="60" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A60" s="88"/>
-      <c r="B60" s="90" t="s">
+      <c r="C59" s="90"/>
+    </row>
+    <row r="60" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A60" s="89"/>
+      <c r="B60" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="90"/>
-    </row>
-    <row r="61" s="77" customFormat="1" spans="1:3">
+      <c r="C60" s="91"/>
+    </row>
+    <row r="61" s="78" customFormat="1" spans="1:3">
       <c r="A61" s="36" t="s">
         <v>137</v>
       </c>
@@ -40739,7 +41136,7 @@
       </c>
       <c r="C61" s="42"/>
     </row>
-    <row r="62" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="62" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A62" s="36" t="s">
         <v>139</v>
       </c>
@@ -40748,7 +41145,7 @@
       </c>
       <c r="C62" s="42"/>
     </row>
-    <row r="63" s="77" customFormat="1" ht="18" spans="1:3">
+    <row r="63" s="78" customFormat="1" ht="18" spans="1:3">
       <c r="A63" s="36" t="s">
         <v>141</v>
       </c>
@@ -40757,8 +41154,8 @@
       </c>
       <c r="C63" s="42"/>
     </row>
-    <row r="64" s="77" customFormat="1" ht="53.25" spans="1:3">
-      <c r="A64" s="91" t="s">
+    <row r="64" s="78" customFormat="1" ht="53.25" spans="1:3">
+      <c r="A64" s="92" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="42" t="s">
@@ -40766,8 +41163,8 @@
       </c>
       <c r="C64" s="42"/>
     </row>
-    <row r="65" s="77" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="91" t="s">
+    <row r="65" s="78" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A65" s="92" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -40775,44 +41172,44 @@
       </c>
       <c r="C65" s="42"/>
     </row>
-    <row r="66" s="77" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="91"/>
+    <row r="66" s="78" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A66" s="92"/>
       <c r="B66" s="50" t="s">
         <v>147</v>
       </c>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" s="77" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A67" s="92" t="s">
+    <row r="67" s="78" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A67" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="90"/>
-    </row>
-    <row r="68" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94" t="s">
+      <c r="C67" s="91"/>
+    </row>
+    <row r="68" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A68" s="94"/>
+      <c r="B68" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="94"/>
-    </row>
-    <row r="69" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A69" s="93"/>
-      <c r="B69" s="90" t="s">
+      <c r="C68" s="95"/>
+    </row>
+    <row r="69" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A69" s="94"/>
+      <c r="B69" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="90"/>
-    </row>
-    <row r="70" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A70" s="93"/>
-      <c r="B70" s="90" t="s">
+      <c r="C69" s="91"/>
+    </row>
+    <row r="70" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A70" s="94"/>
+      <c r="B70" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="90"/>
-    </row>
-    <row r="71" s="77" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C70" s="91"/>
+    </row>
+    <row r="71" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A71" s="36" t="s">
         <v>153</v>
       </c>
@@ -40821,21 +41218,21 @@
       </c>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="72" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A72" s="36"/>
       <c r="B72" s="50" t="s">
         <v>155</v>
       </c>
       <c r="C72" s="50"/>
     </row>
-    <row r="73" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="73" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A73" s="36"/>
       <c r="B73" s="42" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="42"/>
     </row>
-    <row r="74" s="77" customFormat="1" spans="1:3">
+    <row r="74" s="78" customFormat="1" spans="1:3">
       <c r="A74" s="36" t="s">
         <v>157</v>
       </c>
@@ -40844,7 +41241,7 @@
       </c>
       <c r="C74" s="42"/>
     </row>
-    <row r="75" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="75" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A75" s="36" t="s">
         <v>159</v>
       </c>
@@ -40853,63 +41250,63 @@
       </c>
       <c r="C75" s="42"/>
     </row>
-    <row r="76" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="76" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A76" s="36"/>
       <c r="B76" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C76" s="42"/>
     </row>
-    <row r="77" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="77" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A77" s="36"/>
       <c r="B77" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="42"/>
     </row>
-    <row r="78" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="78" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A78" s="36"/>
       <c r="B78" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C78" s="42"/>
     </row>
-    <row r="79" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="79" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A79" s="36"/>
       <c r="B79" s="50" t="s">
         <v>164</v>
       </c>
       <c r="C79" s="50"/>
     </row>
-    <row r="80" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="80" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A80" s="36"/>
       <c r="B80" s="50" t="s">
         <v>165</v>
       </c>
       <c r="C80" s="50"/>
     </row>
-    <row r="81" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="81" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A81" s="36" t="s">
         <v>166</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
     </row>
-    <row r="82" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="82" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A82" s="36" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
     </row>
-    <row r="83" s="77" customFormat="1" spans="1:3">
+    <row r="83" s="78" customFormat="1" spans="1:3">
       <c r="A83" s="36" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
     </row>
-    <row r="84" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="84" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A84" s="36" t="s">
         <v>169</v>
       </c>
@@ -40918,95 +41315,95 @@
       </c>
       <c r="C84" s="42"/>
     </row>
-    <row r="85" s="77" customFormat="1" spans="1:3">
+    <row r="85" s="78" customFormat="1" spans="1:3">
       <c r="A85" s="36"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
     </row>
-    <row r="86" s="77" customFormat="1" spans="1:3">
+    <row r="86" s="78" customFormat="1" spans="1:3">
       <c r="A86" s="36"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" s="77" customFormat="1" spans="1:3">
+    <row r="87" s="78" customFormat="1" spans="1:3">
       <c r="A87" s="36" t="s">
         <v>171</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
     </row>
-    <row r="88" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="88" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A88" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
     </row>
-    <row r="89" s="77" customFormat="1" ht="51.75" spans="1:3">
+    <row r="89" s="78" customFormat="1" ht="51.75" spans="1:3">
       <c r="A89" s="36" t="s">
         <v>173</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
     </row>
-    <row r="90" s="77" customFormat="1" spans="1:3">
+    <row r="90" s="78" customFormat="1" spans="1:3">
       <c r="A90" s="36" t="s">
         <v>174</v>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
     </row>
-    <row r="91" s="77" customFormat="1" spans="1:3">
+    <row r="91" s="78" customFormat="1" spans="1:3">
       <c r="A91" s="36" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
     </row>
-    <row r="92" s="77" customFormat="1" spans="1:3">
+    <row r="92" s="78" customFormat="1" spans="1:3">
       <c r="A92" s="36" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
     </row>
-    <row r="93" s="77" customFormat="1" ht="34.5" spans="1:3">
+    <row r="93" s="78" customFormat="1" ht="34.5" spans="1:3">
       <c r="A93" s="36" t="s">
         <v>166</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" s="77" customFormat="1" spans="1:3">
+    <row r="94" s="78" customFormat="1" spans="1:3">
       <c r="A94" s="36" t="s">
         <v>177</v>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
     </row>
-    <row r="95" s="77" customFormat="1" spans="1:3">
+    <row r="95" s="78" customFormat="1" spans="1:3">
       <c r="A95" s="36" t="s">
         <v>178</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
     </row>
-    <row r="96" s="77" customFormat="1" spans="1:3">
+    <row r="96" s="78" customFormat="1" spans="1:3">
       <c r="A96" s="36" t="s">
         <v>179</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
     </row>
-    <row r="97" s="77" customFormat="1" spans="1:3">
+    <row r="97" s="78" customFormat="1" spans="1:3">
       <c r="A97" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
     </row>
-    <row r="98" s="77" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A98" s="95" t="s">
+    <row r="98" s="78" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A98" s="96" t="s">
         <v>181</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -41014,153 +41411,153 @@
       </c>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" s="77" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="99" s="78" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
         <v>183</v>
       </c>
       <c r="C99" s="50"/>
     </row>
-    <row r="100" s="77" customFormat="1" ht="48" customHeight="1" spans="1:3">
+    <row r="100" s="78" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
         <v>184</v>
       </c>
       <c r="C100" s="50"/>
     </row>
-    <row r="101" s="77" customFormat="1" ht="53" customHeight="1" spans="1:3">
+    <row r="101" s="78" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="50" t="s">
         <v>185</v>
       </c>
       <c r="C101" s="50"/>
     </row>
-    <row r="102" s="77" customFormat="1" ht="54" customHeight="1" spans="1:3">
+    <row r="102" s="78" customFormat="1" ht="54" customHeight="1" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
         <v>186</v>
       </c>
       <c r="C102" s="50"/>
     </row>
-    <row r="103" s="77" customFormat="1" ht="117" customHeight="1" spans="1:3">
+    <row r="103" s="78" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="50" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="50"/>
     </row>
-    <row r="104" s="77" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="104" s="78" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="50" t="s">
         <v>188</v>
       </c>
       <c r="C104" s="50"/>
     </row>
-    <row r="105" s="77" customFormat="1" ht="309" customHeight="1" spans="1:3">
+    <row r="105" s="78" customFormat="1" ht="309" customHeight="1" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="50" t="s">
         <v>189</v>
       </c>
       <c r="C105" s="50"/>
     </row>
-    <row r="106" s="77" customFormat="1" ht="409" customHeight="1" spans="1:3">
+    <row r="106" s="78" customFormat="1" ht="409" customHeight="1" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="50" t="s">
         <v>190</v>
       </c>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" s="77" customFormat="1" ht="83" customHeight="1" spans="1:3">
+    <row r="107" s="78" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="50" t="s">
         <v>191</v>
       </c>
       <c r="C107" s="50"/>
     </row>
-    <row r="108" s="77" customFormat="1" ht="346" customHeight="1" spans="1:3">
+    <row r="108" s="78" customFormat="1" ht="346" customHeight="1" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="50" t="s">
         <v>192</v>
       </c>
       <c r="C108" s="50"/>
     </row>
-    <row r="109" s="77" customFormat="1" ht="205" customHeight="1" spans="1:3">
+    <row r="109" s="78" customFormat="1" ht="205" customHeight="1" spans="1:3">
       <c r="A109" s="36"/>
-      <c r="B109" s="89" t="s">
+      <c r="B109" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="89"/>
-    </row>
-    <row r="110" s="77" customFormat="1" ht="409" customHeight="1" spans="1:4">
-      <c r="A110" s="96" t="s">
+      <c r="C109" s="90"/>
+    </row>
+    <row r="110" s="78" customFormat="1" ht="409" customHeight="1" spans="1:4">
+      <c r="A110" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="89" t="s">
+      <c r="B110" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="89"/>
+      <c r="C110" s="90"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="77" customFormat="1" ht="270" customHeight="1" spans="1:4">
-      <c r="A111" s="96"/>
-      <c r="B111" s="89" t="s">
+    <row r="111" s="78" customFormat="1" ht="270" customHeight="1" spans="1:4">
+      <c r="A111" s="97"/>
+      <c r="B111" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C111" s="89"/>
+      <c r="C111" s="90"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="77" customFormat="1" ht="324" customHeight="1" spans="1:4">
-      <c r="A112" s="96"/>
-      <c r="B112" s="97" t="s">
+    <row r="112" s="78" customFormat="1" ht="324" customHeight="1" spans="1:4">
+      <c r="A112" s="97"/>
+      <c r="B112" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="97"/>
+      <c r="C112" s="98"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="77" customFormat="1" ht="363" customHeight="1" spans="1:3">
-      <c r="A113" s="96"/>
-      <c r="B113" s="98" t="s">
+    <row r="113" s="78" customFormat="1" ht="363" customHeight="1" spans="1:3">
+      <c r="A113" s="97"/>
+      <c r="B113" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="98"/>
-    </row>
-    <row r="114" s="77" customFormat="1" ht="267" customHeight="1" spans="1:3">
-      <c r="A114" s="96"/>
+      <c r="C113" s="99"/>
+    </row>
+    <row r="114" s="78" customFormat="1" ht="267" customHeight="1" spans="1:3">
+      <c r="A114" s="97"/>
       <c r="B114" s="50" t="s">
         <v>199</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="77" customFormat="1" ht="343" customHeight="1" spans="1:3">
-      <c r="A115" s="96"/>
-      <c r="B115" s="97" t="s">
+    <row r="115" s="78" customFormat="1" ht="343" customHeight="1" spans="1:3">
+      <c r="A115" s="97"/>
+      <c r="B115" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="97"/>
-    </row>
-    <row r="116" s="77" customFormat="1" ht="408" customHeight="1" spans="1:3">
-      <c r="A116" s="96"/>
-      <c r="B116" s="89" t="s">
+      <c r="C115" s="98"/>
+    </row>
+    <row r="116" s="78" customFormat="1" ht="408" customHeight="1" spans="1:3">
+      <c r="A116" s="97"/>
+      <c r="B116" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="89"/>
-    </row>
-    <row r="117" s="77" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A117" s="96"/>
-      <c r="B117" s="89" t="s">
+      <c r="C116" s="90"/>
+    </row>
+    <row r="117" s="78" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A117" s="97"/>
+      <c r="B117" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="89"/>
-    </row>
-    <row r="118" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A118" s="96"/>
-      <c r="B118" s="89" t="s">
+      <c r="C117" s="90"/>
+    </row>
+    <row r="118" s="78" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A118" s="97"/>
+      <c r="B118" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="89"/>
-    </row>
-    <row r="119" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A119" s="99" t="s">
+      <c r="C118" s="90"/>
+    </row>
+    <row r="119" s="78" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A119" s="100" t="s">
         <v>204</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -41170,52 +41567,52 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="99"/>
+    <row r="120" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A120" s="100"/>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="78" t="s">
+      <c r="C120" s="79" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" s="77" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="100"/>
+    <row r="121" s="78" customFormat="1" ht="207" customHeight="1" spans="1:3">
+      <c r="A121" s="101"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="100"/>
+    <row r="122" s="78" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A122" s="101"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="123" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="100"/>
+    <row r="123" s="78" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A123" s="101"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="100"/>
+    <row r="124" s="78" customFormat="1" ht="102" spans="1:3">
+      <c r="A124" s="101"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="100"/>
+    <row r="125" s="78" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A125" s="101"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" s="77" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="100"/>
+    <row r="126" s="78" customFormat="1" ht="102" spans="1:3">
+      <c r="A126" s="101"/>
       <c r="B126" s="4" t="s">
         <v>214</v>
       </c>
@@ -41223,43 +41620,43 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="100"/>
+    <row r="127" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A127" s="101"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="128" s="77" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="100"/>
+    <row r="128" s="78" customFormat="1" ht="216.75" spans="1:3">
+      <c r="A128" s="101"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="129" s="77" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="100"/>
+    <row r="129" s="78" customFormat="1" ht="267.75" spans="1:3">
+      <c r="A129" s="101"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="130" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="100"/>
+    <row r="130" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A130" s="101"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="131" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="100"/>
+    <row r="131" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A131" s="101"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="132" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="100"/>
+    <row r="132" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A132" s="101"/>
       <c r="B132" s="4" t="s">
         <v>221</v>
       </c>
@@ -41267,271 +41664,271 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="100"/>
+    <row r="133" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A133" s="101"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="134" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="100"/>
+    <row r="134" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A134" s="101"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="101" t="s">
+      <c r="C134" s="102" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="135" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="100"/>
+    <row r="135" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A135" s="101"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="101" t="s">
+      <c r="C135" s="102" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" s="77" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="100"/>
+    <row r="136" s="78" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A136" s="101"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="101" t="s">
+      <c r="C136" s="102" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="137" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="100"/>
+    <row r="137" s="78" customFormat="1" ht="204" spans="1:3">
+      <c r="A137" s="101"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="101" t="s">
+      <c r="C137" s="102" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="138" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="100"/>
+    <row r="138" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A138" s="101"/>
       <c r="B138" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="78" t="s">
+      <c r="C138" s="79" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="139" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="100"/>
+    <row r="139" s="78" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A139" s="101"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="78" t="s">
+      <c r="C139" s="79" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="140" s="77" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="100"/>
+    <row r="140" s="78" customFormat="1" ht="229.5" spans="1:3">
+      <c r="A140" s="101"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="101" t="s">
+      <c r="C140" s="102" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="141" s="77" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="100"/>
+    <row r="141" s="78" customFormat="1" ht="242.25" spans="1:3">
+      <c r="A141" s="101"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="101" t="s">
+      <c r="C141" s="102" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="142" s="77" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="100"/>
+    <row r="142" s="78" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A142" s="101"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="101" t="s">
+      <c r="C142" s="102" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="143" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="100"/>
+    <row r="143" s="78" customFormat="1" ht="204" spans="1:3">
+      <c r="A143" s="101"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="101" t="s">
+      <c r="C143" s="102" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="144" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="100"/>
+    <row r="144" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A144" s="101"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="101" t="s">
+      <c r="C144" s="102" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="145" s="77" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="100"/>
+    <row r="145" s="78" customFormat="1" ht="280.5" spans="1:3">
+      <c r="A145" s="101"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="101" t="s">
+      <c r="C145" s="102" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="146" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="100"/>
+    <row r="146" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A146" s="101"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="101" t="s">
+      <c r="C146" s="102" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="147" s="77" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="100"/>
+    <row r="147" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A147" s="101"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="101" t="s">
+      <c r="C147" s="102" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="100"/>
+    <row r="148" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A148" s="101"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="101" t="s">
+      <c r="C148" s="102" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" s="77" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="100"/>
+    <row r="149" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A149" s="101"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="101" t="s">
+      <c r="C149" s="102" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="100"/>
+    <row r="150" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A150" s="101"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="101" t="s">
+      <c r="C150" s="102" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" s="77" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="100"/>
+    <row r="151" s="78" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A151" s="101"/>
       <c r="B151" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="101"/>
-    </row>
-    <row r="152" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="100"/>
+      <c r="C151" s="102"/>
+    </row>
+    <row r="152" s="78" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A152" s="101"/>
       <c r="B152" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="78" t="s">
+      <c r="C152" s="79" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" s="77" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="100"/>
+    <row r="153" s="78" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A153" s="101"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="101" t="s">
+      <c r="C153" s="102" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" s="77" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="100"/>
+    <row r="154" s="78" customFormat="1" ht="318.75" spans="1:3">
+      <c r="A154" s="101"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="101" t="s">
+      <c r="C154" s="102" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" s="77" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="100"/>
+    <row r="155" s="78" customFormat="1" ht="165.75" spans="1:3">
+      <c r="A155" s="101"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="101" t="s">
+      <c r="C155" s="102" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" s="77" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="100"/>
+    <row r="156" s="78" customFormat="1" ht="255" spans="1:3">
+      <c r="A156" s="101"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="101" t="s">
+      <c r="C156" s="102" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" s="77" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="100"/>
+    <row r="157" s="78" customFormat="1" ht="204" spans="1:3">
+      <c r="A157" s="101"/>
       <c r="B157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C157" s="101" t="s">
+      <c r="C157" s="102" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="100"/>
+    <row r="158" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A158" s="101"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="101" t="s">
+      <c r="C158" s="102" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="159" s="77" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="100"/>
+    <row r="159" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A159" s="101"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="101" t="s">
+      <c r="C159" s="102" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="160" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="100"/>
+    <row r="160" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A160" s="101"/>
       <c r="B160" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C160" s="78" t="s">
+      <c r="C160" s="79" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="100"/>
+    <row r="161" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A161" s="101"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="101" t="s">
+      <c r="C161" s="102" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="162" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="100"/>
+    <row r="162" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A162" s="101"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="101" t="s">
+      <c r="C162" s="102" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="163" s="77" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="100"/>
+    <row r="163" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A163" s="101"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="101" t="s">
+      <c r="C163" s="102" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="164" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="100"/>
+    <row r="164" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A164" s="101"/>
       <c r="B164" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="101" t="s">
+      <c r="C164" s="102" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="165" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="100"/>
+    <row r="165" s="78" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A165" s="101"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="101" t="s">
+      <c r="C165" s="102" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="166" s="77" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="100"/>
+    <row r="166" s="78" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A166" s="101"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="101" t="s">
+      <c r="C166" s="102" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="167" s="77" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="100"/>
+    <row r="167" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A167" s="101"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="101" t="s">
+      <c r="C167" s="102" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="168" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>263</v>
       </c>
       <c r="B168" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C168" s="78"/>
-    </row>
-    <row r="169" s="77" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C168" s="79"/>
+    </row>
+    <row r="169" s="78" customFormat="1" ht="38.25" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>265</v>
@@ -41540,152 +41937,152 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" s="77" customFormat="1" ht="76.5" spans="1:3">
+    <row r="170" s="78" customFormat="1" ht="76.5" spans="1:3">
       <c r="A170" s="36"/>
       <c r="B170" s="4"/>
       <c r="C170" s="65" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="171" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A171" s="36"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="78" t="s">
+      <c r="C171" s="79" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="172" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="172" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A172" s="36"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="78" t="s">
+      <c r="C172" s="79" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="173" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="173" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A173" s="36"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="78" t="s">
+      <c r="C173" s="79" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="174" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="174" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="42" t="s">
         <v>271</v>
       </c>
       <c r="C174" s="42"/>
     </row>
-    <row r="175" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="175" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="42" t="s">
         <v>272</v>
       </c>
       <c r="C175" s="42"/>
     </row>
-    <row r="176" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="176" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="42" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="177" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="42" t="s">
         <v>274</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="178" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="42" t="s">
         <v>275</v>
       </c>
       <c r="C178" s="42"/>
     </row>
-    <row r="179" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="179" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="42" t="s">
         <v>276</v>
       </c>
       <c r="C179" s="42"/>
     </row>
-    <row r="180" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="180" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="42" t="s">
         <v>277</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="181" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="42" t="s">
         <v>278</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="182" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="42" t="s">
         <v>279</v>
       </c>
       <c r="C182" s="42"/>
     </row>
-    <row r="183" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="183" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A183" s="36"/>
       <c r="B183" s="42" t="s">
         <v>280</v>
       </c>
       <c r="C183" s="42"/>
     </row>
-    <row r="184" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="184" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>281</v>
       </c>
       <c r="C184" s="42"/>
     </row>
-    <row r="185" s="77" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="185" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A185" s="36"/>
       <c r="B185" s="42" t="s">
         <v>282</v>
       </c>
       <c r="C185" s="42"/>
     </row>
-    <row r="186" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="186" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A186" s="36"/>
       <c r="B186" s="42" t="s">
         <v>283</v>
       </c>
       <c r="C186" s="42"/>
     </row>
-    <row r="187" s="77" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="78" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36"/>
       <c r="B187" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C187" s="42"/>
     </row>
-    <row r="188" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="188" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="42" t="s">
         <v>285</v>
       </c>
       <c r="C188" s="42"/>
     </row>
-    <row r="189" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="189" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="42" t="s">
         <v>286</v>
       </c>
       <c r="C189" s="42"/>
     </row>
-    <row r="190" s="77" customFormat="1" spans="1:3">
+    <row r="190" s="78" customFormat="1" spans="1:3">
       <c r="A190" s="36"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42"/>
     </row>
-    <row r="191" s="77" customFormat="1" ht="76.5" spans="1:3">
+    <row r="191" s="78" customFormat="1" ht="76.5" spans="1:3">
       <c r="A191" s="36" t="s">
         <v>287</v>
       </c>
@@ -41696,7 +42093,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" s="77" customFormat="1" ht="114.75" spans="1:3">
+    <row r="192" s="78" customFormat="1" ht="114.75" spans="1:3">
       <c r="A192" s="36"/>
       <c r="B192" s="42" t="s">
         <v>290</v>
@@ -41705,7 +42102,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="193" s="77" customFormat="1" ht="114.75" spans="1:3">
+    <row r="193" s="78" customFormat="1" ht="114.75" spans="1:3">
       <c r="A193" s="36"/>
       <c r="B193" s="42" t="s">
         <v>292</v>
@@ -41714,7 +42111,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="194" s="77" customFormat="1" ht="76.5" spans="1:3">
+    <row r="194" s="78" customFormat="1" ht="76.5" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
         <v>294</v>
@@ -41723,7 +42120,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="195" s="77" customFormat="1" ht="38.25" spans="1:3">
+    <row r="195" s="78" customFormat="1" ht="38.25" spans="1:3">
       <c r="A195" s="36" t="s">
         <v>296</v>
       </c>
@@ -41734,28 +42131,28 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" s="77" customFormat="1" ht="114.75" spans="1:3">
+    <row r="196" s="78" customFormat="1" ht="114.75" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4"/>
       <c r="C196" s="65" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="197" s="77" customFormat="1" ht="38.25" spans="1:3">
+    <row r="197" s="78" customFormat="1" ht="38.25" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C197" s="65"/>
     </row>
-    <row r="198" s="77" customFormat="1" ht="51" spans="1:3">
+    <row r="198" s="78" customFormat="1" ht="51" spans="1:3">
       <c r="A198" s="36"/>
       <c r="B198" s="42" t="s">
         <v>301</v>
       </c>
       <c r="C198" s="42"/>
     </row>
-    <row r="199" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="199" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A199" s="36"/>
       <c r="B199" s="42" t="s">
         <v>302</v>
@@ -41764,21 +42161,21 @@
         <v>303</v>
       </c>
     </row>
-    <row r="200" s="77" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="200" s="78" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A200" s="36"/>
       <c r="B200" s="42" t="s">
         <v>304</v>
       </c>
       <c r="C200" s="42"/>
     </row>
-    <row r="201" s="77" customFormat="1" ht="12.75" spans="1:3">
+    <row r="201" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="42" t="s">
         <v>305</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="77" customFormat="1" ht="25.5" spans="1:3">
+    <row r="202" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="42" t="s">
         <v>306</v>
@@ -41955,7 +42352,7 @@
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.8533333333333" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.14" style="73" customWidth="1"/>
+    <col min="2" max="2" width="30.14" style="74" customWidth="1"/>
     <col min="3" max="3" width="112.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41963,37 +42360,37 @@
       <c r="A1" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="54"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="54"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="54"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>313</v>
       </c>
     </row>
@@ -42001,7 +42398,7 @@
       <c r="A7" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>315</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -42010,7 +42407,7 @@
     </row>
     <row r="8" ht="51" spans="1:3">
       <c r="A8" s="54"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="74" t="s">
         <v>317</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -42049,20 +42446,20 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="54"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="76"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="54"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="74" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="54"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="74" t="s">
         <v>326</v>
       </c>
     </row>
@@ -42076,7 +42473,7 @@
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="77" t="s">
         <v>329</v>
       </c>
       <c r="B18" s="11"/>
@@ -42086,31 +42483,31 @@
     </row>
     <row r="19" ht="30" spans="1:2">
       <c r="A19" s="54"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:2">
       <c r="A20" s="54"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="75" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:2">
       <c r="A21" s="54"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="75" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:2">
       <c r="A22" s="54"/>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="75" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:2">
       <c r="A23" s="54"/>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="75" t="s">
         <v>335</v>
       </c>
     </row>
@@ -42170,7 +42567,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="34"/>
-      <c r="B42" s="74"/>
+      <c r="B42" s="75"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34"/>
@@ -42270,22 +42667,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C173" workbookViewId="0">
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="18.5733333333333" style="54" customWidth="1"/>
-    <col min="2" max="2" width="14.5733333333333" style="58" customWidth="1"/>
-    <col min="3" max="3" width="15.7133333333333" style="58" customWidth="1"/>
-    <col min="4" max="4" width="212.286666666667" style="59" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="20.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="14.5733333333333" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.7133333333333" style="59" customWidth="1"/>
+    <col min="4" max="4" width="167.106666666667" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
         <v>336</v>
       </c>
@@ -42295,7 +42692,7 @@
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:4">
+    <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
         <v>338</v>
       </c>
@@ -42305,7 +42702,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:4">
+    <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
         <v>340</v>
       </c>
@@ -42315,7 +42712,7 @@
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
-    <row r="4" ht="12" customHeight="1" spans="1:4">
+    <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
         <v>342</v>
       </c>
@@ -42325,8 +42722,8 @@
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="112" t="s">
+    <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A5" s="113" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -42335,7 +42732,7 @@
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:4">
+    <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
         <v>346</v>
       </c>
@@ -42343,7 +42740,7 @@
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
     </row>
-    <row r="7" ht="9.75" customHeight="1" spans="1:4">
+    <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
         <v>347</v>
       </c>
@@ -42351,8 +42748,12 @@
       <c r="C7" s="63"/>
       <c r="D7" s="63"/>
     </row>
-    <row r="8" ht="15" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1" spans="1:4">
+    <row r="8" s="58" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+    </row>
+    <row r="9" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A9" s="54" t="s">
         <v>23</v>
       </c>
@@ -42362,7 +42763,7 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:4">
+    <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
         <v>349</v>
       </c>
@@ -42372,7 +42773,7 @@
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:4">
+    <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
         <v>351</v>
       </c>
@@ -42382,7 +42783,7 @@
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:11">
+    <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
         <v>353</v>
       </c>
@@ -42391,18 +42792,25 @@
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="69" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="2:4">
+    <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:4">
+    <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
         <v>357</v>
       </c>
@@ -42412,7 +42820,7 @@
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:4">
+    <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
         <v>359</v>
       </c>
@@ -42422,7 +42830,7 @@
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
         <v>361</v>
       </c>
@@ -42432,7 +42840,7 @@
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
         <v>363</v>
       </c>
@@ -42442,7 +42850,7 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
         <v>365</v>
       </c>
@@ -42452,11 +42860,11 @@
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
-    <row r="19" ht="153" spans="1:4">
+    <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>368</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -42464,9 +42872,9 @@
       </c>
       <c r="D19" s="26"/>
     </row>
-    <row r="20" ht="25.5" spans="1:4">
+    <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -42474,9 +42882,9 @@
       </c>
       <c r="D20" s="67"/>
     </row>
-    <row r="21" ht="12.75" spans="1:4">
+    <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>371</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -42484,9 +42892,9 @@
       </c>
       <c r="D21" s="67"/>
     </row>
-    <row r="22" ht="12.75" spans="1:4">
+    <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="59" t="s">
         <v>373</v>
       </c>
       <c r="C22" s="67" t="s">
@@ -42494,123 +42902,134 @@
       </c>
       <c r="D22" s="67"/>
     </row>
-    <row r="25" ht="12.75" spans="1:4">
+    <row r="23" s="58" customFormat="1" spans="1:3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+    </row>
+    <row r="24" s="58" customFormat="1" spans="1:3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+    </row>
+    <row r="25" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>377</v>
       </c>
       <c r="D25" s="65"/>
     </row>
-    <row r="26" ht="357" spans="1:4">
+    <row r="26" s="58" customFormat="1" ht="357" spans="1:4">
       <c r="A26" s="8"/>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59" t="s">
         <v>378</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" ht="89.25" spans="1:4">
+    <row r="27" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A27" s="8"/>
       <c r="B27" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="59" t="s">
         <v>381</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="28" ht="76.5" spans="1:4">
+    <row r="28" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="68"/>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="59" t="s">
         <v>383</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" ht="204" spans="1:4">
+    <row r="29" s="58" customFormat="1" ht="229.5" spans="1:4">
       <c r="A29" s="8"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="59" t="s">
         <v>385</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" ht="63.75" spans="1:4">
+    <row r="30" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A30" s="8"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="59" t="s">
         <v>387</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="31" ht="12.75" spans="1:4">
+    <row r="31" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A31" s="8"/>
       <c r="B31" s="68"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="59" t="s">
         <v>389</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="32" ht="12.75" spans="1:4">
+    <row r="32" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A32" s="8"/>
       <c r="B32" s="68"/>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="59" t="s">
         <v>391</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" ht="12.75" spans="1:4">
+    <row r="33" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A33" s="8"/>
       <c r="B33" s="68"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="59" t="s">
         <v>393</v>
       </c>
       <c r="D33" s="65"/>
     </row>
-    <row r="34" ht="165.75" spans="1:4">
+    <row r="34" s="58" customFormat="1" ht="216.75" spans="1:4">
       <c r="A34" s="8"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="59" t="s">
         <v>394</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="35" ht="12.75" spans="1:4">
+    <row r="35" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A35" s="8"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="59" t="s">
         <v>396</v>
       </c>
       <c r="D35" s="65"/>
     </row>
-    <row r="36" ht="12.75" spans="1:3">
+    <row r="36" s="58" customFormat="1" ht="12.75" spans="1:3">
       <c r="A36" s="8"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="59" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="37" ht="107.25" customHeight="1" spans="1:4">
+    <row r="37" s="58" customFormat="1" ht="107.25" customHeight="1" spans="1:4">
       <c r="A37" s="8"/>
       <c r="B37" s="68" t="s">
         <v>398</v>
@@ -42620,225 +43039,249 @@
       </c>
       <c r="D37" s="65"/>
     </row>
-    <row r="38" ht="89.25" spans="1:4">
+    <row r="38" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A38" s="8"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="59" t="s">
         <v>400</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="39" ht="12.75" spans="1:4">
+    <row r="39" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A39" s="8"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="59" t="s">
         <v>402</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" ht="89.25" spans="1:4">
+    <row r="40" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A40" s="8"/>
       <c r="B40" s="68"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="65" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="41" ht="63.75" spans="1:4">
+    <row r="41" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" s="68"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="42" ht="25.5" spans="1:4">
+    <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="68"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="65" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="43" ht="25.5" spans="1:4">
+    <row r="43" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="68"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="65" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="44" ht="38.25" spans="1:4">
+    <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A44" s="8"/>
       <c r="B44" s="68"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="45" ht="12.75" spans="1:4">
+    <row r="45" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A45" s="8"/>
       <c r="B45" s="68"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="65" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="46" ht="76.5" spans="1:4">
+    <row r="46" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A46" s="8"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="59" t="s">
         <v>410</v>
       </c>
       <c r="D46" s="65" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="47" ht="63.75" spans="1:4">
+    <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A47" s="8"/>
       <c r="B47" s="68"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="65" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="48" ht="76.5" spans="1:4">
+    <row r="48" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A48" s="8"/>
       <c r="B48" s="68"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="49" ht="63.75" spans="1:4">
+    <row r="49" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A49" s="8"/>
       <c r="B49" s="68"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="65" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="50" ht="63.75" spans="1:4">
+    <row r="50" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A50" s="8"/>
       <c r="B50" s="68"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="65" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="51" ht="153" spans="1:4">
+    <row r="51" s="58" customFormat="1" ht="165.75" spans="1:4">
       <c r="A51" s="8"/>
       <c r="B51" s="68"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="65" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="52" ht="76.5" spans="1:4">
+    <row r="52" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A52" s="8"/>
       <c r="B52" s="68"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="65" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="53" ht="114.75" spans="1:4">
+    <row r="53" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A53" s="8"/>
       <c r="B53" s="68"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="65" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="54" ht="89.25" spans="1:4">
+    <row r="54" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A54" s="8"/>
       <c r="B54" s="68"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="65" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="55" ht="114.75" spans="1:4">
+    <row r="55" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A55" s="8"/>
       <c r="B55" s="68"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="65" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="56" ht="76.5" spans="1:4">
+    <row r="56" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A56" s="8"/>
       <c r="B56" s="68"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="65" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="57" ht="12.75" spans="1:4">
+    <row r="57" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A57" s="8"/>
       <c r="B57" s="68"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="65" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="58" ht="89.25" spans="1:4">
+    <row r="58" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A58" s="8"/>
       <c r="B58" s="68"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="67" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="59" ht="318.75" spans="1:4">
+    <row r="59" s="58" customFormat="1" ht="369.75" spans="1:4">
       <c r="A59" s="8"/>
       <c r="B59" s="68"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="65" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="60" ht="344.25" spans="1:4">
+    <row r="60" s="58" customFormat="1" ht="357" spans="1:4">
       <c r="A60" s="8"/>
       <c r="B60" s="68"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="65" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="61" ht="38.25" spans="1:4">
+    <row r="61" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A61" s="8"/>
       <c r="B61" s="68"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="65" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="62" ht="12.75" spans="1:4">
+    <row r="62" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A62" s="8"/>
       <c r="B62" s="68"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="65" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" ht="12.75" spans="1:4">
+    <row r="63" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A63" s="8"/>
       <c r="B63" s="68"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="65" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="64" ht="12.75" spans="1:4">
+    <row r="64" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A64" s="8"/>
       <c r="B64" s="68"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="65" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="65" ht="12.75" spans="1:4">
+    <row r="65" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A65" s="8"/>
       <c r="B65" s="68"/>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="59" t="s">
         <v>430</v>
       </c>
       <c r="D65" s="65"/>
     </row>
-    <row r="66" ht="89.25" spans="1:4">
+    <row r="66" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A66" s="8"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="59" t="s">
         <v>431</v>
       </c>
       <c r="D66" s="65" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="67" ht="114.75" spans="1:4">
+    <row r="67" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A67" s="8"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="59" t="s">
         <v>433</v>
       </c>
       <c r="C67" s="68" t="s">
@@ -42848,57 +43291,65 @@
         <v>435</v>
       </c>
     </row>
-    <row r="68" ht="369.75" spans="1:4">
+    <row r="68" s="58" customFormat="1" ht="395.25" spans="1:4">
       <c r="A68" s="8"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="68"/>
       <c r="D68" s="65" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="69" ht="409.5" spans="1:4">
+    <row r="69" s="58" customFormat="1" ht="409.5" spans="1:4">
       <c r="A69" s="8"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="68"/>
       <c r="D69" s="65" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="70" ht="12.75" spans="1:4">
+    <row r="70" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A70" s="8"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="68"/>
       <c r="D70" s="65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="71" ht="12.75" spans="1:4">
+    <row r="71" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A71" s="8"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="68"/>
       <c r="D71" s="65" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="72" ht="12.75" spans="1:4">
+    <row r="72" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A72" s="8"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="68"/>
       <c r="D72" s="65" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="73" ht="12.75" spans="1:4">
+    <row r="73" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A73" s="8"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="68"/>
       <c r="D73" s="65" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="74" ht="12.75" spans="1:4">
+    <row r="74" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A74" s="8"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="68"/>
       <c r="D74" s="65" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="75" ht="12.75" spans="1:4">
+    <row r="75" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A75" s="8"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="29" t="s">
         <v>443</v>
       </c>
@@ -42906,43 +43357,49 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" ht="12.75" spans="1:4">
+    <row r="76" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A76" s="8"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="29"/>
       <c r="D76" s="65" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" ht="12.75" spans="1:4">
+    <row r="77" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A77" s="8"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="29"/>
       <c r="D77" s="65" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="78" ht="12.75" spans="1:4">
+    <row r="78" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A78" s="8"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="29"/>
       <c r="D78" s="65" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="79" ht="12.75" spans="1:4">
+    <row r="79" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A79" s="8"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="29"/>
       <c r="D79" s="65" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="80" ht="25.5" spans="1:4">
+    <row r="80" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A80" s="8"/>
-      <c r="C80" s="58" t="s">
+      <c r="B80" s="59"/>
+      <c r="C80" s="59" t="s">
         <v>449</v>
       </c>
       <c r="D80" s="65"/>
     </row>
-    <row r="81" ht="344.25" spans="1:4">
+    <row r="81" s="58" customFormat="1" ht="409.5" spans="1:4">
       <c r="A81" s="8"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="68" t="s">
         <v>450</v>
       </c>
@@ -42950,152 +43407,191 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" ht="51" spans="1:4">
+    <row r="82" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A82" s="8"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="68"/>
       <c r="D82" s="65" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="83" ht="12.75" spans="1:4">
+    <row r="83" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A83" s="8"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="68"/>
       <c r="D83" s="65" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="84" ht="12.75" spans="1:4">
+    <row r="84" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A84" s="8"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="68"/>
       <c r="D84" s="65" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="85" ht="12.75" spans="1:4">
+    <row r="85" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A85" s="8"/>
-      <c r="C85" s="58" t="s">
+      <c r="B85" s="59"/>
+      <c r="C85" s="59" t="s">
         <v>455</v>
       </c>
       <c r="D85" s="65" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="86" ht="12.75" spans="1:4">
+    <row r="86" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A86" s="8"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="65" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="87" ht="12.75" spans="1:4">
+    <row r="87" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A87" s="8"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
       <c r="D87" s="65" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="88" ht="12.75" spans="1:4">
+    <row r="88" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A88" s="8"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
       <c r="D88" s="65" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="89" ht="12.75" spans="1:4">
+    <row r="89" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A89" s="8"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="90" ht="12.75" spans="1:4">
+    <row r="90" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A90" s="8"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
       <c r="D90" s="65" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="91" ht="38.25" spans="1:4">
+    <row r="91" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A91" s="8"/>
-      <c r="C91" s="58" t="s">
+      <c r="B91" s="59"/>
+      <c r="C91" s="59" t="s">
         <v>461</v>
       </c>
       <c r="D91" s="65" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="92" ht="51" spans="1:4">
+    <row r="92" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A92" s="8"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="65" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="93" ht="51" spans="1:4">
+    <row r="93" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A93" s="8"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
       <c r="D93" s="65" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="94" ht="63.75" spans="1:4">
+    <row r="94" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A94" s="8"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="65" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="95" ht="63.75" spans="1:4">
+    <row r="95" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A95" s="8"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
       <c r="D95" s="65" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="96" ht="51" spans="1:4">
+    <row r="96" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A96" s="8"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
       <c r="D96" s="65" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="97" ht="51" spans="1:4">
+    <row r="97" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A97" s="8"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
       <c r="D97" s="65" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="98" ht="63.75" spans="1:4">
+    <row r="98" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A98" s="8"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
       <c r="D98" s="65" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="99" ht="63.75" spans="1:4">
+    <row r="99" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A99" s="8"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
       <c r="D99" s="65" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="100" ht="51" spans="1:4">
+    <row r="100" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A100" s="8"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
       <c r="D100" s="65" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" ht="153" spans="1:4">
+    <row r="101" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A101" s="8"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
       <c r="D101" s="65" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="102" ht="25.5" spans="1:4">
+    <row r="102" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A102" s="8"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
       <c r="D102" s="65" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="103" ht="114.75" spans="1:4">
+    <row r="103" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A103" s="8"/>
-      <c r="C103" s="58" t="s">
+      <c r="B103" s="59"/>
+      <c r="C103" s="59" t="s">
         <v>474</v>
       </c>
       <c r="D103" s="65" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="104" ht="38.25" spans="1:4">
+    <row r="104" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A104" s="8"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="29" t="s">
         <v>476</v>
       </c>
@@ -43103,29 +43599,33 @@
         <v>477</v>
       </c>
     </row>
-    <row r="105" ht="165.75" spans="1:4">
+    <row r="105" s="58" customFormat="1" ht="165.75" spans="1:4">
       <c r="A105" s="8"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="29"/>
       <c r="D105" s="67" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="106" ht="102" spans="1:4">
+    <row r="106" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A106" s="8"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="29"/>
       <c r="D106" s="67" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="107" ht="51" spans="1:4">
+    <row r="107" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A107" s="8"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="29"/>
       <c r="D107" s="67" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="108" ht="12.75" spans="1:4">
+    <row r="108" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A108" s="8"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="68" t="s">
         <v>481</v>
       </c>
@@ -43133,132 +43633,135 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" ht="153" spans="1:4">
+    <row r="109" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A109" s="8"/>
       <c r="B109" s="70" t="s">
         <v>483</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="59" t="s">
         <v>484</v>
       </c>
       <c r="D109" s="65" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="110" ht="38.25" spans="1:4">
+    <row r="110" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A110" s="8"/>
       <c r="B110" s="70"/>
-      <c r="C110" s="58" t="s">
+      <c r="C110" s="59" t="s">
         <v>486</v>
       </c>
       <c r="D110" s="65" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="111" ht="280.5" spans="1:4">
+    <row r="111" s="58" customFormat="1" ht="306" spans="1:4">
       <c r="A111" s="8"/>
       <c r="B111" s="70"/>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="59" t="s">
         <v>488</v>
       </c>
       <c r="D111" s="67" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="112" ht="204" spans="1:4">
+    <row r="112" s="58" customFormat="1" ht="229.5" spans="1:4">
       <c r="A112" s="8"/>
       <c r="B112" s="70"/>
+      <c r="C112" s="59"/>
       <c r="D112" s="67" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="113" ht="229.5" spans="1:4">
+    <row r="113" s="58" customFormat="1" ht="242.25" spans="1:4">
       <c r="A113" s="8"/>
       <c r="B113" s="70"/>
-      <c r="C113" s="58" t="s">
+      <c r="C113" s="59" t="s">
         <v>491</v>
       </c>
       <c r="D113" s="67" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="114" ht="204" spans="1:4">
+    <row r="114" s="58" customFormat="1" ht="216.75" spans="1:4">
       <c r="A114" s="8"/>
       <c r="B114" s="70"/>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="59" t="s">
         <v>493</v>
       </c>
       <c r="D114" s="67" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="115" ht="357" spans="1:4">
+    <row r="115" s="58" customFormat="1" ht="369.75" spans="1:4">
       <c r="A115" s="8"/>
       <c r="B115" s="70"/>
+      <c r="C115" s="59"/>
       <c r="D115" s="67" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="116" ht="369.75" spans="1:4">
+    <row r="116" s="58" customFormat="1" ht="382.5" spans="1:4">
       <c r="A116" s="8"/>
       <c r="B116" s="70"/>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="59" t="s">
         <v>496</v>
       </c>
       <c r="D116" s="67" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="117" ht="255" spans="1:4">
+    <row r="117" s="58" customFormat="1" ht="255" spans="1:4">
       <c r="A117" s="8"/>
       <c r="B117" s="71"/>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="59" t="s">
         <v>498</v>
       </c>
       <c r="D117" s="65" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="118" ht="127.5" spans="1:4">
+    <row r="118" s="58" customFormat="1" ht="165.75" spans="1:4">
       <c r="A118" s="8"/>
       <c r="B118" s="71"/>
-      <c r="C118" s="58" t="s">
+      <c r="C118" s="59" t="s">
         <v>500</v>
       </c>
       <c r="D118" s="65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="119" ht="89.25" spans="1:4">
+    <row r="119" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A119" s="8"/>
       <c r="B119" s="71"/>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="59" t="s">
         <v>502</v>
       </c>
       <c r="D119" s="65" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="120" ht="89.25" spans="1:4">
+    <row r="120" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A120" s="8"/>
       <c r="B120" s="71"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="65" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="121" ht="51" spans="1:4">
+    <row r="121" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A121" s="8"/>
       <c r="B121" s="71"/>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="59" t="s">
         <v>505</v>
       </c>
       <c r="D121" s="65" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="122" ht="274.5" customHeight="1" spans="1:4">
+    <row r="122" s="58" customFormat="1" ht="274.5" customHeight="1" spans="1:4">
       <c r="A122" s="8"/>
-      <c r="B122" s="58" t="s">
+      <c r="B122" s="59" t="s">
         <v>507</v>
       </c>
       <c r="C122" s="65" t="s">
@@ -43266,16 +43769,17 @@
       </c>
       <c r="D122" s="65"/>
     </row>
-    <row r="123" ht="243.75" customHeight="1" spans="1:4">
+    <row r="123" s="58" customFormat="1" ht="243.75" customHeight="1" spans="1:4">
       <c r="A123" s="8"/>
+      <c r="B123" s="59"/>
       <c r="C123" s="65" t="s">
         <v>509</v>
       </c>
       <c r="D123" s="65"/>
     </row>
-    <row r="124" ht="391.5" customHeight="1" spans="1:4">
+    <row r="124" s="58" customFormat="1" ht="391.5" customHeight="1" spans="1:4">
       <c r="A124" s="8"/>
-      <c r="B124" s="58" t="s">
+      <c r="B124" s="59" t="s">
         <v>510</v>
       </c>
       <c r="C124" s="65" t="s">
@@ -43283,492 +43787,701 @@
       </c>
       <c r="D124" s="65"/>
     </row>
-    <row r="125" ht="231" customHeight="1" spans="1:4">
+    <row r="125" s="58" customFormat="1" ht="231" customHeight="1" spans="1:4">
       <c r="A125" s="8"/>
+      <c r="B125" s="59"/>
       <c r="C125" s="65" t="s">
         <v>512</v>
       </c>
       <c r="D125" s="65"/>
     </row>
-    <row r="126" ht="89.25" spans="1:4">
-      <c r="A126" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="58" t="s">
+    <row r="126" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A126" s="72" t="s">
         <v>513</v>
       </c>
-      <c r="C126" s="58" t="s">
+      <c r="B126" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="D126" s="67" t="s">
+      <c r="C126" s="65" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="127" ht="140.25" spans="1:4">
-      <c r="A127" s="57"/>
-      <c r="C127" s="58" t="s">
+      <c r="D126" s="65"/>
+    </row>
+    <row r="127" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A127" s="8"/>
+      <c r="B127" s="59" t="s">
         <v>516</v>
       </c>
+      <c r="C127" s="59" t="s">
+        <v>517</v>
+      </c>
       <c r="D127" s="65" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="128" ht="293.25" spans="1:4">
-      <c r="A128" s="57"/>
-      <c r="B128" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="C128" s="58" t="s">
+    </row>
+    <row r="128" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A128" s="8"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59" t="s">
         <v>519</v>
       </c>
       <c r="D128" s="65" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="129" ht="51" spans="1:4">
-      <c r="A129" s="57"/>
-      <c r="C129" s="58" t="s">
+    <row r="129" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A129" s="8"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59" t="s">
         <v>521</v>
       </c>
       <c r="D129" s="65" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="130" ht="38.25" spans="1:4">
-      <c r="A130" s="57"/>
-      <c r="B130" s="58" t="s">
+    <row r="130" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A130" s="8"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="C130" s="58" t="s">
+      <c r="D130" s="65" t="s">
         <v>524</v>
       </c>
-      <c r="D130" s="65" t="s">
+    </row>
+    <row r="131" s="58" customFormat="1" ht="51" spans="1:4">
+      <c r="A131" s="8"/>
+      <c r="B131" s="59" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="131" ht="76.5" spans="1:4">
-      <c r="A131" s="57"/>
-      <c r="C131" s="58" t="s">
+      <c r="C131" s="59" t="s">
         <v>526</v>
       </c>
       <c r="D131" s="65" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132" ht="25.5" spans="1:4">
-      <c r="A132" s="57"/>
-      <c r="C132" s="58" t="s">
+    <row r="132" s="58" customFormat="1" ht="51" spans="1:4">
+      <c r="A132" s="8"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="59" t="s">
         <v>528</v>
       </c>
       <c r="D132" s="65" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="133" ht="114.75" spans="1:4">
-      <c r="A133" s="57"/>
-      <c r="B133" s="58" t="s">
+    <row r="133" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A133" s="8"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="D133" s="65"/>
+    </row>
+    <row r="134" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A134" s="8"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="65" t="s">
         <v>531</v>
       </c>
-      <c r="D133" s="65" t="s">
+      <c r="D134" s="65"/>
+    </row>
+    <row r="135" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A135" s="8"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="65" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="134" ht="45" customHeight="1" spans="1:4">
-      <c r="A134" s="57"/>
-      <c r="C134" s="67" t="s">
+      <c r="D135" s="65"/>
+    </row>
+    <row r="136" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A136" s="8"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D134" s="65"/>
-    </row>
-    <row r="135" ht="25.5" spans="1:4">
-      <c r="A135" s="57"/>
-      <c r="C135" s="58" t="s">
+      <c r="D136" s="65"/>
+    </row>
+    <row r="137" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A137" s="8"/>
+      <c r="B137" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="D135" s="65"/>
-    </row>
-    <row r="136" ht="38.25" spans="1:4">
-      <c r="A136" s="57"/>
-      <c r="C136" s="58" t="s">
+      <c r="C137" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="D136" s="65"/>
-    </row>
-    <row r="137" ht="25.5" spans="1:4">
-      <c r="A137" s="57"/>
-      <c r="C137" s="58" t="s">
+      <c r="D137" s="65"/>
+    </row>
+    <row r="138" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A138" s="8"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="65" t="s">
         <v>536</v>
       </c>
-      <c r="D137" s="65"/>
-    </row>
-    <row r="138" ht="114.75" spans="1:4">
-      <c r="A138" s="57"/>
-      <c r="B138" s="58" t="s">
+      <c r="D138" s="65"/>
+    </row>
+    <row r="139" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A139" s="8"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="C138" s="58" t="s">
+      <c r="D139" s="65"/>
+    </row>
+    <row r="140" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A140" s="8"/>
+      <c r="B140" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="D138" s="65" t="s">
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+    </row>
+    <row r="141" s="58" customFormat="1" ht="89.25" spans="1:4">
+      <c r="A141" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="59" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="139" ht="45" customHeight="1" spans="1:4">
-      <c r="A139" s="57"/>
-      <c r="B139" s="58" t="s">
+      <c r="C141" s="59" t="s">
         <v>540</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="D141" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="D139" s="65" t="s">
+    </row>
+    <row r="142" s="58" customFormat="1" ht="140.25" spans="1:4">
+      <c r="A142" s="57"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="140" ht="38.25" spans="1:4">
-      <c r="A140" s="57"/>
-      <c r="C140" s="58" t="s">
+      <c r="D142" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="D140" s="65"/>
-    </row>
-    <row r="141" ht="38.25" spans="1:4">
-      <c r="A141" s="57"/>
-      <c r="C141" s="58" t="s">
+    </row>
+    <row r="143" s="58" customFormat="1" ht="293.25" spans="1:4">
+      <c r="A143" s="57"/>
+      <c r="B143" s="59" t="s">
         <v>544</v>
       </c>
-      <c r="D141" s="65"/>
-    </row>
-    <row r="142" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A142" s="57"/>
-      <c r="B142" s="58" t="s">
+      <c r="C143" s="59" t="s">
         <v>545</v>
       </c>
-      <c r="C142" s="65" t="s">
+      <c r="D143" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="D142" s="65"/>
-    </row>
-    <row r="143" ht="25.5" spans="1:4">
-      <c r="A143" s="57"/>
-      <c r="C143" s="58" t="s">
+    </row>
+    <row r="144" s="58" customFormat="1" ht="51" spans="1:4">
+      <c r="A144" s="57"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="D143" s="65" t="s">
+      <c r="D144" s="65" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="144" ht="25.5" spans="1:4">
-      <c r="A144" s="57"/>
-      <c r="C144" s="58" t="s">
+    <row r="145" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A145" s="57"/>
+      <c r="B145" s="59" t="s">
         <v>549</v>
       </c>
-      <c r="D144" s="65" t="s">
+      <c r="C145" s="59" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="145" ht="51" spans="1:4">
-      <c r="A145" s="57"/>
-      <c r="C145" s="58" t="s">
+      <c r="D145" s="65" t="s">
         <v>551</v>
       </c>
-      <c r="D145" s="65" t="s">
+    </row>
+    <row r="146" s="58" customFormat="1" ht="76.5" spans="1:4">
+      <c r="A146" s="57"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="146" ht="38.25" spans="1:4">
-      <c r="A146" s="57"/>
       <c r="D146" s="65" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="147" ht="45" customHeight="1" spans="1:4">
+    <row r="147" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A147" s="57"/>
-      <c r="B147" s="58" t="s">
+      <c r="B147" s="59"/>
+      <c r="C147" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="D147" s="65" t="s">
         <v>555</v>
       </c>
-      <c r="D147" s="65" t="s">
+    </row>
+    <row r="148" s="58" customFormat="1" ht="114.75" spans="1:4">
+      <c r="A148" s="57"/>
+      <c r="B148" s="59" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="148" ht="45" customHeight="1" spans="1:4">
-      <c r="A148" s="57"/>
-      <c r="C148" s="58" t="s">
+      <c r="C148" s="59" t="s">
         <v>557</v>
       </c>
       <c r="D148" s="65" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="149" ht="76.5" spans="1:4">
+    <row r="149" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A149" s="57"/>
-      <c r="C149" s="58" t="s">
+      <c r="B149" s="59"/>
+      <c r="C149" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="D149" s="65" t="s">
+      <c r="D149" s="65"/>
+    </row>
+    <row r="150" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A150" s="57"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="150" ht="51" spans="1:4">
-      <c r="A150" s="57"/>
-      <c r="C150" s="58" t="s">
+      <c r="D150" s="65"/>
+    </row>
+    <row r="151" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A151" s="57"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="D150" s="65" t="s">
+      <c r="D151" s="65"/>
+    </row>
+    <row r="152" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A152" s="57"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="151" ht="25.5" spans="1:4">
-      <c r="A151" s="57"/>
-      <c r="B151" s="58" t="s">
+      <c r="D152" s="65"/>
+    </row>
+    <row r="153" s="58" customFormat="1" ht="127.5" spans="1:4">
+      <c r="A153" s="57"/>
+      <c r="B153" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="C151" s="58" t="s">
+      <c r="C153" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="D151" s="65"/>
-    </row>
-    <row r="152" ht="25.5" spans="1:4">
-      <c r="A152" s="57"/>
-      <c r="C152" s="58" t="s">
+      <c r="D153" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="D152" s="65"/>
-    </row>
-    <row r="153" ht="63.75" spans="1:4">
-      <c r="A153" s="57"/>
-      <c r="B153" s="58" t="s">
+    </row>
+    <row r="154" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A154" s="57"/>
+      <c r="B154" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="C153" s="58" t="s">
+      <c r="C154" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="D153" s="65" t="s">
+      <c r="D154" s="65" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="154" ht="102" spans="1:4">
-      <c r="A154" s="57"/>
-      <c r="C154" s="58" t="s">
+    <row r="155" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A155" s="57"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="D154" s="65" t="s">
+      <c r="D155" s="65"/>
+    </row>
+    <row r="156" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A156" s="57"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="155" ht="63.75" spans="1:4">
-      <c r="A155" s="57"/>
-      <c r="C155" s="58" t="s">
+      <c r="D156" s="65"/>
+    </row>
+    <row r="157" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
+      <c r="A157" s="57"/>
+      <c r="B157" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D155" s="65" t="s">
+      <c r="C157" s="65" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="156" ht="38.25" spans="1:4">
-      <c r="A156" s="57"/>
-      <c r="C156" s="58" t="s">
+      <c r="D157" s="65"/>
+    </row>
+    <row r="158" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A158" s="57"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="59" t="s">
         <v>573</v>
       </c>
-      <c r="D156" s="65"/>
-    </row>
-    <row r="157" ht="25.5" spans="1:4">
-      <c r="A157" s="57"/>
-      <c r="C157" s="58" t="s">
+      <c r="D158" s="65" t="s">
         <v>574</v>
       </c>
-      <c r="D157" s="65"/>
-    </row>
-    <row r="158" ht="25.5" spans="1:4">
-      <c r="A158" s="57"/>
-      <c r="B158" s="58" t="s">
+    </row>
+    <row r="159" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A159" s="57"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="C158" s="58" t="s">
+      <c r="D159" s="65" t="s">
         <v>576</v>
       </c>
-      <c r="D158" s="65"/>
-    </row>
-    <row r="159" ht="25.5" spans="1:4">
-      <c r="A159" s="57"/>
-      <c r="C159" s="58" t="s">
+    </row>
+    <row r="160" s="58" customFormat="1" ht="63.75" spans="1:4">
+      <c r="A160" s="57"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59" t="s">
         <v>577</v>
       </c>
-      <c r="D159" s="65"/>
-    </row>
-    <row r="160" ht="45" customHeight="1" spans="1:4">
-      <c r="A160" s="57"/>
-      <c r="B160" s="58" t="s">
+      <c r="D160" s="65" t="s">
         <v>578</v>
       </c>
-      <c r="C160" s="58" t="s">
+    </row>
+    <row r="161" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A161" s="57"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="65" t="s">
         <v>579</v>
       </c>
-      <c r="D160" s="65"/>
-    </row>
-    <row r="161" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A161" s="57"/>
-      <c r="C161" s="58" t="s">
+    </row>
+    <row r="162" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A162" s="57"/>
+      <c r="B162" s="59" t="s">
         <v>580</v>
       </c>
-      <c r="D161" s="65"/>
-    </row>
-    <row r="162" ht="38.25" spans="1:4">
-      <c r="A162" s="57"/>
-      <c r="B162" s="58" t="s">
+      <c r="C162" s="59" t="s">
         <v>581</v>
       </c>
-      <c r="C162" s="58" t="s">
+      <c r="D162" s="65" t="s">
         <v>582</v>
       </c>
-      <c r="D162" s="65"/>
-    </row>
-    <row r="163" ht="25.5" spans="1:4">
+    </row>
+    <row r="163" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A163" s="57"/>
-      <c r="B163" s="58" t="s">
+      <c r="B163" s="59"/>
+      <c r="C163" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="C163" s="58" t="s">
+      <c r="D163" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="D163" s="65"/>
-    </row>
-    <row r="164" ht="25.5" spans="1:4">
+    </row>
+    <row r="164" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A164" s="57"/>
-      <c r="C164" s="58" t="s">
+      <c r="B164" s="59"/>
+      <c r="C164" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="D164" s="65"/>
-    </row>
-    <row r="165" ht="38.25" spans="1:4">
+      <c r="D164" s="65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="165" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A165" s="57"/>
-      <c r="C165" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="D165" s="65"/>
-    </row>
-    <row r="166" ht="25.5" spans="1:4">
+      <c r="B165" s="59"/>
+      <c r="C165" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="166" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A166" s="57"/>
-      <c r="B166" s="58" t="s">
-        <v>587</v>
-      </c>
-      <c r="C166" s="58" t="s">
-        <v>588</v>
+      <c r="B166" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="C166" s="59" t="s">
+        <v>590</v>
       </c>
       <c r="D166" s="65"/>
     </row>
-    <row r="167" ht="25.5" spans="1:4">
+    <row r="167" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A167" s="57"/>
-      <c r="C167" s="58" t="s">
-        <v>589</v>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59" t="s">
+        <v>591</v>
       </c>
       <c r="D167" s="65"/>
     </row>
-    <row r="168" ht="25.5" spans="1:4">
+    <row r="168" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A168" s="57"/>
-      <c r="C168" s="58" t="s">
-        <v>590</v>
-      </c>
-      <c r="D168" s="65"/>
-    </row>
-    <row r="169" ht="38.25" spans="1:4">
+      <c r="B168" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="C168" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="169" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A169" s="57"/>
-      <c r="B169" s="58" t="s">
-        <v>591</v>
-      </c>
-      <c r="D169" s="65"/>
-    </row>
-    <row r="171" ht="51" spans="1:4">
-      <c r="A171" s="54" t="s">
-        <v>592</v>
-      </c>
-      <c r="B171" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="C171" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="D171" s="65" t="s">
+      <c r="B169" s="59"/>
+      <c r="C169" s="59" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" s="65" t="s">
+      <c r="D169" s="65" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="173" spans="4:4">
-      <c r="D173" s="65" t="s">
+    <row r="170" s="58" customFormat="1" ht="63.75" spans="1:4">
+      <c r="A170" s="57"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174" s="65" t="s">
+      <c r="D170" s="65" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="175" ht="114.75" spans="3:4">
-      <c r="C175" s="29" t="s">
+    <row r="171" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A171" s="57"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="D175" s="65" t="s">
+      <c r="D171" s="65"/>
+    </row>
+    <row r="172" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A172" s="57"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="176" ht="63.75" spans="3:4">
-      <c r="C176" s="29"/>
-      <c r="D176" s="65" t="s">
+      <c r="D172" s="65"/>
+    </row>
+    <row r="173" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A173" s="57"/>
+      <c r="B173" s="59" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="177" ht="63.75" spans="3:4">
-      <c r="C177" s="29"/>
-      <c r="D177" s="65" t="s">
+      <c r="C173" s="59" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="178" ht="89.25" spans="3:4">
-      <c r="C178" s="29"/>
-      <c r="D178" s="65" t="s">
+      <c r="D173" s="65"/>
+    </row>
+    <row r="174" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A174" s="57"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="179" ht="25.5" spans="3:4">
-      <c r="C179" s="58" t="s">
+      <c r="D174" s="65"/>
+    </row>
+    <row r="175" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A175" s="57"/>
+      <c r="B175" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="D179" s="65" t="s">
+      <c r="C175" s="59" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="72"/>
+      <c r="D175" s="65"/>
+    </row>
+    <row r="176" s="58" customFormat="1" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A176" s="57"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="D176" s="65"/>
+    </row>
+    <row r="177" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A177" s="57"/>
+      <c r="B177" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="C177" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="D177" s="65"/>
+    </row>
+    <row r="178" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A178" s="57"/>
+      <c r="B178" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="C178" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="D178" s="65"/>
+    </row>
+    <row r="179" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A179" s="57"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="59" t="s">
+        <v>611</v>
+      </c>
+      <c r="D179" s="65"/>
+    </row>
+    <row r="180" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A180" s="57"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="59" t="s">
+        <v>612</v>
+      </c>
       <c r="D180" s="65"/>
     </row>
-    <row r="181" spans="2:4">
-      <c r="B181" s="58" t="s">
-        <v>606</v>
+    <row r="181" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A181" s="57"/>
+      <c r="B181" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="C181" s="59" t="s">
+        <v>614</v>
       </c>
       <c r="D181" s="65"/>
     </row>
-    <row r="182" spans="2:4">
-      <c r="B182" s="72"/>
+    <row r="182" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A182" s="57"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="59" t="s">
+        <v>615</v>
+      </c>
       <c r="D182" s="65"/>
     </row>
-    <row r="183" spans="4:4">
+    <row r="183" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A183" s="57"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="59" t="s">
+        <v>616</v>
+      </c>
       <c r="D183" s="65"/>
     </row>
-    <row r="184" spans="4:4">
+    <row r="184" s="58" customFormat="1" ht="38.25" spans="1:4">
+      <c r="A184" s="57"/>
+      <c r="B184" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="C184" s="59"/>
       <c r="D184" s="65"/>
     </row>
+    <row r="185" s="58" customFormat="1" spans="1:3">
+      <c r="A185" s="54"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="59"/>
+    </row>
+    <row r="186" s="58" customFormat="1" ht="51" spans="1:4">
+      <c r="A186" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="B186" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="C186" s="59" t="s">
+        <v>620</v>
+      </c>
+      <c r="D186" s="65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A187" s="54"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="59"/>
+      <c r="D187" s="65" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="188" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A188" s="54"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="59"/>
+      <c r="D188" s="65" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A189" s="54"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="59"/>
+      <c r="D189" s="65" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="190" s="58" customFormat="1" ht="114.75" spans="1:4">
+      <c r="A190" s="54"/>
+      <c r="B190" s="59"/>
+      <c r="C190" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="D190" s="65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="191" s="58" customFormat="1" ht="63.75" spans="1:4">
+      <c r="A191" s="54"/>
+      <c r="B191" s="59"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="65" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="192" s="58" customFormat="1" ht="76.5" spans="1:4">
+      <c r="A192" s="54"/>
+      <c r="B192" s="59"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="65" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="193" s="58" customFormat="1" ht="89.25" spans="1:4">
+      <c r="A193" s="54"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="65" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="194" s="58" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A194" s="54"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="D194" s="65" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="195" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A195" s="54"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="59"/>
+      <c r="D195" s="65"/>
+    </row>
+    <row r="196" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A196" s="54"/>
+      <c r="B196" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="C196" s="59"/>
+      <c r="D196" s="65"/>
+    </row>
+    <row r="197" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A197" s="54"/>
+      <c r="B197" s="73"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="65"/>
+    </row>
+    <row r="198" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A198" s="54"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="65"/>
+    </row>
+    <row r="199" s="58" customFormat="1" ht="12.75" spans="1:4">
+      <c r="A199" s="54"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="65"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -43795,11 +44508,13 @@
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C157:D157"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A25:A125"/>
-    <mergeCell ref="A126:A169"/>
-    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A126:A140"/>
+    <mergeCell ref="A141:A184"/>
+    <mergeCell ref="A186:A199"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B36"/>
     <mergeCell ref="B37:B66"/>
@@ -43808,20 +44523,23 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B171:B178"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="B186:B193"/>
     <mergeCell ref="C39:C45"/>
     <mergeCell ref="C46:C64"/>
     <mergeCell ref="C67:C74"/>
@@ -43833,9 +44551,9 @@
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K12" r:id="rId2" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
@@ -43845,7 +44563,8 @@
     <hyperlink ref="C81:C84" r:id="rId6" display="Hardware&#10;(Disk)"/>
     <hyperlink ref="C67:C74" r:id="rId7" display="DBMS Architecture"/>
     <hyperlink ref="C108" r:id="rId8" display="Files"/>
-    <hyperlink ref="A126" r:id="rId9" display="JDBC"/>
+    <hyperlink ref="A141" r:id="rId9" display="JDBC"/>
+    <hyperlink ref="A126" r:id="rId10" display="Database Normalization"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -43873,120 +44592,120 @@
   <sheetData>
     <row r="1" ht="96" spans="1:5">
       <c r="A1" s="54" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" ht="96" spans="1:5">
       <c r="A2" s="54" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="120" spans="1:5">
       <c r="A3" s="54" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="72" spans="1:5">
       <c r="A4" s="54" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="48" spans="1:5">
       <c r="A6" s="54" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="72" spans="1:5">
       <c r="A7" s="55" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="48" spans="1:5">
       <c r="A8" s="54" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="120" spans="1:5">
       <c r="A9" s="54" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="54" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="48" spans="1:5">
       <c r="A11" s="54" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="48" spans="1:5">
       <c r="A12" s="54" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="26"/>
@@ -43994,68 +44713,68 @@
     </row>
     <row r="13" ht="48" spans="1:5">
       <c r="A13" s="54" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="48" spans="1:5">
       <c r="A14" s="54" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="16" ht="96.95" customHeight="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" ht="132.95" customHeight="1" spans="2:4">
       <c r="B17" s="19" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="42" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="42" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -44067,24 +44786,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="42" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="3:4">
       <c r="C23" s="19" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:4">
       <c r="A28" s="57" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -44092,49 +44811,49 @@
       <c r="A29" s="57"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:2">
       <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
       <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:2">
       <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:2">
       <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
       <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
       <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -44148,7 +44867,7 @@
     </row>
     <row r="40" ht="72" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -44160,7 +44879,7 @@
     </row>
     <row r="43" ht="48" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="B43" s="4"/>
     </row>
@@ -44172,7 +44891,7 @@
     </row>
     <row r="46" ht="48" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="B46" s="4"/>
     </row>
@@ -44184,7 +44903,7 @@
     </row>
     <row r="49" ht="72" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="B49" s="4"/>
     </row>
@@ -44244,97 +44963,97 @@
   <sheetData>
     <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="B5" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="B7" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="B8" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="B9" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
       <c r="A12" s="52" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
       <c r="A13" s="52"/>
       <c r="B13" s="6" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
       <c r="A20" s="53" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -44351,7 +45070,7 @@
     <row r="22" ht="63.75" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
@@ -44392,462 +45111,462 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>689</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>690</v>
+        <v>715</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="B13" s="35"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="25" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="25" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="25" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="33" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="25" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="25" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
       <c r="A30" s="41" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="26" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="33" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="25" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="25" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="25" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="25" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="33" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="25" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="25" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="41" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="33" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="25" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="43" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="43" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="43" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="44" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="33" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="33" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="25" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="33" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="33" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="43" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="25" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="43" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="43" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="34" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="B63" s="35"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="33" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="25" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="C65" s="46"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="36" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C66" s="46"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="33" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="C67" s="46"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="33" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
       <c r="B69" s="48" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
       <c r="B70" s="48" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
       <c r="B71" s="48" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -44855,296 +45574,296 @@
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="36" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="36"/>
       <c r="B74" s="47" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="36"/>
       <c r="B75" s="47" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="33" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="25" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="25" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="33" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
       <c r="A81" s="36" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="36"/>
       <c r="B82" s="49" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
       <c r="A83" s="36"/>
       <c r="B83" s="43" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
       <c r="A84" s="36"/>
       <c r="B84" s="43" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="33" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="43" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="25" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="33" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="43" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
       <c r="B90" s="50" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="25" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="25" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="25" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="34" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="B95" s="35"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
       <c r="A96" s="36" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
       <c r="B98" s="47" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="25" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="33" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="43" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="43" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="43" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="43" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
       <c r="B105" s="50" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="33" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="33" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="43" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
       <c r="A109" s="36" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
       <c r="A110" s="36"/>
       <c r="B110" s="43" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
       <c r="A111" s="36" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
       <c r="A112" s="36"/>
       <c r="B112" s="25" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
       <c r="A113" s="36"/>
       <c r="B113" s="25" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="36"/>
       <c r="B114" s="25" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
       <c r="A115" s="36"/>
       <c r="B115" s="25" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
       <c r="A116" s="36"/>
       <c r="B116" s="25" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
       <c r="A117" s="36"/>
       <c r="B117" s="25" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
       <c r="A118" s="36"/>
       <c r="B118" s="24" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
       <c r="A119" s="36"/>
       <c r="B119" s="25" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
       <c r="A120" s="36"/>
       <c r="B120" s="24" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
       <c r="A121" s="36"/>
       <c r="B121" s="24" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
       <c r="A122" s="36"/>
       <c r="B122" s="24" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1322">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -7199,6 +7199,55 @@
     <t>Annotations for Concurrency</t>
   </si>
   <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Stream, you specify what you want to have done, not how to do it.</t>
+  </si>
+  <si>
+    <t>From Iterating to Stream Operations</t>
+  </si>
+  <si>
+    <t>Stream Creation</t>
+  </si>
+  <si>
+    <t>The filter, map, and flatMap Methods</t>
+  </si>
+  <si>
+    <t>Extracting Substreams and Combining
+Streams</t>
+  </si>
+  <si>
+    <t>Other Stream Transformations</t>
+  </si>
+  <si>
+    <t>Simple Reductions</t>
+  </si>
+  <si>
+    <t>The Optional Type</t>
+  </si>
+  <si>
+    <t>Collecting Results</t>
+  </si>
+  <si>
+    <t>Collecting into Maps</t>
+  </si>
+  <si>
+    <t>Grouping and Partitioning</t>
+  </si>
+  <si>
+    <t>Downstream Collectors</t>
+  </si>
+  <si>
+    <t>Reduction Operations</t>
+  </si>
+  <si>
+    <t>Primitive Type Streams</t>
+  </si>
+  <si>
+    <t>Parallel Streams</t>
+  </si>
+  <si>
     <t>Input/Output 
 (IO)</t>
   </si>
@@ -33877,9 +33926,6 @@
  - Handle Errors Gracefully: Always check for RPC status codes and implement error handling strategies like retries or fallbacks.
  - Reuse Channels and Stubs: Reuse channels and, where appropriate, stubs to minimize the overhead of creating new connections.
  - Consider Streaming for Large Data Transfers: For scenarios involving large amounts of data, consider using streaming stubs to handle data more efficiently.</t>
-  </si>
-  <si>
-    <t>Stream</t>
   </si>
   <si>
     <t>Synchronous &amp; Asynchronous</t>
@@ -35563,8 +35609,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35578,16 +35669,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35603,38 +35687,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -35654,26 +35707,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -35797,7 +35843,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35809,25 +35891,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35845,79 +35975,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35929,43 +36005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -36030,8 +36076,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -36066,24 +36112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -36101,6 +36129,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -36109,141 +36146,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -37780,230 +37826,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="B3" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="B8" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="B10" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="B16" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="B23" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="B24" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="B25" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="B26" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23"/>
       <c r="B29" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23"/>
       <c r="B34" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -38032,276 +38078,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -38310,10 +38356,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>979</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -38355,26 +38401,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>980</v>
+        <v>996</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>983</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>984</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>985</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -38400,26 +38446,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>988</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -38427,31 +38473,31 @@
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>992</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>994</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -38459,37 +38505,37 @@
         <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -38519,110 +38565,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1006</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -38658,16 +38704,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -38677,10 +38723,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -38690,10 +38736,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -38703,10 +38749,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -38716,10 +38762,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -38729,10 +38775,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -38742,10 +38788,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -38755,10 +38801,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -38768,10 +38814,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -38781,10 +38827,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -38794,10 +38840,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -38807,10 +38853,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -38820,10 +38866,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>1053</v>
+        <v>1069</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -38833,10 +38879,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -38846,10 +38892,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -38859,10 +38905,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -38872,10 +38918,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1062</v>
+        <v>1078</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -38885,10 +38931,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -38898,10 +38944,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -38911,10 +38957,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -38923,13 +38969,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -38939,13 +38985,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -38956,10 +39002,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -38970,10 +39016,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -38984,10 +39030,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -38998,10 +39044,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -39011,10 +39057,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -39024,10 +39070,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -39037,10 +39083,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -39049,13 +39095,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -39065,10 +39111,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -39078,13 +39124,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -39095,10 +39141,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -39109,10 +39155,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -39123,10 +39169,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -39135,7 +39181,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -39144,13 +39190,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -39160,13 +39206,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -39176,10 +39222,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -39189,10 +39235,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -39202,10 +39248,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -39215,10 +39261,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -39228,13 +39274,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -39244,10 +39290,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -39257,13 +39303,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -39273,10 +39319,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -39286,10 +39332,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -39299,10 +39345,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -39311,13 +39357,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -39327,13 +39373,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -39343,10 +39389,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -39356,10 +39402,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -39369,10 +39415,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -39382,10 +39428,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -39395,7 +39441,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -39405,10 +39451,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -39418,10 +39464,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -39431,10 +39477,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -39444,7 +39490,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>1146</v>
+        <v>1162</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -39454,7 +39500,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -39464,13 +39510,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -39480,7 +39526,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>1151</v>
+        <v>1167</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -39489,13 +39535,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -39505,13 +39551,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>1154</v>
+        <v>1170</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -39521,10 +39567,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -39534,10 +39580,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -39547,10 +39593,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>1161</v>
+        <v>1177</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1162</v>
+        <v>1178</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -39560,10 +39606,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>1163</v>
+        <v>1179</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -39573,10 +39619,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -39586,10 +39632,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -39599,10 +39645,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -39611,677 +39657,677 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="D100" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
-        <v>1242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" ht="76.5" spans="1:5">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1248</v>
+        <v>1263</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1251</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1263</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1265</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -40289,17 +40335,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -40307,37 +40353,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1290</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1291</v>
+        <v>1306</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -40345,51 +40391,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1297</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1298</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1300</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -40401,7 +40447,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -40409,28 +40455,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1302</v>
+        <v>1317</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1304</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1305</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1306</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -40651,10 +40697,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:C111"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B172" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -41923,7 +41969,7 @@
       <c r="A168" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="B168" s="42" t="s">
+      <c r="B168" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C168" s="79"/>
@@ -41967,223 +42013,325 @@
     </row>
     <row r="174" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A174" s="36"/>
-      <c r="B174" s="42" t="s">
+      <c r="B174" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C174" s="42"/>
     </row>
     <row r="175" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A175" s="36"/>
-      <c r="B175" s="42" t="s">
+      <c r="B175" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C175" s="42"/>
     </row>
     <row r="176" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A176" s="36"/>
-      <c r="B176" s="42" t="s">
+      <c r="B176" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="42"/>
     </row>
     <row r="177" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A177" s="36"/>
-      <c r="B177" s="42" t="s">
+      <c r="B177" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C177" s="42"/>
     </row>
     <row r="178" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A178" s="36"/>
-      <c r="B178" s="42" t="s">
+      <c r="B178" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C178" s="42"/>
     </row>
     <row r="179" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
-      <c r="B179" s="42" t="s">
+      <c r="B179" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C179" s="42"/>
     </row>
     <row r="180" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
-      <c r="B180" s="42" t="s">
+      <c r="B180" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C180" s="42"/>
     </row>
     <row r="181" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A181" s="36"/>
-      <c r="B181" s="42" t="s">
+      <c r="B181" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C181" s="42"/>
     </row>
     <row r="182" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A182" s="36"/>
-      <c r="B182" s="42" t="s">
+      <c r="B182" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C182" s="42"/>
     </row>
     <row r="183" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A183" s="36"/>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C183" s="42"/>
     </row>
     <row r="184" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A184" s="36"/>
-      <c r="B184" s="42" t="s">
+      <c r="B184" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C184" s="42"/>
     </row>
     <row r="185" s="78" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A185" s="36"/>
-      <c r="B185" s="42" t="s">
+      <c r="B185" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C185" s="42"/>
     </row>
     <row r="186" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A186" s="36"/>
-      <c r="B186" s="42" t="s">
+      <c r="B186" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C186" s="42"/>
     </row>
     <row r="187" s="78" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36"/>
-      <c r="B187" s="42" t="s">
+      <c r="B187" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C187" s="42"/>
     </row>
     <row r="188" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A188" s="36"/>
-      <c r="B188" s="42" t="s">
+      <c r="B188" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C188" s="42"/>
     </row>
     <row r="189" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A189" s="36"/>
-      <c r="B189" s="42" t="s">
+      <c r="B189" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C189" s="42"/>
     </row>
     <row r="190" s="78" customFormat="1" spans="1:3">
-      <c r="A190" s="36"/>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
-    </row>
-    <row r="191" s="78" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A191" s="36" t="s">
+      <c r="A190" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="B191" s="42" t="s">
+      <c r="B190" s="4"/>
+      <c r="C190" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C191" s="65" t="s">
+    </row>
+    <row r="191" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A191" s="36"/>
+      <c r="B191" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="192" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="C191" s="42"/>
+    </row>
+    <row r="192" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A192" s="36"/>
-      <c r="B192" s="42" t="s">
+      <c r="B192" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C192" s="65" t="s">
+      <c r="C192" s="42"/>
+    </row>
+    <row r="193" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A193" s="36"/>
+      <c r="B193" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="193" s="78" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A193" s="36"/>
-      <c r="B193" s="42" t="s">
+      <c r="C193" s="42"/>
+    </row>
+    <row r="194" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A194" s="36"/>
+      <c r="B194" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C193" s="42" t="s">
+      <c r="C194" s="42"/>
+    </row>
+    <row r="195" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A195" s="36"/>
+      <c r="B195" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="194" s="78" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A194" s="36"/>
-      <c r="B194" s="42" t="s">
+      <c r="C195" s="42"/>
+    </row>
+    <row r="196" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A196" s="36"/>
+      <c r="B196" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C194" s="65" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="195" s="78" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A195" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C195" s="65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="196" s="78" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A196" s="36"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="65" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="197" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C196" s="42"/>
+    </row>
+    <row r="197" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C197" s="65"/>
-    </row>
-    <row r="198" s="78" customFormat="1" ht="51" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="C197" s="42"/>
+    </row>
+    <row r="198" s="78" customFormat="1" ht="12.75" spans="1:3">
       <c r="A198" s="36"/>
-      <c r="B198" s="42" t="s">
-        <v>301</v>
+      <c r="B198" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C198" s="42"/>
     </row>
     <row r="199" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A199" s="36"/>
-      <c r="B199" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="C199" s="65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="200" s="78" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="B199" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" s="42"/>
+    </row>
+    <row r="200" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A200" s="36"/>
-      <c r="B200" s="42" t="s">
-        <v>304</v>
+      <c r="B200" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C200" s="42"/>
     </row>
-    <row r="201" s="78" customFormat="1" ht="12.75" spans="1:3">
+    <row r="201" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A201" s="36"/>
-      <c r="B201" s="42" t="s">
-        <v>305</v>
+      <c r="B201" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C201" s="42"/>
     </row>
     <row r="202" s="78" customFormat="1" ht="25.5" spans="1:3">
       <c r="A202" s="36"/>
-      <c r="B202" s="42" t="s">
+      <c r="B202" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C202" s="42"/>
+    </row>
+    <row r="203" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A203" s="36"/>
+      <c r="B203" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C203" s="42"/>
+    </row>
+    <row r="204" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A204" s="36"/>
+      <c r="B204" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" s="42"/>
+    </row>
+    <row r="205" s="78" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A205" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B205" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C205" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A206" s="36"/>
+      <c r="B206" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C202" s="42"/>
+      <c r="C206" s="65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A207" s="36"/>
+      <c r="B207" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C207" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="208" s="78" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A208" s="36"/>
+      <c r="B208" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208" s="65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A209" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C209" s="65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" s="78" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A210" s="36"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" s="78" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A211" s="36"/>
+      <c r="B211" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C211" s="65"/>
+    </row>
+    <row r="212" s="78" customFormat="1" ht="51" spans="1:3">
+      <c r="A212" s="36"/>
+      <c r="B212" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C212" s="42"/>
+    </row>
+    <row r="213" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A213" s="36"/>
+      <c r="B213" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C213" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" s="78" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A214" s="36"/>
+      <c r="B214" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C214" s="42"/>
+    </row>
+    <row r="215" s="78" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A215" s="36"/>
+      <c r="B215" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C215" s="42"/>
+    </row>
+    <row r="216" s="78" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A216" s="36"/>
+      <c r="B216" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C216" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="144">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -42315,8 +42463,9 @@
     <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A167"/>
     <mergeCell ref="A168:A189"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A190:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A216"/>
     <mergeCell ref="B120:B125"/>
     <mergeCell ref="B126:B131"/>
     <mergeCell ref="B132:B137"/>
@@ -42326,7 +42475,7 @@
     <mergeCell ref="B160:B163"/>
     <mergeCell ref="B164:B167"/>
     <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B209:B210"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A119:A167" r:id="rId2" display="Concurrency"/>
@@ -42358,157 +42507,157 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="54" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="54"/>
       <c r="B2" s="75" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="54"/>
       <c r="B3" s="75" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54"/>
       <c r="B4" s="75" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54"/>
       <c r="B5" s="75" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="54"/>
       <c r="B6" s="75" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:3">
       <c r="A8" s="54"/>
       <c r="B8" s="74" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" ht="114.75" spans="1:3">
       <c r="A9" s="54"/>
       <c r="C9" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="54"/>
       <c r="C10" s="6" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" ht="114.75" spans="1:3">
       <c r="A11" s="54"/>
       <c r="C11" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:3">
       <c r="A12" s="54"/>
       <c r="C12" s="6" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="54"/>
       <c r="C13" s="6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="54"/>
       <c r="B14" s="74" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C14" s="76"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="54"/>
       <c r="B15" s="74" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="54"/>
       <c r="B16" s="74" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:3">
       <c r="A17" s="54"/>
       <c r="B17" s="11" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="77" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="42" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:2">
       <c r="A19" s="54"/>
       <c r="B19" s="75" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:2">
       <c r="A20" s="54"/>
       <c r="B20" s="75" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:2">
       <c r="A21" s="54"/>
       <c r="B21" s="75" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:2">
       <c r="A22" s="54"/>
       <c r="B22" s="75" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:2">
       <c r="A23" s="54"/>
       <c r="B23" s="75" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:1">
@@ -42669,7 +42818,7 @@
   <sheetPr/>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C173" workbookViewId="0">
+    <sheetView topLeftCell="C155" workbookViewId="0">
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
@@ -42684,57 +42833,57 @@
   <sheetData>
     <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
     <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A5" s="113" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -42742,7 +42891,7 @@
     </row>
     <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -42758,147 +42907,141 @@
         <v>23</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
     <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
     <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
       <c r="K12" s="69" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
       <c r="B20" s="59" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D20" s="67"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
       <c r="B21" s="59" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D21" s="67"/>
     </row>
     <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
       <c r="B22" s="59" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D22" s="67"/>
     </row>
@@ -42914,13 +43057,13 @@
     </row>
     <row r="25" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D25" s="65"/>
     </row>
@@ -42928,79 +43071,79 @@
       <c r="A26" s="8"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A27" s="8"/>
       <c r="B27" s="68" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="68"/>
       <c r="C28" s="59" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" s="58" customFormat="1" ht="229.5" spans="1:4">
       <c r="A29" s="8"/>
       <c r="B29" s="68"/>
       <c r="C29" s="59" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A30" s="8"/>
       <c r="B30" s="68"/>
       <c r="C30" s="59" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A31" s="8"/>
       <c r="B31" s="68"/>
       <c r="C31" s="59" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A32" s="8"/>
       <c r="B32" s="68"/>
       <c r="C32" s="59" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A33" s="8"/>
       <c r="B33" s="68"/>
       <c r="C33" s="59" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -43008,17 +43151,17 @@
       <c r="A34" s="8"/>
       <c r="B34" s="68"/>
       <c r="C34" s="59" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A35" s="8"/>
       <c r="B35" s="68"/>
       <c r="C35" s="59" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D35" s="65"/>
     </row>
@@ -43026,16 +43169,16 @@
       <c r="A36" s="8"/>
       <c r="B36" s="68"/>
       <c r="C36" s="59" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" s="58" customFormat="1" ht="107.25" customHeight="1" spans="1:4">
       <c r="A37" s="8"/>
       <c r="B37" s="68" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D37" s="65"/>
     </row>
@@ -43043,20 +43186,20 @@
       <c r="A38" s="8"/>
       <c r="B38" s="68"/>
       <c r="C38" s="59" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A39" s="8"/>
       <c r="B39" s="68"/>
       <c r="C39" s="59" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43064,7 +43207,7 @@
       <c r="B40" s="68"/>
       <c r="C40" s="59"/>
       <c r="D40" s="65" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43072,7 +43215,7 @@
       <c r="B41" s="68"/>
       <c r="C41" s="59"/>
       <c r="D41" s="65" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
@@ -43080,7 +43223,7 @@
       <c r="B42" s="68"/>
       <c r="C42" s="59"/>
       <c r="D42" s="65" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" s="58" customFormat="1" ht="25.5" spans="1:4">
@@ -43088,7 +43231,7 @@
       <c r="B43" s="68"/>
       <c r="C43" s="59"/>
       <c r="D43" s="65" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -43096,7 +43239,7 @@
       <c r="B44" s="68"/>
       <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43104,17 +43247,17 @@
       <c r="B45" s="68"/>
       <c r="C45" s="59"/>
       <c r="D45" s="65" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A46" s="8"/>
       <c r="B46" s="68"/>
       <c r="C46" s="59" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
@@ -43122,7 +43265,7 @@
       <c r="B47" s="68"/>
       <c r="C47" s="59"/>
       <c r="D47" s="65" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43130,7 +43273,7 @@
       <c r="B48" s="68"/>
       <c r="C48" s="59"/>
       <c r="D48" s="65" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43138,7 +43281,7 @@
       <c r="B49" s="68"/>
       <c r="C49" s="59"/>
       <c r="D49" s="65" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43146,7 +43289,7 @@
       <c r="B50" s="68"/>
       <c r="C50" s="59"/>
       <c r="D50" s="65" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" s="58" customFormat="1" ht="165.75" spans="1:4">
@@ -43154,7 +43297,7 @@
       <c r="B51" s="68"/>
       <c r="C51" s="59"/>
       <c r="D51" s="65" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43162,7 +43305,7 @@
       <c r="B52" s="68"/>
       <c r="C52" s="59"/>
       <c r="D52" s="65" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" s="58" customFormat="1" ht="153" spans="1:4">
@@ -43170,7 +43313,7 @@
       <c r="B53" s="68"/>
       <c r="C53" s="59"/>
       <c r="D53" s="65" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43178,7 +43321,7 @@
       <c r="B54" s="68"/>
       <c r="C54" s="59"/>
       <c r="D54" s="65" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" s="58" customFormat="1" ht="140.25" spans="1:4">
@@ -43186,7 +43329,7 @@
       <c r="B55" s="68"/>
       <c r="C55" s="59"/>
       <c r="D55" s="65" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43194,7 +43337,7 @@
       <c r="B56" s="68"/>
       <c r="C56" s="59"/>
       <c r="D56" s="65" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43202,7 +43345,7 @@
       <c r="B57" s="68"/>
       <c r="C57" s="59"/>
       <c r="D57" s="65" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43210,7 +43353,7 @@
       <c r="B58" s="68"/>
       <c r="C58" s="59"/>
       <c r="D58" s="67" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" s="58" customFormat="1" ht="369.75" spans="1:4">
@@ -43218,7 +43361,7 @@
       <c r="B59" s="68"/>
       <c r="C59" s="59"/>
       <c r="D59" s="65" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" s="58" customFormat="1" ht="357" spans="1:4">
@@ -43226,7 +43369,7 @@
       <c r="B60" s="68"/>
       <c r="C60" s="59"/>
       <c r="D60" s="65" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -43234,7 +43377,7 @@
       <c r="B61" s="68"/>
       <c r="C61" s="59"/>
       <c r="D61" s="65" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43242,7 +43385,7 @@
       <c r="B62" s="68"/>
       <c r="C62" s="59"/>
       <c r="D62" s="65" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43250,7 +43393,7 @@
       <c r="B63" s="68"/>
       <c r="C63" s="59"/>
       <c r="D63" s="65" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43258,14 +43401,14 @@
       <c r="B64" s="68"/>
       <c r="C64" s="59"/>
       <c r="D64" s="65" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A65" s="8"/>
       <c r="B65" s="68"/>
       <c r="C65" s="59" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D65" s="65"/>
     </row>
@@ -43273,22 +43416,22 @@
       <c r="A66" s="8"/>
       <c r="B66" s="68"/>
       <c r="C66" s="59" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A67" s="8"/>
       <c r="B67" s="59" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" s="58" customFormat="1" ht="395.25" spans="1:4">
@@ -43296,7 +43439,7 @@
       <c r="B68" s="59"/>
       <c r="C68" s="68"/>
       <c r="D68" s="65" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" s="58" customFormat="1" ht="409.5" spans="1:4">
@@ -43304,7 +43447,7 @@
       <c r="B69" s="59"/>
       <c r="C69" s="68"/>
       <c r="D69" s="65" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43312,7 +43455,7 @@
       <c r="B70" s="59"/>
       <c r="C70" s="68"/>
       <c r="D70" s="65" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43320,7 +43463,7 @@
       <c r="B71" s="59"/>
       <c r="C71" s="68"/>
       <c r="D71" s="65" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43328,7 +43471,7 @@
       <c r="B72" s="59"/>
       <c r="C72" s="68"/>
       <c r="D72" s="65" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43336,7 +43479,7 @@
       <c r="B73" s="59"/>
       <c r="C73" s="68"/>
       <c r="D73" s="65" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43344,17 +43487,17 @@
       <c r="B74" s="59"/>
       <c r="C74" s="68"/>
       <c r="D74" s="65" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A75" s="8"/>
       <c r="B75" s="59"/>
       <c r="C75" s="29" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" s="58" customFormat="1" ht="25.5" spans="1:4">
@@ -43362,7 +43505,7 @@
       <c r="B76" s="59"/>
       <c r="C76" s="29"/>
       <c r="D76" s="65" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43370,7 +43513,7 @@
       <c r="B77" s="59"/>
       <c r="C77" s="29"/>
       <c r="D77" s="65" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43378,7 +43521,7 @@
       <c r="B78" s="59"/>
       <c r="C78" s="29"/>
       <c r="D78" s="65" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43386,14 +43529,14 @@
       <c r="B79" s="59"/>
       <c r="C79" s="29"/>
       <c r="D79" s="65" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D80" s="65"/>
     </row>
@@ -43401,10 +43544,10 @@
       <c r="A81" s="8"/>
       <c r="B81" s="59"/>
       <c r="C81" s="68" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D81" s="67" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43412,7 +43555,7 @@
       <c r="B82" s="59"/>
       <c r="C82" s="68"/>
       <c r="D82" s="65" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43420,7 +43563,7 @@
       <c r="B83" s="59"/>
       <c r="C83" s="68"/>
       <c r="D83" s="65" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43428,17 +43571,17 @@
       <c r="B84" s="59"/>
       <c r="C84" s="68"/>
       <c r="D84" s="65" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A85" s="8"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43446,7 +43589,7 @@
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="65" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43454,7 +43597,7 @@
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="65" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43462,7 +43605,7 @@
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="65" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43470,7 +43613,7 @@
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="65" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -43478,17 +43621,17 @@
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="65" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43496,7 +43639,7 @@
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="65" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43504,7 +43647,7 @@
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="65" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43512,7 +43655,7 @@
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="65" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43520,7 +43663,7 @@
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="65" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43528,7 +43671,7 @@
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="65" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43536,7 +43679,7 @@
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="65" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43544,7 +43687,7 @@
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="65" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -43552,7 +43695,7 @@
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="65" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43560,7 +43703,7 @@
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="65" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" s="58" customFormat="1" ht="153" spans="1:4">
@@ -43568,7 +43711,7 @@
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="65" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -43576,27 +43719,27 @@
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="65" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A103" s="8"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A104" s="8"/>
       <c r="B104" s="59"/>
       <c r="C104" s="29" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" s="58" customFormat="1" ht="165.75" spans="1:4">
@@ -43604,7 +43747,7 @@
       <c r="B105" s="59"/>
       <c r="C105" s="29"/>
       <c r="D105" s="67" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" s="58" customFormat="1" ht="102" spans="1:4">
@@ -43612,7 +43755,7 @@
       <c r="B106" s="59"/>
       <c r="C106" s="29"/>
       <c r="D106" s="67" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" s="58" customFormat="1" ht="51" spans="1:4">
@@ -43620,49 +43763,49 @@
       <c r="B107" s="59"/>
       <c r="C107" s="29"/>
       <c r="D107" s="67" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A108" s="8"/>
       <c r="B108" s="59"/>
       <c r="C108" s="68" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A109" s="8"/>
       <c r="B109" s="70" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A110" s="8"/>
       <c r="B110" s="70"/>
       <c r="C110" s="59" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" s="58" customFormat="1" ht="306" spans="1:4">
       <c r="A111" s="8"/>
       <c r="B111" s="70"/>
       <c r="C111" s="59" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D111" s="67" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" s="58" customFormat="1" ht="229.5" spans="1:4">
@@ -43670,27 +43813,27 @@
       <c r="B112" s="70"/>
       <c r="C112" s="59"/>
       <c r="D112" s="67" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" s="58" customFormat="1" ht="242.25" spans="1:4">
       <c r="A113" s="8"/>
       <c r="B113" s="70"/>
       <c r="C113" s="59" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="D113" s="67" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" s="58" customFormat="1" ht="216.75" spans="1:4">
       <c r="A114" s="8"/>
       <c r="B114" s="70"/>
       <c r="C114" s="59" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="D114" s="67" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="115" s="58" customFormat="1" ht="369.75" spans="1:4">
@@ -43698,47 +43841,47 @@
       <c r="B115" s="70"/>
       <c r="C115" s="59"/>
       <c r="D115" s="67" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" s="58" customFormat="1" ht="382.5" spans="1:4">
       <c r="A116" s="8"/>
       <c r="B116" s="70"/>
       <c r="C116" s="59" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D116" s="67" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" s="58" customFormat="1" ht="255" spans="1:4">
       <c r="A117" s="8"/>
       <c r="B117" s="71"/>
       <c r="C117" s="59" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" s="58" customFormat="1" ht="165.75" spans="1:4">
       <c r="A118" s="8"/>
       <c r="B118" s="71"/>
       <c r="C118" s="59" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="D118" s="65" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" s="58" customFormat="1" ht="89.25" spans="1:4">
       <c r="A119" s="8"/>
       <c r="B119" s="71"/>
       <c r="C119" s="59" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="D119" s="65" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -43746,26 +43889,26 @@
       <c r="B120" s="71"/>
       <c r="C120" s="59"/>
       <c r="D120" s="65" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A121" s="8"/>
       <c r="B121" s="71"/>
       <c r="C121" s="59" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" s="58" customFormat="1" ht="274.5" customHeight="1" spans="1:4">
       <c r="A122" s="8"/>
       <c r="B122" s="59" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C122" s="65" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D122" s="65"/>
     </row>
@@ -43773,17 +43916,17 @@
       <c r="A123" s="8"/>
       <c r="B123" s="59"/>
       <c r="C123" s="65" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="D123" s="65"/>
     </row>
     <row r="124" s="58" customFormat="1" ht="391.5" customHeight="1" spans="1:4">
       <c r="A124" s="8"/>
       <c r="B124" s="59" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C124" s="65" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D124" s="65"/>
     </row>
@@ -43791,91 +43934,91 @@
       <c r="A125" s="8"/>
       <c r="B125" s="59"/>
       <c r="C125" s="65" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D125" s="65"/>
     </row>
     <row r="126" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A126" s="72" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="B126" s="59" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C126" s="65" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="D126" s="65"/>
     </row>
     <row r="127" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A127" s="8"/>
       <c r="B127" s="59" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A128" s="8"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A129" s="8"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D129" s="65" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="130" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A130" s="8"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="D130" s="65" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A131" s="8"/>
       <c r="B131" s="59" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A132" s="8"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="D132" s="65" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A133" s="8"/>
       <c r="B133" s="59"/>
       <c r="C133" s="65" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="D133" s="65"/>
     </row>
@@ -43883,7 +44026,7 @@
       <c r="A134" s="8"/>
       <c r="B134" s="59"/>
       <c r="C134" s="65" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="D134" s="65"/>
     </row>
@@ -43891,7 +44034,7 @@
       <c r="A135" s="8"/>
       <c r="B135" s="59"/>
       <c r="C135" s="65" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="D135" s="65"/>
     </row>
@@ -43899,17 +44042,17 @@
       <c r="A136" s="8"/>
       <c r="B136" s="59"/>
       <c r="C136" s="65" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="D136" s="65"/>
     </row>
     <row r="137" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A137" s="8"/>
       <c r="B137" s="59" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C137" s="65" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D137" s="65"/>
     </row>
@@ -43917,7 +44060,7 @@
       <c r="A138" s="8"/>
       <c r="B138" s="59"/>
       <c r="C138" s="65" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="D138" s="65"/>
     </row>
@@ -43925,14 +44068,14 @@
       <c r="A139" s="8"/>
       <c r="B139" s="59"/>
       <c r="C139" s="65" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="D139" s="65"/>
     </row>
     <row r="140" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A140" s="8"/>
       <c r="B140" s="59" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C140" s="65"/>
       <c r="D140" s="65"/>
@@ -43942,96 +44085,96 @@
         <v>23</v>
       </c>
       <c r="B141" s="59" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="C141" s="59" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="D141" s="67" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A142" s="57"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="D142" s="65" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" s="58" customFormat="1" ht="293.25" spans="1:4">
       <c r="A143" s="57"/>
       <c r="B143" s="59" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C143" s="59" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A144" s="57"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A145" s="57"/>
       <c r="B145" s="59" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="C145" s="59" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A146" s="57"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A147" s="57"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A148" s="57"/>
       <c r="B148" s="59" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A149" s="57"/>
       <c r="B149" s="59"/>
       <c r="C149" s="67" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="D149" s="65"/>
     </row>
@@ -44039,7 +44182,7 @@
       <c r="A150" s="57"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="D150" s="65"/>
     </row>
@@ -44047,7 +44190,7 @@
       <c r="A151" s="57"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D151" s="65"/>
     </row>
@@ -44055,39 +44198,39 @@
       <c r="A152" s="57"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="D152" s="65"/>
     </row>
     <row r="153" s="58" customFormat="1" ht="127.5" spans="1:4">
       <c r="A153" s="57"/>
       <c r="B153" s="59" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C153" s="59" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A154" s="57"/>
       <c r="B154" s="59" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="C154" s="59" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="D154" s="65" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A155" s="57"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="D155" s="65"/>
     </row>
@@ -44095,17 +44238,17 @@
       <c r="A156" s="57"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="D156" s="65"/>
     </row>
     <row r="157" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A157" s="57"/>
       <c r="B157" s="59" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="C157" s="65" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D157" s="65"/>
     </row>
@@ -44113,30 +44256,30 @@
       <c r="A158" s="57"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="D158" s="65" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="159" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A159" s="57"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="D159" s="65" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="160" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A160" s="57"/>
       <c r="B160" s="59"/>
       <c r="C160" s="59" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="161" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -44144,58 +44287,58 @@
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
       <c r="D161" s="65" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A162" s="57"/>
       <c r="B162" s="59" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C162" s="59" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="D162" s="65" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="163" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A163" s="57"/>
       <c r="B163" s="59"/>
       <c r="C163" s="59" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="D163" s="65" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A164" s="57"/>
       <c r="B164" s="59"/>
       <c r="C164" s="59" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="D164" s="65" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A165" s="57"/>
       <c r="B165" s="59"/>
       <c r="C165" s="59" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="166" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A166" s="57"/>
       <c r="B166" s="59" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C166" s="59" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="D166" s="65"/>
     </row>
@@ -44203,47 +44346,47 @@
       <c r="A167" s="57"/>
       <c r="B167" s="59"/>
       <c r="C167" s="59" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="D167" s="65"/>
     </row>
     <row r="168" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A168" s="57"/>
       <c r="B168" s="59" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C168" s="59" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="D168" s="65" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A169" s="57"/>
       <c r="B169" s="59"/>
       <c r="C169" s="59" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A170" s="57"/>
       <c r="B170" s="59"/>
       <c r="C170" s="59" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="D170" s="65" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="171" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A171" s="57"/>
       <c r="B171" s="59"/>
       <c r="C171" s="59" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D171" s="65"/>
     </row>
@@ -44251,17 +44394,17 @@
       <c r="A172" s="57"/>
       <c r="B172" s="59"/>
       <c r="C172" s="59" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="D172" s="65"/>
     </row>
     <row r="173" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A173" s="57"/>
       <c r="B173" s="59" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C173" s="59" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D173" s="65"/>
     </row>
@@ -44269,17 +44412,17 @@
       <c r="A174" s="57"/>
       <c r="B174" s="59"/>
       <c r="C174" s="59" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="D174" s="65"/>
     </row>
     <row r="175" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A175" s="57"/>
       <c r="B175" s="59" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C175" s="59" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D175" s="65"/>
     </row>
@@ -44287,27 +44430,27 @@
       <c r="A176" s="57"/>
       <c r="B176" s="59"/>
       <c r="C176" s="59" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D176" s="65"/>
     </row>
     <row r="177" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A177" s="57"/>
       <c r="B177" s="59" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C177" s="59" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="D177" s="65"/>
     </row>
     <row r="178" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A178" s="57"/>
       <c r="B178" s="59" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="D178" s="65"/>
     </row>
@@ -44315,7 +44458,7 @@
       <c r="A179" s="57"/>
       <c r="B179" s="59"/>
       <c r="C179" s="59" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D179" s="65"/>
     </row>
@@ -44323,17 +44466,17 @@
       <c r="A180" s="57"/>
       <c r="B180" s="59"/>
       <c r="C180" s="59" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="D180" s="65"/>
     </row>
     <row r="181" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A181" s="57"/>
       <c r="B181" s="59" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C181" s="59" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D181" s="65"/>
     </row>
@@ -44341,7 +44484,7 @@
       <c r="A182" s="57"/>
       <c r="B182" s="59"/>
       <c r="C182" s="59" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="D182" s="65"/>
     </row>
@@ -44349,14 +44492,14 @@
       <c r="A183" s="57"/>
       <c r="B183" s="59"/>
       <c r="C183" s="59" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D183" s="65"/>
     </row>
     <row r="184" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A184" s="57"/>
       <c r="B184" s="59" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="C184" s="59"/>
       <c r="D184" s="65"/>
@@ -44368,16 +44511,16 @@
     </row>
     <row r="186" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A186" s="54" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="B186" s="59" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="C186" s="59" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="D186" s="65" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="187" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -44385,7 +44528,7 @@
       <c r="B187" s="59"/>
       <c r="C187" s="59"/>
       <c r="D187" s="65" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
     </row>
     <row r="188" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -44393,7 +44536,7 @@
       <c r="B188" s="59"/>
       <c r="C188" s="59"/>
       <c r="D188" s="65" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="189" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -44401,17 +44544,17 @@
       <c r="B189" s="59"/>
       <c r="C189" s="59"/>
       <c r="D189" s="65" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="190" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A190" s="54"/>
       <c r="B190" s="59"/>
       <c r="C190" s="29" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="D190" s="65" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="191" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -44419,7 +44562,7 @@
       <c r="B191" s="59"/>
       <c r="C191" s="29"/>
       <c r="D191" s="65" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="192" s="58" customFormat="1" ht="76.5" spans="1:4">
@@ -44427,7 +44570,7 @@
       <c r="B192" s="59"/>
       <c r="C192" s="29"/>
       <c r="D192" s="65" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -44435,17 +44578,17 @@
       <c r="B193" s="59"/>
       <c r="C193" s="29"/>
       <c r="D193" s="65" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A194" s="54"/>
       <c r="B194" s="59"/>
       <c r="C194" s="59" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D194" s="65" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="195" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -44457,7 +44600,7 @@
     <row r="196" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A196" s="54"/>
       <c r="B196" s="59" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="C196" s="59"/>
       <c r="D196" s="65"/>
@@ -44592,120 +44735,120 @@
   <sheetData>
     <row r="1" ht="96" spans="1:5">
       <c r="A1" s="54" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" ht="96" spans="1:5">
       <c r="A2" s="54" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="120" spans="1:5">
       <c r="A3" s="54" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="72" spans="1:5">
       <c r="A4" s="54" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="48" spans="1:5">
       <c r="A6" s="54" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="72" spans="1:5">
       <c r="A7" s="55" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="48" spans="1:5">
       <c r="A8" s="54" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="120" spans="1:5">
       <c r="A9" s="54" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="54" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="48" spans="1:5">
       <c r="A11" s="54" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="48" spans="1:5">
       <c r="A12" s="54" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="26"/>
@@ -44713,68 +44856,68 @@
     </row>
     <row r="13" ht="48" spans="1:5">
       <c r="A13" s="54" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="48" spans="1:5">
       <c r="A14" s="54" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="16" ht="96.95" customHeight="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" ht="132.95" customHeight="1" spans="2:4">
       <c r="B17" s="19" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="42" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="42" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -44786,24 +44929,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="42" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="3:4">
       <c r="C23" s="19" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:4">
       <c r="A28" s="57" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -44811,49 +44954,49 @@
       <c r="A29" s="57"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:2">
       <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
       <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:2">
       <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:2">
       <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
       <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
       <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -44867,7 +45010,7 @@
     </row>
     <row r="40" ht="72" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -44879,7 +45022,7 @@
     </row>
     <row r="43" ht="48" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="B43" s="4"/>
     </row>
@@ -44891,7 +45034,7 @@
     </row>
     <row r="46" ht="48" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="B46" s="4"/>
     </row>
@@ -44903,7 +45046,7 @@
     </row>
     <row r="49" ht="72" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="B49" s="4"/>
     </row>
@@ -44963,97 +45106,97 @@
   <sheetData>
     <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="B8" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="B10" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
       <c r="A12" s="52" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
       <c r="A13" s="52"/>
       <c r="B13" s="6" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
       <c r="A20" s="53" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -45070,7 +45213,7 @@
     <row r="22" ht="63.75" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
@@ -45111,462 +45254,462 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="B13" s="35"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="25" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="25" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="25" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="33" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="25" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="25" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
       <c r="A30" s="41" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="26" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="33" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="25" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="25" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="25" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="25" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="33" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="25" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="25" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="41" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="33" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="25" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="43" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="43" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="43" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="44" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="33" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="33" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="25" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="33" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="33" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="43" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="25" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="43" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="43" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="34" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="B63" s="35"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="33" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="25" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="C65" s="46"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="36" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="C66" s="46"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="33" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="C67" s="46"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="33" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
       <c r="B69" s="48" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
       <c r="B70" s="48" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
       <c r="B71" s="48" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -45574,296 +45717,296 @@
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="36" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="36"/>
       <c r="B74" s="47" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="36"/>
       <c r="B75" s="47" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="33" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="25" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="25" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="33" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
       <c r="A81" s="36" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="36"/>
       <c r="B82" s="49" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
       <c r="A83" s="36"/>
       <c r="B83" s="43" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
       <c r="A84" s="36"/>
       <c r="B84" s="43" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="33" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="43" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="25" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="33" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="43" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
       <c r="B90" s="50" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="25" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="25" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="25" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="34" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="B95" s="35"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
       <c r="A96" s="36" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
       <c r="B98" s="47" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="25" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="33" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="43" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="43" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="43" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="43" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
       <c r="B105" s="50" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="33" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="33" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="43" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
       <c r="A109" s="36" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
       <c r="A110" s="36"/>
       <c r="B110" s="43" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
       <c r="A111" s="36" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
       <c r="A112" s="36"/>
       <c r="B112" s="25" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
       <c r="A113" s="36"/>
       <c r="B113" s="25" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="36"/>
       <c r="B114" s="25" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
       <c r="A115" s="36"/>
       <c r="B115" s="25" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
       <c r="A116" s="36"/>
       <c r="B116" s="25" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
       <c r="A117" s="36"/>
       <c r="B117" s="25" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
       <c r="A118" s="36"/>
       <c r="B118" s="24" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
       <c r="A119" s="36"/>
       <c r="B119" s="25" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
       <c r="A120" s="36"/>
       <c r="B120" s="24" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
       <c r="A121" s="36"/>
       <c r="B121" s="24" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
       <c r="A122" s="36"/>
       <c r="B122" s="24" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1154">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -4539,13 +4539,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> - In most practical multithreaded applications, two or more threads need to share access to the same data. What happens if two threads have access to the same object and each calls a method that modiﬁes the state of the object?
  - As you might imagine, the threads can </t>
     </r>
@@ -6520,41 +6513,45 @@
     </r>
   </si>
   <si>
-    <t>JAVA Concurrency</t>
-  </si>
-  <si>
-    <t>History of Concurrency</t>
-  </si>
-  <si>
-    <t>Benefits of Threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  Threads can reduce development and maintenance costs and improve the performance of complex  applications.
- - Threads are useful in GUI applications for improving the responsiveness of the user interface, and in server applications for improving resource utilization and throughput.
- -  They also simplify the implementation of the JVM ‐ the garbage  collector usually runs in one or more dedicated threads.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exploiting Multiple Processors:
- - Since the</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> basic unit of scheduling is the thread</t>
+    <t>Stream</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stream, you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you want to have done</t>
     </r>
     <r>
       <rPr>
@@ -6568,99 +6565,112 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a program with only one thread can run on at most one processor at a  time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. On a two‐processor system, a single‐threaded program is giving up access to half the available CPU resources; on a  100‐processor system, it is giving up access to 99%. On the other hand, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>programs with multiple active threads can  execute simultaneously on multiple processors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When properly designed, multithreaded programs can </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>improve  throughput by utilizing available processor resources more effectively</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 
- - Using multiple threads can also help achieve</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> better throughput on single‐processor systems</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.  If a program is single threaded, the processor remains idle while it</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> waits for a synchronous I/O operation to complete</t>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to do it.
+ - Set up a pipeline of operations in three stages:
+  + Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intermediate operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for transforming the initial stream into others, possibly in multiple steps.
+  + Apply a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>terminal operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to produce a result. This operation forces the execution of the lazy operations that precede it.</t>
+    </r>
+  </si>
+  <si>
+    <t>From Iterating to Stream Operations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Streams follow the “what, not how” principle
+ - A stream does </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not store its elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They may be stored in an underlying collection or generated on demand.
+ - Stream operations </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>don't mutate their source</t>
     </r>
     <r>
       <rPr>
@@ -6671,39 +6681,77 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
- - In a multithreaded program, another thread can still run while the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>first thread is waiting for the I/O to complete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, allowing the application to  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>still make progress during the blocking I/O</t>
+ - Stream operations are </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when possible. This means they are not executed until their result is needed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stream Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Don't modify the collection backing a stream while carrying out a stream operation.
+ - Remember that streams don’t collect their data—the data is always in a separate collection. Ifyou modify that collection, the outcome of the stream operations becomes undefined.</t>
+  </si>
+  <si>
+    <t>The filter, map, and flatMap Methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - A stream transformation produces a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream whose elements are derived from those of another stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - map: method transforms each element of the stream by applying a given function and produces a new stream of the transformed elements.
+ - flatMap: transforms each element of the stream into another stream (or collection) and then flattens these multiple streams into a single stream. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This means that instead of returning a stream of streams, it returns a single continuous stream of elements</t>
     </r>
     <r>
       <rPr>
@@ -6715,124 +6763,32 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Simplicity of Modeling:
- -  A program that processes one type of task </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sequentially</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(tuần tự) is simpler to write, less error prone, and easier to test than one managing multiple different types of tasks at once.</t>
-    </r>
-  </si>
-  <si>
-    <t>Simplified Handling of Asynchronous Events :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More Responsive User Interfaces:</t>
-  </si>
-  <si>
-    <t>Risks of Threads</t>
-  </si>
-  <si>
-    <t>Thread Safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composing Objects </t>
-  </si>
-  <si>
-    <t>Building Blocks</t>
-  </si>
-  <si>
-    <t>Task Execution</t>
-  </si>
-  <si>
-    <t>Cancellation and Shutdown</t>
-  </si>
-  <si>
-    <t>Applying Thread Pools</t>
-  </si>
-  <si>
-    <t>GUI Applications</t>
-  </si>
-  <si>
-    <t>Avoiding Liveness Hazrds</t>
-  </si>
-  <si>
-    <t>Performance and Scalability</t>
-  </si>
-  <si>
-    <t>Testing Concurrent Programs</t>
-  </si>
-  <si>
-    <t>Explicit Locks</t>
-  </si>
-  <si>
-    <t>Building Custom Synchronizers</t>
-  </si>
-  <si>
-    <t>Atomic Variables and Nonblocking Synchronization</t>
-  </si>
-  <si>
-    <t>Java Memory Model</t>
-  </si>
-  <si>
-    <t>Annotations for Concurrency</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>Stream, you specify what you want to have done, not how to do it.</t>
-  </si>
-  <si>
-    <t>From Iterating to Stream Operations</t>
-  </si>
-  <si>
-    <t>Stream Creation</t>
-  </si>
-  <si>
-    <t>The filter, map, and flatMap Methods</t>
   </si>
   <si>
     <t>Extracting Substreams and Combining
 Streams</t>
   </si>
   <si>
+    <t xml:space="preserve"> - The call stream.limit(n) returns a new stream that ends after n elements (or when the original stream ends if it is shorter)
+ - The call stream.skip(n) does the exact opposite. It discards the first n elements.</t>
+  </si>
+  <si>
     <t>Other Stream Transformations</t>
   </si>
   <si>
+    <t xml:space="preserve"> - The peek() method lets you execute a side effect for each element in the stream as it flows through the pipeline. It is an intermediate operation, meaning it returns a new stream but does not consume the elements itself.
+ - returns the same stream, it is typically used for performing side actions like logging or debugging rather than modifying the stream content.</t>
+  </si>
+  <si>
     <t>Simple Reductions</t>
   </si>
   <si>
     <t>The Optional Type</t>
   </si>
   <si>
+    <t xml:space="preserve"> - An Optional&lt;T&gt; object is a wrapper for either an object of type T or no object. In the former case, we say that the value is present. The Optional&lt;T&gt; type is intended as a safer alternative for a reference of type T that either refers to an object or is null.</t>
+  </si>
+  <si>
     <t>Collecting Results</t>
   </si>
   <si>
@@ -6852,6 +6808,145 @@
   </si>
   <si>
     <t>Parallel Streams</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - The parallel method converts any sequential stream into a parallel one.
+ - When the terminal method executes, all intermediate stream operations will be parallelized.
+ - Parallel Streams in Java allow developers to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process data in parallel by utilizing multiple threads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The primary goal of parallel streams is to improve performance by distributing tasks across multiple cores, leveraging multi-core processors.
+ - A parallel stream is simply a stream that splits the processing of its elements into multiple threads, enabling concurrent execution. The operations are executed in parallel, making use of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fork/Join framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> introduced in Java 7, which allows splitting a task into subtasks recursively.
+ - Parallel streams </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>divide the task into multiple sub-tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Each sub-task operates on a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portion of the data independently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and once processed, the results are combined. This </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>splitting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are managed by the Fork/Join pool (default thread pool used by parallel streams):
+  + Splitting: The data is split into chunks by an internal Spliterator.
+  + Processing: Each chunk is processed concurrently in a separate thread.
+  + Merging: After processing, the results are combined into the final output.
+</t>
+    </r>
   </si>
   <si>
     <t>Input/Output 
@@ -7445,6 +7540,291 @@
   </si>
   <si>
     <t>Regular Expressions</t>
+  </si>
+  <si>
+    <t>JAVA Concurrency</t>
+  </si>
+  <si>
+    <t>History of Concurrency</t>
+  </si>
+  <si>
+    <t>Benefits of Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Threads can reduce development and maintenance costs and improve the performance of complex  applications.
+ - Threads are useful in GUI applications for improving the responsiveness of the user interface, and in server applications for improving resource utilization and throughput.
+ -  They also simplify the implementation of the JVM ‐ the garbage  collector usually runs in one or more dedicated threads.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploiting Multiple Processors:
+ - Since the</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> basic unit of scheduling is the thread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a program with only one thread can run on at most one processor at a  time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. On a two‐processor system, a single‐threaded program is giving up access to half the available CPU resources; on a  100‐processor system, it is giving up access to 99%. On the other hand, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>programs with multiple active threads can  execute simultaneously on multiple processors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When properly designed, multithreaded programs can </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improve  throughput by utilizing available processor resources more effectively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+ - Using multiple threads can also help achieve</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> better throughput on single‐processor systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  If a program is single threaded, the processor remains idle while it</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> waits for a synchronous I/O operation to complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - In a multithreaded program, another thread can still run while the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first thread is waiting for the I/O to complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, allowing the application to  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>still make progress during the blocking I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simplicity of Modeling:
+ -  A program that processes one type of task </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequentially</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(tuần tự) is simpler to write, less error prone, and easier to test than one managing multiple different types of tasks at once.</t>
+    </r>
+  </si>
+  <si>
+    <t>Simplified Handling of Asynchronous Events :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> More Responsive User Interfaces:</t>
+  </si>
+  <si>
+    <t>Risks of Threads</t>
+  </si>
+  <si>
+    <t>Thread Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composing Objects </t>
+  </si>
+  <si>
+    <t>Building Blocks</t>
+  </si>
+  <si>
+    <t>Task Execution</t>
+  </si>
+  <si>
+    <t>Cancellation and Shutdown</t>
+  </si>
+  <si>
+    <t>Applying Thread Pools</t>
+  </si>
+  <si>
+    <t>GUI Applications</t>
+  </si>
+  <si>
+    <t>Avoiding Liveness Hazrds</t>
+  </si>
+  <si>
+    <t>Performance and Scalability</t>
+  </si>
+  <si>
+    <t>Testing Concurrent Programs</t>
+  </si>
+  <si>
+    <t>Explicit Locks</t>
+  </si>
+  <si>
+    <t>Building Custom Synchronizers</t>
+  </si>
+  <si>
+    <t>Atomic Variables and Nonblocking Synchronization</t>
+  </si>
+  <si>
+    <t>Java Memory Model</t>
+  </si>
+  <si>
+    <t>Annotations for Concurrency</t>
   </si>
   <si>
     <t>Fundamental Data Structures</t>
@@ -29176,17 +29556,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29199,11 +29578,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29215,11 +29601,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29233,14 +29626,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29254,23 +29656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29283,16 +29670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29410,7 +29790,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29422,19 +29832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29446,7 +29844,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29464,7 +29916,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29476,109 +29958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29673,6 +30053,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -29705,17 +30096,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -29725,138 +30105,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29864,7 +30244,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -30142,6 +30522,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31166,7 +31549,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="102" t="s">
         <v>1</v>
       </c>
     </row>
@@ -31177,7 +31560,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31185,10 +31568,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31199,7 +31582,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31221,7 +31604,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="103" t="s">
         <v>11</v>
       </c>
     </row>
@@ -31232,7 +31615,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>13</v>
       </c>
     </row>
@@ -31243,7 +31626,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -31254,7 +31637,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -31303,7 +31686,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -31333,7 +31716,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="100" t="s">
         <v>37</v>
       </c>
     </row>
@@ -31341,7 +31724,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="100" t="s">
         <v>39</v>
       </c>
     </row>
@@ -31372,276 +31755,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31650,10 +32033,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -31695,26 +32078,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -31740,26 +32123,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -31767,31 +32150,31 @@
         <v>188</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31799,37 +32182,37 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -31859,110 +32242,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -31998,16 +32381,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -32017,10 +32400,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -32030,10 +32413,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -32043,10 +32426,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -32056,10 +32439,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -32069,10 +32452,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -32082,10 +32465,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -32095,10 +32478,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -32108,10 +32491,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -32121,10 +32504,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -32134,10 +32517,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -32147,10 +32530,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -32160,10 +32543,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -32173,10 +32556,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -32186,10 +32569,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -32199,10 +32582,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -32212,10 +32595,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -32225,10 +32608,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -32238,10 +32621,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -32251,10 +32634,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -32263,13 +32646,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -32279,13 +32662,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -32296,10 +32679,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -32310,10 +32693,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -32324,10 +32707,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -32338,10 +32721,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -32351,10 +32734,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -32364,10 +32747,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -32377,10 +32760,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -32389,13 +32772,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -32405,10 +32788,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -32418,13 +32801,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -32435,10 +32818,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -32449,10 +32832,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -32463,10 +32846,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -32475,7 +32858,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -32484,13 +32867,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -32500,13 +32883,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -32516,10 +32899,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -32529,10 +32912,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -32542,10 +32925,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -32555,10 +32938,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -32568,13 +32951,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -32584,10 +32967,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -32597,13 +32980,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -32613,10 +32996,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -32626,10 +33009,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -32639,10 +33022,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -32651,13 +33034,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -32667,13 +33050,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -32683,10 +33066,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -32696,10 +33079,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -32709,10 +33092,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -32722,10 +33105,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -32735,7 +33118,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -32745,10 +33128,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -32758,10 +33141,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -32771,10 +33154,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -32784,7 +33167,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -32794,7 +33177,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -32804,13 +33187,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -32820,7 +33203,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -32829,13 +33212,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -32845,13 +33228,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -32861,10 +33244,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -32874,10 +33257,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -32887,10 +33270,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -32900,10 +33283,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -32913,10 +33296,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -32926,10 +33309,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -32939,10 +33322,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -32951,677 +33334,677 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="D100" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" ht="76.5" spans="1:5">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -33629,17 +34012,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -33647,37 +34030,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -33685,51 +34068,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -33741,7 +34124,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -33749,28 +34132,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -33888,8 +34271,8 @@
   <sheetPr/>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B172" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -33922,7 +34305,7 @@
       <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="42"/>
@@ -33931,7 +34314,7 @@
       <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="76"/>
@@ -33940,7 +34323,7 @@
       <c r="A5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="42"/>
@@ -33949,7 +34332,7 @@
       <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="42"/>
@@ -33967,10 +34350,10 @@
       <c r="C8" s="42"/>
     </row>
     <row r="9" s="74" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="42"/>
@@ -34939,7 +35322,7 @@
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="75" t="s">
+      <c r="C138" s="99" t="s">
         <v>213</v>
       </c>
     </row>
@@ -35154,368 +35537,384 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="168" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="4"/>
+      <c r="C168" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="C168" s="75"/>
-    </row>
-    <row r="169" s="74" customFormat="1" ht="38.25" spans="1:3">
+    </row>
+    <row r="169" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C169" s="65" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="170" s="74" customFormat="1" ht="76.5" spans="1:3">
+    <row r="170" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A170" s="36"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="65" t="s">
+      <c r="B170" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="171" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="C170" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A171" s="36"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="75" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="172" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="B171" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C171" s="65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A172" s="36"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="75" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="173" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="B172" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A173" s="36"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="75" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="174" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="B173" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C174" s="42"/>
-    </row>
-    <row r="175" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C175" s="42"/>
-    </row>
-    <row r="176" s="74" customFormat="1" ht="25.5" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="C175" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="176" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="177" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="178" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C178" s="42"/>
     </row>
     <row r="179" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C179" s="42"/>
     </row>
     <row r="180" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="181" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="182" s="74" customFormat="1" ht="153" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C182" s="42"/>
-    </row>
-    <row r="183" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A183" s="36"/>
-      <c r="B183" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C183" s="42"/>
-    </row>
-    <row r="184" s="74" customFormat="1" ht="25.5" spans="1:3">
+        <v>268</v>
+      </c>
+      <c r="C182" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" s="74" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A183" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B183" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C183" s="65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A184" s="36"/>
-      <c r="B184" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C184" s="42"/>
-    </row>
-    <row r="185" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="B184" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C184" s="65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A185" s="36"/>
-      <c r="B185" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C185" s="42"/>
-    </row>
-    <row r="186" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B185" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C185" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="186" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A186" s="36"/>
-      <c r="B186" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C186" s="42"/>
+      <c r="B186" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C186" s="65" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="187" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A187" s="36"/>
+      <c r="A187" s="36" t="s">
+        <v>279</v>
+      </c>
       <c r="B187" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C187" s="42"/>
-    </row>
-    <row r="188" s="74" customFormat="1" ht="25.5" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="C187" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A188" s="36"/>
-      <c r="B188" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C188" s="42"/>
-    </row>
-    <row r="189" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B188" s="4"/>
+      <c r="C188" s="65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C189" s="42"/>
-    </row>
-    <row r="190" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A190" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="42" t="s">
-        <v>272</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C189" s="65"/>
+    </row>
+    <row r="190" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A190" s="36"/>
+      <c r="B190" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C190" s="42"/>
     </row>
     <row r="191" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A191" s="36"/>
-      <c r="B191" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C191" s="42"/>
-    </row>
-    <row r="192" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="B191" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C191" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A192" s="36"/>
-      <c r="B192" s="4" t="s">
-        <v>274</v>
+      <c r="B192" s="42" t="s">
+        <v>287</v>
       </c>
       <c r="C192" s="42"/>
     </row>
-    <row r="193" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="193" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A193" s="36"/>
-      <c r="B193" s="4" t="s">
-        <v>275</v>
+      <c r="B193" s="42" t="s">
+        <v>288</v>
       </c>
       <c r="C193" s="42"/>
     </row>
-    <row r="194" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="194" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A194" s="36"/>
-      <c r="B194" s="4" t="s">
-        <v>276</v>
+      <c r="B194" s="42" t="s">
+        <v>289</v>
       </c>
       <c r="C194" s="42"/>
     </row>
     <row r="195" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A195" s="36"/>
+      <c r="A195" s="36" t="s">
+        <v>290</v>
+      </c>
       <c r="B195" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C195" s="42"/>
-    </row>
-    <row r="196" s="74" customFormat="1" ht="12.75" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="C195" s="75"/>
+    </row>
+    <row r="196" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C196" s="42"/>
-    </row>
-    <row r="197" s="74" customFormat="1" ht="12.75" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="C196" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="197" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A197" s="36"/>
-      <c r="B197" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C197" s="42"/>
-    </row>
-    <row r="198" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="B197" s="4"/>
+      <c r="C197" s="65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A198" s="36"/>
-      <c r="B198" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C198" s="42"/>
-    </row>
-    <row r="199" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B198" s="4"/>
+      <c r="C198" s="75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="199" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A199" s="36"/>
-      <c r="B199" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C199" s="42"/>
-    </row>
-    <row r="200" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B199" s="4"/>
+      <c r="C199" s="75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="200" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A200" s="36"/>
-      <c r="B200" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C200" s="42"/>
-    </row>
-    <row r="201" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B200" s="4"/>
+      <c r="C200" s="75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="201" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="4" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="202" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C202" s="42"/>
     </row>
     <row r="203" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A203" s="36"/>
       <c r="B203" s="4" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C203" s="42"/>
     </row>
-    <row r="204" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="204" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A204" s="36"/>
       <c r="B204" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C204" s="42"/>
     </row>
-    <row r="205" s="74" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A205" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="B205" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C205" s="65" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="206" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="205" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A205" s="36"/>
+      <c r="B205" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C205" s="42"/>
+    </row>
+    <row r="206" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A206" s="36"/>
-      <c r="B206" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="C206" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="207" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="B206" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C206" s="42"/>
+    </row>
+    <row r="207" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A207" s="36"/>
-      <c r="B207" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C207" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="208" s="74" customFormat="1" ht="76.5" spans="1:3">
+      <c r="B207" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C207" s="42"/>
+    </row>
+    <row r="208" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A208" s="36"/>
-      <c r="B208" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="C208" s="65" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A209" s="36" t="s">
-        <v>296</v>
-      </c>
+      <c r="B208" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C208" s="42"/>
+    </row>
+    <row r="209" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A209" s="36"/>
       <c r="B209" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C209" s="65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="210" s="74" customFormat="1" ht="114.75" spans="1:3">
+        <v>306</v>
+      </c>
+      <c r="C209" s="42"/>
+    </row>
+    <row r="210" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A210" s="36"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="65" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="211" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="B210" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C210" s="42"/>
+    </row>
+    <row r="211" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A211" s="36"/>
       <c r="B211" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C211" s="65"/>
-    </row>
-    <row r="212" s="74" customFormat="1" ht="51" spans="1:3">
+        <v>308</v>
+      </c>
+      <c r="C211" s="42"/>
+    </row>
+    <row r="212" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A212" s="36"/>
-      <c r="B212" s="42" t="s">
-        <v>301</v>
+      <c r="B212" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="C212" s="42"/>
     </row>
     <row r="213" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A213" s="36"/>
-      <c r="B213" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="C213" s="65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="214" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="B213" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C213" s="42"/>
+    </row>
+    <row r="214" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A214" s="36"/>
-      <c r="B214" s="42" t="s">
-        <v>304</v>
+      <c r="B214" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C214" s="42"/>
     </row>
-    <row r="215" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="215" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A215" s="36"/>
-      <c r="B215" s="42" t="s">
-        <v>305</v>
+      <c r="B215" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="C215" s="42"/>
     </row>
     <row r="216" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A216" s="36"/>
-      <c r="B216" s="42" t="s">
-        <v>306</v>
+      <c r="B216" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C216" s="42"/>
     </row>
@@ -35651,10 +36050,10 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A167"/>
-    <mergeCell ref="A168:A189"/>
-    <mergeCell ref="A190:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A216"/>
+    <mergeCell ref="A168:A182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="A195:A216"/>
     <mergeCell ref="B120:B125"/>
     <mergeCell ref="B126:B131"/>
     <mergeCell ref="B132:B137"/>
@@ -35663,8 +36062,8 @@
     <mergeCell ref="B157:B159"/>
     <mergeCell ref="B160:B163"/>
     <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B196:B200"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A119:A167" r:id="rId2" display="Concurrency"/>
@@ -35696,157 +36095,157 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="54" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="54"/>
       <c r="B2" s="71" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="54"/>
       <c r="B3" s="71" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="54"/>
       <c r="B4" s="71" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="54"/>
       <c r="B5" s="71" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="54"/>
       <c r="B6" s="71" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:3">
       <c r="A8" s="54"/>
       <c r="B8" s="70" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" ht="114.75" spans="1:3">
       <c r="A9" s="54"/>
       <c r="C9" s="6" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="54"/>
       <c r="C10" s="6" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" ht="114.75" spans="1:3">
       <c r="A11" s="54"/>
       <c r="C11" s="6" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:3">
       <c r="A12" s="54"/>
       <c r="C12" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="54"/>
       <c r="C13" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="54"/>
       <c r="B14" s="70" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C14" s="72"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="54"/>
       <c r="B15" s="70" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="54"/>
       <c r="B16" s="70" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:3">
       <c r="A17" s="54"/>
       <c r="B17" s="11" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="73" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="42" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:2">
       <c r="A19" s="54"/>
       <c r="B19" s="71" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:2">
       <c r="A20" s="54"/>
       <c r="B20" s="71" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:2">
       <c r="A21" s="54"/>
       <c r="B21" s="71" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:2">
       <c r="A22" s="54"/>
       <c r="B22" s="71" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:2">
       <c r="A23" s="54"/>
       <c r="B23" s="71" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:1">
@@ -36022,57 +36421,57 @@
   <sheetData>
     <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
     <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="106" t="s">
-        <v>344</v>
+      <c r="A5" s="107" t="s">
+        <v>351</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -36080,7 +36479,7 @@
     </row>
     <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -36096,141 +36495,141 @@
         <v>23</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
     <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
     <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="K12" s="68" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
       <c r="B20" s="59" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D20" s="67"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
       <c r="B21" s="59" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D21" s="67"/>
     </row>
     <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
       <c r="B22" s="59" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D22" s="67"/>
     </row>
@@ -36244,96 +36643,96 @@
         <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A25" s="57"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" s="58" customFormat="1" ht="293.25" spans="1:4">
       <c r="A26" s="57"/>
       <c r="B26" s="59" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A27" s="57"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A28" s="57"/>
       <c r="B28" s="59" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A29" s="57"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A30" s="57"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A31" s="57"/>
       <c r="B31" s="59" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A32" s="57"/>
       <c r="B32" s="59"/>
       <c r="C32" s="67" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D32" s="65"/>
     </row>
@@ -36341,7 +36740,7 @@
       <c r="A33" s="57"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -36349,7 +36748,7 @@
       <c r="A34" s="57"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D34" s="65"/>
     </row>
@@ -36357,39 +36756,39 @@
       <c r="A35" s="57"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D35" s="65"/>
     </row>
     <row r="36" s="58" customFormat="1" ht="127.5" spans="1:4">
       <c r="A36" s="57"/>
       <c r="B36" s="59" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A38" s="57"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D38" s="65"/>
     </row>
@@ -36397,17 +36796,17 @@
       <c r="A39" s="57"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D39" s="65"/>
     </row>
     <row r="40" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A40" s="57"/>
       <c r="B40" s="59" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D40" s="65"/>
     </row>
@@ -36415,30 +36814,30 @@
       <c r="A41" s="57"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A42" s="57"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A43" s="57"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -36446,58 +36845,58 @@
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A45" s="57"/>
       <c r="B45" s="59" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A46" s="57"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A47" s="57"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A48" s="57"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A49" s="57"/>
       <c r="B49" s="59" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D49" s="65"/>
     </row>
@@ -36505,47 +36904,47 @@
       <c r="A50" s="57"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D50" s="65"/>
     </row>
     <row r="51" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A51" s="57"/>
       <c r="B51" s="59" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A52" s="57"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A53" s="57"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A54" s="57"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D54" s="65"/>
     </row>
@@ -36553,17 +36952,17 @@
       <c r="A55" s="57"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D55" s="65"/>
     </row>
     <row r="56" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A56" s="57"/>
       <c r="B56" s="59" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D56" s="65"/>
     </row>
@@ -36571,17 +36970,17 @@
       <c r="A57" s="57"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D57" s="65"/>
     </row>
     <row r="58" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A58" s="57"/>
       <c r="B58" s="59" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D58" s="65"/>
     </row>
@@ -36589,27 +36988,27 @@
       <c r="A59" s="57"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D59" s="65"/>
     </row>
     <row r="60" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A60" s="57"/>
       <c r="B60" s="59" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D60" s="65"/>
     </row>
     <row r="61" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A61" s="57"/>
       <c r="B61" s="59" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D61" s="65"/>
     </row>
@@ -36617,7 +37016,7 @@
       <c r="A62" s="57"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D62" s="65"/>
     </row>
@@ -36625,17 +37024,17 @@
       <c r="A63" s="57"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D63" s="65"/>
     </row>
     <row r="64" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A64" s="57"/>
       <c r="B64" s="59" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D64" s="65"/>
     </row>
@@ -36643,7 +37042,7 @@
       <c r="A65" s="57"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D65" s="65"/>
     </row>
@@ -36651,14 +37050,14 @@
       <c r="A66" s="57"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D66" s="65"/>
     </row>
     <row r="67" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A67" s="57"/>
       <c r="B67" s="59" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="65"/>
@@ -36670,16 +37069,16 @@
     </row>
     <row r="69" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A69" s="54" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36687,7 +37086,7 @@
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="65" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36695,7 +37094,7 @@
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="65" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36703,17 +37102,17 @@
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="65" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A73" s="54"/>
       <c r="B73" s="59"/>
       <c r="C73" s="29" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -36721,7 +37120,7 @@
       <c r="B74" s="59"/>
       <c r="C74" s="29"/>
       <c r="D74" s="65" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" s="58" customFormat="1" ht="76.5" spans="1:4">
@@ -36729,7 +37128,7 @@
       <c r="B75" s="59"/>
       <c r="C75" s="29"/>
       <c r="D75" s="65" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -36737,17 +37136,17 @@
       <c r="B76" s="59"/>
       <c r="C76" s="29"/>
       <c r="D76" s="65" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A77" s="54"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36759,7 +37158,7 @@
     <row r="79" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A79" s="54"/>
       <c r="B79" s="59" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="65"/>
@@ -36857,120 +37256,120 @@
   <sheetData>
     <row r="1" ht="96" spans="1:5">
       <c r="A1" s="54" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" ht="96" spans="1:5">
       <c r="A2" s="54" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="120" spans="1:5">
       <c r="A3" s="54" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="72" spans="1:5">
       <c r="A4" s="54" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="48" spans="1:5">
       <c r="A6" s="54" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="72" spans="1:5">
       <c r="A7" s="55" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="48" spans="1:5">
       <c r="A8" s="54" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="120" spans="1:5">
       <c r="A9" s="54" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="54" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="48" spans="1:5">
       <c r="A11" s="54" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="48" spans="1:5">
       <c r="A12" s="54" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="26"/>
@@ -36978,68 +37377,68 @@
     </row>
     <row r="13" ht="48" spans="1:5">
       <c r="A13" s="54" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="48" spans="1:5">
       <c r="A14" s="54" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="16" ht="96.95" customHeight="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" ht="132.95" customHeight="1" spans="2:4">
       <c r="B17" s="19" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="42" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="42" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -37051,24 +37450,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="42" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="3:4">
       <c r="C23" s="19" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:4">
       <c r="A28" s="57" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -37076,49 +37475,49 @@
       <c r="A29" s="57"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:2">
       <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
       <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:2">
       <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:2">
       <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
       <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
       <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -37132,7 +37531,7 @@
     </row>
     <row r="40" ht="72" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -37144,7 +37543,7 @@
     </row>
     <row r="43" ht="48" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B43" s="4"/>
     </row>
@@ -37156,7 +37555,7 @@
     </row>
     <row r="46" ht="48" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B46" s="4"/>
     </row>
@@ -37168,7 +37567,7 @@
     </row>
     <row r="49" ht="72" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B49" s="4"/>
     </row>
@@ -37228,97 +37627,97 @@
   <sheetData>
     <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
       <c r="A12" s="52" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
       <c r="A13" s="52"/>
       <c r="B13" s="6" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
       <c r="A20" s="53" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -37326,24 +37725,24 @@
     </row>
     <row r="21" ht="102" spans="1:2">
       <c r="A21" s="23" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" ht="63.75" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="23" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -37376,462 +37775,462 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>556</v>
+        <v>562</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B13" s="35"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="25" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="25" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="25" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="33" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="25" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="25" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
       <c r="A30" s="41" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="26" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="33" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="25" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="25" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="25" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="25" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="33" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="25" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="25" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="41" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="33" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="25" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="43" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="43" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="43" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="44" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="33" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="33" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="25" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="33" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="33" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="43" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="25" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="43" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="43" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="34" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B63" s="35"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="33" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="25" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C65" s="46"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="36" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C66" s="46"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="33" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C67" s="46"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="33" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
       <c r="B69" s="48" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
       <c r="B70" s="48" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
       <c r="B71" s="48" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -37839,296 +38238,296 @@
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="36" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="36"/>
       <c r="B74" s="47" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="36"/>
       <c r="B75" s="47" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="33" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="25" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="25" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="33" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
       <c r="A81" s="36" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="36"/>
       <c r="B82" s="49" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
       <c r="A83" s="36"/>
       <c r="B83" s="43" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
       <c r="A84" s="36"/>
       <c r="B84" s="43" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="33" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="43" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="25" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="33" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="43" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
       <c r="B90" s="50" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="25" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="25" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="25" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="34" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B95" s="35"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
       <c r="A96" s="36" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
       <c r="B98" s="47" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="25" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="33" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="43" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="43" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="43" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="43" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
       <c r="B105" s="50" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="33" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="33" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="43" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
       <c r="A109" s="36" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
       <c r="A110" s="36"/>
       <c r="B110" s="43" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
       <c r="A111" s="36" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
       <c r="A112" s="36"/>
       <c r="B112" s="25" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
       <c r="A113" s="36"/>
       <c r="B113" s="25" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="36"/>
       <c r="B114" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
       <c r="A115" s="36"/>
       <c r="B115" s="25" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
       <c r="A116" s="36"/>
       <c r="B116" s="25" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
       <c r="A117" s="36"/>
       <c r="B117" s="25" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
       <c r="A118" s="36"/>
       <c r="B118" s="24" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
       <c r="A119" s="36"/>
       <c r="B119" s="25" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
       <c r="A120" s="36"/>
       <c r="B120" s="24" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
       <c r="A121" s="36"/>
       <c r="B121" s="24" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
       <c r="A122" s="36"/>
       <c r="B122" s="24" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -38208,230 +38607,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B23" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B25" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B26" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23"/>
       <c r="B29" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23"/>
       <c r="B34" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1144">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -4539,6 +4539,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - In most practical multithreaded applications, two or more threads need to share access to the same data. What happens if two threads have access to the same object and each calls a method that modiﬁes the state of the object?
  - As you might imagine, the threads can </t>
     </r>
@@ -6517,6 +6524,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Stream, you </t>
     </r>
     <r>
@@ -6636,6 +6650,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Streams follow the “what, not how” principle
  - A stream does </t>
     </r>
@@ -6717,6 +6738,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - A stream transformation produces a </t>
     </r>
     <r>
@@ -6811,6 +6839,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - The parallel method converts any sequential stream into a parallel one.
  - When the terminal method executes, all intermediate stream operations will be parallelized.
  - Parallel Streams in Java allow developers to </t>
@@ -8182,422 +8217,12 @@
     <t>Focusing on the Worst-Case Input</t>
   </si>
   <si>
-    <t>The 7 functions used this book</t>
-  </si>
-  <si>
-    <t>Asymptotic Analysis</t>
-  </si>
-  <si>
-    <t>Simple Justification Techniques</t>
-  </si>
-  <si>
-    <t>References, Recursion, IntLists</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Bits: 
-   - All information in your computer is stored in memory as a sequence of ones and zeros.
-   - In Java, there are 8 primitive types: byte, short, int, long, float, double, boolean, and char. Each has different properties.
-2. Declaring a Variables:
-   - You can think of your computer as containing a vast number of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory bits for storing information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, each of which has a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unique address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Many billions of such bits are available to the modern computer.
-   - When you declare a variable of a certain(chắc chắn, nhất định) type =&gt; Java finds </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a contiguous block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(các khối liền kề) with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exactly enough bits to hold a thing of that type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. For example, if you declare an int, you get a block of 32 bits. If you declare a byte, you get a block of 8 bits. Each data type in Java holds a different number of bits. The exact number is not terribly important to us in this class.
-   - In addition to setting aside memory(ngoài việc dành bộ nhớ), the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java interpreter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(thông dịch viên Java) also creates an entry in an internal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table that maps each variable name to the location</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the first bit in the box.
-   - Java does not write anything into the reserved box when a variable is declared. In other words, there are no default values. As a result, the Java compiler prevents you from using a variable until after the box has been filled with bits using the = operator. For this reason, I have avoided showing any bits in the boxes in the figure above.
-3. The Golden Rule of Equals (GRoE):
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When you write y = x, you are telling the Java interpreter to copy the bits from x into y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. This Golden Rule of Equals (GRoE) is the root of all truth when it comes to understanding our Walrus Mystery
-4. Reference Types: 8 primitive types: byte, short, int, long, float, double, boolean, char. Everything else, including arrays, is not a primitive type but rather a reference type.
-5. Object Instantiation:
-   - When we instantiate an Object using new (e.g. Dog, Walrus, Planet), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Java first allocates </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a box</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(64 bits store address Object instance) for each instance variable of the class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and fills them with a default value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(null: bits in box = 0). The constructor then usually (but not always) fills every box with some other value.
-6. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reference Variable Declaration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-   - When we declare a variable of any reference type (Walrus, Dog, Planet, array, etc.), Java allocates a box of 64 bits, no matter what type of object. The 64 bit box </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contains not the data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> about the walrus, but instead the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>address of the Walrus in memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-  - Walrus someWalrus;  someWalrus = new Walrus(1000, 8.3); =&gt; The second line creates a new Walrus, and the address is returned by the new operator. These bits are then copied into the someWalrus box according to the GRoE.
-7. Box and Pointer Notation:
-  - If an address is all zeros, we will represent it with null.
-  - A non-zero address will be represented by an </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(mũi tên) pointing at an object instantiation.
-8. Resolving the Mystery of the Walrus:
-   - Walrus a = new Walrus(1000, 8.3); Walrus b; b = a;
-   - According to the GRoE, the final line simply </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>copies the bits in the a box into the b box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. =&gt; b will copy exactly the arrow in a and now show an arrow pointing at the same object.
-9. Parameter Passing:
-   - When you pass parameters to a function, you are also simply copying the bits. In other words, the GRoE also applies to parameter passing. Copying the bits is usually called "pass by value". In Java, we always pass by value.</t>
-    </r>
-  </si>
-  <si>
-    <t>COURSE 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10. Instantiation of Arrays:
- - As mentioned above, variables that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>store arrays are reference variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> just like any other. As an example, consider the declarations below:
- - int[] x; Planet[] planets; =&gt; Both of these declarations create memory boxes of 64 bits. x can only hold the address of an int array, and planets can only hold the address of a Planet array.
- - x = new int[]{0, 1, 2, 95, 4}; Then the new keyword creates 5 boxes of 32 bits each and returns the address of the overall object for assignment to x.</t>
-    </r>
-  </si>
-  <si>
-    <t>SLLists, Nested Classes, Sentinel Nodes</t>
-  </si>
-  <si>
-    <t>DLLists, Arrays</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>ArrayLists, Resizing</t>
-  </si>
-  <si>
-    <t>Inheritance, Implements</t>
+    <t>Data Structure &amp; 
+Algorithms 
+in Java(2nd)</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
   </si>
   <si>
     <t>JDBC là gì?</t>
@@ -29306,12 +28931,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29491,15 +29116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF954F72"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -29578,21 +29194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -29601,18 +29202,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29632,11 +29233,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29657,24 +29280,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29796,19 +29412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29820,13 +29460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29838,13 +29478,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29862,13 +29526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29880,85 +29568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -30029,6 +29645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -30046,35 +29671,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -30102,141 +29703,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -30244,7 +29860,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -30444,45 +30060,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30491,7 +30101,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -30506,19 +30116,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30527,13 +30137,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -30542,7 +30152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -31549,7 +31159,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -31560,7 +31170,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31568,10 +31178,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="100" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31582,7 +31192,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="101" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31604,7 +31214,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="101" t="s">
         <v>11</v>
       </c>
     </row>
@@ -31615,7 +31225,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="98" t="s">
         <v>13</v>
       </c>
     </row>
@@ -31626,7 +31236,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="98" t="s">
         <v>15</v>
       </c>
     </row>
@@ -31637,7 +31247,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -31686,7 +31296,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="98" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -31716,7 +31326,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="98" t="s">
         <v>37</v>
       </c>
     </row>
@@ -31724,7 +31334,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="98" t="s">
         <v>39</v>
       </c>
     </row>
@@ -31755,276 +31365,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -32033,10 +31643,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -32078,26 +31688,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -32123,26 +31733,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -32150,31 +31760,31 @@
         <v>188</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -32182,37 +31792,37 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -32242,110 +31852,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -32381,16 +31991,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -32400,10 +32010,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -32413,10 +32023,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -32426,10 +32036,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -32439,10 +32049,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -32452,10 +32062,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -32465,10 +32075,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -32478,10 +32088,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -32491,10 +32101,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -32504,10 +32114,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -32517,10 +32127,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -32530,10 +32140,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -32543,10 +32153,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -32556,10 +32166,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -32569,10 +32179,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -32582,10 +32192,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -32595,10 +32205,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -32608,10 +32218,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -32621,10 +32231,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -32634,10 +32244,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -32646,13 +32256,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -32662,13 +32272,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -32679,10 +32289,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -32693,10 +32303,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -32707,10 +32317,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -32721,10 +32331,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -32734,10 +32344,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -32747,10 +32357,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -32760,10 +32370,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -32772,13 +32382,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>322</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -32788,10 +32398,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -32801,13 +32411,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -32818,10 +32428,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -32832,10 +32442,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -32846,10 +32456,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -32858,7 +32468,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -32867,13 +32477,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -32883,13 +32493,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -32899,10 +32509,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -32912,10 +32522,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -32925,10 +32535,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -32938,10 +32548,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -32951,13 +32561,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -32967,10 +32577,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -32980,13 +32590,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -32996,10 +32606,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -33009,10 +32619,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -33022,10 +32632,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -33034,13 +32644,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -33050,13 +32660,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -33066,10 +32676,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -33079,10 +32689,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -33092,10 +32702,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -33105,10 +32715,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -33118,7 +32728,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -33128,10 +32738,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -33141,10 +32751,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -33154,10 +32764,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -33167,7 +32777,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -33177,7 +32787,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -33187,13 +32797,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -33203,7 +32813,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -33212,13 +32822,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -33228,13 +32838,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -33244,10 +32854,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -33257,10 +32867,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -33270,10 +32880,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -33283,10 +32893,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -33296,10 +32906,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -33309,10 +32919,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -33322,10 +32932,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -33334,292 +32944,292 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>322</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>322</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
@@ -33629,97 +33239,97 @@
         <v>322</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
@@ -33733,278 +33343,278 @@
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -34012,17 +33622,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -34030,37 +33640,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -34068,51 +33678,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -34124,7 +33734,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -34132,28 +33742,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -34271,7 +33881,7 @@
   <sheetPr/>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A191" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A191" workbookViewId="0">
       <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
@@ -34279,11 +33889,11 @@
   <cols>
     <col min="1" max="1" width="17.4266666666667" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.2866666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="184.5" style="75" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="74"/>
+    <col min="3" max="3" width="184.5" style="73" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" s="74" customFormat="1" ht="86.25" spans="1:3">
+    <row r="1" s="72" customFormat="1" ht="86.25" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
@@ -34292,7 +33902,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="2" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
@@ -34301,155 +33911,155 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="3" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="102" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" s="74" customFormat="1" ht="69" spans="1:3">
+    <row r="4" s="72" customFormat="1" ht="69" spans="1:3">
       <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="5" s="74" customFormat="1" ht="86.25" spans="1:3">
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" s="72" customFormat="1" ht="86.25" spans="1:3">
       <c r="A5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="102" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="6" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="102" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="7" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" s="74" customFormat="1" spans="1:3">
+    <row r="8" s="72" customFormat="1" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" s="74" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="106" t="s">
+    <row r="9" s="72" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A9" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="102" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" s="74" customFormat="1" spans="1:3">
+    <row r="10" s="72" customFormat="1" spans="1:3">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" s="74" customFormat="1" spans="1:3">
+    <row r="11" s="72" customFormat="1" spans="1:3">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" s="74" customFormat="1" ht="327.75" spans="1:3">
+    <row r="12" s="72" customFormat="1" ht="327.75" spans="1:3">
       <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" s="74" customFormat="1" ht="103.5" spans="1:3">
-      <c r="A13" s="77" t="s">
+    <row r="13" s="72" customFormat="1" ht="103.5" spans="1:3">
+      <c r="A13" s="75" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" s="74" customFormat="1" ht="86.25" spans="1:3">
-      <c r="A14" s="78" t="s">
+    <row r="14" s="72" customFormat="1" ht="86.25" spans="1:3">
+      <c r="A14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="80"/>
-    </row>
-    <row r="15" s="74" customFormat="1" ht="69" spans="1:3">
-      <c r="A15" s="77" t="s">
+      <c r="C14" s="78"/>
+    </row>
+    <row r="15" s="72" customFormat="1" ht="69" spans="1:3">
+      <c r="A15" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="82"/>
-    </row>
-    <row r="16" s="74" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A16" s="78" t="s">
+      <c r="C15" s="80"/>
+    </row>
+    <row r="16" s="72" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A16" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="84"/>
-    </row>
-    <row r="17" s="74" customFormat="1" spans="1:3">
-      <c r="A17" s="77" t="s">
+      <c r="C16" s="82"/>
+    </row>
+    <row r="17" s="72" customFormat="1" spans="1:3">
+      <c r="A17" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="82"/>
-    </row>
-    <row r="18" s="74" customFormat="1" spans="1:3">
-      <c r="A18" s="78" t="s">
+      <c r="C17" s="80"/>
+    </row>
+    <row r="18" s="72" customFormat="1" spans="1:3">
+      <c r="A18" s="76" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" s="74" customFormat="1" spans="1:3">
-      <c r="A19" s="77" t="s">
+    <row r="19" s="72" customFormat="1" spans="1:3">
+      <c r="A19" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="80"/>
-    </row>
-    <row r="20" s="74" customFormat="1" spans="1:3">
+      <c r="C19" s="78"/>
+    </row>
+    <row r="20" s="72" customFormat="1" spans="1:3">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" s="74" customFormat="1" spans="1:3">
+    <row r="21" s="72" customFormat="1" spans="1:3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" s="74" customFormat="1" spans="1:3">
+    <row r="22" s="72" customFormat="1" spans="1:3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" s="74" customFormat="1" spans="1:3">
+    <row r="23" s="72" customFormat="1" spans="1:3">
       <c r="A23" s="36" t="s">
         <v>68</v>
       </c>
@@ -34458,14 +34068,14 @@
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" s="74" customFormat="1" spans="1:3">
+    <row r="24" s="72" customFormat="1" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="25" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A25" s="36" t="s">
         <v>71</v>
       </c>
@@ -34474,7 +34084,7 @@
       </c>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="26" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A26" s="36" t="s">
         <v>73</v>
       </c>
@@ -34483,19 +34093,19 @@
       </c>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" s="74" customFormat="1" spans="1:3">
+    <row r="27" s="72" customFormat="1" spans="1:3">
       <c r="A27" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" s="74" customFormat="1" spans="1:3">
+    <row r="28" s="72" customFormat="1" spans="1:3">
       <c r="A28" s="36"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" s="74" customFormat="1" spans="1:3">
+    <row r="29" s="72" customFormat="1" spans="1:3">
       <c r="A29" s="36" t="s">
         <v>76</v>
       </c>
@@ -34504,33 +34114,33 @@
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" s="74" customFormat="1" spans="1:3">
+    <row r="30" s="72" customFormat="1" spans="1:3">
       <c r="A30" s="36"/>
       <c r="B30" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" s="74" customFormat="1" spans="1:3">
+    <row r="31" s="72" customFormat="1" spans="1:3">
       <c r="A31" s="36"/>
       <c r="B31" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" s="74" customFormat="1" spans="1:3">
+    <row r="32" s="72" customFormat="1" spans="1:3">
       <c r="A32" s="36"/>
       <c r="B32" s="42" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" s="74" customFormat="1" spans="1:3">
+    <row r="33" s="72" customFormat="1" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" s="74" customFormat="1" spans="1:3">
+    <row r="34" s="72" customFormat="1" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>81</v>
       </c>
@@ -34539,7 +34149,7 @@
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" s="74" customFormat="1" spans="1:3">
+    <row r="35" s="72" customFormat="1" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>83</v>
       </c>
@@ -34548,14 +34158,14 @@
       </c>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" s="74" customFormat="1" spans="1:3">
+    <row r="36" s="72" customFormat="1" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" s="74" customFormat="1" spans="1:3">
+    <row r="37" s="72" customFormat="1" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>86</v>
       </c>
@@ -34564,7 +34174,7 @@
       </c>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="38" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>88</v>
       </c>
@@ -34573,16 +34183,16 @@
       </c>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" s="74" customFormat="1" spans="1:3">
+    <row r="39" s="72" customFormat="1" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="75"/>
-    </row>
-    <row r="40" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C39" s="73"/>
+    </row>
+    <row r="40" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>92</v>
       </c>
@@ -34591,28 +34201,28 @@
       </c>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="41" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A41" s="36"/>
       <c r="B41" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="42" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A42" s="36"/>
       <c r="B42" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="43" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A43" s="36"/>
       <c r="B43" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="44" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>97</v>
       </c>
@@ -34621,14 +34231,14 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="45" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A45" s="36"/>
       <c r="B45" s="50" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="50"/>
     </row>
-    <row r="46" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="46" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>100</v>
       </c>
@@ -34637,14 +34247,14 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="47" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A47" s="36"/>
       <c r="B47" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="48" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A48" s="36" t="s">
         <v>103</v>
       </c>
@@ -34653,7 +34263,7 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" s="74" customFormat="1" spans="1:3">
+    <row r="49" s="72" customFormat="1" spans="1:3">
       <c r="A49" s="36" t="s">
         <v>105</v>
       </c>
@@ -34662,7 +34272,7 @@
       </c>
       <c r="C49" s="42"/>
     </row>
-    <row r="50" s="74" customFormat="1" spans="1:3">
+    <row r="50" s="72" customFormat="1" spans="1:3">
       <c r="A50" s="36" t="s">
         <v>107</v>
       </c>
@@ -34671,7 +34281,7 @@
       </c>
       <c r="C50" s="42"/>
     </row>
-    <row r="51" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="51" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A51" s="36" t="s">
         <v>109</v>
       </c>
@@ -34680,22 +34290,22 @@
       </c>
       <c r="C51" s="42"/>
     </row>
-    <row r="52" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="52" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A52" s="36"/>
       <c r="B52" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="53" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A53" s="36"/>
       <c r="B53" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="42"/>
     </row>
-    <row r="54" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A54" s="85" t="s">
+    <row r="54" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A54" s="83" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="42" t="s">
@@ -34703,49 +34313,49 @@
       </c>
       <c r="C54" s="42"/>
     </row>
-    <row r="55" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A55" s="85"/>
+    <row r="55" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A55" s="83"/>
       <c r="B55" s="42" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="42"/>
     </row>
-    <row r="56" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A56" s="85"/>
+    <row r="56" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A56" s="83"/>
       <c r="B56" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="50"/>
     </row>
-    <row r="57" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A57" s="85"/>
+    <row r="57" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A57" s="83"/>
       <c r="B57" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="50"/>
     </row>
-    <row r="58" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A58" s="85"/>
+    <row r="58" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A58" s="83"/>
       <c r="B58" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="42"/>
     </row>
-    <row r="59" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A59" s="85"/>
-      <c r="B59" s="86" t="s">
+    <row r="59" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A59" s="83"/>
+      <c r="B59" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="86"/>
-    </row>
-    <row r="60" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A60" s="85"/>
-      <c r="B60" s="87" t="s">
+      <c r="C59" s="84"/>
+    </row>
+    <row r="60" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A60" s="83"/>
+      <c r="B60" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="87"/>
-    </row>
-    <row r="61" s="74" customFormat="1" spans="1:3">
+      <c r="C60" s="85"/>
+    </row>
+    <row r="61" s="72" customFormat="1" spans="1:3">
       <c r="A61" s="36" t="s">
         <v>121</v>
       </c>
@@ -34754,7 +34364,7 @@
       </c>
       <c r="C61" s="42"/>
     </row>
-    <row r="62" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="62" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A62" s="36" t="s">
         <v>123</v>
       </c>
@@ -34763,7 +34373,7 @@
       </c>
       <c r="C62" s="42"/>
     </row>
-    <row r="63" s="74" customFormat="1" ht="18" spans="1:3">
+    <row r="63" s="72" customFormat="1" ht="18" spans="1:3">
       <c r="A63" s="36" t="s">
         <v>125</v>
       </c>
@@ -34772,8 +34382,8 @@
       </c>
       <c r="C63" s="42"/>
     </row>
-    <row r="64" s="74" customFormat="1" ht="53.25" spans="1:3">
-      <c r="A64" s="88" t="s">
+    <row r="64" s="72" customFormat="1" ht="53.25" spans="1:3">
+      <c r="A64" s="86" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="42" t="s">
@@ -34781,8 +34391,8 @@
       </c>
       <c r="C64" s="42"/>
     </row>
-    <row r="65" s="74" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="88" t="s">
+    <row r="65" s="72" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A65" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -34790,44 +34400,44 @@
       </c>
       <c r="C65" s="42"/>
     </row>
-    <row r="66" s="74" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="88"/>
+    <row r="66" s="72" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A66" s="86"/>
       <c r="B66" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" s="74" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A67" s="89" t="s">
+    <row r="67" s="72" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A67" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="87"/>
-    </row>
-    <row r="68" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A68" s="90"/>
-      <c r="B68" s="91" t="s">
+      <c r="C67" s="85"/>
+    </row>
+    <row r="68" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A68" s="88"/>
+      <c r="B68" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="91"/>
-    </row>
-    <row r="69" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A69" s="90"/>
-      <c r="B69" s="87" t="s">
+      <c r="C68" s="89"/>
+    </row>
+    <row r="69" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A69" s="88"/>
+      <c r="B69" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="87"/>
-    </row>
-    <row r="70" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A70" s="90"/>
-      <c r="B70" s="87" t="s">
+      <c r="C69" s="85"/>
+    </row>
+    <row r="70" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A70" s="88"/>
+      <c r="B70" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="87"/>
-    </row>
-    <row r="71" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C70" s="85"/>
+    </row>
+    <row r="71" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A71" s="36" t="s">
         <v>137</v>
       </c>
@@ -34836,21 +34446,21 @@
       </c>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="72" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A72" s="36"/>
       <c r="B72" s="50" t="s">
         <v>139</v>
       </c>
       <c r="C72" s="50"/>
     </row>
-    <row r="73" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="73" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A73" s="36"/>
       <c r="B73" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C73" s="42"/>
     </row>
-    <row r="74" s="74" customFormat="1" spans="1:3">
+    <row r="74" s="72" customFormat="1" spans="1:3">
       <c r="A74" s="36" t="s">
         <v>141</v>
       </c>
@@ -34859,7 +34469,7 @@
       </c>
       <c r="C74" s="42"/>
     </row>
-    <row r="75" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="75" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A75" s="36" t="s">
         <v>143</v>
       </c>
@@ -34868,63 +34478,63 @@
       </c>
       <c r="C75" s="42"/>
     </row>
-    <row r="76" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="76" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A76" s="36"/>
       <c r="B76" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="42"/>
     </row>
-    <row r="77" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="77" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A77" s="36"/>
       <c r="B77" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="42"/>
     </row>
-    <row r="78" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="78" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A78" s="36"/>
       <c r="B78" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C78" s="42"/>
     </row>
-    <row r="79" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="79" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A79" s="36"/>
       <c r="B79" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C79" s="50"/>
     </row>
-    <row r="80" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="80" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A80" s="36"/>
       <c r="B80" s="50" t="s">
         <v>149</v>
       </c>
       <c r="C80" s="50"/>
     </row>
-    <row r="81" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="81" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A81" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
     </row>
-    <row r="82" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="82" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A82" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
     </row>
-    <row r="83" s="74" customFormat="1" spans="1:3">
+    <row r="83" s="72" customFormat="1" spans="1:3">
       <c r="A83" s="36" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
     </row>
-    <row r="84" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="84" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A84" s="36" t="s">
         <v>153</v>
       </c>
@@ -34933,95 +34543,95 @@
       </c>
       <c r="C84" s="42"/>
     </row>
-    <row r="85" s="74" customFormat="1" spans="1:3">
+    <row r="85" s="72" customFormat="1" spans="1:3">
       <c r="A85" s="36"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
     </row>
-    <row r="86" s="74" customFormat="1" spans="1:3">
+    <row r="86" s="72" customFormat="1" spans="1:3">
       <c r="A86" s="36"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" s="74" customFormat="1" spans="1:3">
+    <row r="87" s="72" customFormat="1" spans="1:3">
       <c r="A87" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
     </row>
-    <row r="88" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="88" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A88" s="36" t="s">
         <v>156</v>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
     </row>
-    <row r="89" s="74" customFormat="1" ht="51.75" spans="1:3">
+    <row r="89" s="72" customFormat="1" ht="51.75" spans="1:3">
       <c r="A89" s="36" t="s">
         <v>157</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
     </row>
-    <row r="90" s="74" customFormat="1" spans="1:3">
+    <row r="90" s="72" customFormat="1" spans="1:3">
       <c r="A90" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
     </row>
-    <row r="91" s="74" customFormat="1" spans="1:3">
+    <row r="91" s="72" customFormat="1" spans="1:3">
       <c r="A91" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
     </row>
-    <row r="92" s="74" customFormat="1" spans="1:3">
+    <row r="92" s="72" customFormat="1" spans="1:3">
       <c r="A92" s="36" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
     </row>
-    <row r="93" s="74" customFormat="1" ht="34.5" spans="1:3">
+    <row r="93" s="72" customFormat="1" ht="34.5" spans="1:3">
       <c r="A93" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" s="74" customFormat="1" spans="1:3">
+    <row r="94" s="72" customFormat="1" spans="1:3">
       <c r="A94" s="36" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
     </row>
-    <row r="95" s="74" customFormat="1" spans="1:3">
+    <row r="95" s="72" customFormat="1" spans="1:3">
       <c r="A95" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
     </row>
-    <row r="96" s="74" customFormat="1" spans="1:3">
+    <row r="96" s="72" customFormat="1" spans="1:3">
       <c r="A96" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
     </row>
-    <row r="97" s="74" customFormat="1" spans="1:3">
+    <row r="97" s="72" customFormat="1" spans="1:3">
       <c r="A97" s="36" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
     </row>
-    <row r="98" s="74" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A98" s="92" t="s">
+    <row r="98" s="72" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A98" s="90" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -35029,153 +34639,153 @@
       </c>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" s="74" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="99" s="72" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
         <v>167</v>
       </c>
       <c r="C99" s="50"/>
     </row>
-    <row r="100" s="74" customFormat="1" ht="48" customHeight="1" spans="1:3">
+    <row r="100" s="72" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
         <v>168</v>
       </c>
       <c r="C100" s="50"/>
     </row>
-    <row r="101" s="74" customFormat="1" ht="53" customHeight="1" spans="1:3">
+    <row r="101" s="72" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="50" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="50"/>
     </row>
-    <row r="102" s="74" customFormat="1" ht="54" customHeight="1" spans="1:3">
+    <row r="102" s="72" customFormat="1" ht="54" customHeight="1" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C102" s="50"/>
     </row>
-    <row r="103" s="74" customFormat="1" ht="117" customHeight="1" spans="1:3">
+    <row r="103" s="72" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="50" t="s">
         <v>171</v>
       </c>
       <c r="C103" s="50"/>
     </row>
-    <row r="104" s="74" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="104" s="72" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="50"/>
     </row>
-    <row r="105" s="74" customFormat="1" ht="309" customHeight="1" spans="1:3">
+    <row r="105" s="72" customFormat="1" ht="309" customHeight="1" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="50" t="s">
         <v>173</v>
       </c>
       <c r="C105" s="50"/>
     </row>
-    <row r="106" s="74" customFormat="1" ht="409" customHeight="1" spans="1:3">
+    <row r="106" s="72" customFormat="1" ht="409" customHeight="1" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="50" t="s">
         <v>174</v>
       </c>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" s="74" customFormat="1" ht="83" customHeight="1" spans="1:3">
+    <row r="107" s="72" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="50" t="s">
         <v>175</v>
       </c>
       <c r="C107" s="50"/>
     </row>
-    <row r="108" s="74" customFormat="1" ht="346" customHeight="1" spans="1:3">
+    <row r="108" s="72" customFormat="1" ht="346" customHeight="1" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="50" t="s">
         <v>176</v>
       </c>
       <c r="C108" s="50"/>
     </row>
-    <row r="109" s="74" customFormat="1" ht="205" customHeight="1" spans="1:3">
+    <row r="109" s="72" customFormat="1" ht="205" customHeight="1" spans="1:3">
       <c r="A109" s="36"/>
-      <c r="B109" s="86" t="s">
+      <c r="B109" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="86"/>
-    </row>
-    <row r="110" s="74" customFormat="1" ht="409" customHeight="1" spans="1:4">
-      <c r="A110" s="93" t="s">
+      <c r="C109" s="84"/>
+    </row>
+    <row r="110" s="72" customFormat="1" ht="409" customHeight="1" spans="1:4">
+      <c r="A110" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="86" t="s">
+      <c r="B110" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="86"/>
+      <c r="C110" s="84"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="74" customFormat="1" ht="270" customHeight="1" spans="1:4">
-      <c r="A111" s="93"/>
-      <c r="B111" s="86" t="s">
+    <row r="111" s="72" customFormat="1" ht="270" customHeight="1" spans="1:4">
+      <c r="A111" s="91"/>
+      <c r="B111" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="86"/>
+      <c r="C111" s="84"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="74" customFormat="1" ht="324" customHeight="1" spans="1:4">
-      <c r="A112" s="93"/>
-      <c r="B112" s="94" t="s">
+    <row r="112" s="72" customFormat="1" ht="324" customHeight="1" spans="1:4">
+      <c r="A112" s="91"/>
+      <c r="B112" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="94"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="74" customFormat="1" ht="363" customHeight="1" spans="1:3">
-      <c r="A113" s="93"/>
-      <c r="B113" s="95" t="s">
+    <row r="113" s="72" customFormat="1" ht="363" customHeight="1" spans="1:3">
+      <c r="A113" s="91"/>
+      <c r="B113" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="95"/>
-    </row>
-    <row r="114" s="74" customFormat="1" ht="267" customHeight="1" spans="1:3">
-      <c r="A114" s="93"/>
+      <c r="C113" s="93"/>
+    </row>
+    <row r="114" s="72" customFormat="1" ht="267" customHeight="1" spans="1:3">
+      <c r="A114" s="91"/>
       <c r="B114" s="50" t="s">
         <v>183</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="74" customFormat="1" ht="343" customHeight="1" spans="1:3">
-      <c r="A115" s="93"/>
-      <c r="B115" s="94" t="s">
+    <row r="115" s="72" customFormat="1" ht="343" customHeight="1" spans="1:3">
+      <c r="A115" s="91"/>
+      <c r="B115" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="94"/>
-    </row>
-    <row r="116" s="74" customFormat="1" ht="408" customHeight="1" spans="1:3">
-      <c r="A116" s="93"/>
-      <c r="B116" s="86" t="s">
+      <c r="C115" s="92"/>
+    </row>
+    <row r="116" s="72" customFormat="1" ht="408" customHeight="1" spans="1:3">
+      <c r="A116" s="91"/>
+      <c r="B116" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="86"/>
-    </row>
-    <row r="117" s="74" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A117" s="93"/>
-      <c r="B117" s="86" t="s">
+      <c r="C116" s="84"/>
+    </row>
+    <row r="117" s="72" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A117" s="91"/>
+      <c r="B117" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="86"/>
-    </row>
-    <row r="118" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A118" s="93"/>
-      <c r="B118" s="86" t="s">
+      <c r="C117" s="84"/>
+    </row>
+    <row r="118" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A118" s="91"/>
+      <c r="B118" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="86"/>
-    </row>
-    <row r="119" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A119" s="96" t="s">
+      <c r="C118" s="84"/>
+    </row>
+    <row r="119" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A119" s="94" t="s">
         <v>188</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -35185,52 +34795,52 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" s="74" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="96"/>
+    <row r="120" s="72" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A120" s="94"/>
       <c r="B120" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C120" s="75" t="s">
+      <c r="C120" s="73" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" s="74" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="97"/>
+    <row r="121" s="72" customFormat="1" ht="207" customHeight="1" spans="1:3">
+      <c r="A121" s="95"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" s="74" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="97"/>
+    <row r="122" s="72" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A122" s="95"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="123" s="74" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="97"/>
+    <row r="123" s="72" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A123" s="95"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="124" s="74" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="97"/>
+    <row r="124" s="72" customFormat="1" ht="102" spans="1:3">
+      <c r="A124" s="95"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="125" s="74" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="97"/>
+    <row r="125" s="72" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A125" s="95"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="126" s="74" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="97"/>
+    <row r="126" s="72" customFormat="1" ht="102" spans="1:3">
+      <c r="A126" s="95"/>
       <c r="B126" s="4" t="s">
         <v>198</v>
       </c>
@@ -35238,43 +34848,43 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" s="74" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="97"/>
+    <row r="127" s="72" customFormat="1" ht="51" spans="1:3">
+      <c r="A127" s="95"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" s="74" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="97"/>
+    <row r="128" s="72" customFormat="1" ht="216.75" spans="1:3">
+      <c r="A128" s="95"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="129" s="74" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="97"/>
+    <row r="129" s="72" customFormat="1" ht="267.75" spans="1:3">
+      <c r="A129" s="95"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" s="74" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="97"/>
+    <row r="130" s="72" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A130" s="95"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="131" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="97"/>
+    <row r="131" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A131" s="95"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="132" s="74" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="97"/>
+    <row r="132" s="72" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A132" s="95"/>
       <c r="B132" s="4" t="s">
         <v>205</v>
       </c>
@@ -35282,262 +34892,262 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" s="74" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="97"/>
+    <row r="133" s="72" customFormat="1" ht="51" spans="1:3">
+      <c r="A133" s="95"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="134" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="97"/>
+    <row r="134" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A134" s="95"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="98" t="s">
+      <c r="C134" s="96" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="135" s="74" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="97"/>
+    <row r="135" s="72" customFormat="1" ht="51" spans="1:3">
+      <c r="A135" s="95"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="98" t="s">
+      <c r="C135" s="96" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" s="74" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="97"/>
+    <row r="136" s="72" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A136" s="95"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="98" t="s">
+      <c r="C136" s="96" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" s="74" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="97"/>
+    <row r="137" s="72" customFormat="1" ht="204" spans="1:3">
+      <c r="A137" s="95"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="98" t="s">
+      <c r="C137" s="96" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="97"/>
+    <row r="138" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A138" s="95"/>
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="99" t="s">
+      <c r="C138" s="97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" s="74" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="97"/>
+    <row r="139" s="72" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A139" s="95"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="75" t="s">
+      <c r="C139" s="73" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" s="74" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="97"/>
+    <row r="140" s="72" customFormat="1" ht="229.5" spans="1:3">
+      <c r="A140" s="95"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="98" t="s">
+      <c r="C140" s="96" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" s="74" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="97"/>
+    <row r="141" s="72" customFormat="1" ht="242.25" spans="1:3">
+      <c r="A141" s="95"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="98" t="s">
+      <c r="C141" s="96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" s="74" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="97"/>
+    <row r="142" s="72" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A142" s="95"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="98" t="s">
+      <c r="C142" s="96" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" s="74" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="97"/>
+    <row r="143" s="72" customFormat="1" ht="204" spans="1:3">
+      <c r="A143" s="95"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="98" t="s">
+      <c r="C143" s="96" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="144" s="74" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="97"/>
+    <row r="144" s="72" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A144" s="95"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="98" t="s">
+      <c r="C144" s="96" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="145" s="74" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="97"/>
+    <row r="145" s="72" customFormat="1" ht="280.5" spans="1:3">
+      <c r="A145" s="95"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="98" t="s">
+      <c r="C145" s="96" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="97"/>
+    <row r="146" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A146" s="95"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="98" t="s">
+      <c r="C146" s="96" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="147" s="74" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="97"/>
+    <row r="147" s="72" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A147" s="95"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="98" t="s">
+      <c r="C147" s="96" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="97"/>
+    <row r="148" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A148" s="95"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="98" t="s">
+      <c r="C148" s="96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="149" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="97"/>
+    <row r="149" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A149" s="95"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="98" t="s">
+      <c r="C149" s="96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="150" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="97"/>
+    <row r="150" s="72" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A150" s="95"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="98" t="s">
+      <c r="C150" s="96" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="151" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="97"/>
+    <row r="151" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A151" s="95"/>
       <c r="B151" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C151" s="98"/>
-    </row>
-    <row r="152" s="74" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="97"/>
+      <c r="C151" s="96"/>
+    </row>
+    <row r="152" s="72" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A152" s="95"/>
       <c r="B152" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="75" t="s">
+      <c r="C152" s="73" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="153" s="74" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="97"/>
+    <row r="153" s="72" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A153" s="95"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="98" t="s">
+      <c r="C153" s="96" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="154" s="74" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="97"/>
+    <row r="154" s="72" customFormat="1" ht="318.75" spans="1:3">
+      <c r="A154" s="95"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="98" t="s">
+      <c r="C154" s="96" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="155" s="74" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="97"/>
+    <row r="155" s="72" customFormat="1" ht="165.75" spans="1:3">
+      <c r="A155" s="95"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="98" t="s">
+      <c r="C155" s="96" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="156" s="74" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="97"/>
+    <row r="156" s="72" customFormat="1" ht="255" spans="1:3">
+      <c r="A156" s="95"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="98" t="s">
+      <c r="C156" s="96" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="157" s="74" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="97"/>
+    <row r="157" s="72" customFormat="1" ht="204" spans="1:3">
+      <c r="A157" s="95"/>
       <c r="B157" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C157" s="98" t="s">
+      <c r="C157" s="96" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="158" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="97"/>
+    <row r="158" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A158" s="95"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="98" t="s">
+      <c r="C158" s="96" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="159" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="97"/>
+    <row r="159" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A159" s="95"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="98" t="s">
+      <c r="C159" s="96" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="160" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="97"/>
+    <row r="160" s="72" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A160" s="95"/>
       <c r="B160" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C160" s="75" t="s">
+      <c r="C160" s="73" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="161" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="97"/>
+    <row r="161" s="72" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A161" s="95"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="98" t="s">
+      <c r="C161" s="96" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="162" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="97"/>
+    <row r="162" s="72" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A162" s="95"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="98" t="s">
+      <c r="C162" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="163" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="97"/>
+    <row r="163" s="72" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A163" s="95"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="98" t="s">
+      <c r="C163" s="96" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" s="74" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="97"/>
+    <row r="164" s="72" customFormat="1" ht="51" spans="1:3">
+      <c r="A164" s="95"/>
       <c r="B164" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="98" t="s">
+      <c r="C164" s="96" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="165" s="74" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="97"/>
+    <row r="165" s="72" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A165" s="95"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="98" t="s">
+      <c r="C165" s="96" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="166" s="74" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="97"/>
+    <row r="166" s="72" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A166" s="95"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="98" t="s">
+      <c r="C166" s="96" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" s="74" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="97"/>
+    <row r="167" s="72" customFormat="1" ht="51" spans="1:3">
+      <c r="A167" s="95"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="98" t="s">
+      <c r="C167" s="96" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="168" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="168" s="72" customFormat="1" ht="51" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>247</v>
       </c>
@@ -35546,7 +35156,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="169" s="72" customFormat="1" ht="51" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>249</v>
@@ -35555,7 +35165,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="170" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A170" s="36"/>
       <c r="B170" s="4" t="s">
         <v>251</v>
@@ -35564,7 +35174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="171" s="72" customFormat="1" ht="51" spans="1:3">
       <c r="A171" s="36"/>
       <c r="B171" s="4" t="s">
         <v>253</v>
@@ -35573,7 +35183,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="172" s="72" customFormat="1" ht="51" spans="1:3">
       <c r="A172" s="36"/>
       <c r="B172" s="4" t="s">
         <v>255</v>
@@ -35582,7 +35192,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="173" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A173" s="36"/>
       <c r="B173" s="4" t="s">
         <v>257</v>
@@ -35591,7 +35201,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="174" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="4" t="s">
         <v>259</v>
@@ -35600,7 +35210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="175" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="4" t="s">
         <v>260</v>
@@ -35609,49 +35219,49 @@
         <v>261</v>
       </c>
     </row>
-    <row r="176" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="176" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="177" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="178" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C178" s="42"/>
     </row>
-    <row r="179" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="179" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C179" s="42"/>
     </row>
-    <row r="180" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="180" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="181" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="74" customFormat="1" ht="153" spans="1:3">
+    <row r="182" s="72" customFormat="1" ht="153" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="4" t="s">
         <v>268</v>
@@ -35660,7 +35270,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="183" s="74" customFormat="1" ht="76.5" spans="1:3">
+    <row r="183" s="72" customFormat="1" ht="76.5" spans="1:3">
       <c r="A183" s="36" t="s">
         <v>270</v>
       </c>
@@ -35671,7 +35281,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="184" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="184" s="72" customFormat="1" ht="114.75" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>273</v>
@@ -35680,7 +35290,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="185" s="72" customFormat="1" ht="114.75" spans="1:3">
       <c r="A185" s="36"/>
       <c r="B185" s="42" t="s">
         <v>275</v>
@@ -35689,7 +35299,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" s="74" customFormat="1" ht="76.5" spans="1:3">
+    <row r="186" s="72" customFormat="1" ht="76.5" spans="1:3">
       <c r="A186" s="36"/>
       <c r="B186" s="42" t="s">
         <v>277</v>
@@ -35698,7 +35308,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="72" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36" t="s">
         <v>279</v>
       </c>
@@ -35709,28 +35319,28 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="188" s="72" customFormat="1" ht="114.75" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="4"/>
       <c r="C188" s="65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="189" s="72" customFormat="1" ht="38.25" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C189" s="65"/>
     </row>
-    <row r="190" s="74" customFormat="1" ht="51" spans="1:3">
+    <row r="190" s="72" customFormat="1" ht="51" spans="1:3">
       <c r="A190" s="36"/>
       <c r="B190" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C190" s="42"/>
     </row>
-    <row r="191" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="191" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A191" s="36"/>
       <c r="B191" s="42" t="s">
         <v>285</v>
@@ -35739,37 +35349,37 @@
         <v>286</v>
       </c>
     </row>
-    <row r="192" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="192" s="72" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A192" s="36"/>
       <c r="B192" s="42" t="s">
         <v>287</v>
       </c>
       <c r="C192" s="42"/>
     </row>
-    <row r="193" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="193" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A193" s="36"/>
       <c r="B193" s="42" t="s">
         <v>288</v>
       </c>
       <c r="C193" s="42"/>
     </row>
-    <row r="194" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="194" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C194" s="42"/>
     </row>
-    <row r="195" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="195" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A195" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="75"/>
-    </row>
-    <row r="196" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C195" s="73"/>
+    </row>
+    <row r="196" s="72" customFormat="1" ht="38.25" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4" t="s">
         <v>292</v>
@@ -35778,140 +35388,140 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" s="74" customFormat="1" ht="76.5" spans="1:3">
+    <row r="197" s="72" customFormat="1" ht="76.5" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4"/>
       <c r="C197" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="198" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="198" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A198" s="36"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="75" t="s">
+      <c r="C198" s="73" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="199" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="199" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A199" s="36"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="75" t="s">
+      <c r="C199" s="73" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="200" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="200" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A200" s="36"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="75" t="s">
+      <c r="C200" s="73" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="201" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="201" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="202" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C202" s="42"/>
     </row>
-    <row r="203" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="203" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A203" s="36"/>
       <c r="B203" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C203" s="42"/>
     </row>
-    <row r="204" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="204" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A204" s="36"/>
       <c r="B204" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C204" s="42"/>
     </row>
-    <row r="205" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="205" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A205" s="36"/>
       <c r="B205" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C205" s="42"/>
     </row>
-    <row r="206" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="206" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A206" s="36"/>
       <c r="B206" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C206" s="42"/>
     </row>
-    <row r="207" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="207" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A207" s="36"/>
       <c r="B207" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C207" s="42"/>
     </row>
-    <row r="208" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="208" s="72" customFormat="1" ht="12.75" spans="1:3">
       <c r="A208" s="36"/>
       <c r="B208" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C208" s="42"/>
     </row>
-    <row r="209" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="209" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A209" s="36"/>
       <c r="B209" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C209" s="42"/>
     </row>
-    <row r="210" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="210" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A210" s="36"/>
       <c r="B210" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C210" s="42"/>
     </row>
-    <row r="211" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="211" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A211" s="36"/>
       <c r="B211" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C211" s="42"/>
     </row>
-    <row r="212" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="212" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A212" s="36"/>
       <c r="B212" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C212" s="42"/>
     </row>
-    <row r="213" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="213" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A213" s="36"/>
       <c r="B213" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C213" s="42"/>
     </row>
-    <row r="214" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="214" s="72" customFormat="1" ht="38.25" spans="1:3">
       <c r="A214" s="36"/>
       <c r="B214" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C214" s="42"/>
     </row>
-    <row r="215" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="215" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A215" s="36"/>
       <c r="B215" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C215" s="42"/>
     </row>
-    <row r="216" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="216" s="72" customFormat="1" ht="25.5" spans="1:3">
       <c r="A216" s="36"/>
       <c r="B216" s="4" t="s">
         <v>313</v>
@@ -36080,10 +35690,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -36181,72 +35791,46 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="24" spans="1:3">
       <c r="A14" s="54"/>
-      <c r="B14" s="70" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" ht="96" spans="1:3">
+      <c r="A15" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="72"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="70" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" ht="24" spans="1:2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="71"/>
+    </row>
+    <row r="17" ht="24" spans="1:2">
+      <c r="A17" s="57" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="70" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" ht="409.5" spans="1:3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="42" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:2">
+      <c r="B17" s="71"/>
+    </row>
+    <row r="18" ht="24" spans="1:2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="71"/>
+    </row>
+    <row r="19" ht="24" spans="1:2">
       <c r="A19" s="54"/>
-      <c r="B19" s="71" t="s">
-        <v>338</v>
-      </c>
+      <c r="B19" s="71"/>
     </row>
     <row r="20" ht="24" spans="1:2">
       <c r="A20" s="54"/>
-      <c r="B20" s="71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" ht="24" spans="1:2">
+      <c r="B20" s="71"/>
+    </row>
+    <row r="21" ht="24" spans="1:1">
       <c r="A21" s="54"/>
-      <c r="B21" s="71" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" ht="24" spans="1:2">
+    </row>
+    <row r="22" ht="24" spans="1:1">
       <c r="A22" s="54"/>
-      <c r="B22" s="71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" ht="24" spans="1:2">
+    </row>
+    <row r="23" ht="24" spans="1:1">
       <c r="A23" s="54"/>
-      <c r="B23" s="71" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="24" ht="24" spans="1:1">
       <c r="A24" s="54"/>
@@ -36293,18 +35877,18 @@
     <row r="38" ht="24" spans="1:1">
       <c r="A38" s="54"/>
     </row>
-    <row r="39" ht="24" spans="1:1">
-      <c r="A39" s="54"/>
-    </row>
-    <row r="40" ht="24" spans="1:1">
-      <c r="A40" s="54"/>
-    </row>
-    <row r="41" ht="24" spans="1:1">
-      <c r="A41" s="54"/>
-    </row>
-    <row r="42" spans="1:2">
+    <row r="39" spans="1:2">
+      <c r="A39" s="34"/>
+      <c r="B39" s="71"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="34"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="34"/>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="34"/>
-      <c r="B42" s="71"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="34"/>
@@ -36375,26 +35959,15 @@
     <row r="65" spans="1:1">
       <c r="A65" s="34"/>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="34"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="34"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="34"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A42:A68"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A39:A65"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="COURSE 1"/>
-    <hyperlink ref="B17" r:id="rId2" display="References, Recursion, IntLists"/>
+    <hyperlink ref="A17" r:id="rId1" display="Algorithms"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -36421,57 +35994,57 @@
   <sheetData>
     <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
     <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="107" t="s">
-        <v>351</v>
+      <c r="A5" s="105" t="s">
+        <v>341</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -36479,7 +36052,7 @@
     </row>
     <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -36495,141 +36068,141 @@
         <v>23</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
     <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
     <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="K12" s="68" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
       <c r="B20" s="59" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D20" s="67"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
       <c r="B21" s="59" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D21" s="67"/>
     </row>
     <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
       <c r="B22" s="59" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D22" s="67"/>
     </row>
@@ -36643,96 +36216,96 @@
         <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A25" s="57"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" s="58" customFormat="1" ht="293.25" spans="1:4">
       <c r="A26" s="57"/>
       <c r="B26" s="59" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A27" s="57"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A28" s="57"/>
       <c r="B28" s="59" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A29" s="57"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A30" s="57"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A31" s="57"/>
       <c r="B31" s="59" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A32" s="57"/>
       <c r="B32" s="59"/>
       <c r="C32" s="67" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D32" s="65"/>
     </row>
@@ -36740,7 +36313,7 @@
       <c r="A33" s="57"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -36748,7 +36321,7 @@
       <c r="A34" s="57"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D34" s="65"/>
     </row>
@@ -36756,39 +36329,39 @@
       <c r="A35" s="57"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D35" s="65"/>
     </row>
     <row r="36" s="58" customFormat="1" ht="127.5" spans="1:4">
       <c r="A36" s="57"/>
       <c r="B36" s="59" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A38" s="57"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D38" s="65"/>
     </row>
@@ -36796,17 +36369,17 @@
       <c r="A39" s="57"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D39" s="65"/>
     </row>
     <row r="40" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A40" s="57"/>
       <c r="B40" s="59" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D40" s="65"/>
     </row>
@@ -36814,30 +36387,30 @@
       <c r="A41" s="57"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A42" s="57"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A43" s="57"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -36845,58 +36418,58 @@
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A45" s="57"/>
       <c r="B45" s="59" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A46" s="57"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A47" s="57"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A48" s="57"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A49" s="57"/>
       <c r="B49" s="59" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D49" s="65"/>
     </row>
@@ -36904,47 +36477,47 @@
       <c r="A50" s="57"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D50" s="65"/>
     </row>
     <row r="51" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A51" s="57"/>
       <c r="B51" s="59" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A52" s="57"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A53" s="57"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A54" s="57"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D54" s="65"/>
     </row>
@@ -36952,17 +36525,17 @@
       <c r="A55" s="57"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D55" s="65"/>
     </row>
     <row r="56" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A56" s="57"/>
       <c r="B56" s="59" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D56" s="65"/>
     </row>
@@ -36970,17 +36543,17 @@
       <c r="A57" s="57"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D57" s="65"/>
     </row>
     <row r="58" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A58" s="57"/>
       <c r="B58" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D58" s="65"/>
     </row>
@@ -36988,27 +36561,27 @@
       <c r="A59" s="57"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D59" s="65"/>
     </row>
     <row r="60" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A60" s="57"/>
       <c r="B60" s="59" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D60" s="65"/>
     </row>
     <row r="61" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A61" s="57"/>
       <c r="B61" s="59" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D61" s="65"/>
     </row>
@@ -37016,7 +36589,7 @@
       <c r="A62" s="57"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D62" s="65"/>
     </row>
@@ -37024,17 +36597,17 @@
       <c r="A63" s="57"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D63" s="65"/>
     </row>
     <row r="64" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A64" s="57"/>
       <c r="B64" s="59" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D64" s="65"/>
     </row>
@@ -37042,7 +36615,7 @@
       <c r="A65" s="57"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D65" s="65"/>
     </row>
@@ -37050,14 +36623,14 @@
       <c r="A66" s="57"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D66" s="65"/>
     </row>
     <row r="67" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A67" s="57"/>
       <c r="B67" s="59" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="65"/>
@@ -37069,16 +36642,16 @@
     </row>
     <row r="69" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A69" s="54" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -37086,7 +36659,7 @@
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="65" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -37094,7 +36667,7 @@
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="65" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -37102,17 +36675,17 @@
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="65" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A73" s="54"/>
       <c r="B73" s="59"/>
       <c r="C73" s="29" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -37120,7 +36693,7 @@
       <c r="B74" s="59"/>
       <c r="C74" s="29"/>
       <c r="D74" s="65" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" s="58" customFormat="1" ht="76.5" spans="1:4">
@@ -37128,7 +36701,7 @@
       <c r="B75" s="59"/>
       <c r="C75" s="29"/>
       <c r="D75" s="65" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -37136,17 +36709,17 @@
       <c r="B76" s="59"/>
       <c r="C76" s="29"/>
       <c r="D76" s="65" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A77" s="54"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -37158,7 +36731,7 @@
     <row r="79" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A79" s="54"/>
       <c r="B79" s="59" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="65"/>
@@ -37256,120 +36829,120 @@
   <sheetData>
     <row r="1" ht="96" spans="1:5">
       <c r="A1" s="54" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" ht="96" spans="1:5">
       <c r="A2" s="54" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="120" spans="1:5">
       <c r="A3" s="54" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="72" spans="1:5">
       <c r="A4" s="54" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="48" spans="1:5">
       <c r="A6" s="54" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="72" spans="1:5">
       <c r="A7" s="55" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="48" spans="1:5">
       <c r="A8" s="54" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="120" spans="1:5">
       <c r="A9" s="54" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="54" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="48" spans="1:5">
       <c r="A11" s="54" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="48" spans="1:5">
       <c r="A12" s="54" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="26"/>
@@ -37377,68 +36950,68 @@
     </row>
     <row r="13" ht="48" spans="1:5">
       <c r="A13" s="54" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="48" spans="1:5">
       <c r="A14" s="54" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="16" ht="96.95" customHeight="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" ht="132.95" customHeight="1" spans="2:4">
       <c r="B17" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="42" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="42" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -37450,24 +37023,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="42" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="3:4">
       <c r="C23" s="19" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:4">
       <c r="A28" s="57" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -37475,49 +37048,49 @@
       <c r="A29" s="57"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:2">
       <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
       <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:2">
       <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:2">
       <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
       <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
       <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -37531,7 +37104,7 @@
     </row>
     <row r="40" ht="72" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -37543,7 +37116,7 @@
     </row>
     <row r="43" ht="48" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B43" s="4"/>
     </row>
@@ -37555,7 +37128,7 @@
     </row>
     <row r="46" ht="48" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B46" s="4"/>
     </row>
@@ -37567,7 +37140,7 @@
     </row>
     <row r="49" ht="72" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B49" s="4"/>
     </row>
@@ -37627,97 +37200,97 @@
   <sheetData>
     <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
       <c r="A12" s="52" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
       <c r="A13" s="52"/>
       <c r="B13" s="6" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
       <c r="A20" s="53" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -37725,24 +37298,24 @@
     </row>
     <row r="21" ht="102" spans="1:2">
       <c r="A21" s="23" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" ht="63.75" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="23" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -37775,462 +37348,462 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>563</v>
+        <v>552</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B13" s="35"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="25" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="25" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="25" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="33" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="25" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="25" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
       <c r="A30" s="41" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="26" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="33" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="25" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="25" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="25" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="25" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="33" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="25" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="25" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="41" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="33" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="25" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="43" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="43" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="43" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="44" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="33" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="33" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="25" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="33" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="33" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="43" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="25" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="43" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="43" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="34" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B63" s="35"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="33" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="25" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C65" s="46"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="36" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C66" s="46"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="33" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C67" s="46"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="33" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
       <c r="B69" s="48" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
       <c r="B70" s="48" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
       <c r="B71" s="48" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -38238,296 +37811,296 @@
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="36" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="36"/>
       <c r="B74" s="47" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="36"/>
       <c r="B75" s="47" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="33" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="25" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="25" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="33" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
       <c r="A81" s="36" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="36"/>
       <c r="B82" s="49" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
       <c r="A83" s="36"/>
       <c r="B83" s="43" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
       <c r="A84" s="36"/>
       <c r="B84" s="43" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="33" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="43" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="25" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="33" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="43" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
       <c r="B90" s="50" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="25" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="25" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="25" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="34" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B95" s="35"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
       <c r="A96" s="36" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
       <c r="B98" s="47" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="25" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="33" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="43" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="43" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="43" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="43" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
       <c r="B105" s="50" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="33" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="33" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="43" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
       <c r="A109" s="36" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
       <c r="A110" s="36"/>
       <c r="B110" s="43" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
       <c r="A111" s="36" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
       <c r="A112" s="36"/>
       <c r="B112" s="25" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
       <c r="A113" s="36"/>
       <c r="B113" s="25" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="36"/>
       <c r="B114" s="25" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
       <c r="A115" s="36"/>
       <c r="B115" s="25" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
       <c r="A116" s="36"/>
       <c r="B116" s="25" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
       <c r="A117" s="36"/>
       <c r="B117" s="25" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
       <c r="A118" s="36"/>
       <c r="B118" s="24" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
       <c r="A119" s="36"/>
       <c r="B119" s="25" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
       <c r="A120" s="36"/>
       <c r="B120" s="24" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
       <c r="A121" s="36"/>
       <c r="B121" s="24" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
       <c r="A122" s="36"/>
       <c r="B122" s="24" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -38607,230 +38180,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B6" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B8" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B10" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B16" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B24" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B26" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23"/>
       <c r="B29" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23"/>
       <c r="B34" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1142">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -7862,367 +7862,65 @@
     <t>Annotations for Concurrency</t>
   </si>
   <si>
-    <t>Fundamental Data Structures</t>
-  </si>
-  <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>Singly Linked Lists</t>
-  </si>
-  <si>
-    <t>Circularly Linked Lists</t>
-  </si>
-  <si>
-    <t>Doubly Linked Lists</t>
-  </si>
-  <si>
-    <t>Equivalence Testing</t>
-  </si>
-  <si>
-    <t>Cloning Data Structures</t>
-  </si>
-  <si>
-    <t>Algorithm Analysis</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Data structure is a systematic way of organizing and accessing data.
- - Algorithm is a step-by-step procedure for performing some task in a finite amount of time.
- - Running time is a natural measure of “goodness,” since time is a precious resource—computer solutions should run as fast as possible.</t>
-  </si>
-  <si>
-    <t>Experimental Studies</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - One way to study the efficiency of an algorithm is to implement it and experiment by running the program on various test inputs while recording the time spent during each execution
-- The key is that if we record the time immediately before executing the algorithm and then immediately after, we can measure the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elapsed time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of an algorithm’s execution by computing the difference of those times.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Challenges of Experimental Analysis:
-- Experimental running times of two algorithms are difficult to directly compare unless the experiments are performed in the same hardware and software environments.
-- Experiments can be done only on a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>limited set of test inputs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; hence, they </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>leave out the running times of inputs not included in the experiment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (and these inputs may be important).
-- An algorithm must be fully implemented in order to execute it to study its running time experimentally. Is the most serious drawback, at </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>early stages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(giai đoạn đầu) of design, when considering a choice of data structures or algorithms, it would be </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>foolish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(ngu ngốc) to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spend a significant amount of time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(dành quá nhiều thời gian) implementing an approach that could easily be </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deemed inferior</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(được coi là kém hiệu quả) by a higher-level analysis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Moving Beyond Experimental Analysis:
-Our goal is to develop an approach to analyzing the efficiency of algorithms that:
--  Allows us to evaluate(đánh giá) the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>relative efficiency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(hiệu quả tương đối) of any two algorithms in a way that is independent of the hardware and software environment.
-- Is performed by </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>studying a high-level description of the algorithm without need for implementation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-- Takes into account </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all possible inputs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Counting Primitive Operations:
-- Analyze the running time of an algorithm without performing experiments, we </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>perform an analysis directly on a high-level description of the algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (either in the form of an actual code fragment, or language-independent pseudocode). We define a set of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>primitive operations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-  + Assigning a value to a variable
-  + Following an object reference
-  + Performing an arithmetic operation (for example, adding two numbers)
-- A primitive operation corresponds to a low-level instruction with an execution time that is constant.
-- Instead of trying to determine the specific execution time of each primitive operation, we will simply count how many primitive operations are executed, and use this number t as a measure of the running time of the algorithm.</t>
-    </r>
-  </si>
-  <si>
-    <t>Measuring Operations as a Function of Input Size: To capture the order of growth of an algorithm’s running time, we will associate, with each algorithm, a function f (n) that characterizes the number of primitive operations that are performed as a function of the input size n.</t>
-  </si>
-  <si>
-    <t>Focusing on the Worst-Case Input</t>
-  </si>
-  <si>
-    <t>Data Structure &amp; 
-Algorithms 
-in Java(2nd)</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
+    <t>DATA STRUCTURE &amp; ALGORITHM IN JAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHAPTER 1 Arrays</t>
+  </si>
+  <si>
+    <t>The basics of Array in Java</t>
+  </si>
+  <si>
+    <t>CHAPTER 2
+Simple Sorting</t>
+  </si>
+  <si>
+    <t>CHAPTER 3
+Stack and Queues</t>
+  </si>
+  <si>
+    <t>CHAPTER 4
+Linked List</t>
+  </si>
+  <si>
+    <t>CHAPTER 5
+Recursion</t>
+  </si>
+  <si>
+    <t>CHAPTER 6
+Advance Sorting</t>
+  </si>
+  <si>
+    <t>CHAPTER 7
+Binary Trees</t>
+  </si>
+  <si>
+    <t>CHAPTER 8
+Red-Black Trees</t>
+  </si>
+  <si>
+    <t>CHAPTER 9
+2-3-4 Trees and External Storage</t>
+  </si>
+  <si>
+    <t>CHAPTER 10
+Hash Table</t>
+  </si>
+  <si>
+    <t>CHAPTER 11
+Heaps</t>
+  </si>
+  <si>
+    <t>CHAPTER 12
+Graphs</t>
+  </si>
+  <si>
+    <t>CHAPTER 13
+Weighted Graphs</t>
+  </si>
+  <si>
+    <t>CHAPTER 14
+When to use What</t>
   </si>
   <si>
     <t>JDBC là gì?</t>
@@ -10673,6 +10371,9 @@
     <t>Inversion of Control (IoC)</t>
   </si>
   <si>
+    <t>Introduction</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -28932,11 +28633,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29109,8 +28810,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -29173,22 +28892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29210,8 +28914,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29226,28 +28939,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -29255,17 +28953,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29286,11 +28983,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29406,13 +29125,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29424,13 +29161,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29442,19 +29197,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29466,61 +29239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29538,7 +29257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29550,31 +29269,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29645,15 +29364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -29669,13 +29379,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29704,119 +29418,124 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29828,31 +29547,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29860,7 +29579,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -30053,11 +29772,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -30065,34 +29794,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30101,7 +29830,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -30116,19 +29845,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30137,13 +29866,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -30152,7 +29881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -31159,7 +30888,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
     </row>
@@ -31170,7 +30899,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="104" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31178,10 +30907,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="104" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31192,7 +30921,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31214,7 +30943,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="105" t="s">
         <v>11</v>
       </c>
     </row>
@@ -31225,7 +30954,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="102" t="s">
         <v>13</v>
       </c>
     </row>
@@ -31236,7 +30965,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="102" t="s">
         <v>15</v>
       </c>
     </row>
@@ -31247,7 +30976,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="104" t="s">
         <v>17</v>
       </c>
     </row>
@@ -31296,7 +31025,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -31326,7 +31055,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="102" t="s">
         <v>37</v>
       </c>
     </row>
@@ -31334,7 +31063,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="102" t="s">
         <v>39</v>
       </c>
     </row>
@@ -31365,276 +31094,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31643,10 +31372,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -31688,26 +31417,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -31733,26 +31462,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -31760,31 +31489,31 @@
         <v>188</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31792,37 +31521,37 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -31852,110 +31581,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -31991,16 +31720,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -32010,10 +31739,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -32023,10 +31752,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -32036,10 +31765,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -32049,10 +31778,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -32062,10 +31791,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -32075,10 +31804,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -32088,10 +31817,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -32101,10 +31830,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -32114,10 +31843,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -32127,10 +31856,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -32140,10 +31869,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -32153,10 +31882,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -32166,10 +31895,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -32179,10 +31908,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -32192,10 +31921,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -32205,10 +31934,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -32218,10 +31947,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -32231,10 +31960,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -32244,10 +31973,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -32256,13 +31985,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -32272,13 +32001,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -32289,10 +32018,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -32303,10 +32032,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -32317,10 +32046,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -32331,10 +32060,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -32344,10 +32073,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -32357,10 +32086,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -32370,10 +32099,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -32382,13 +32111,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -32398,10 +32127,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -32411,13 +32140,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>930</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -32428,10 +32157,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -32442,10 +32171,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -32456,10 +32185,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -32468,7 +32197,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -32477,13 +32206,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -32493,13 +32222,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>938</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>940</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -32509,10 +32238,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -32522,10 +32251,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -32535,10 +32264,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -32548,10 +32277,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -32561,13 +32290,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>949</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>951</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -32577,10 +32306,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -32590,13 +32319,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>954</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>956</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -32606,10 +32335,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -32619,10 +32348,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -32632,10 +32361,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -32644,13 +32373,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -32660,13 +32389,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -32676,10 +32405,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -32689,10 +32418,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -32702,10 +32431,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -32715,10 +32444,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -32728,7 +32457,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -32738,10 +32467,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -32751,10 +32480,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -32764,10 +32493,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -32777,7 +32506,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -32787,7 +32516,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -32797,13 +32526,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -32813,7 +32542,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -32822,13 +32551,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -32838,13 +32567,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -32854,10 +32583,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -32867,10 +32596,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -32880,10 +32609,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -32893,10 +32622,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -32906,10 +32635,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -32919,10 +32648,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -32932,10 +32661,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -32944,392 +32673,392 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="D100" s="4" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
@@ -33343,278 +33072,278 @@
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>1080</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -33622,17 +33351,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -33640,37 +33369,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -33678,51 +33407,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -33734,7 +33463,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -33742,28 +33471,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -33889,11 +33618,11 @@
   <cols>
     <col min="1" max="1" width="17.4266666666667" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.2866666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="184.5" style="73" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="72"/>
+    <col min="3" max="3" width="184.5" style="77" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" s="72" customFormat="1" ht="86.25" spans="1:3">
+    <row r="1" s="76" customFormat="1" ht="86.25" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
@@ -33902,7 +33631,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="2" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
@@ -33911,155 +33640,155 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="3" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" s="72" customFormat="1" ht="69" spans="1:3">
+    <row r="4" s="76" customFormat="1" ht="69" spans="1:3">
       <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" s="72" customFormat="1" ht="86.25" spans="1:3">
+      <c r="C4" s="78"/>
+    </row>
+    <row r="5" s="76" customFormat="1" ht="86.25" spans="1:3">
       <c r="A5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="106" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="6" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="106" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="7" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" s="72" customFormat="1" spans="1:3">
+    <row r="8" s="76" customFormat="1" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" s="72" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="104" t="s">
+    <row r="9" s="76" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A9" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="106" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" s="72" customFormat="1" spans="1:3">
+    <row r="10" s="76" customFormat="1" spans="1:3">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" s="72" customFormat="1" spans="1:3">
+    <row r="11" s="76" customFormat="1" spans="1:3">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" s="72" customFormat="1" ht="327.75" spans="1:3">
+    <row r="12" s="76" customFormat="1" ht="327.75" spans="1:3">
       <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" s="72" customFormat="1" ht="103.5" spans="1:3">
-      <c r="A13" s="75" t="s">
+    <row r="13" s="76" customFormat="1" ht="103.5" spans="1:3">
+      <c r="A13" s="79" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" s="72" customFormat="1" ht="86.25" spans="1:3">
-      <c r="A14" s="76" t="s">
+    <row r="14" s="76" customFormat="1" ht="86.25" spans="1:3">
+      <c r="A14" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="78"/>
-    </row>
-    <row r="15" s="72" customFormat="1" ht="69" spans="1:3">
-      <c r="A15" s="75" t="s">
+      <c r="C14" s="82"/>
+    </row>
+    <row r="15" s="76" customFormat="1" ht="69" spans="1:3">
+      <c r="A15" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="80"/>
-    </row>
-    <row r="16" s="72" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A16" s="76" t="s">
+      <c r="C15" s="84"/>
+    </row>
+    <row r="16" s="76" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A16" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="82"/>
-    </row>
-    <row r="17" s="72" customFormat="1" spans="1:3">
-      <c r="A17" s="75" t="s">
+      <c r="C16" s="86"/>
+    </row>
+    <row r="17" s="76" customFormat="1" spans="1:3">
+      <c r="A17" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="80"/>
-    </row>
-    <row r="18" s="72" customFormat="1" spans="1:3">
-      <c r="A18" s="76" t="s">
+      <c r="C17" s="84"/>
+    </row>
+    <row r="18" s="76" customFormat="1" spans="1:3">
+      <c r="A18" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" s="72" customFormat="1" spans="1:3">
-      <c r="A19" s="75" t="s">
+    <row r="19" s="76" customFormat="1" spans="1:3">
+      <c r="A19" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="78"/>
-    </row>
-    <row r="20" s="72" customFormat="1" spans="1:3">
+      <c r="C19" s="82"/>
+    </row>
+    <row r="20" s="76" customFormat="1" spans="1:3">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" s="72" customFormat="1" spans="1:3">
+    <row r="21" s="76" customFormat="1" spans="1:3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" s="72" customFormat="1" spans="1:3">
+    <row r="22" s="76" customFormat="1" spans="1:3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" s="72" customFormat="1" spans="1:3">
+    <row r="23" s="76" customFormat="1" spans="1:3">
       <c r="A23" s="36" t="s">
         <v>68</v>
       </c>
@@ -34068,14 +33797,14 @@
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" s="72" customFormat="1" spans="1:3">
+    <row r="24" s="76" customFormat="1" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="25" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A25" s="36" t="s">
         <v>71</v>
       </c>
@@ -34084,7 +33813,7 @@
       </c>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="26" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A26" s="36" t="s">
         <v>73</v>
       </c>
@@ -34093,19 +33822,19 @@
       </c>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" s="72" customFormat="1" spans="1:3">
+    <row r="27" s="76" customFormat="1" spans="1:3">
       <c r="A27" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" s="72" customFormat="1" spans="1:3">
+    <row r="28" s="76" customFormat="1" spans="1:3">
       <c r="A28" s="36"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" s="72" customFormat="1" spans="1:3">
+    <row r="29" s="76" customFormat="1" spans="1:3">
       <c r="A29" s="36" t="s">
         <v>76</v>
       </c>
@@ -34114,33 +33843,33 @@
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" s="72" customFormat="1" spans="1:3">
+    <row r="30" s="76" customFormat="1" spans="1:3">
       <c r="A30" s="36"/>
       <c r="B30" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" s="72" customFormat="1" spans="1:3">
+    <row r="31" s="76" customFormat="1" spans="1:3">
       <c r="A31" s="36"/>
       <c r="B31" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" s="72" customFormat="1" spans="1:3">
+    <row r="32" s="76" customFormat="1" spans="1:3">
       <c r="A32" s="36"/>
       <c r="B32" s="42" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" s="72" customFormat="1" spans="1:3">
+    <row r="33" s="76" customFormat="1" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" s="72" customFormat="1" spans="1:3">
+    <row r="34" s="76" customFormat="1" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>81</v>
       </c>
@@ -34149,7 +33878,7 @@
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" s="72" customFormat="1" spans="1:3">
+    <row r="35" s="76" customFormat="1" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>83</v>
       </c>
@@ -34158,14 +33887,14 @@
       </c>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" s="72" customFormat="1" spans="1:3">
+    <row r="36" s="76" customFormat="1" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" s="72" customFormat="1" spans="1:3">
+    <row r="37" s="76" customFormat="1" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>86</v>
       </c>
@@ -34174,7 +33903,7 @@
       </c>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="38" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>88</v>
       </c>
@@ -34183,16 +33912,16 @@
       </c>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" s="72" customFormat="1" spans="1:3">
+    <row r="39" s="76" customFormat="1" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="73"/>
-    </row>
-    <row r="40" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C39" s="77"/>
+    </row>
+    <row r="40" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>92</v>
       </c>
@@ -34201,28 +33930,28 @@
       </c>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="41" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A41" s="36"/>
       <c r="B41" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="42" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A42" s="36"/>
       <c r="B42" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="43" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A43" s="36"/>
       <c r="B43" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="44" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>97</v>
       </c>
@@ -34231,14 +33960,14 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="45" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A45" s="36"/>
       <c r="B45" s="50" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="50"/>
     </row>
-    <row r="46" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="46" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>100</v>
       </c>
@@ -34247,14 +33976,14 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="47" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A47" s="36"/>
       <c r="B47" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="48" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A48" s="36" t="s">
         <v>103</v>
       </c>
@@ -34263,7 +33992,7 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" s="72" customFormat="1" spans="1:3">
+    <row r="49" s="76" customFormat="1" spans="1:3">
       <c r="A49" s="36" t="s">
         <v>105</v>
       </c>
@@ -34272,7 +34001,7 @@
       </c>
       <c r="C49" s="42"/>
     </row>
-    <row r="50" s="72" customFormat="1" spans="1:3">
+    <row r="50" s="76" customFormat="1" spans="1:3">
       <c r="A50" s="36" t="s">
         <v>107</v>
       </c>
@@ -34281,7 +34010,7 @@
       </c>
       <c r="C50" s="42"/>
     </row>
-    <row r="51" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="51" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A51" s="36" t="s">
         <v>109</v>
       </c>
@@ -34290,22 +34019,22 @@
       </c>
       <c r="C51" s="42"/>
     </row>
-    <row r="52" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="52" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A52" s="36"/>
       <c r="B52" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="53" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A53" s="36"/>
       <c r="B53" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="42"/>
     </row>
-    <row r="54" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A54" s="83" t="s">
+    <row r="54" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A54" s="87" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="42" t="s">
@@ -34313,49 +34042,49 @@
       </c>
       <c r="C54" s="42"/>
     </row>
-    <row r="55" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A55" s="83"/>
+    <row r="55" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A55" s="87"/>
       <c r="B55" s="42" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="42"/>
     </row>
-    <row r="56" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A56" s="83"/>
+    <row r="56" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A56" s="87"/>
       <c r="B56" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="50"/>
     </row>
-    <row r="57" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A57" s="83"/>
+    <row r="57" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A57" s="87"/>
       <c r="B57" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="50"/>
     </row>
-    <row r="58" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A58" s="83"/>
+    <row r="58" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A58" s="87"/>
       <c r="B58" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="42"/>
     </row>
-    <row r="59" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84" t="s">
+    <row r="59" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A59" s="87"/>
+      <c r="B59" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="84"/>
-    </row>
-    <row r="60" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A60" s="83"/>
-      <c r="B60" s="85" t="s">
+      <c r="C59" s="88"/>
+    </row>
+    <row r="60" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A60" s="87"/>
+      <c r="B60" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="85"/>
-    </row>
-    <row r="61" s="72" customFormat="1" spans="1:3">
+      <c r="C60" s="89"/>
+    </row>
+    <row r="61" s="76" customFormat="1" spans="1:3">
       <c r="A61" s="36" t="s">
         <v>121</v>
       </c>
@@ -34364,7 +34093,7 @@
       </c>
       <c r="C61" s="42"/>
     </row>
-    <row r="62" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="62" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A62" s="36" t="s">
         <v>123</v>
       </c>
@@ -34373,7 +34102,7 @@
       </c>
       <c r="C62" s="42"/>
     </row>
-    <row r="63" s="72" customFormat="1" ht="18" spans="1:3">
+    <row r="63" s="76" customFormat="1" ht="18" spans="1:3">
       <c r="A63" s="36" t="s">
         <v>125</v>
       </c>
@@ -34382,8 +34111,8 @@
       </c>
       <c r="C63" s="42"/>
     </row>
-    <row r="64" s="72" customFormat="1" ht="53.25" spans="1:3">
-      <c r="A64" s="86" t="s">
+    <row r="64" s="76" customFormat="1" ht="53.25" spans="1:3">
+      <c r="A64" s="90" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="42" t="s">
@@ -34391,8 +34120,8 @@
       </c>
       <c r="C64" s="42"/>
     </row>
-    <row r="65" s="72" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="86" t="s">
+    <row r="65" s="76" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A65" s="90" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -34400,44 +34129,44 @@
       </c>
       <c r="C65" s="42"/>
     </row>
-    <row r="66" s="72" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="86"/>
+    <row r="66" s="76" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A66" s="90"/>
       <c r="B66" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" s="72" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A67" s="87" t="s">
+    <row r="67" s="76" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A67" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="85"/>
-    </row>
-    <row r="68" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A68" s="88"/>
-      <c r="B68" s="89" t="s">
+      <c r="C67" s="89"/>
+    </row>
+    <row r="68" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A68" s="92"/>
+      <c r="B68" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="89"/>
-    </row>
-    <row r="69" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A69" s="88"/>
-      <c r="B69" s="85" t="s">
+      <c r="C68" s="93"/>
+    </row>
+    <row r="69" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A69" s="92"/>
+      <c r="B69" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="85"/>
-    </row>
-    <row r="70" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A70" s="88"/>
-      <c r="B70" s="85" t="s">
+      <c r="C69" s="89"/>
+    </row>
+    <row r="70" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A70" s="92"/>
+      <c r="B70" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="85"/>
-    </row>
-    <row r="71" s="72" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C70" s="89"/>
+    </row>
+    <row r="71" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A71" s="36" t="s">
         <v>137</v>
       </c>
@@ -34446,21 +34175,21 @@
       </c>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="72" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A72" s="36"/>
       <c r="B72" s="50" t="s">
         <v>139</v>
       </c>
       <c r="C72" s="50"/>
     </row>
-    <row r="73" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="73" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A73" s="36"/>
       <c r="B73" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C73" s="42"/>
     </row>
-    <row r="74" s="72" customFormat="1" spans="1:3">
+    <row r="74" s="76" customFormat="1" spans="1:3">
       <c r="A74" s="36" t="s">
         <v>141</v>
       </c>
@@ -34469,7 +34198,7 @@
       </c>
       <c r="C74" s="42"/>
     </row>
-    <row r="75" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="75" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A75" s="36" t="s">
         <v>143</v>
       </c>
@@ -34478,63 +34207,63 @@
       </c>
       <c r="C75" s="42"/>
     </row>
-    <row r="76" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="76" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A76" s="36"/>
       <c r="B76" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="42"/>
     </row>
-    <row r="77" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="77" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A77" s="36"/>
       <c r="B77" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="42"/>
     </row>
-    <row r="78" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="78" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A78" s="36"/>
       <c r="B78" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C78" s="42"/>
     </row>
-    <row r="79" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="79" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A79" s="36"/>
       <c r="B79" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C79" s="50"/>
     </row>
-    <row r="80" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="80" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A80" s="36"/>
       <c r="B80" s="50" t="s">
         <v>149</v>
       </c>
       <c r="C80" s="50"/>
     </row>
-    <row r="81" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="81" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A81" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
     </row>
-    <row r="82" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="82" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A82" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
     </row>
-    <row r="83" s="72" customFormat="1" spans="1:3">
+    <row r="83" s="76" customFormat="1" spans="1:3">
       <c r="A83" s="36" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
     </row>
-    <row r="84" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="84" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A84" s="36" t="s">
         <v>153</v>
       </c>
@@ -34543,95 +34272,95 @@
       </c>
       <c r="C84" s="42"/>
     </row>
-    <row r="85" s="72" customFormat="1" spans="1:3">
+    <row r="85" s="76" customFormat="1" spans="1:3">
       <c r="A85" s="36"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
     </row>
-    <row r="86" s="72" customFormat="1" spans="1:3">
+    <row r="86" s="76" customFormat="1" spans="1:3">
       <c r="A86" s="36"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" s="72" customFormat="1" spans="1:3">
+    <row r="87" s="76" customFormat="1" spans="1:3">
       <c r="A87" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
     </row>
-    <row r="88" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="88" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A88" s="36" t="s">
         <v>156</v>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
     </row>
-    <row r="89" s="72" customFormat="1" ht="51.75" spans="1:3">
+    <row r="89" s="76" customFormat="1" ht="51.75" spans="1:3">
       <c r="A89" s="36" t="s">
         <v>157</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
     </row>
-    <row r="90" s="72" customFormat="1" spans="1:3">
+    <row r="90" s="76" customFormat="1" spans="1:3">
       <c r="A90" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
     </row>
-    <row r="91" s="72" customFormat="1" spans="1:3">
+    <row r="91" s="76" customFormat="1" spans="1:3">
       <c r="A91" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
     </row>
-    <row r="92" s="72" customFormat="1" spans="1:3">
+    <row r="92" s="76" customFormat="1" spans="1:3">
       <c r="A92" s="36" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
     </row>
-    <row r="93" s="72" customFormat="1" ht="34.5" spans="1:3">
+    <row r="93" s="76" customFormat="1" ht="34.5" spans="1:3">
       <c r="A93" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" s="72" customFormat="1" spans="1:3">
+    <row r="94" s="76" customFormat="1" spans="1:3">
       <c r="A94" s="36" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
     </row>
-    <row r="95" s="72" customFormat="1" spans="1:3">
+    <row r="95" s="76" customFormat="1" spans="1:3">
       <c r="A95" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
     </row>
-    <row r="96" s="72" customFormat="1" spans="1:3">
+    <row r="96" s="76" customFormat="1" spans="1:3">
       <c r="A96" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
     </row>
-    <row r="97" s="72" customFormat="1" spans="1:3">
+    <row r="97" s="76" customFormat="1" spans="1:3">
       <c r="A97" s="36" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
     </row>
-    <row r="98" s="72" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A98" s="90" t="s">
+    <row r="98" s="76" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A98" s="94" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -34639,153 +34368,153 @@
       </c>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" s="72" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="99" s="76" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
         <v>167</v>
       </c>
       <c r="C99" s="50"/>
     </row>
-    <row r="100" s="72" customFormat="1" ht="48" customHeight="1" spans="1:3">
+    <row r="100" s="76" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
         <v>168</v>
       </c>
       <c r="C100" s="50"/>
     </row>
-    <row r="101" s="72" customFormat="1" ht="53" customHeight="1" spans="1:3">
+    <row r="101" s="76" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="50" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="50"/>
     </row>
-    <row r="102" s="72" customFormat="1" ht="54" customHeight="1" spans="1:3">
+    <row r="102" s="76" customFormat="1" ht="54" customHeight="1" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C102" s="50"/>
     </row>
-    <row r="103" s="72" customFormat="1" ht="117" customHeight="1" spans="1:3">
+    <row r="103" s="76" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="50" t="s">
         <v>171</v>
       </c>
       <c r="C103" s="50"/>
     </row>
-    <row r="104" s="72" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="104" s="76" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="50"/>
     </row>
-    <row r="105" s="72" customFormat="1" ht="309" customHeight="1" spans="1:3">
+    <row r="105" s="76" customFormat="1" ht="309" customHeight="1" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="50" t="s">
         <v>173</v>
       </c>
       <c r="C105" s="50"/>
     </row>
-    <row r="106" s="72" customFormat="1" ht="409" customHeight="1" spans="1:3">
+    <row r="106" s="76" customFormat="1" ht="409" customHeight="1" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="50" t="s">
         <v>174</v>
       </c>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" s="72" customFormat="1" ht="83" customHeight="1" spans="1:3">
+    <row r="107" s="76" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="50" t="s">
         <v>175</v>
       </c>
       <c r="C107" s="50"/>
     </row>
-    <row r="108" s="72" customFormat="1" ht="346" customHeight="1" spans="1:3">
+    <row r="108" s="76" customFormat="1" ht="346" customHeight="1" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="50" t="s">
         <v>176</v>
       </c>
       <c r="C108" s="50"/>
     </row>
-    <row r="109" s="72" customFormat="1" ht="205" customHeight="1" spans="1:3">
+    <row r="109" s="76" customFormat="1" ht="205" customHeight="1" spans="1:3">
       <c r="A109" s="36"/>
-      <c r="B109" s="84" t="s">
+      <c r="B109" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="84"/>
-    </row>
-    <row r="110" s="72" customFormat="1" ht="409" customHeight="1" spans="1:4">
-      <c r="A110" s="91" t="s">
+      <c r="C109" s="88"/>
+    </row>
+    <row r="110" s="76" customFormat="1" ht="409" customHeight="1" spans="1:4">
+      <c r="A110" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="84" t="s">
+      <c r="B110" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="84"/>
+      <c r="C110" s="88"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="72" customFormat="1" ht="270" customHeight="1" spans="1:4">
-      <c r="A111" s="91"/>
-      <c r="B111" s="84" t="s">
+    <row r="111" s="76" customFormat="1" ht="270" customHeight="1" spans="1:4">
+      <c r="A111" s="95"/>
+      <c r="B111" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="84"/>
+      <c r="C111" s="88"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="72" customFormat="1" ht="324" customHeight="1" spans="1:4">
-      <c r="A112" s="91"/>
-      <c r="B112" s="92" t="s">
+    <row r="112" s="76" customFormat="1" ht="324" customHeight="1" spans="1:4">
+      <c r="A112" s="95"/>
+      <c r="B112" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="92"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="72" customFormat="1" ht="363" customHeight="1" spans="1:3">
-      <c r="A113" s="91"/>
-      <c r="B113" s="93" t="s">
+    <row r="113" s="76" customFormat="1" ht="363" customHeight="1" spans="1:3">
+      <c r="A113" s="95"/>
+      <c r="B113" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="93"/>
-    </row>
-    <row r="114" s="72" customFormat="1" ht="267" customHeight="1" spans="1:3">
-      <c r="A114" s="91"/>
+      <c r="C113" s="97"/>
+    </row>
+    <row r="114" s="76" customFormat="1" ht="267" customHeight="1" spans="1:3">
+      <c r="A114" s="95"/>
       <c r="B114" s="50" t="s">
         <v>183</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="72" customFormat="1" ht="343" customHeight="1" spans="1:3">
-      <c r="A115" s="91"/>
-      <c r="B115" s="92" t="s">
+    <row r="115" s="76" customFormat="1" ht="343" customHeight="1" spans="1:3">
+      <c r="A115" s="95"/>
+      <c r="B115" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="92"/>
-    </row>
-    <row r="116" s="72" customFormat="1" ht="408" customHeight="1" spans="1:3">
-      <c r="A116" s="91"/>
-      <c r="B116" s="84" t="s">
+      <c r="C115" s="96"/>
+    </row>
+    <row r="116" s="76" customFormat="1" ht="408" customHeight="1" spans="1:3">
+      <c r="A116" s="95"/>
+      <c r="B116" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="84"/>
-    </row>
-    <row r="117" s="72" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A117" s="91"/>
-      <c r="B117" s="84" t="s">
+      <c r="C116" s="88"/>
+    </row>
+    <row r="117" s="76" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A117" s="95"/>
+      <c r="B117" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="84"/>
-    </row>
-    <row r="118" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A118" s="91"/>
-      <c r="B118" s="84" t="s">
+      <c r="C117" s="88"/>
+    </row>
+    <row r="118" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A118" s="95"/>
+      <c r="B118" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="84"/>
-    </row>
-    <row r="119" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A119" s="94" t="s">
+      <c r="C118" s="88"/>
+    </row>
+    <row r="119" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A119" s="98" t="s">
         <v>188</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -34795,52 +34524,52 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" s="72" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="94"/>
+    <row r="120" s="76" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A120" s="98"/>
       <c r="B120" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="77" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" s="72" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="95"/>
+    <row r="121" s="76" customFormat="1" ht="207" customHeight="1" spans="1:3">
+      <c r="A121" s="99"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" s="72" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="95"/>
+    <row r="122" s="76" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A122" s="99"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="123" s="72" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="95"/>
+    <row r="123" s="76" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A123" s="99"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="124" s="72" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="95"/>
+    <row r="124" s="76" customFormat="1" ht="102" spans="1:3">
+      <c r="A124" s="99"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="125" s="72" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="95"/>
+    <row r="125" s="76" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A125" s="99"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="126" s="72" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="95"/>
+    <row r="126" s="76" customFormat="1" ht="102" spans="1:3">
+      <c r="A126" s="99"/>
       <c r="B126" s="4" t="s">
         <v>198</v>
       </c>
@@ -34848,43 +34577,43 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" s="72" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="95"/>
+    <row r="127" s="76" customFormat="1" ht="51" spans="1:3">
+      <c r="A127" s="99"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" s="72" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="95"/>
+    <row r="128" s="76" customFormat="1" ht="216.75" spans="1:3">
+      <c r="A128" s="99"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="129" s="72" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="95"/>
+    <row r="129" s="76" customFormat="1" ht="267.75" spans="1:3">
+      <c r="A129" s="99"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" s="72" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="95"/>
+    <row r="130" s="76" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A130" s="99"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="131" s="72" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="95"/>
+    <row r="131" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A131" s="99"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="132" s="72" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="95"/>
+    <row r="132" s="76" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A132" s="99"/>
       <c r="B132" s="4" t="s">
         <v>205</v>
       </c>
@@ -34892,262 +34621,262 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" s="72" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="95"/>
+    <row r="133" s="76" customFormat="1" ht="51" spans="1:3">
+      <c r="A133" s="99"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="134" s="72" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="95"/>
+    <row r="134" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A134" s="99"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="96" t="s">
+      <c r="C134" s="100" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="135" s="72" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="95"/>
+    <row r="135" s="76" customFormat="1" ht="51" spans="1:3">
+      <c r="A135" s="99"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="96" t="s">
+      <c r="C135" s="100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" s="72" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="95"/>
+    <row r="136" s="76" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A136" s="99"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="96" t="s">
+      <c r="C136" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" s="72" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="95"/>
+    <row r="137" s="76" customFormat="1" ht="204" spans="1:3">
+      <c r="A137" s="99"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="96" t="s">
+      <c r="C137" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" s="72" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="95"/>
+    <row r="138" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A138" s="99"/>
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="97" t="s">
+      <c r="C138" s="101" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" s="72" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="95"/>
+    <row r="139" s="76" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A139" s="99"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="73" t="s">
+      <c r="C139" s="77" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" s="72" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="95"/>
+    <row r="140" s="76" customFormat="1" ht="229.5" spans="1:3">
+      <c r="A140" s="99"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="96" t="s">
+      <c r="C140" s="100" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" s="72" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="95"/>
+    <row r="141" s="76" customFormat="1" ht="242.25" spans="1:3">
+      <c r="A141" s="99"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="96" t="s">
+      <c r="C141" s="100" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" s="72" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="95"/>
+    <row r="142" s="76" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A142" s="99"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="96" t="s">
+      <c r="C142" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" s="72" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="95"/>
+    <row r="143" s="76" customFormat="1" ht="204" spans="1:3">
+      <c r="A143" s="99"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="96" t="s">
+      <c r="C143" s="100" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="144" s="72" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="95"/>
+    <row r="144" s="76" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A144" s="99"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="96" t="s">
+      <c r="C144" s="100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="145" s="72" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="95"/>
+    <row r="145" s="76" customFormat="1" ht="280.5" spans="1:3">
+      <c r="A145" s="99"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="96" t="s">
+      <c r="C145" s="100" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="95"/>
+    <row r="146" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A146" s="99"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="96" t="s">
+      <c r="C146" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="147" s="72" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="95"/>
+    <row r="147" s="76" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A147" s="99"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="96" t="s">
+      <c r="C147" s="100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" s="72" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="95"/>
+    <row r="148" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A148" s="99"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="96" t="s">
+      <c r="C148" s="100" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="149" s="72" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="95"/>
+    <row r="149" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A149" s="99"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="96" t="s">
+      <c r="C149" s="100" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="150" s="72" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="95"/>
+    <row r="150" s="76" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A150" s="99"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="96" t="s">
+      <c r="C150" s="100" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="151" s="72" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="95"/>
+    <row r="151" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A151" s="99"/>
       <c r="B151" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C151" s="96"/>
-    </row>
-    <row r="152" s="72" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="95"/>
+      <c r="C151" s="100"/>
+    </row>
+    <row r="152" s="76" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A152" s="99"/>
       <c r="B152" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="73" t="s">
+      <c r="C152" s="77" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="153" s="72" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="95"/>
+    <row r="153" s="76" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A153" s="99"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="96" t="s">
+      <c r="C153" s="100" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="154" s="72" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="95"/>
+    <row r="154" s="76" customFormat="1" ht="318.75" spans="1:3">
+      <c r="A154" s="99"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="96" t="s">
+      <c r="C154" s="100" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="155" s="72" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="95"/>
+    <row r="155" s="76" customFormat="1" ht="165.75" spans="1:3">
+      <c r="A155" s="99"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="96" t="s">
+      <c r="C155" s="100" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="156" s="72" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="95"/>
+    <row r="156" s="76" customFormat="1" ht="255" spans="1:3">
+      <c r="A156" s="99"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="96" t="s">
+      <c r="C156" s="100" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="157" s="72" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="95"/>
+    <row r="157" s="76" customFormat="1" ht="204" spans="1:3">
+      <c r="A157" s="99"/>
       <c r="B157" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C157" s="96" t="s">
+      <c r="C157" s="100" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="158" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="95"/>
+    <row r="158" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A158" s="99"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="96" t="s">
+      <c r="C158" s="100" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="159" s="72" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="95"/>
+    <row r="159" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A159" s="99"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="96" t="s">
+      <c r="C159" s="100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="160" s="72" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="95"/>
+    <row r="160" s="76" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A160" s="99"/>
       <c r="B160" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C160" s="73" t="s">
+      <c r="C160" s="77" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="161" s="72" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="95"/>
+    <row r="161" s="76" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A161" s="99"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="96" t="s">
+      <c r="C161" s="100" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="162" s="72" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="95"/>
+    <row r="162" s="76" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A162" s="99"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="96" t="s">
+      <c r="C162" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="163" s="72" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="95"/>
+    <row r="163" s="76" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A163" s="99"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="96" t="s">
+      <c r="C163" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" s="72" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="95"/>
+    <row r="164" s="76" customFormat="1" ht="51" spans="1:3">
+      <c r="A164" s="99"/>
       <c r="B164" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="96" t="s">
+      <c r="C164" s="100" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="165" s="72" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="95"/>
+    <row r="165" s="76" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A165" s="99"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="96" t="s">
+      <c r="C165" s="100" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="166" s="72" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="95"/>
+    <row r="166" s="76" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A166" s="99"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="96" t="s">
+      <c r="C166" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" s="72" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="95"/>
+    <row r="167" s="76" customFormat="1" ht="51" spans="1:3">
+      <c r="A167" s="99"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="96" t="s">
+      <c r="C167" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="168" s="72" customFormat="1" ht="51" spans="1:3">
+    <row r="168" s="76" customFormat="1" ht="51" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>247</v>
       </c>
@@ -35156,7 +34885,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" s="72" customFormat="1" ht="51" spans="1:3">
+    <row r="169" s="76" customFormat="1" ht="51" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>249</v>
@@ -35165,7 +34894,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="170" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A170" s="36"/>
       <c r="B170" s="4" t="s">
         <v>251</v>
@@ -35174,7 +34903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" s="72" customFormat="1" ht="51" spans="1:3">
+    <row r="171" s="76" customFormat="1" ht="51" spans="1:3">
       <c r="A171" s="36"/>
       <c r="B171" s="4" t="s">
         <v>253</v>
@@ -35183,7 +34912,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" s="72" customFormat="1" ht="51" spans="1:3">
+    <row r="172" s="76" customFormat="1" ht="51" spans="1:3">
       <c r="A172" s="36"/>
       <c r="B172" s="4" t="s">
         <v>255</v>
@@ -35192,7 +34921,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="173" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A173" s="36"/>
       <c r="B173" s="4" t="s">
         <v>257</v>
@@ -35201,7 +34930,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="174" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="4" t="s">
         <v>259</v>
@@ -35210,7 +34939,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="175" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="4" t="s">
         <v>260</v>
@@ -35219,49 +34948,49 @@
         <v>261</v>
       </c>
     </row>
-    <row r="176" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="176" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="177" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="178" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C178" s="42"/>
     </row>
-    <row r="179" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="179" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C179" s="42"/>
     </row>
-    <row r="180" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="180" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="181" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="72" customFormat="1" ht="153" spans="1:3">
+    <row r="182" s="76" customFormat="1" ht="153" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="4" t="s">
         <v>268</v>
@@ -35270,7 +34999,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="183" s="72" customFormat="1" ht="76.5" spans="1:3">
+    <row r="183" s="76" customFormat="1" ht="76.5" spans="1:3">
       <c r="A183" s="36" t="s">
         <v>270</v>
       </c>
@@ -35281,7 +35010,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="184" s="72" customFormat="1" ht="114.75" spans="1:3">
+    <row r="184" s="76" customFormat="1" ht="114.75" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>273</v>
@@ -35290,7 +35019,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" s="72" customFormat="1" ht="114.75" spans="1:3">
+    <row r="185" s="76" customFormat="1" ht="114.75" spans="1:3">
       <c r="A185" s="36"/>
       <c r="B185" s="42" t="s">
         <v>275</v>
@@ -35299,7 +35028,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" s="72" customFormat="1" ht="76.5" spans="1:3">
+    <row r="186" s="76" customFormat="1" ht="76.5" spans="1:3">
       <c r="A186" s="36"/>
       <c r="B186" s="42" t="s">
         <v>277</v>
@@ -35308,7 +35037,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" s="72" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="76" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36" t="s">
         <v>279</v>
       </c>
@@ -35319,28 +35048,28 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" s="72" customFormat="1" ht="114.75" spans="1:3">
+    <row r="188" s="76" customFormat="1" ht="114.75" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="4"/>
       <c r="C188" s="65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" s="72" customFormat="1" ht="38.25" spans="1:3">
+    <row r="189" s="76" customFormat="1" ht="38.25" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C189" s="65"/>
     </row>
-    <row r="190" s="72" customFormat="1" ht="51" spans="1:3">
+    <row r="190" s="76" customFormat="1" ht="51" spans="1:3">
       <c r="A190" s="36"/>
       <c r="B190" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C190" s="42"/>
     </row>
-    <row r="191" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="191" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A191" s="36"/>
       <c r="B191" s="42" t="s">
         <v>285</v>
@@ -35349,37 +35078,37 @@
         <v>286</v>
       </c>
     </row>
-    <row r="192" s="72" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="192" s="76" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A192" s="36"/>
       <c r="B192" s="42" t="s">
         <v>287</v>
       </c>
       <c r="C192" s="42"/>
     </row>
-    <row r="193" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="193" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A193" s="36"/>
       <c r="B193" s="42" t="s">
         <v>288</v>
       </c>
       <c r="C193" s="42"/>
     </row>
-    <row r="194" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="194" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C194" s="42"/>
     </row>
-    <row r="195" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="195" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A195" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="73"/>
-    </row>
-    <row r="196" s="72" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C195" s="77"/>
+    </row>
+    <row r="196" s="76" customFormat="1" ht="38.25" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4" t="s">
         <v>292</v>
@@ -35388,140 +35117,140 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" s="72" customFormat="1" ht="76.5" spans="1:3">
+    <row r="197" s="76" customFormat="1" ht="76.5" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4"/>
       <c r="C197" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="198" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="198" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A198" s="36"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="73" t="s">
+      <c r="C198" s="77" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="199" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="199" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A199" s="36"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="73" t="s">
+      <c r="C199" s="77" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="200" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="200" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A200" s="36"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="73" t="s">
+      <c r="C200" s="77" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="201" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="201" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="202" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C202" s="42"/>
     </row>
-    <row r="203" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="203" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A203" s="36"/>
       <c r="B203" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C203" s="42"/>
     </row>
-    <row r="204" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="204" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A204" s="36"/>
       <c r="B204" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C204" s="42"/>
     </row>
-    <row r="205" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="205" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A205" s="36"/>
       <c r="B205" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C205" s="42"/>
     </row>
-    <row r="206" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="206" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A206" s="36"/>
       <c r="B206" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C206" s="42"/>
     </row>
-    <row r="207" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="207" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A207" s="36"/>
       <c r="B207" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C207" s="42"/>
     </row>
-    <row r="208" s="72" customFormat="1" ht="12.75" spans="1:3">
+    <row r="208" s="76" customFormat="1" ht="12.75" spans="1:3">
       <c r="A208" s="36"/>
       <c r="B208" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C208" s="42"/>
     </row>
-    <row r="209" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="209" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A209" s="36"/>
       <c r="B209" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C209" s="42"/>
     </row>
-    <row r="210" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="210" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A210" s="36"/>
       <c r="B210" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C210" s="42"/>
     </row>
-    <row r="211" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="211" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A211" s="36"/>
       <c r="B211" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C211" s="42"/>
     </row>
-    <row r="212" s="72" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="212" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A212" s="36"/>
       <c r="B212" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C212" s="42"/>
     </row>
-    <row r="213" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="213" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A213" s="36"/>
       <c r="B213" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C213" s="42"/>
     </row>
-    <row r="214" s="72" customFormat="1" ht="38.25" spans="1:3">
+    <row r="214" s="76" customFormat="1" ht="38.25" spans="1:3">
       <c r="A214" s="36"/>
       <c r="B214" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C214" s="42"/>
     </row>
-    <row r="215" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="215" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A215" s="36"/>
       <c r="B215" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C215" s="42"/>
     </row>
-    <row r="216" s="72" customFormat="1" ht="25.5" spans="1:3">
+    <row r="216" s="76" customFormat="1" ht="25.5" spans="1:3">
       <c r="A216" s="36"/>
       <c r="B216" s="4" t="s">
         <v>313</v>
@@ -35690,284 +35419,124 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="24" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.8533333333333" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.14" style="70" customWidth="1"/>
+    <col min="1" max="1" width="20.8" style="71" customWidth="1"/>
+    <col min="2" max="2" width="14.3" style="72" customWidth="1"/>
     <col min="3" max="3" width="112.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="54" t="s">
+    <row r="1" s="70" customFormat="1" ht="30.75" spans="1:5">
+      <c r="A1" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" ht="54" spans="1:2">
+      <c r="A2" s="54" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" s="54"/>
-      <c r="B3" s="71" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="54"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="71" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="54"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="54"/>
+    </row>
+    <row r="8" ht="72" spans="1:1">
+      <c r="A8" s="54" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="71" t="s">
+    <row r="9" ht="48" spans="1:1">
+      <c r="A9" s="54" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="71" t="s">
+    <row r="10" ht="48" spans="1:1">
+      <c r="A10" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="54" t="s">
+    <row r="11" ht="72" spans="1:1">
+      <c r="A11" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="71" t="s">
+    </row>
+    <row r="12" ht="48" spans="1:1">
+      <c r="A12" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="13" ht="72" spans="1:1">
+      <c r="A13" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" ht="51" spans="1:3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="70" t="s">
+    <row r="14" ht="96" spans="1:1">
+      <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="15" ht="48" spans="1:1">
+      <c r="A15" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" ht="114.75" spans="1:3">
-      <c r="A9" s="54"/>
-      <c r="C9" s="6" t="s">
+    <row r="16" ht="48" spans="1:1">
+      <c r="A16" s="54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="54"/>
-      <c r="C10" s="6" t="s">
+    <row r="17" ht="48" spans="1:1">
+      <c r="A17" s="54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" ht="114.75" spans="1:3">
-      <c r="A11" s="54"/>
-      <c r="C11" s="6" t="s">
+    <row r="18" ht="72" spans="1:1">
+      <c r="A18" s="54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" ht="25.5" spans="1:3">
-      <c r="A12" s="54"/>
-      <c r="C12" s="6" t="s">
+    <row r="19" ht="72" spans="1:1">
+      <c r="A19" s="54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="C13" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" ht="24" spans="1:3">
-      <c r="A14" s="54"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" ht="96" spans="1:3">
-      <c r="A15" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" ht="24" spans="1:2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="71"/>
-    </row>
-    <row r="17" ht="24" spans="1:2">
-      <c r="A17" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="71"/>
-    </row>
-    <row r="18" ht="24" spans="1:2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="71"/>
-    </row>
-    <row r="19" ht="24" spans="1:2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="71"/>
-    </row>
-    <row r="20" ht="24" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" s="54"/>
-      <c r="B20" s="71"/>
-    </row>
-    <row r="21" ht="24" spans="1:1">
-      <c r="A21" s="54"/>
-    </row>
-    <row r="22" ht="24" spans="1:1">
-      <c r="A22" s="54"/>
-    </row>
-    <row r="23" ht="24" spans="1:1">
-      <c r="A23" s="54"/>
-    </row>
-    <row r="24" ht="24" spans="1:1">
-      <c r="A24" s="54"/>
-    </row>
-    <row r="25" ht="24" spans="1:1">
-      <c r="A25" s="54"/>
-    </row>
-    <row r="26" ht="24" spans="1:1">
-      <c r="A26" s="54"/>
-    </row>
-    <row r="27" ht="24" spans="1:1">
-      <c r="A27" s="54"/>
-    </row>
-    <row r="28" ht="24" spans="1:1">
-      <c r="A28" s="54"/>
-    </row>
-    <row r="29" ht="24" spans="1:1">
-      <c r="A29" s="54"/>
-    </row>
-    <row r="30" ht="24" spans="1:1">
-      <c r="A30" s="54"/>
-    </row>
-    <row r="31" ht="24" spans="1:1">
-      <c r="A31" s="54"/>
-    </row>
-    <row r="32" ht="24" spans="1:1">
-      <c r="A32" s="54"/>
-    </row>
-    <row r="33" ht="24" spans="1:1">
-      <c r="A33" s="54"/>
-    </row>
-    <row r="34" ht="24" spans="1:1">
-      <c r="A34" s="54"/>
-    </row>
-    <row r="35" ht="24" spans="1:1">
-      <c r="A35" s="54"/>
-    </row>
-    <row r="36" ht="24" spans="1:1">
-      <c r="A36" s="54"/>
-    </row>
-    <row r="37" ht="24" spans="1:1">
-      <c r="A37" s="54"/>
-    </row>
-    <row r="38" ht="24" spans="1:1">
-      <c r="A38" s="54"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="71"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="34"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="34"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="34"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="34"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="34"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="34"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="34"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="34"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="34"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="34"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="34"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="34"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="34"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="34"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="34"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="34"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="34"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="34"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="34"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="34"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="34"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="34"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="34"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="34"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B8:B13"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="Algorithms"/>
+    <hyperlink ref="A1:E1" r:id="rId1" display="DATA STRUCTURE &amp; ALGORITHM IN JAVA"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -35994,57 +35563,57 @@
   <sheetData>
     <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
     <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="105" t="s">
-        <v>341</v>
+      <c r="A5" s="109" t="s">
+        <v>338</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -36052,7 +35621,7 @@
     </row>
     <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -36068,141 +35637,141 @@
         <v>23</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
     <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
     <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="K12" s="68" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
       <c r="B20" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>364</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>367</v>
       </c>
       <c r="D20" s="67"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
       <c r="B21" s="59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D21" s="67"/>
     </row>
     <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
       <c r="B22" s="59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D22" s="67"/>
     </row>
@@ -36216,96 +35785,96 @@
         <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A25" s="57"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" s="58" customFormat="1" ht="293.25" spans="1:4">
       <c r="A26" s="57"/>
       <c r="B26" s="59" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A27" s="57"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A28" s="57"/>
       <c r="B28" s="59" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A29" s="57"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A30" s="57"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A31" s="57"/>
       <c r="B31" s="59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A32" s="57"/>
       <c r="B32" s="59"/>
       <c r="C32" s="67" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D32" s="65"/>
     </row>
@@ -36313,7 +35882,7 @@
       <c r="A33" s="57"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -36321,7 +35890,7 @@
       <c r="A34" s="57"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D34" s="65"/>
     </row>
@@ -36329,39 +35898,39 @@
       <c r="A35" s="57"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D35" s="65"/>
     </row>
     <row r="36" s="58" customFormat="1" ht="127.5" spans="1:4">
       <c r="A36" s="57"/>
       <c r="B36" s="59" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A38" s="57"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D38" s="65"/>
     </row>
@@ -36369,17 +35938,17 @@
       <c r="A39" s="57"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D39" s="65"/>
     </row>
     <row r="40" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A40" s="57"/>
       <c r="B40" s="59" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D40" s="65"/>
     </row>
@@ -36387,30 +35956,30 @@
       <c r="A41" s="57"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A42" s="57"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A43" s="57"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -36418,58 +35987,58 @@
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A45" s="57"/>
       <c r="B45" s="59" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A46" s="57"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A47" s="57"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A48" s="57"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A49" s="57"/>
       <c r="B49" s="59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D49" s="65"/>
     </row>
@@ -36477,47 +36046,47 @@
       <c r="A50" s="57"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D50" s="65"/>
     </row>
     <row r="51" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A51" s="57"/>
       <c r="B51" s="59" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A52" s="57"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A53" s="57"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A54" s="57"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D54" s="65"/>
     </row>
@@ -36525,17 +36094,17 @@
       <c r="A55" s="57"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D55" s="65"/>
     </row>
     <row r="56" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A56" s="57"/>
       <c r="B56" s="59" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D56" s="65"/>
     </row>
@@ -36543,17 +36112,17 @@
       <c r="A57" s="57"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D57" s="65"/>
     </row>
     <row r="58" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A58" s="57"/>
       <c r="B58" s="59" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D58" s="65"/>
     </row>
@@ -36561,27 +36130,27 @@
       <c r="A59" s="57"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D59" s="65"/>
     </row>
     <row r="60" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A60" s="57"/>
       <c r="B60" s="59" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D60" s="65"/>
     </row>
     <row r="61" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A61" s="57"/>
       <c r="B61" s="59" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D61" s="65"/>
     </row>
@@ -36589,7 +36158,7 @@
       <c r="A62" s="57"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D62" s="65"/>
     </row>
@@ -36597,17 +36166,17 @@
       <c r="A63" s="57"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D63" s="65"/>
     </row>
     <row r="64" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A64" s="57"/>
       <c r="B64" s="59" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D64" s="65"/>
     </row>
@@ -36615,7 +36184,7 @@
       <c r="A65" s="57"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D65" s="65"/>
     </row>
@@ -36623,14 +36192,14 @@
       <c r="A66" s="57"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D66" s="65"/>
     </row>
     <row r="67" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A67" s="57"/>
       <c r="B67" s="59" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="65"/>
@@ -36642,16 +36211,16 @@
     </row>
     <row r="69" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A69" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="65" t="s">
         <v>451</v>
-      </c>
-      <c r="B69" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="70" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36659,7 +36228,7 @@
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="65" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36667,7 +36236,7 @@
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="65" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36675,17 +36244,17 @@
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="65" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A73" s="54"/>
       <c r="B73" s="59"/>
       <c r="C73" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" s="58" customFormat="1" ht="63.75" spans="1:4">
@@ -36693,7 +36262,7 @@
       <c r="B74" s="59"/>
       <c r="C74" s="29"/>
       <c r="D74" s="65" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" s="58" customFormat="1" ht="76.5" spans="1:4">
@@ -36701,7 +36270,7 @@
       <c r="B75" s="59"/>
       <c r="C75" s="29"/>
       <c r="D75" s="65" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" s="58" customFormat="1" ht="89.25" spans="1:4">
@@ -36709,17 +36278,17 @@
       <c r="B76" s="59"/>
       <c r="C76" s="29"/>
       <c r="D76" s="65" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A77" s="54"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" s="58" customFormat="1" ht="12.75" spans="1:4">
@@ -36731,7 +36300,7 @@
     <row r="79" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A79" s="54"/>
       <c r="B79" s="59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="65"/>
@@ -36829,120 +36398,120 @@
   <sheetData>
     <row r="1" ht="96" spans="1:5">
       <c r="A1" s="54" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" ht="96" spans="1:5">
       <c r="A2" s="54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="120" spans="1:5">
       <c r="A3" s="54" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="72" spans="1:5">
       <c r="A4" s="54" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="48" spans="1:5">
       <c r="A6" s="54" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="72" spans="1:5">
       <c r="A7" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="48" spans="1:5">
       <c r="A8" s="54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="120" spans="1:5">
       <c r="A9" s="54" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="54" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="48" spans="1:5">
       <c r="A11" s="54" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" ht="48" spans="1:5">
       <c r="A12" s="54" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="26"/>
@@ -36950,68 +36519,68 @@
     </row>
     <row r="13" ht="48" spans="1:5">
       <c r="A13" s="54" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="48" spans="1:5">
       <c r="A14" s="54" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="16" ht="96.95" customHeight="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" ht="132.95" customHeight="1" spans="2:4">
       <c r="B17" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="42" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -37023,24 +36592,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="3:4">
       <c r="C23" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="28" ht="51" customHeight="1" spans="1:4">
       <c r="A28" s="57" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -37048,49 +36617,49 @@
       <c r="A29" s="57"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:2">
       <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
       <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:2">
       <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:2">
       <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
       <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
       <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -37104,7 +36673,7 @@
     </row>
     <row r="40" ht="72" spans="1:2">
       <c r="A40" s="54" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -37116,7 +36685,7 @@
     </row>
     <row r="43" ht="48" spans="1:2">
       <c r="A43" s="54" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B43" s="4"/>
     </row>
@@ -37128,7 +36697,7 @@
     </row>
     <row r="46" ht="48" spans="1:2">
       <c r="A46" s="54" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B46" s="4"/>
     </row>
@@ -37140,7 +36709,7 @@
     </row>
     <row r="49" ht="72" spans="1:2">
       <c r="A49" s="54" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B49" s="4"/>
     </row>
@@ -37200,97 +36769,97 @@
   <sheetData>
     <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
       <c r="A12" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
       <c r="A13" s="52"/>
       <c r="B13" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
       <c r="A20" s="53" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -37298,24 +36867,24 @@
     </row>
     <row r="21" ht="102" spans="1:2">
       <c r="A21" s="23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" ht="63.75" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -37348,462 +36917,462 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>553</v>
+        <v>550</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>558</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B13" s="35"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="33" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
       <c r="A30" s="41" t="s">
+        <v>594</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>596</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>597</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="41" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="43" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="43" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="45" t="s">
         <v>622</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="43" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="43" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="43" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B63" s="35"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>640</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C65" s="46"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="36" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C66" s="46"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C67" s="46"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
       <c r="B69" s="48" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
       <c r="B70" s="48" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
       <c r="B71" s="48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -37811,296 +37380,296 @@
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="36" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="36"/>
       <c r="B74" s="47" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="36"/>
       <c r="B75" s="47" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="25" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
       <c r="A81" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="36"/>
       <c r="B82" s="49" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
       <c r="A83" s="36"/>
       <c r="B83" s="43" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
       <c r="A84" s="36"/>
       <c r="B84" s="43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="43" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="43" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
       <c r="B90" s="50" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="34" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B95" s="35"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
       <c r="A96" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
       <c r="B98" s="47" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="43" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="43" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="43" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="43" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
       <c r="B105" s="50" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="43" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
       <c r="A109" s="36" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
       <c r="A110" s="36"/>
       <c r="B110" s="43" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
       <c r="A111" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
       <c r="A112" s="36"/>
       <c r="B112" s="25" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
       <c r="A113" s="36"/>
       <c r="B113" s="25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="36"/>
       <c r="B114" s="25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
       <c r="A115" s="36"/>
       <c r="B115" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
       <c r="A116" s="36"/>
       <c r="B116" s="25" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
       <c r="A117" s="36"/>
       <c r="B117" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
       <c r="A118" s="36"/>
       <c r="B118" s="24" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
       <c r="A119" s="36"/>
       <c r="B119" s="25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
       <c r="A120" s="36"/>
       <c r="B120" s="24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
       <c r="A121" s="36"/>
       <c r="B121" s="24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
       <c r="A122" s="36"/>
       <c r="B122" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -38180,230 +37749,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23"/>
       <c r="B29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23"/>
       <c r="B34" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -6657,7 +6657,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Streams follow the “what, not how” principle
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streams follow the “what, not how” principle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
  - A stream does </t>
     </r>
     <r>
@@ -6738,13 +6759,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> - A stream transformation produces a </t>
     </r>
     <r>
@@ -6767,6 +6781,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
+ - filter: transformation that yields a new stream with those elements that match a certain condition.
  - map: method transforms each element of the stream by applying a given function and produces a new stream of the transformed elements.
  - flatMap: transforms each element of the stream into another stream (or collection) and then flattens these multiple streams into a single stream. </t>
     </r>
@@ -6839,14 +6854,29 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - The parallel method converts any sequential stream into a parallel one.
+      <t xml:space="preserve">In Java Parallel Streams, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the splitting happens at the source level, not at the intermediate operation level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The elements of the stream are divided into smaller chunks during the source splitting process, which are then processed in parallel through the pipeline of intermediate and terminal operations.
+ - The parallel method converts any sequential stream into a parallel one.
  - When the terminal method executes, all intermediate stream operations will be parallelized.
  - Parallel Streams in Java allow developers to </t>
     </r>
@@ -6869,8 +6899,51 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. The primary goal of parallel streams is to improve performance by distributing tasks across multiple cores, leveraging multi-core processors.
- - A parallel stream is simply a stream that splits the processing of its elements into multiple threads, enabling concurrent execution. The operations are executed in parallel, making use of the </t>
+      <t xml:space="preserve">. 
+ - The primary goal of parallel streams is to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improve performance by distributing tasks across multiple cores, leveraging multi-core processors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - A parallel stream is simply a stream that splits the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>processing of its elements into multiple threads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, enabling concurrent execution. The operations are executed in parallel, making use of the </t>
     </r>
     <r>
       <rPr>
@@ -6913,18 +6986,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. Each sub-task operates on a </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>portion of the data independently</t>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each sub-task operates on a portion of the data independently</t>
     </r>
     <r>
       <rPr>
@@ -6980,6 +7053,79 @@
   + Splitting: The data is split into chunks by an internal Spliterator.
   + Processing: Each chunk is processed concurrently in a separate thread.
   + Merging: After processing, the results are combined into the final output.
+- When to use Parallel Streams:
+ + CPU-bound Operations: Operation is computationally intensive, parallel streams can </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distribute the workload across multiple cores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ + Large Data Sets: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Splitting the data into chunks and processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them in parallel offsets the overhead.
+ + Stateless and Independent Operations: 
+ + Efficient Splittable Sources: ArrayList, Arrays, or IntStream.range() are efficiently splittable, making them ideal for parallel streams. LinkedList or streams from Stream.generate() where splitting is inefficient.
+- When to Avoid Parallel Streams:
+ + I/O-bound Operations: Operations involving I/O (e.g., reading from disk or network) often </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block threads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, leading to inefficiencies.
+ + Small Data Sets: 
+ + State-dependent Operations
+ + Non-splittable Sources
 </t>
     </r>
   </si>
@@ -28891,6 +29037,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -28899,34 +29053,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28938,11 +29076,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28961,6 +29098,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -28970,7 +29115,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28990,24 +29151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29125,7 +29271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29137,13 +29283,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29155,145 +29433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29355,30 +29501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -29390,6 +29512,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29412,17 +29543,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29437,141 +29574,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29579,7 +29725,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -29773,9 +29919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -29783,9 +29926,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -30888,7 +31028,7 @@
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="102" t="s">
         <v>1</v>
       </c>
     </row>
@@ -30899,7 +31039,7 @@
       <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="102" t="s">
         <v>3</v>
       </c>
     </row>
@@ -30907,10 +31047,10 @@
       <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
     </row>
@@ -30921,7 +31061,7 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30943,7 +31083,7 @@
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="103" t="s">
         <v>11</v>
       </c>
     </row>
@@ -30954,7 +31094,7 @@
       <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="100" t="s">
         <v>13</v>
       </c>
     </row>
@@ -30965,7 +31105,7 @@
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -30976,7 +31116,7 @@
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -31025,7 +31165,7 @@
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -31055,7 +31195,7 @@
       <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="100" t="s">
         <v>37</v>
       </c>
     </row>
@@ -31063,7 +31203,7 @@
       <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="100" t="s">
         <v>39</v>
       </c>
     </row>
@@ -33610,19 +33750,19 @@
   <sheetPr/>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.4266666666667" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.2866666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="184.5" style="77" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="76"/>
+    <col min="3" max="3" width="184.5" style="75" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="1" ht="86.25" spans="1:3">
+    <row r="1" s="74" customFormat="1" ht="86.25" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
@@ -33631,7 +33771,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="2" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
@@ -33640,155 +33780,155 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="3" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" s="76" customFormat="1" ht="69" spans="1:3">
+    <row r="4" s="74" customFormat="1" ht="69" spans="1:3">
       <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="78"/>
-    </row>
-    <row r="5" s="76" customFormat="1" ht="86.25" spans="1:3">
+      <c r="C4" s="76"/>
+    </row>
+    <row r="5" s="74" customFormat="1" ht="86.25" spans="1:3">
       <c r="A5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="6" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="7" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" s="76" customFormat="1" spans="1:3">
+    <row r="8" s="74" customFormat="1" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" s="76" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A9" s="108" t="s">
+    <row r="9" s="74" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A9" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="104" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" s="76" customFormat="1" spans="1:3">
+    <row r="10" s="74" customFormat="1" spans="1:3">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" s="76" customFormat="1" spans="1:3">
+    <row r="11" s="74" customFormat="1" spans="1:3">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" s="76" customFormat="1" ht="327.75" spans="1:3">
+    <row r="12" s="74" customFormat="1" ht="327.75" spans="1:3">
       <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" s="76" customFormat="1" ht="103.5" spans="1:3">
-      <c r="A13" s="79" t="s">
+    <row r="13" s="74" customFormat="1" ht="103.5" spans="1:3">
+      <c r="A13" s="77" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" s="76" customFormat="1" ht="86.25" spans="1:3">
-      <c r="A14" s="80" t="s">
+    <row r="14" s="74" customFormat="1" ht="86.25" spans="1:3">
+      <c r="A14" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="82"/>
-    </row>
-    <row r="15" s="76" customFormat="1" ht="69" spans="1:3">
-      <c r="A15" s="79" t="s">
+      <c r="C14" s="80"/>
+    </row>
+    <row r="15" s="74" customFormat="1" ht="69" spans="1:3">
+      <c r="A15" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="84"/>
-    </row>
-    <row r="16" s="76" customFormat="1" ht="34.5" spans="1:3">
-      <c r="A16" s="80" t="s">
+      <c r="C15" s="82"/>
+    </row>
+    <row r="16" s="74" customFormat="1" ht="34.5" spans="1:3">
+      <c r="A16" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="86"/>
-    </row>
-    <row r="17" s="76" customFormat="1" spans="1:3">
-      <c r="A17" s="79" t="s">
+      <c r="C16" s="84"/>
+    </row>
+    <row r="17" s="74" customFormat="1" spans="1:3">
+      <c r="A17" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="84"/>
-    </row>
-    <row r="18" s="76" customFormat="1" spans="1:3">
-      <c r="A18" s="80" t="s">
+      <c r="C17" s="82"/>
+    </row>
+    <row r="18" s="74" customFormat="1" spans="1:3">
+      <c r="A18" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" s="76" customFormat="1" spans="1:3">
-      <c r="A19" s="79" t="s">
+    <row r="19" s="74" customFormat="1" spans="1:3">
+      <c r="A19" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="82"/>
-    </row>
-    <row r="20" s="76" customFormat="1" spans="1:3">
+      <c r="C19" s="80"/>
+    </row>
+    <row r="20" s="74" customFormat="1" spans="1:3">
       <c r="A20" s="36"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" s="76" customFormat="1" spans="1:3">
+    <row r="21" s="74" customFormat="1" spans="1:3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" s="76" customFormat="1" spans="1:3">
+    <row r="22" s="74" customFormat="1" spans="1:3">
       <c r="A22" s="36"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" s="76" customFormat="1" spans="1:3">
+    <row r="23" s="74" customFormat="1" spans="1:3">
       <c r="A23" s="36" t="s">
         <v>68</v>
       </c>
@@ -33797,14 +33937,14 @@
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" s="76" customFormat="1" spans="1:3">
+    <row r="24" s="74" customFormat="1" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="25" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A25" s="36" t="s">
         <v>71</v>
       </c>
@@ -33813,7 +33953,7 @@
       </c>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="26" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A26" s="36" t="s">
         <v>73</v>
       </c>
@@ -33822,19 +33962,19 @@
       </c>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" s="76" customFormat="1" spans="1:3">
+    <row r="27" s="74" customFormat="1" spans="1:3">
       <c r="A27" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" s="76" customFormat="1" spans="1:3">
+    <row r="28" s="74" customFormat="1" spans="1:3">
       <c r="A28" s="36"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" s="76" customFormat="1" spans="1:3">
+    <row r="29" s="74" customFormat="1" spans="1:3">
       <c r="A29" s="36" t="s">
         <v>76</v>
       </c>
@@ -33843,33 +33983,33 @@
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" s="76" customFormat="1" spans="1:3">
+    <row r="30" s="74" customFormat="1" spans="1:3">
       <c r="A30" s="36"/>
       <c r="B30" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" s="76" customFormat="1" spans="1:3">
+    <row r="31" s="74" customFormat="1" spans="1:3">
       <c r="A31" s="36"/>
       <c r="B31" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" s="76" customFormat="1" spans="1:3">
+    <row r="32" s="74" customFormat="1" spans="1:3">
       <c r="A32" s="36"/>
       <c r="B32" s="42" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" s="76" customFormat="1" spans="1:3">
+    <row r="33" s="74" customFormat="1" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" s="76" customFormat="1" spans="1:3">
+    <row r="34" s="74" customFormat="1" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>81</v>
       </c>
@@ -33878,7 +34018,7 @@
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" s="76" customFormat="1" spans="1:3">
+    <row r="35" s="74" customFormat="1" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>83</v>
       </c>
@@ -33887,14 +34027,14 @@
       </c>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" s="76" customFormat="1" spans="1:3">
+    <row r="36" s="74" customFormat="1" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" s="76" customFormat="1" spans="1:3">
+    <row r="37" s="74" customFormat="1" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>86</v>
       </c>
@@ -33903,7 +34043,7 @@
       </c>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="38" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>88</v>
       </c>
@@ -33912,16 +34052,16 @@
       </c>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" s="76" customFormat="1" spans="1:3">
+    <row r="39" s="74" customFormat="1" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="77"/>
-    </row>
-    <row r="40" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C39" s="75"/>
+    </row>
+    <row r="40" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>92</v>
       </c>
@@ -33930,28 +34070,28 @@
       </c>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="41" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A41" s="36"/>
       <c r="B41" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="42" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A42" s="36"/>
       <c r="B42" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="43" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A43" s="36"/>
       <c r="B43" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="42"/>
     </row>
-    <row r="44" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="44" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>97</v>
       </c>
@@ -33960,14 +34100,14 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="45" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A45" s="36"/>
       <c r="B45" s="50" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="50"/>
     </row>
-    <row r="46" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="46" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>100</v>
       </c>
@@ -33976,14 +34116,14 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="47" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A47" s="36"/>
       <c r="B47" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="48" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A48" s="36" t="s">
         <v>103</v>
       </c>
@@ -33992,7 +34132,7 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" s="76" customFormat="1" spans="1:3">
+    <row r="49" s="74" customFormat="1" spans="1:3">
       <c r="A49" s="36" t="s">
         <v>105</v>
       </c>
@@ -34001,7 +34141,7 @@
       </c>
       <c r="C49" s="42"/>
     </row>
-    <row r="50" s="76" customFormat="1" spans="1:3">
+    <row r="50" s="74" customFormat="1" spans="1:3">
       <c r="A50" s="36" t="s">
         <v>107</v>
       </c>
@@ -34010,7 +34150,7 @@
       </c>
       <c r="C50" s="42"/>
     </row>
-    <row r="51" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="51" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A51" s="36" t="s">
         <v>109</v>
       </c>
@@ -34019,22 +34159,22 @@
       </c>
       <c r="C51" s="42"/>
     </row>
-    <row r="52" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="52" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A52" s="36"/>
       <c r="B52" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="42"/>
     </row>
-    <row r="53" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="53" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A53" s="36"/>
       <c r="B53" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="42"/>
     </row>
-    <row r="54" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A54" s="87" t="s">
+    <row r="54" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A54" s="85" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="42" t="s">
@@ -34042,49 +34182,49 @@
       </c>
       <c r="C54" s="42"/>
     </row>
-    <row r="55" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A55" s="87"/>
+    <row r="55" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A55" s="85"/>
       <c r="B55" s="42" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="42"/>
     </row>
-    <row r="56" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A56" s="87"/>
+    <row r="56" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A56" s="85"/>
       <c r="B56" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="50"/>
     </row>
-    <row r="57" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A57" s="87"/>
+    <row r="57" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A57" s="85"/>
       <c r="B57" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="50"/>
     </row>
-    <row r="58" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A58" s="87"/>
+    <row r="58" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A58" s="85"/>
       <c r="B58" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="42"/>
     </row>
-    <row r="59" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A59" s="87"/>
-      <c r="B59" s="88" t="s">
+    <row r="59" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A59" s="85"/>
+      <c r="B59" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="88"/>
-    </row>
-    <row r="60" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A60" s="87"/>
-      <c r="B60" s="89" t="s">
+      <c r="C59" s="86"/>
+    </row>
+    <row r="60" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A60" s="85"/>
+      <c r="B60" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="89"/>
-    </row>
-    <row r="61" s="76" customFormat="1" spans="1:3">
+      <c r="C60" s="87"/>
+    </row>
+    <row r="61" s="74" customFormat="1" spans="1:3">
       <c r="A61" s="36" t="s">
         <v>121</v>
       </c>
@@ -34093,7 +34233,7 @@
       </c>
       <c r="C61" s="42"/>
     </row>
-    <row r="62" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="62" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A62" s="36" t="s">
         <v>123</v>
       </c>
@@ -34102,7 +34242,7 @@
       </c>
       <c r="C62" s="42"/>
     </row>
-    <row r="63" s="76" customFormat="1" ht="18" spans="1:3">
+    <row r="63" s="74" customFormat="1" ht="18" spans="1:3">
       <c r="A63" s="36" t="s">
         <v>125</v>
       </c>
@@ -34111,8 +34251,8 @@
       </c>
       <c r="C63" s="42"/>
     </row>
-    <row r="64" s="76" customFormat="1" ht="53.25" spans="1:3">
-      <c r="A64" s="90" t="s">
+    <row r="64" s="74" customFormat="1" ht="53.25" spans="1:3">
+      <c r="A64" s="88" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="42" t="s">
@@ -34120,8 +34260,8 @@
       </c>
       <c r="C64" s="42"/>
     </row>
-    <row r="65" s="76" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="90" t="s">
+    <row r="65" s="74" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A65" s="88" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="42" t="s">
@@ -34129,44 +34269,44 @@
       </c>
       <c r="C65" s="42"/>
     </row>
-    <row r="66" s="76" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="90"/>
+    <row r="66" s="74" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A66" s="88"/>
       <c r="B66" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" s="76" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A67" s="91" t="s">
+    <row r="67" s="74" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A67" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="89"/>
-    </row>
-    <row r="68" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="93" t="s">
+      <c r="C67" s="87"/>
+    </row>
+    <row r="68" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A68" s="90"/>
+      <c r="B68" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="93"/>
-    </row>
-    <row r="69" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="89" t="s">
+      <c r="C68" s="91"/>
+    </row>
+    <row r="69" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A69" s="90"/>
+      <c r="B69" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="89"/>
-    </row>
-    <row r="70" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A70" s="92"/>
-      <c r="B70" s="89" t="s">
+      <c r="C69" s="87"/>
+    </row>
+    <row r="70" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A70" s="90"/>
+      <c r="B70" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="89"/>
-    </row>
-    <row r="71" s="76" customFormat="1" ht="12.75" spans="1:3">
+      <c r="C70" s="87"/>
+    </row>
+    <row r="71" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A71" s="36" t="s">
         <v>137</v>
       </c>
@@ -34175,21 +34315,21 @@
       </c>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="72" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A72" s="36"/>
       <c r="B72" s="50" t="s">
         <v>139</v>
       </c>
       <c r="C72" s="50"/>
     </row>
-    <row r="73" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="73" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A73" s="36"/>
       <c r="B73" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C73" s="42"/>
     </row>
-    <row r="74" s="76" customFormat="1" spans="1:3">
+    <row r="74" s="74" customFormat="1" spans="1:3">
       <c r="A74" s="36" t="s">
         <v>141</v>
       </c>
@@ -34198,7 +34338,7 @@
       </c>
       <c r="C74" s="42"/>
     </row>
-    <row r="75" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="75" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A75" s="36" t="s">
         <v>143</v>
       </c>
@@ -34207,63 +34347,63 @@
       </c>
       <c r="C75" s="42"/>
     </row>
-    <row r="76" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="76" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A76" s="36"/>
       <c r="B76" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="42"/>
     </row>
-    <row r="77" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="77" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A77" s="36"/>
       <c r="B77" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="42"/>
     </row>
-    <row r="78" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="78" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A78" s="36"/>
       <c r="B78" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C78" s="42"/>
     </row>
-    <row r="79" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="79" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A79" s="36"/>
       <c r="B79" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C79" s="50"/>
     </row>
-    <row r="80" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="80" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A80" s="36"/>
       <c r="B80" s="50" t="s">
         <v>149</v>
       </c>
       <c r="C80" s="50"/>
     </row>
-    <row r="81" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="81" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A81" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
     </row>
-    <row r="82" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="82" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A82" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
     </row>
-    <row r="83" s="76" customFormat="1" spans="1:3">
+    <row r="83" s="74" customFormat="1" spans="1:3">
       <c r="A83" s="36" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
     </row>
-    <row r="84" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="84" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A84" s="36" t="s">
         <v>153</v>
       </c>
@@ -34272,95 +34412,95 @@
       </c>
       <c r="C84" s="42"/>
     </row>
-    <row r="85" s="76" customFormat="1" spans="1:3">
+    <row r="85" s="74" customFormat="1" spans="1:3">
       <c r="A85" s="36"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
     </row>
-    <row r="86" s="76" customFormat="1" spans="1:3">
+    <row r="86" s="74" customFormat="1" spans="1:3">
       <c r="A86" s="36"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
     </row>
-    <row r="87" s="76" customFormat="1" spans="1:3">
+    <row r="87" s="74" customFormat="1" spans="1:3">
       <c r="A87" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
     </row>
-    <row r="88" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="88" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A88" s="36" t="s">
         <v>156</v>
       </c>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
     </row>
-    <row r="89" s="76" customFormat="1" ht="51.75" spans="1:3">
+    <row r="89" s="74" customFormat="1" ht="51.75" spans="1:3">
       <c r="A89" s="36" t="s">
         <v>157</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
     </row>
-    <row r="90" s="76" customFormat="1" spans="1:3">
+    <row r="90" s="74" customFormat="1" spans="1:3">
       <c r="A90" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
     </row>
-    <row r="91" s="76" customFormat="1" spans="1:3">
+    <row r="91" s="74" customFormat="1" spans="1:3">
       <c r="A91" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
     </row>
-    <row r="92" s="76" customFormat="1" spans="1:3">
+    <row r="92" s="74" customFormat="1" spans="1:3">
       <c r="A92" s="36" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
     </row>
-    <row r="93" s="76" customFormat="1" ht="34.5" spans="1:3">
+    <row r="93" s="74" customFormat="1" ht="34.5" spans="1:3">
       <c r="A93" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
     </row>
-    <row r="94" s="76" customFormat="1" spans="1:3">
+    <row r="94" s="74" customFormat="1" spans="1:3">
       <c r="A94" s="36" t="s">
         <v>161</v>
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
     </row>
-    <row r="95" s="76" customFormat="1" spans="1:3">
+    <row r="95" s="74" customFormat="1" spans="1:3">
       <c r="A95" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
     </row>
-    <row r="96" s="76" customFormat="1" spans="1:3">
+    <row r="96" s="74" customFormat="1" spans="1:3">
       <c r="A96" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
     </row>
-    <row r="97" s="76" customFormat="1" spans="1:3">
+    <row r="97" s="74" customFormat="1" spans="1:3">
       <c r="A97" s="36" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
     </row>
-    <row r="98" s="76" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A98" s="94" t="s">
+    <row r="98" s="74" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A98" s="92" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -34368,153 +34508,153 @@
       </c>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" s="76" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="99" s="74" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
         <v>167</v>
       </c>
       <c r="C99" s="50"/>
     </row>
-    <row r="100" s="76" customFormat="1" ht="48" customHeight="1" spans="1:3">
+    <row r="100" s="74" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
         <v>168</v>
       </c>
       <c r="C100" s="50"/>
     </row>
-    <row r="101" s="76" customFormat="1" ht="53" customHeight="1" spans="1:3">
+    <row r="101" s="74" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="50" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="50"/>
     </row>
-    <row r="102" s="76" customFormat="1" ht="54" customHeight="1" spans="1:3">
+    <row r="102" s="74" customFormat="1" ht="54" customHeight="1" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C102" s="50"/>
     </row>
-    <row r="103" s="76" customFormat="1" ht="117" customHeight="1" spans="1:3">
+    <row r="103" s="74" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="50" t="s">
         <v>171</v>
       </c>
       <c r="C103" s="50"/>
     </row>
-    <row r="104" s="76" customFormat="1" ht="93" customHeight="1" spans="1:3">
+    <row r="104" s="74" customFormat="1" ht="93" customHeight="1" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="50"/>
     </row>
-    <row r="105" s="76" customFormat="1" ht="309" customHeight="1" spans="1:3">
+    <row r="105" s="74" customFormat="1" ht="309" customHeight="1" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="50" t="s">
         <v>173</v>
       </c>
       <c r="C105" s="50"/>
     </row>
-    <row r="106" s="76" customFormat="1" ht="409" customHeight="1" spans="1:3">
+    <row r="106" s="74" customFormat="1" ht="409" customHeight="1" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="50" t="s">
         <v>174</v>
       </c>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" s="76" customFormat="1" ht="83" customHeight="1" spans="1:3">
+    <row r="107" s="74" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="50" t="s">
         <v>175</v>
       </c>
       <c r="C107" s="50"/>
     </row>
-    <row r="108" s="76" customFormat="1" ht="346" customHeight="1" spans="1:3">
+    <row r="108" s="74" customFormat="1" ht="346" customHeight="1" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="50" t="s">
         <v>176</v>
       </c>
       <c r="C108" s="50"/>
     </row>
-    <row r="109" s="76" customFormat="1" ht="205" customHeight="1" spans="1:3">
+    <row r="109" s="74" customFormat="1" ht="205" customHeight="1" spans="1:3">
       <c r="A109" s="36"/>
-      <c r="B109" s="88" t="s">
+      <c r="B109" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="88"/>
-    </row>
-    <row r="110" s="76" customFormat="1" ht="409" customHeight="1" spans="1:4">
-      <c r="A110" s="95" t="s">
+      <c r="C109" s="86"/>
+    </row>
+    <row r="110" s="74" customFormat="1" ht="409" customHeight="1" spans="1:4">
+      <c r="A110" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="88"/>
+      <c r="C110" s="86"/>
       <c r="D110"/>
     </row>
-    <row r="111" s="76" customFormat="1" ht="270" customHeight="1" spans="1:4">
-      <c r="A111" s="95"/>
-      <c r="B111" s="88" t="s">
+    <row r="111" s="74" customFormat="1" ht="270" customHeight="1" spans="1:4">
+      <c r="A111" s="93"/>
+      <c r="B111" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="88"/>
+      <c r="C111" s="86"/>
       <c r="D111"/>
     </row>
-    <row r="112" s="76" customFormat="1" ht="324" customHeight="1" spans="1:4">
-      <c r="A112" s="95"/>
-      <c r="B112" s="96" t="s">
+    <row r="112" s="74" customFormat="1" ht="324" customHeight="1" spans="1:4">
+      <c r="A112" s="93"/>
+      <c r="B112" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="96"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="52"/>
     </row>
-    <row r="113" s="76" customFormat="1" ht="363" customHeight="1" spans="1:3">
-      <c r="A113" s="95"/>
-      <c r="B113" s="97" t="s">
+    <row r="113" s="74" customFormat="1" ht="363" customHeight="1" spans="1:3">
+      <c r="A113" s="93"/>
+      <c r="B113" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="97"/>
-    </row>
-    <row r="114" s="76" customFormat="1" ht="267" customHeight="1" spans="1:3">
-      <c r="A114" s="95"/>
+      <c r="C113" s="95"/>
+    </row>
+    <row r="114" s="74" customFormat="1" ht="267" customHeight="1" spans="1:3">
+      <c r="A114" s="93"/>
       <c r="B114" s="50" t="s">
         <v>183</v>
       </c>
       <c r="C114" s="50"/>
     </row>
-    <row r="115" s="76" customFormat="1" ht="343" customHeight="1" spans="1:3">
-      <c r="A115" s="95"/>
-      <c r="B115" s="96" t="s">
+    <row r="115" s="74" customFormat="1" ht="343" customHeight="1" spans="1:3">
+      <c r="A115" s="93"/>
+      <c r="B115" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="96"/>
-    </row>
-    <row r="116" s="76" customFormat="1" ht="408" customHeight="1" spans="1:3">
-      <c r="A116" s="95"/>
-      <c r="B116" s="88" t="s">
+      <c r="C115" s="94"/>
+    </row>
+    <row r="116" s="74" customFormat="1" ht="408" customHeight="1" spans="1:3">
+      <c r="A116" s="93"/>
+      <c r="B116" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="88"/>
-    </row>
-    <row r="117" s="76" customFormat="1" ht="14" customHeight="1" spans="1:3">
-      <c r="A117" s="95"/>
-      <c r="B117" s="88" t="s">
+      <c r="C116" s="86"/>
+    </row>
+    <row r="117" s="74" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A117" s="93"/>
+      <c r="B117" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="88"/>
-    </row>
-    <row r="118" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A118" s="95"/>
-      <c r="B118" s="88" t="s">
+      <c r="C117" s="86"/>
+    </row>
+    <row r="118" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A118" s="93"/>
+      <c r="B118" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="88"/>
-    </row>
-    <row r="119" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A119" s="98" t="s">
+      <c r="C118" s="86"/>
+    </row>
+    <row r="119" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A119" s="96" t="s">
         <v>188</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -34524,52 +34664,52 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" s="76" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A120" s="98"/>
+    <row r="120" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A120" s="96"/>
       <c r="B120" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C120" s="77" t="s">
+      <c r="C120" s="75" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" s="76" customFormat="1" ht="207" customHeight="1" spans="1:3">
-      <c r="A121" s="99"/>
+    <row r="121" s="74" customFormat="1" ht="207" customHeight="1" spans="1:3">
+      <c r="A121" s="97"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" s="76" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A122" s="99"/>
+    <row r="122" s="74" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A122" s="97"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="123" s="76" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A123" s="99"/>
+    <row r="123" s="74" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A123" s="97"/>
       <c r="B123" s="4"/>
       <c r="C123" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="124" s="76" customFormat="1" ht="102" spans="1:3">
-      <c r="A124" s="99"/>
+    <row r="124" s="74" customFormat="1" ht="102" spans="1:3">
+      <c r="A124" s="97"/>
       <c r="B124" s="4"/>
       <c r="C124" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="125" s="76" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A125" s="99"/>
+    <row r="125" s="74" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A125" s="97"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="126" s="76" customFormat="1" ht="102" spans="1:3">
-      <c r="A126" s="99"/>
+    <row r="126" s="74" customFormat="1" ht="102" spans="1:3">
+      <c r="A126" s="97"/>
       <c r="B126" s="4" t="s">
         <v>198</v>
       </c>
@@ -34577,43 +34717,43 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" s="76" customFormat="1" ht="51" spans="1:3">
-      <c r="A127" s="99"/>
+    <row r="127" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A127" s="97"/>
       <c r="B127" s="4"/>
       <c r="C127" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" s="76" customFormat="1" ht="216.75" spans="1:3">
-      <c r="A128" s="99"/>
+    <row r="128" s="74" customFormat="1" ht="216.75" spans="1:3">
+      <c r="A128" s="97"/>
       <c r="B128" s="4"/>
       <c r="C128" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="129" s="76" customFormat="1" ht="267.75" spans="1:3">
-      <c r="A129" s="99"/>
+    <row r="129" s="74" customFormat="1" ht="267.75" spans="1:3">
+      <c r="A129" s="97"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" s="76" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A130" s="99"/>
+    <row r="130" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A130" s="97"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="131" s="76" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A131" s="99"/>
+    <row r="131" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A131" s="97"/>
       <c r="B131" s="4"/>
       <c r="C131" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="132" s="76" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A132" s="99"/>
+    <row r="132" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A132" s="97"/>
       <c r="B132" s="4" t="s">
         <v>205</v>
       </c>
@@ -34621,262 +34761,262 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" s="76" customFormat="1" ht="51" spans="1:3">
-      <c r="A133" s="99"/>
+    <row r="133" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A133" s="97"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="134" s="76" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A134" s="99"/>
+    <row r="134" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A134" s="97"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="100" t="s">
+      <c r="C134" s="98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="135" s="76" customFormat="1" ht="51" spans="1:3">
-      <c r="A135" s="99"/>
+    <row r="135" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A135" s="97"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="100" t="s">
+      <c r="C135" s="98" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" s="76" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A136" s="99"/>
+    <row r="136" s="74" customFormat="1" ht="76.5" spans="1:3">
+      <c r="A136" s="97"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="100" t="s">
+      <c r="C136" s="98" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" s="76" customFormat="1" ht="204" spans="1:3">
-      <c r="A137" s="99"/>
+    <row r="137" s="74" customFormat="1" ht="204" spans="1:3">
+      <c r="A137" s="97"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="100" t="s">
+      <c r="C137" s="98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" s="76" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A138" s="99"/>
+    <row r="138" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A138" s="97"/>
       <c r="B138" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="101" t="s">
+      <c r="C138" s="99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" s="76" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A139" s="99"/>
+    <row r="139" s="74" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A139" s="97"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="77" t="s">
+      <c r="C139" s="75" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" s="76" customFormat="1" ht="229.5" spans="1:3">
-      <c r="A140" s="99"/>
+    <row r="140" s="74" customFormat="1" ht="229.5" spans="1:3">
+      <c r="A140" s="97"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="100" t="s">
+      <c r="C140" s="98" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" s="76" customFormat="1" ht="242.25" spans="1:3">
-      <c r="A141" s="99"/>
+    <row r="141" s="74" customFormat="1" ht="242.25" spans="1:3">
+      <c r="A141" s="97"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="100" t="s">
+      <c r="C141" s="98" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" s="76" customFormat="1" ht="178.5" spans="1:3">
-      <c r="A142" s="99"/>
+    <row r="142" s="74" customFormat="1" ht="178.5" spans="1:3">
+      <c r="A142" s="97"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="100" t="s">
+      <c r="C142" s="98" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" s="76" customFormat="1" ht="204" spans="1:3">
-      <c r="A143" s="99"/>
+    <row r="143" s="74" customFormat="1" ht="204" spans="1:3">
+      <c r="A143" s="97"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="100" t="s">
+      <c r="C143" s="98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="144" s="76" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A144" s="99"/>
+    <row r="144" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A144" s="97"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="100" t="s">
+      <c r="C144" s="98" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="145" s="76" customFormat="1" ht="280.5" spans="1:3">
-      <c r="A145" s="99"/>
+    <row r="145" s="74" customFormat="1" ht="280.5" spans="1:3">
+      <c r="A145" s="97"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="100" t="s">
+      <c r="C145" s="98" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A146" s="99"/>
+    <row r="146" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A146" s="97"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="147" s="76" customFormat="1" ht="114.75" spans="1:3">
-      <c r="A147" s="99"/>
+    <row r="147" s="74" customFormat="1" ht="114.75" spans="1:3">
+      <c r="A147" s="97"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="100" t="s">
+      <c r="C147" s="98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" s="76" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A148" s="99"/>
+    <row r="148" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A148" s="97"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="100" t="s">
+      <c r="C148" s="98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="149" s="76" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A149" s="99"/>
+    <row r="149" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A149" s="97"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="100" t="s">
+      <c r="C149" s="98" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="150" s="76" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A150" s="99"/>
+    <row r="150" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A150" s="97"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="100" t="s">
+      <c r="C150" s="98" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="151" s="76" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A151" s="99"/>
+    <row r="151" s="74" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A151" s="97"/>
       <c r="B151" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C151" s="100"/>
-    </row>
-    <row r="152" s="76" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A152" s="99"/>
+      <c r="C151" s="98"/>
+    </row>
+    <row r="152" s="74" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A152" s="97"/>
       <c r="B152" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="99" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="153" s="76" customFormat="1" ht="127.5" spans="1:3">
-      <c r="A153" s="99"/>
+    <row r="153" s="74" customFormat="1" ht="127.5" spans="1:3">
+      <c r="A153" s="97"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="100" t="s">
+      <c r="C153" s="98" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="154" s="76" customFormat="1" ht="318.75" spans="1:3">
-      <c r="A154" s="99"/>
+    <row r="154" s="74" customFormat="1" ht="318.75" spans="1:3">
+      <c r="A154" s="97"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="100" t="s">
+      <c r="C154" s="98" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="155" s="76" customFormat="1" ht="165.75" spans="1:3">
-      <c r="A155" s="99"/>
+    <row r="155" s="74" customFormat="1" ht="165.75" spans="1:3">
+      <c r="A155" s="97"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="100" t="s">
+      <c r="C155" s="98" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="156" s="76" customFormat="1" ht="255" spans="1:3">
-      <c r="A156" s="99"/>
+    <row r="156" s="74" customFormat="1" ht="255" spans="1:3">
+      <c r="A156" s="97"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="100" t="s">
+      <c r="C156" s="98" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="157" s="76" customFormat="1" ht="204" spans="1:3">
-      <c r="A157" s="99"/>
+    <row r="157" s="74" customFormat="1" ht="204" spans="1:3">
+      <c r="A157" s="97"/>
       <c r="B157" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C157" s="100" t="s">
+      <c r="C157" s="98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="158" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A158" s="99"/>
+    <row r="158" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A158" s="97"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="100" t="s">
+      <c r="C158" s="98" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="159" s="76" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A159" s="99"/>
+    <row r="159" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A159" s="97"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="100" t="s">
+      <c r="C159" s="98" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="160" s="76" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A160" s="99"/>
+    <row r="160" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A160" s="97"/>
       <c r="B160" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C160" s="77" t="s">
+      <c r="C160" s="75" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="161" s="76" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A161" s="99"/>
+    <row r="161" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A161" s="97"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="100" t="s">
+      <c r="C161" s="98" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="162" s="76" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A162" s="99"/>
+    <row r="162" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A162" s="97"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="100" t="s">
+      <c r="C162" s="98" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="163" s="76" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A163" s="99"/>
+    <row r="163" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A163" s="97"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="100" t="s">
+      <c r="C163" s="98" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" s="76" customFormat="1" ht="51" spans="1:3">
-      <c r="A164" s="99"/>
+    <row r="164" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A164" s="97"/>
       <c r="B164" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="100" t="s">
+      <c r="C164" s="98" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="165" s="76" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A165" s="99"/>
+    <row r="165" s="74" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A165" s="97"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="100" t="s">
+      <c r="C165" s="98" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="166" s="76" customFormat="1" ht="63.75" spans="1:3">
-      <c r="A166" s="99"/>
+    <row r="166" s="74" customFormat="1" ht="63.75" spans="1:3">
+      <c r="A166" s="97"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="100" t="s">
+      <c r="C166" s="98" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" s="76" customFormat="1" ht="51" spans="1:3">
-      <c r="A167" s="99"/>
+    <row r="167" s="74" customFormat="1" ht="51" spans="1:3">
+      <c r="A167" s="97"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="100" t="s">
+      <c r="C167" s="98" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="168" s="76" customFormat="1" ht="51" spans="1:3">
+    <row r="168" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A168" s="36" t="s">
         <v>247</v>
       </c>
@@ -34885,7 +35025,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" s="76" customFormat="1" ht="51" spans="1:3">
+    <row r="169" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A169" s="36"/>
       <c r="B169" s="4" t="s">
         <v>249</v>
@@ -34894,7 +35034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="170" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A170" s="36"/>
       <c r="B170" s="4" t="s">
         <v>251</v>
@@ -34903,7 +35043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" s="76" customFormat="1" ht="51" spans="1:3">
+    <row r="171" s="74" customFormat="1" ht="63.75" spans="1:3">
       <c r="A171" s="36"/>
       <c r="B171" s="4" t="s">
         <v>253</v>
@@ -34912,7 +35052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" s="76" customFormat="1" ht="51" spans="1:3">
+    <row r="172" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A172" s="36"/>
       <c r="B172" s="4" t="s">
         <v>255</v>
@@ -34921,7 +35061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="173" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A173" s="36"/>
       <c r="B173" s="4" t="s">
         <v>257</v>
@@ -34930,7 +35070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="174" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A174" s="36"/>
       <c r="B174" s="4" t="s">
         <v>259</v>
@@ -34939,7 +35079,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="175" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A175" s="36"/>
       <c r="B175" s="4" t="s">
         <v>260</v>
@@ -34948,49 +35088,49 @@
         <v>261</v>
       </c>
     </row>
-    <row r="176" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="176" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A176" s="36"/>
       <c r="B176" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C176" s="42"/>
     </row>
-    <row r="177" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="177" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A177" s="36"/>
       <c r="B177" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C177" s="42"/>
     </row>
-    <row r="178" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="178" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A178" s="36"/>
       <c r="B178" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C178" s="42"/>
     </row>
-    <row r="179" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="179" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A179" s="36"/>
       <c r="B179" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C179" s="42"/>
     </row>
-    <row r="180" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="180" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A180" s="36"/>
       <c r="B180" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C180" s="42"/>
     </row>
-    <row r="181" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="181" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A181" s="36"/>
       <c r="B181" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C181" s="42"/>
     </row>
-    <row r="182" s="76" customFormat="1" ht="153" spans="1:3">
+    <row r="182" s="74" customFormat="1" ht="331.5" spans="1:3">
       <c r="A182" s="36"/>
       <c r="B182" s="4" t="s">
         <v>268</v>
@@ -34999,7 +35139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="183" s="76" customFormat="1" ht="76.5" spans="1:3">
+    <row r="183" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A183" s="36" t="s">
         <v>270</v>
       </c>
@@ -35010,7 +35150,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="184" s="76" customFormat="1" ht="114.75" spans="1:3">
+    <row r="184" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>273</v>
@@ -35019,7 +35159,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" s="76" customFormat="1" ht="114.75" spans="1:3">
+    <row r="185" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A185" s="36"/>
       <c r="B185" s="42" t="s">
         <v>275</v>
@@ -35028,7 +35168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" s="76" customFormat="1" ht="76.5" spans="1:3">
+    <row r="186" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A186" s="36"/>
       <c r="B186" s="42" t="s">
         <v>277</v>
@@ -35037,7 +35177,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" s="76" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A187" s="36" t="s">
         <v>279</v>
       </c>
@@ -35048,28 +35188,28 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" s="76" customFormat="1" ht="114.75" spans="1:3">
+    <row r="188" s="74" customFormat="1" ht="114.75" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="4"/>
       <c r="C188" s="65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" s="76" customFormat="1" ht="38.25" spans="1:3">
+    <row r="189" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A189" s="36"/>
       <c r="B189" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C189" s="65"/>
     </row>
-    <row r="190" s="76" customFormat="1" ht="51" spans="1:3">
+    <row r="190" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A190" s="36"/>
       <c r="B190" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C190" s="42"/>
     </row>
-    <row r="191" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="191" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A191" s="36"/>
       <c r="B191" s="42" t="s">
         <v>285</v>
@@ -35078,37 +35218,37 @@
         <v>286</v>
       </c>
     </row>
-    <row r="192" s="76" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="192" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A192" s="36"/>
       <c r="B192" s="42" t="s">
         <v>287</v>
       </c>
       <c r="C192" s="42"/>
     </row>
-    <row r="193" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="193" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A193" s="36"/>
       <c r="B193" s="42" t="s">
         <v>288</v>
       </c>
       <c r="C193" s="42"/>
     </row>
-    <row r="194" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="194" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C194" s="42"/>
     </row>
-    <row r="195" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="195" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A195" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="77"/>
-    </row>
-    <row r="196" s="76" customFormat="1" ht="38.25" spans="1:3">
+      <c r="C195" s="75"/>
+    </row>
+    <row r="196" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A196" s="36"/>
       <c r="B196" s="4" t="s">
         <v>292</v>
@@ -35117,140 +35257,140 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" s="76" customFormat="1" ht="76.5" spans="1:3">
+    <row r="197" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A197" s="36"/>
       <c r="B197" s="4"/>
       <c r="C197" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="198" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="198" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A198" s="36"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="77" t="s">
+      <c r="C198" s="75" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="199" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="199" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A199" s="36"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="77" t="s">
+      <c r="C199" s="75" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="200" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="200" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A200" s="36"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="77" t="s">
+      <c r="C200" s="75" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="201" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="201" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A201" s="36"/>
       <c r="B201" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C201" s="42"/>
     </row>
-    <row r="202" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="202" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A202" s="36"/>
       <c r="B202" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C202" s="42"/>
     </row>
-    <row r="203" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="203" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A203" s="36"/>
       <c r="B203" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C203" s="42"/>
     </row>
-    <row r="204" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="204" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A204" s="36"/>
       <c r="B204" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C204" s="42"/>
     </row>
-    <row r="205" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="205" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A205" s="36"/>
       <c r="B205" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C205" s="42"/>
     </row>
-    <row r="206" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="206" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A206" s="36"/>
       <c r="B206" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C206" s="42"/>
     </row>
-    <row r="207" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="207" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A207" s="36"/>
       <c r="B207" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C207" s="42"/>
     </row>
-    <row r="208" s="76" customFormat="1" ht="12.75" spans="1:3">
+    <row r="208" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A208" s="36"/>
       <c r="B208" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C208" s="42"/>
     </row>
-    <row r="209" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="209" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A209" s="36"/>
       <c r="B209" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C209" s="42"/>
     </row>
-    <row r="210" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="210" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A210" s="36"/>
       <c r="B210" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C210" s="42"/>
     </row>
-    <row r="211" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="211" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A211" s="36"/>
       <c r="B211" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C211" s="42"/>
     </row>
-    <row r="212" s="76" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="212" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A212" s="36"/>
       <c r="B212" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C212" s="42"/>
     </row>
-    <row r="213" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="213" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A213" s="36"/>
       <c r="B213" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C213" s="42"/>
     </row>
-    <row r="214" s="76" customFormat="1" ht="38.25" spans="1:3">
+    <row r="214" s="74" customFormat="1" ht="38.25" spans="1:3">
       <c r="A214" s="36"/>
       <c r="B214" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C214" s="42"/>
     </row>
-    <row r="215" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="215" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A215" s="36"/>
       <c r="B215" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C215" s="42"/>
     </row>
-    <row r="216" s="76" customFormat="1" ht="25.5" spans="1:3">
+    <row r="216" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A216" s="36"/>
       <c r="B216" s="4" t="s">
         <v>313</v>
@@ -35427,19 +35567,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="24" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.8" style="71" customWidth="1"/>
-    <col min="2" max="2" width="14.3" style="72" customWidth="1"/>
+    <col min="1" max="1" width="20.8" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.3" style="71" customWidth="1"/>
     <col min="3" max="3" width="112.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="70" customFormat="1" ht="30.75" spans="1:5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" ht="54" spans="1:2">
       <c r="A2" s="54" t="s">
@@ -35449,21 +35589,21 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="12.75" spans="1:1">
       <c r="A3" s="54"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="30" customHeight="1" spans="1:1">
       <c r="A4" s="54"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" ht="12.75" spans="1:1">
       <c r="A5" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="12.75" spans="1:1">
       <c r="A6" s="54"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="57" customHeight="1" spans="1:1">
       <c r="A7" s="54"/>
     </row>
     <row r="8" ht="72" spans="1:1">
@@ -35602,7 +35742,7 @@
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="107" t="s">
         <v>338</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -36933,7 +37073,7 @@
       <c r="A3" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="103" t="s">
         <v>551</v>
       </c>
     </row>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -6759,6 +6759,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - A stream transformation produces a </t>
     </r>
     <r>
@@ -6854,6 +6861,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In Java Parallel Streams, </t>
     </r>
     <r>
@@ -7529,13 +7543,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Reading and Writing Bytes.
  - The InputStream class has an abstract method: </t>
     </r>
@@ -7624,7 +7631,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:  Both the read and write methods block until the byte is actually read or written. This means that if the input stream cannot immediately be accessed (usually because of a busy network connection), the currentthread blocks. This gives other threads the chance to do useful work while the method is waiting for the input stream to become available again.
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Both the read and write methods block until the byte is actually read or written</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This means that if the input stream cannot immediately be accessed (usually because of a busy network connection), the currentthread blocks. This gives other threads the chance to do useful work while the method is waiting for the input stream to become available again.
  - If an application opens too many input/output streams without closing them, system resources can become depleted. Closing an output stream also </t>
     </r>
     <r>
@@ -28778,9 +28807,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
@@ -29037,14 +29066,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -29052,11 +29073,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29069,10 +29097,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29090,9 +29148,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29106,54 +29172,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29271,7 +29300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29295,7 +29342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29307,55 +29366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29373,7 +29390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29391,7 +29414,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29403,43 +29468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29501,21 +29530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -29525,26 +29539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29566,6 +29565,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -29575,125 +29583,146 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29702,22 +29731,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33750,8 +33779,8 @@
   <sheetPr/>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -35561,7 +35590,7 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Java-Spring/Java-Spring-Documents.xlsx
+++ b/Java-Spring/Java-Spring-Documents.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1146">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -7543,8 +7543,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Reading and Writing Bytes.
- - The InputStream class has an abstract method: </t>
+      <t xml:space="preserve"> - In Java API, abstract classes </t>
     </r>
     <r>
       <rPr>
@@ -7555,18 +7554,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>abstract int read()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. This method reads one byte and returns the byte that was read, or -1 if it encounters the end of the input source. The InputStream class also has nonabstract methods to read an array of bytes or to skip a number of bytes.
- - Similarly, the OutputStream class defines the abstract method: </t>
+      <t>InputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -7577,18 +7575,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>abstract void write(int b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Which writes one byte or array of bytes to an output location.
- - The transferTo method </t>
+      <t>OutputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (byte values) are the basis for a hierachy of I/O.
+ - Byte-oriented input/output streams are </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inconvenient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(bất lợi) for processing information stored in Unicode(multiples bytes per character) =&gt; abstract </t>
     </r>
     <r>
       <rPr>
@@ -7599,88 +7618,274 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>transfers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all bytes from an input stream to an output stream
+      <t>Reader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Writer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> classes for processing Unicode characters, read and write operations that based on 2 byte char values (UTF-16).
+ - InputStream has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() abstract method, read one byte and returns the byte that was read or -1 if it encounter the end of the input source. Concrete input stream classes overrides read method to provide usefil functionality: FileInputStream, Systen.in,... And nonabstract methods read an array of bytes.
+ - Similarly the OutputStream class have </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() abstract method. The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transferTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() transfer all bytes from an input stream to an output stream.
+ - Both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> until the byte is actually read or wirtten =&gt; If the input stream cannot immediately be accessed (busy network connection), the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current thread blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This gives other threads the chance to do useful work while the method is waiting for the input stream to become available again.
  - </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blocking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  </t>
-    </r>
-    <r>
-      <rPr>
         <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Both the read and write methods block until the byte is actually read or written</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. This means that if the input stream cannot immediately be accessed (usually because of a busy network connection), the currentthread blocks. This gives other threads the chance to do useful work while the method is waiting for the input stream to become available again.
- - If an application opens too many input/output streams without closing them, system resources can become depleted. Closing an output stream also </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flushes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(xả) the buffer used for the output stream: Any bytes that were temporarily placed in a buffer so that they could be delivered as a larger packet are sent off. In particular, if you do not close a file, the last packet of bytes might never be delivered. You can also manually flush the output with the flush method.</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() method frees up the OS resources. Closing output stream also flushes the buffer used for the output stream: 
+   + Any bytes that were temporarily placed in a buffer so that they could be delivered as a larger packet are sent off. 
+   + If you do not close a file, the last packet of bytes might never be delivered.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - When saving data, although binary format I/O is fast and efficient, it is not easily readable by humans (text format).
+ - If the writer is set to autoflush mode, all characters in the buffer are sent to their destination whenever println is called. (Print writers are always buffered.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Character Encodings
+ - Input and Output streams are for sequences of bytes, but in case work with texts(sequences of characters) =&gt; characters are encoded into bytes.
+ - Java use Unicode standard for characters. Each character or "code point" has a 21-bit integer number.
+ - The most common encoding is UTF-8, which encodes each Unicode point into sequence 1-4 bytes.
+ - UTF-16, which encodes each Unicode code point into 1-2 16-bit values.
+ - UTF encodings, there are </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partial encodings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(encoding 1 phần)  </t>
     </r>
   </si>
   <si>
     <t>Reading and Writing Binary Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text format is convenient is humanly readable, but not as efficient as transmitting data in binary format
+ - Efficiency in Storage and Transmission:
+  + Compact(gọn nhẹ) Representation: uses fewer bits compared to text for same information.
+  + Reduced bandwidth: binary takes up less space -&gt; faster transmission over networks with lower bandwidth consumption. 
+ - Speed of Processing:
+  + Computers inherently(bản chất) process data in binary because they are built using logic gates that operate on binary states (on/off).
+ - Accuracy(Sự chính xác):
+  + No Rounding(làm tròn) Errors: Binary representation of numeric data preserves precision, while text formats (like floating-point numbers in text) might lose precision during parsing.
+  + Exact Values: Binary transmission ensures that every bit of the data is received and interpreted exactly as intended.
+</t>
+  </si>
+  <si>
+    <t>The DataInput and DataOutput Interfaces:
+ - The DataOutput interface defines the following methods for writing a number, a character, a boolean value, or a string in binary format: integer as a 4-byte, double as an 8-byte.
+ - The resulting output is not human-readable, but it will use the same space for each value of a given type and reading it back in will be faster than parsing text.</t>
   </si>
   <si>
     <t xml:space="preserve">Object Input/Output Streams and Serialization </t>
@@ -28807,9 +29012,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
@@ -29067,13 +29272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -29088,11 +29286,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29104,16 +29362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29134,55 +29385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29306,7 +29511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29318,43 +29559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29372,7 +29577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29384,7 +29607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29396,31 +29643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29438,37 +29673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29542,8 +29747,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29559,26 +29764,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29612,141 +29797,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -31263,276 +31468,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="23"/>
       <c r="B2" s="26" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="23"/>
       <c r="B5" s="26" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="26" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="26" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="26" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" s="26" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" s="26" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23"/>
       <c r="B15" s="26" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23"/>
       <c r="B16" s="26" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="23"/>
       <c r="B18" s="26" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23"/>
       <c r="B19" s="26" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23"/>
       <c r="B20" s="27" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="28"/>
       <c r="B22" s="26" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="28"/>
       <c r="B23" s="26" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="28"/>
       <c r="B24" s="26" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="28"/>
       <c r="B25" s="26" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="28"/>
       <c r="B26" s="26" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28"/>
       <c r="B27" s="26" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28"/>
       <c r="B28" s="27" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23"/>
       <c r="B30" s="26" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23"/>
       <c r="B31" s="26" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23"/>
       <c r="B33" s="26" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="28" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="23"/>
       <c r="B35" s="6" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="23"/>
       <c r="B36" s="6" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="23"/>
       <c r="B39" s="6" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="23"/>
       <c r="B40" s="6" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="23"/>
       <c r="B41" s="6" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23"/>
       <c r="B42" s="6" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31541,10 +31746,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -31586,26 +31791,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -31631,26 +31836,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -31658,31 +31863,31 @@
         <v>188</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31690,37 +31895,37 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -31750,110 +31955,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -31889,16 +32094,16 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -31908,10 +32113,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -31921,10 +32126,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -31934,10 +32139,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -31947,10 +32152,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -31960,10 +32165,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -31973,10 +32178,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -31986,10 +32191,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -31999,10 +32204,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -32012,10 +32217,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -32025,10 +32230,10 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -32038,10 +32243,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -32051,10 +32256,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -32064,10 +32269,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -32077,10 +32282,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -32090,10 +32295,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="D16" s="10" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -32103,10 +32308,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="D17" s="10" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -32116,10 +32321,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="D18" s="10" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -32129,10 +32334,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -32142,10 +32347,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="D20" s="10" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -32154,13 +32359,13 @@
     <row r="21" ht="72" customHeight="1" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -32170,13 +32375,13 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -32187,10 +32392,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -32201,10 +32406,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -32215,10 +32420,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -32229,10 +32434,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -32242,10 +32447,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -32255,10 +32460,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -32268,10 +32473,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -32280,13 +32485,13 @@
     <row r="30" ht="105.75" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -32296,10 +32501,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -32309,13 +32514,13 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -32326,10 +32531,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -32340,10 +32545,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -32354,10 +32559,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -32366,7 +32571,7 @@
     <row r="36" ht="24" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -32375,13 +32580,13 @@
     <row r="37" ht="132" customHeight="1" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -32391,13 +32596,13 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -32407,10 +32612,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="D39" s="4" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -32420,10 +32625,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="D40" s="4" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -32433,10 +32638,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="D41" s="4" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -32446,10 +32651,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="4" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -32459,13 +32664,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -32475,10 +32680,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="D44" s="4" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -32488,13 +32693,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -32504,10 +32709,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -32517,10 +32722,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -32530,10 +32735,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -32542,13 +32747,13 @@
     <row r="49" ht="248.25" customHeight="1" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -32558,13 +32763,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -32574,10 +32779,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="D51" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -32587,10 +32792,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -32600,10 +32805,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -32613,10 +32818,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -32626,7 +32831,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="D55" s="4" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -32636,10 +32841,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="D56" s="4" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -32649,10 +32854,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="D57" s="4" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -32662,10 +32867,10 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -32675,7 +32880,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="D59" s="4" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -32685,7 +32890,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="D60" s="4" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -32695,13 +32900,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -32711,7 +32916,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -32720,13 +32925,13 @@
     <row r="63" ht="34.5" customHeight="1" spans="1:8">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -32736,13 +32941,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -32752,10 +32957,10 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="D65" s="4" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -32765,10 +32970,10 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="D66" s="4" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -32778,10 +32983,10 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="D67" s="4" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -32791,10 +32996,10 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="D68" s="4" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -32804,10 +33009,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="D69" s="4" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -32817,10 +33022,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="D70" s="4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -32830,10 +33035,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="D71" s="4" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -32842,392 +33047,392 @@
     <row r="72" ht="51" spans="1:5">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="73" ht="25.5" spans="1:5">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="D73" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="74" ht="25.5" spans="1:5">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="D74" s="4" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="75" ht="127.5" spans="1:5">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:5">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:5">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="D77" s="4" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:5">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="D78" s="4" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="79" ht="25.5" spans="1:5">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="D79" s="4" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="80" ht="38.25" spans="1:5">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="D80" s="4" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="81" ht="280.5" spans="1:5">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="D81" s="4" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="82" ht="255" spans="1:5">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="D82" s="4" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="83" ht="306" spans="1:5">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:5">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="85" ht="38.25" spans="1:5">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="D85" s="4" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="86" ht="51" spans="1:5">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="D86" s="4" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:5">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="D87" s="4" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="88" ht="38.25" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="D88" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="89" ht="51" spans="1:5">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="D89" s="4" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="90" ht="38.25" spans="1:5">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="91" ht="51" spans="1:5">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="D91" s="4" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="92" ht="178.5" spans="1:5">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="D92" s="4" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="93" ht="51" spans="1:5">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="D93" s="4" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="94" ht="63.75" spans="1:5">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="D94" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="95" ht="12.75" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="96" ht="76.5" spans="1:5">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="D96" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="97" ht="229.5" spans="1:5">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="D97" s="4" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="98" ht="51" spans="1:5">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="D98" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="99" ht="87.75" customHeight="1" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="100" ht="89.25" spans="1:5">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="D100" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:5">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="D101" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="102" ht="76.5" spans="1:5">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="D102" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="103" ht="63.75" spans="1:5">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="D103" s="4" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="104" ht="63.75" spans="1:5">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="D104" s="4" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="105" ht="73.5" customHeight="1" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="106" ht="63.75" spans="1:5">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="D106" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="107" ht="51" spans="1:5">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="D107" s="4" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:5">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="D108" s="4" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="109" ht="51" spans="1:5">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="D109" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
@@ -33241,278 +33446,278 @@
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="112" ht="76.5" spans="1:5">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="D112" s="4" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="113" ht="51" spans="1:5">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="D113" s="4" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:5">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="D114" s="4" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="D115" s="5" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="116" ht="89.25" spans="1:5">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="D116" s="4" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="117" ht="51" spans="1:5">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="D117" s="4" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="118" ht="25.5" spans="1:5">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="D118" s="4" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="119" ht="51" spans="1:5">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="D119" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="125" ht="54" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="140" ht="36" spans="1:3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="141" ht="12.75" spans="1:4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="142" ht="25.5" spans="1:4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="D142" s="4" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="143" ht="12.75" spans="1:4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="D143" s="4" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -33520,17 +33725,17 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -33538,37 +33743,37 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="150" ht="36" spans="1:4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -33576,51 +33781,51 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="154" ht="12.75" spans="1:4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="155" ht="12.75" spans="1:4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="D155" s="5" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="156" ht="12.75" spans="1:4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="D156" s="5" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="157" ht="12.75" spans="1:4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="D157" s="5" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="158" ht="12.75" spans="1:4">
@@ -33632,7 +33837,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -33640,28 +33845,28 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" ht="12.75" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="162" ht="12.75" spans="1:4">
       <c r="A162" s="7"/>
       <c r="D162" s="5" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -33777,10 +33982,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -35179,7 +35384,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="184" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="184" s="74" customFormat="1" ht="117" customHeight="1" spans="1:3">
       <c r="A184" s="36"/>
       <c r="B184" s="42" t="s">
         <v>273</v>
@@ -35206,7 +35411,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="187" s="74" customFormat="1" ht="45" customHeight="1" spans="1:3">
       <c r="A187" s="36" t="s">
         <v>279</v>
       </c>
@@ -35217,130 +35422,130 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" s="74" customFormat="1" ht="114.75" spans="1:3">
+    <row r="188" s="74" customFormat="1" ht="147" customHeight="1" spans="1:3">
       <c r="A188" s="36"/>
       <c r="B188" s="4"/>
       <c r="C188" s="65" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="189" s="74" customFormat="1" ht="34" customHeight="1" spans="1:3">
       <c r="A189" s="36"/>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="4"/>
+      <c r="C189" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C189" s="65"/>
-    </row>
-    <row r="190" s="74" customFormat="1" ht="51" spans="1:3">
+    </row>
+    <row r="190" s="74" customFormat="1" ht="88" customHeight="1" spans="1:3">
       <c r="A190" s="36"/>
-      <c r="B190" s="42" t="s">
+      <c r="B190" s="4"/>
+      <c r="C190" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="C190" s="42"/>
-    </row>
-    <row r="191" s="74" customFormat="1" ht="25.5" spans="1:3">
+    </row>
+    <row r="191" s="74" customFormat="1" ht="125" customHeight="1" spans="1:3">
       <c r="A191" s="36"/>
-      <c r="B191" s="42" t="s">
+      <c r="B191" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C191" s="65" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
+    <row r="192" s="74" customFormat="1" ht="88" customHeight="1" spans="1:3">
       <c r="A192" s="36"/>
-      <c r="B192" s="42" t="s">
+      <c r="B192" s="4"/>
+      <c r="C192" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="C192" s="42"/>
     </row>
     <row r="193" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A193" s="36"/>
-      <c r="B193" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C193" s="42"/>
-    </row>
-    <row r="194" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="B193" s="4"/>
+      <c r="C193" s="65"/>
+    </row>
+    <row r="194" s="74" customFormat="1" ht="51" spans="1:3">
       <c r="A194" s="36"/>
       <c r="B194" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C194" s="42"/>
+    </row>
+    <row r="195" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A195" s="36"/>
+      <c r="B195" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C194" s="42"/>
-    </row>
-    <row r="195" s="74" customFormat="1" ht="25.5" spans="1:3">
-      <c r="A195" s="36" t="s">
+      <c r="C195" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B195" s="4" t="s">
+    </row>
+    <row r="196" s="74" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A196" s="36"/>
+      <c r="B196" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="75"/>
-    </row>
-    <row r="196" s="74" customFormat="1" ht="38.25" spans="1:3">
-      <c r="A196" s="36"/>
-      <c r="B196" s="4" t="s">
+      <c r="C196" s="42"/>
+    </row>
+    <row r="197" s="74" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A197" s="36"/>
+      <c r="B197" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C196" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="197" s="74" customFormat="1" ht="76.5" spans="1:3">
-      <c r="A197" s="36"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="65" t="s">
-        <v>294</v>
-      </c>
+      <c r="C197" s="42"/>
     </row>
     <row r="198" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A198" s="36"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="75" t="s">
+      <c r="B198" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C198" s="42"/>
+    </row>
+    <row r="199" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A199" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="199" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A199" s="36"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="75" t="s">
+      <c r="C199" s="75"/>
+    </row>
+    <row r="200" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A200" s="36"/>
+      <c r="B200" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="200" s="74" customFormat="1" ht="12.75" spans="1:3">
-      <c r="A200" s="36"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="75" t="s">
+      <c r="C200" s="42" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="201" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="201" s="74" customFormat="1" ht="76.5" spans="1:3">
       <c r="A201" s="36"/>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="4"/>
+      <c r="C201" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="C201" s="42"/>
-    </row>
-    <row r="202" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    </row>
+    <row r="202" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A202" s="36"/>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="4"/>
+      <c r="C202" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="C202" s="42"/>
-    </row>
-    <row r="203" s="74" customFormat="1" ht="25.5" spans="1:3">
+    </row>
+    <row r="203" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A203" s="36"/>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="4"/>
+      <c r="C203" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="C203" s="42"/>
-    </row>
-    <row r="204" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    </row>
+    <row r="204" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A204" s="36"/>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="4"/>
+      <c r="C204" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="C204" s="42"/>
     </row>
     <row r="205" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A205" s="36"/>
@@ -35349,7 +35554,7 @@
       </c>
       <c r="C205" s="42"/>
     </row>
-    <row r="206" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="206" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A206" s="36"/>
       <c r="B206" s="4" t="s">
         <v>303</v>
@@ -35363,14 +35568,14 @@
       </c>
       <c r="C207" s="42"/>
     </row>
-    <row r="208" s="74" customFormat="1" ht="12.75" spans="1:3">
+    <row r="208" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A208" s="36"/>
       <c r="B208" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C208" s="42"/>
     </row>
-    <row r="209" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="209" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A209" s="36"/>
       <c r="B209" s="4" t="s">
         <v>306</v>
@@ -35391,7 +35596,7 @@
       </c>
       <c r="C211" s="42"/>
     </row>
-    <row r="212" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="212" s="74" customFormat="1" ht="12.75" spans="1:3">
       <c r="A212" s="36"/>
       <c r="B212" s="4" t="s">
         <v>309</v>
@@ -35405,7 +35610,7 @@
       </c>
       <c r="C213" s="42"/>
     </row>
-    <row r="214" s="74" customFormat="1" ht="38.25" spans="1:3">
+    <row r="214" s="74" customFormat="1" ht="25.5" spans="1:3">
       <c r="A214" s="36"/>
       <c r="B214" s="4" t="s">
         <v>311</v>
@@ -35419,15 +35624,43 @@
       </c>
       <c r="C215" s="42"/>
     </row>
-    <row r="216" s="74" customFormat="1" ht="25.5" spans="1:3">
+    <row r="216" s="74" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A216" s="36"/>
       <c r="B216" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C216" s="42"/>
     </row>
+    <row r="217" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A217" s="36"/>
+      <c r="B217" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C217" s="42"/>
+    </row>
+    <row r="218" s="74" customFormat="1" ht="38.25" spans="1:3">
+      <c r="A218" s="36"/>
+      <c r="B218" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C218" s="42"/>
+    </row>
+    <row r="219" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A219" s="36"/>
+      <c r="B219" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C219" s="42"/>
+    </row>
+    <row r="220" s="74" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A220" s="36"/>
+      <c r="B220" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="145">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -35560,8 +35793,8 @@
     <mergeCell ref="A119:A167"/>
     <mergeCell ref="A168:A182"/>
     <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A195:A216"/>
+    <mergeCell ref="A187:A198"/>
+    <mergeCell ref="A199:A220"/>
     <mergeCell ref="B120:B125"/>
     <mergeCell ref="B126:B131"/>
     <mergeCell ref="B132:B137"/>
@@ -35570,8 +35803,9 @@
     <mergeCell ref="B157:B159"/>
     <mergeCell ref="B160:B163"/>
     <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B196:B200"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="B200:B204"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A119:A167" r:id="rId2" display="Concurrency"/>
@@ -35603,7 +35837,7 @@
   <sheetData>
     <row r="1" s="70" customFormat="1" ht="30.75" spans="1:5">
       <c r="A1" s="72" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="72"/>
@@ -35612,10 +35846,10 @@
     </row>
     <row r="2" ht="54" spans="1:2">
       <c r="A2" s="54" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:1">
@@ -35626,7 +35860,7 @@
     </row>
     <row r="5" ht="12.75" spans="1:1">
       <c r="A5" s="54" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="1:1">
@@ -35637,62 +35871,62 @@
     </row>
     <row r="8" ht="72" spans="1:1">
       <c r="A8" s="54" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" ht="48" spans="1:1">
       <c r="A9" s="54" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" ht="48" spans="1:1">
       <c r="A10" s="54" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:1">
       <c r="A11" s="54" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:1">
       <c r="A12" s="54" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" ht="72" spans="1:1">
       <c r="A13" s="54" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" ht="96" spans="1:1">
       <c r="A14" s="54" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" ht="48" spans="1:1">
       <c r="A15" s="54" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:1">
       <c r="A16" s="54" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" ht="48" spans="1:1">
       <c r="A17" s="54" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" ht="72" spans="1:1">
       <c r="A18" s="54" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:1">
       <c r="A19" s="54" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -35732,57 +35966,57 @@
   <sheetData>
     <row r="1" s="58" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A2" s="54" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A3" s="55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
     </row>
     <row r="4" s="58" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
     </row>
     <row r="5" s="58" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A5" s="107" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
       <c r="A6" s="62" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -35790,7 +36024,7 @@
     </row>
     <row r="7" s="58" customFormat="1" ht="9.75" customHeight="1" spans="1:4">
       <c r="A7" s="63" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -35806,141 +36040,141 @@
         <v>23</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="54" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
     <row r="11" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="54" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
     <row r="12" s="58" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
       <c r="A12" s="54" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
       <c r="K12" s="68" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" s="58" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="54"/>
       <c r="B13" s="43" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" s="58" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" s="58" customFormat="1" ht="12.75" customHeight="1" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" s="58" customFormat="1" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" s="58" customFormat="1" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18" s="58" customFormat="1" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="153" spans="1:4">
       <c r="A19" s="66" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A20" s="66"/>
       <c r="B20" s="59" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D20" s="67"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A21" s="66"/>
       <c r="B21" s="59" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D21" s="67"/>
     </row>
     <row r="22" s="58" customFormat="1" ht="12.75" spans="1:4">
       <c r="A22" s="66"/>
       <c r="B22" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D22" s="67"/>
     </row>
@@ -35954,96 +36188,96 @@
         <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" s="58" customFormat="1" ht="140.25" spans="1:4">
       <c r="A25" s="57"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" s="58" customFormat="1" ht="293.25" spans="1:4">
       <c r="A26" s="57"/>
       <c r="B26" s="59" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A27" s="57"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A28" s="57"/>
       <c r="B28" s="59" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A29" s="57"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A30" s="57"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" s="58" customFormat="1" ht="114.75" spans="1:4">
       <c r="A31" s="57"/>
       <c r="B31" s="59" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A32" s="57"/>
       <c r="B32" s="59"/>
       <c r="C32" s="67" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D32" s="65"/>
     </row>
@@ -36051,7 +36285,7 @@
       <c r="A33" s="57"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -36059,7 +36293,7 @@
       <c r="A34" s="57"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D34" s="65"/>
     </row>
@@ -36067,39 +36301,39 @@
       <c r="A35" s="57"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D35" s="65"/>
     </row>
     <row r="36" s="58" customFormat="1" ht="127.5" spans="1:4">
       <c r="A36" s="57"/>
       <c r="B36" s="59" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A38" s="57"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D38" s="65"/>
     </row>
@@ -36107,17 +36341,17 @@
       <c r="A39" s="57"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D39" s="65"/>
     </row>
     <row r="40" s="58" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A40" s="57"/>
       <c r="B40" s="59" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D40" s="65"/>
     </row>
@@ -36125,30 +36359,30 @@
       <c r="A41" s="57"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A42" s="57"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A43" s="57"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" s="58" customFormat="1" ht="38.25" spans="1:4">
@@ -36156,58 +36390,58 @@
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="65" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A45" s="57"/>
       <c r="B45" s="59" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" s="58" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A46" s="57"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A47" s="57"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" s="58" customFormat="1" ht="51" spans="1:4">
       <c r="A48" s="57"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" s="58" customFormat="1" ht="25.5" spans="1:4">
       <c r="A49" s="57"/>
       <c r="B49" s="59" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D49" s="65"/>
     </row>
@@ -36215,47 +36449,47 @@
       <c r="A50" s="57"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D50" s="65"/>
     </row>
     <row r="51" s="58" customFormat="1" ht="76.5" spans="1:4">
       <c r="A51" s="57"/>
       <c r="B51" s="59" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" s="58" customFormat="1" ht="102" spans="1:4">
       <c r="A52" s="57"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" s="58" customFormat="1" ht="63.75" spans="1:4">
       <c r="A53" s="57"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" s="58" customFormat="1" ht="38.25" spans="1:4">
       <c r="A54" s="57"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59" t